--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -8781,7 +8781,9 @@
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr"/>
-      <c r="N159" t="inlineStr"/>
+      <c r="N159" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -8881,7 +8883,9 @@
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
       <c r="M161" t="inlineStr"/>
-      <c r="N161" t="inlineStr"/>
+      <c r="N161" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -8985,7 +8989,9 @@
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
       <c r="M163" t="inlineStr"/>
-      <c r="N163" t="inlineStr"/>
+      <c r="N163" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -9039,7 +9045,9 @@
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr"/>
-      <c r="N164" t="inlineStr"/>
+      <c r="N164" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -9089,7 +9097,9 @@
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
       <c r="M165" t="inlineStr"/>
-      <c r="N165" t="inlineStr"/>
+      <c r="N165" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -9139,7 +9149,9 @@
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
       <c r="M166" t="inlineStr"/>
-      <c r="N166" t="inlineStr"/>
+      <c r="N166" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -9189,7 +9201,9 @@
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr"/>
-      <c r="N167" t="inlineStr"/>
+      <c r="N167" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -9239,7 +9253,9 @@
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr"/>
-      <c r="N168" t="inlineStr"/>
+      <c r="N168" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -9289,7 +9305,9 @@
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr"/>
-      <c r="N169" t="inlineStr"/>
+      <c r="N169" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -9343,7 +9361,9 @@
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr"/>
-      <c r="N170" t="inlineStr"/>
+      <c r="N170" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -9393,7 +9413,9 @@
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
       <c r="M171" t="inlineStr"/>
-      <c r="N171" t="inlineStr"/>
+      <c r="N171" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -9443,7 +9465,9 @@
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
       <c r="M172" t="inlineStr"/>
-      <c r="N172" t="inlineStr"/>
+      <c r="N172" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -9597,7 +9621,9 @@
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
       <c r="M175" t="inlineStr"/>
-      <c r="N175" t="inlineStr"/>
+      <c r="N175" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -9647,7 +9673,9 @@
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
       <c r="M176" t="inlineStr"/>
-      <c r="N176" t="inlineStr"/>
+      <c r="N176" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -9697,7 +9725,9 @@
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
       <c r="M177" t="inlineStr"/>
-      <c r="N177" t="inlineStr"/>
+      <c r="N177" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -9797,7 +9827,9 @@
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
       <c r="M179" t="inlineStr"/>
-      <c r="N179" t="inlineStr"/>
+      <c r="N179" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -9851,7 +9883,9 @@
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
       <c r="M180" t="inlineStr"/>
-      <c r="N180" t="inlineStr"/>
+      <c r="N180" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -9905,7 +9939,9 @@
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr"/>
-      <c r="N181" t="inlineStr"/>
+      <c r="N181" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -10009,7 +10045,9 @@
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
       <c r="M183" t="inlineStr"/>
-      <c r="N183" t="inlineStr"/>
+      <c r="N183" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -10059,7 +10097,9 @@
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
       <c r="M184" t="inlineStr"/>
-      <c r="N184" t="inlineStr"/>
+      <c r="N184" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -10109,7 +10149,9 @@
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
       <c r="M185" t="inlineStr"/>
-      <c r="N185" t="inlineStr"/>
+      <c r="N185" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -10209,7 +10251,9 @@
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
       <c r="M187" t="inlineStr"/>
-      <c r="N187" t="inlineStr"/>
+      <c r="N187" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -10309,7 +10353,9 @@
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
       <c r="M189" t="inlineStr"/>
-      <c r="N189" t="inlineStr"/>
+      <c r="N189" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -10363,7 +10409,9 @@
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
       <c r="M190" t="inlineStr"/>
-      <c r="N190" t="inlineStr"/>
+      <c r="N190" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -10413,7 +10461,9 @@
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
       <c r="M191" t="inlineStr"/>
-      <c r="N191" t="inlineStr"/>
+      <c r="N191" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -10467,7 +10517,9 @@
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
       <c r="M192" t="inlineStr"/>
-      <c r="N192" t="inlineStr"/>
+      <c r="N192" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -10521,7 +10573,9 @@
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
       <c r="M193" t="inlineStr"/>
-      <c r="N193" t="inlineStr"/>
+      <c r="N193" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -10575,7 +10629,9 @@
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
       <c r="M194" t="inlineStr"/>
-      <c r="N194" t="inlineStr"/>
+      <c r="N194" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -10629,7 +10685,9 @@
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr"/>
-      <c r="N195" t="inlineStr"/>
+      <c r="N195" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -10679,7 +10737,9 @@
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
       <c r="M196" t="inlineStr"/>
-      <c r="N196" t="inlineStr"/>
+      <c r="N196" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -10733,7 +10793,9 @@
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
       <c r="M197" t="inlineStr"/>
-      <c r="N197" t="inlineStr"/>
+      <c r="N197" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -10787,7 +10849,9 @@
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
       <c r="M198" t="inlineStr"/>
-      <c r="N198" t="inlineStr"/>
+      <c r="N198" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -10937,7 +11001,9 @@
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
       <c r="M201" t="inlineStr"/>
-      <c r="N201" t="inlineStr"/>
+      <c r="N201" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -11075,7 +11141,9 @@
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
       <c r="M204" t="inlineStr"/>
-      <c r="N204" t="inlineStr"/>
+      <c r="N204" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -951,7 +951,7 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="b">
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="b">
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="b">
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="b">
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="b">
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="b">
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="b">
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="b">
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="b">
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="b">
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="b">
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1567,7 +1567,7 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="b">
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1623,7 +1623,7 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="b">
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="b">
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="b">
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="b">
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="b">
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" t="b">
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2059,7 +2059,7 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="b">
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2115,7 +2115,7 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="b">
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="b">
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2227,7 +2227,7 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="b">
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="b">
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2339,7 +2339,7 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="b">
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2395,7 +2395,7 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="b">
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="b">
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2507,7 +2507,7 @@
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="b">
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="b">
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2619,7 +2619,7 @@
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="b">
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2675,7 +2675,7 @@
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="b">
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="b">
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2787,7 +2787,7 @@
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="b">
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" t="b">
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2899,7 +2899,7 @@
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" t="b">
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
-      <c r="N46" t="b">
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="b">
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3125,7 +3125,7 @@
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" t="b">
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="b">
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
-      <c r="N50" t="b">
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3293,7 +3293,7 @@
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="b">
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3403,7 +3403,7 @@
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="b">
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3459,7 +3459,7 @@
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="b">
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3515,7 +3515,7 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="b">
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3571,7 +3571,7 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="b">
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3627,7 +3627,7 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="b">
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3683,7 +3683,7 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="b">
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="b">
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="b">
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3851,7 +3851,7 @@
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="b">
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3907,7 +3907,7 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="b">
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3963,7 +3963,7 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="b">
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4019,7 +4019,7 @@
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="b">
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4075,7 +4075,7 @@
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
-      <c r="N65" t="b">
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4131,7 +4131,7 @@
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
-      <c r="N66" t="b">
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4187,7 +4187,7 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="b">
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4243,7 +4243,7 @@
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
-      <c r="N68" t="b">
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4299,7 +4299,7 @@
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
-      <c r="N69" t="b">
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4355,7 +4355,7 @@
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
-      <c r="N70" t="b">
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
-      <c r="N71" t="b">
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4467,7 +4467,7 @@
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
-      <c r="N72" t="b">
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
-      <c r="N73" t="b">
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,7 +4579,7 @@
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
-      <c r="N74" t="b">
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4635,7 +4635,7 @@
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
-      <c r="N75" t="b">
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4691,7 +4691,7 @@
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
-      <c r="N76" t="b">
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4747,7 +4747,7 @@
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
-      <c r="N77" t="b">
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4803,7 +4803,7 @@
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
-      <c r="N78" t="b">
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4859,7 +4859,7 @@
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
-      <c r="N79" t="b">
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4915,7 +4915,7 @@
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
-      <c r="N80" t="b">
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4971,7 +4971,7 @@
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
-      <c r="N81" t="b">
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5027,7 +5027,7 @@
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
-      <c r="N82" t="b">
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
-      <c r="N83" t="b">
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,17 +508,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CAMBRIDGE</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sessions Cannabis Cambridge</t>
+          <t>WOW World of Weed</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>101 HOLIDAY INN DR UNIT B1</t>
+          <t>3412 WESTON ROAD</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.sessions.ca/cambridge-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+          <t>https://www.woweeds.ca/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -538,20 +538,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5e6f90b1c706d4006afc5033</t>
+          <t>60806bc5ece0aa00d28bff8d</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>15192200201</v>
+        <v>14167431234</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -564,17 +564,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SAULT STE. MARIE</t>
+          <t>SUDBURY</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sessions Cannabis - Sault Ste Marie</t>
+          <t>Wild Flowerz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>216 SECOND LINE W</t>
+          <t>533 KATHLEEN ST UNIT B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -584,7 +584,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.sessions.ca/sault-ste-marie-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+          <t>http://wildflowerz.ca/</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5fea310977b22200aa316ca1</t>
+          <t>636536f141c9a200b6e1ab48</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -603,11 +603,11 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>17054506216</v>
+        <v>17055860402</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -620,17 +620,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TIMMINS</t>
+          <t>TECUMSEH</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sessions Cannabis - Timmins</t>
+          <t>URBNBUD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>425 ALGONQUIN BLVD E UNIT 4</t>
+          <t>1614 LESPERANCE RD BUILDING F3 UNIT D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.sessions.ca/timmins-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+          <t>http://www.urbnbud.com/</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -650,20 +650,20 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>60086d3320e3fc0fef619aba</t>
+          <t>6148e2c8b258a800cd749439</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>17055312882</v>
+        <v>15199567667</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -676,17 +676,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>WELLAND</t>
+          <t>ST CATHARINES</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sessions Cannabis Retail</t>
+          <t>TOP FINEST CANNABIS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>200 FITCH ST UNIT 12A</t>
+          <t>436 VANSICKLE RD SUITE 9</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.sessions.ca/welland-niagara-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+          <t>https://topfinestcannabis.ca/</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -706,20 +706,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5fd7ab8ac0bf8200d5781daf</t>
+          <t>6144e516fb232c009b6c8132</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>19057880641</v>
+        <v>19056886886</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -732,17 +732,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ST CATHARINES</t>
+          <t>WINDSOR</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TOP FINEST CANNABIS</t>
+          <t>THE WE STORE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>436 VANSICKLE RD SUITE 9</t>
+          <t>1800 HURON CHURCH RD UNIT B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -752,7 +752,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://topfinestcannabis.ca/</t>
+          <t>http://thewestore.com/</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>6144e516fb232c009b6c8132</t>
+          <t>614ba1c7b4849f5565ec9a4b</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>19056886886</v>
+        <v>12267836259</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -788,17 +788,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>BELLE RIVER</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Edition X</t>
+          <t>The We Store</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>764 ST CLAIR AVE W</t>
+          <t>1303 ESSEX COUNTY ROAD #22, UNIT 180</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://helloedition.com/</t>
+          <t>https://thewestore.com/shop/?dtche%5Bpath%5D=checkout</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -818,20 +818,18 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>5fa05f1cfc2d590101017618</t>
+          <t>6065096543756f00a7467b51</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>14165194460</v>
-      </c>
+          <t>['In-store pickup', 'In-store shopping', 'Delivery']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['No delivery information', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -844,17 +842,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ALMONTE</t>
+          <t>KESWICK</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bluebird Almonte</t>
+          <t>The House of Cannabis - Keswick</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14 MILL ST UNIT 8A</t>
+          <t>1 CHURCH ST SUITE 9</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -864,7 +862,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>http://bluebirdcannabis.store/</t>
+          <t>http://thehousecannabis.ca/</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -874,16 +872,16 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>608c1dbd89a04b00cadc09b0</t>
+          <t>2261116815efa0af00a9068d41</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>16134610091</v>
+        <v>12898039462</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -893,24 +891,22 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="b">
-        <v>1</v>
-      </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>KANATA</t>
+          <t>ST CATHARINES</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BLUEBIRD CANNABIS CO.</t>
+          <t>The Hempire</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>499 TERRY FOX DR UNIT 60</t>
+          <t xml:space="preserve">25-27 ONTARIO ST </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -920,7 +916,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>http://bluebirdcannabis.store/</t>
+          <t>https://thehempire.ca/</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -930,16 +926,16 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>5fac6a5955a05800c45083bd</t>
+          <t>5fa9614f32967f00c691818d</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>16136722233</v>
+        <v>19056847776</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -956,17 +952,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>KANATA</t>
+          <t>ETOBICOKE</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BLUEBIRD CANNABIS MARCH ROAD</t>
+          <t>Terps &amp; Rec Cannabis</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>806 MARCH RD</t>
+          <t>127 WESTMORE DR UNIT 106</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -976,7 +972,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>http://bluebirdcannabis.store/</t>
+          <t>http://terpsrec.com/</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -986,20 +982,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>601abc789ec2de3539c94656</t>
+          <t>610054d396959e00d9e7480d</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>16135923222</v>
+        <v>14166013734</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -1012,17 +1008,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>ROCKWOOD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bonnefire</t>
+          <t>Taste Buds Cannabis</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>129 MUNRO ST</t>
+          <t xml:space="preserve">155 MAIN ST S UNIT "A" </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1032,7 +1028,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>http://bonnefire.ca/</t>
+          <t>http://tbcontario.com/</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1042,43 +1038,45 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>627eb92e88f7de00a435c07d</t>
+          <t>64833eaca3386b0017a49653</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>14164630420</v>
+        <v>15196050558</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="b">
-        <v>1</v>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRANTFORD</t>
+          <t>THOROLD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BUDSSMOKE</t>
+          <t>TAKE OFF CANNABIS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>299 WAYNE GRETZKY PKY SUITE 5</t>
+          <t>9 PINE ST N UNIT 28</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1088,7 +1086,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>http://budssmoke.com/</t>
+          <t>http://www.takeoffcannabis.com/</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1098,16 +1096,16 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>6126c4088ae089009b8e8ce2</t>
+          <t>5ede8220a9dfe7011a6a593d</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>12269172837</v>
+        <v>19052278288</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1124,17 +1122,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BURLINGTON</t>
+          <t>WAWA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BUDSSMOKE</t>
+          <t>T CANNABIS NW</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2017 LAKESHORE RD</t>
+          <t>152 MISSION RD</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1144,7 +1142,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>http://budssmoke.com/</t>
+          <t>http://tcann.ca/</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1154,20 +1152,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>5f7d38d029883400facd32a9</t>
+          <t>635c46308a312000a44da3f2</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>19056372837</v>
+        <v>17058567777</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1180,17 +1178,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MATTAWA</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BUDSSMOKE</t>
+          <t>Spiritleaf Beaches</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>298 MAIN ST UNIT A</t>
+          <t>2116 QUEEN ST E UNIT J</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1200,7 +1198,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>http://budssmoke.com/</t>
+          <t>https://spiritleaf.ca/collections/spiritleaf-beaches</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1210,16 +1208,16 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>63ac522a24ce0700cf2cd11c</t>
+          <t>6079b8182436d800b5c874f9</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>17057442839</v>
+        <v>16473505323</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1236,17 +1234,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NORTH BAY</t>
+          <t>WELLAND</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BUDSSMOKE</t>
+          <t>Sessions Cannabis Retail</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1236 ALGONQUIN AVE UNIT B</t>
+          <t>200 FITCH ST UNIT 12A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1256,7 +1254,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>http://budssmoke.com/</t>
+          <t>https://www.sessions.ca/welland-niagara-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1266,20 +1264,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>6126c3a977dcda00b6cd237a</t>
+          <t>5fd7ab8ac0bf8200d5781daf</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>17054970887</v>
+        <v>19057880641</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1292,17 +1290,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SUNDRIDGE</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BUDSSMOKE</t>
+          <t>Sessions Cannabis Cambridge</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>10425 HWY 124 UNIT B</t>
+          <t>101 HOLIDAY INN DR UNIT B1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1312,7 +1310,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>http://budssmoke.com/</t>
+          <t>https://www.sessions.ca/cambridge-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1322,16 +1320,16 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>6272b206da78bd00a6e7f67b</t>
+          <t>5e6f90b1c706d4006afc5033</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>17053840899</v>
+        <v>15192200201</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1348,17 +1346,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TRENTON</t>
+          <t>BROCKVILLE</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CANNACO THE CANNABIS COMPANY</t>
+          <t>Sessions Cannabis Brockville</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>39 DUNDAS ST W</t>
+          <t>2441 PARKEDALE AVE UNIT C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1368,7 +1366,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>http://cannacocannabis.ca/</t>
+          <t>https://www.sessions.ca/brockville-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1378,16 +1376,16 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>60bf7d1d49bd1700c9fe8ab1</t>
+          <t>5fea314982004300ae6b9475</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>16133929888</v>
+        <v>16133424503</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1404,17 +1402,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BRANTFORD</t>
+          <t>TIMMINS</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>COST CANNABIS</t>
+          <t>Sessions Cannabis - Timmins</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>61 LYNDEN RD UNIT B4</t>
+          <t>425 ALGONQUIN BLVD E UNIT 4</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1424,7 +1422,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>http://costcan.ca/</t>
+          <t>https://www.sessions.ca/timmins-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1434,16 +1432,16 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>63864282925f8000e17fd63a</t>
+          <t>60086d3320e3fc0fef619aba</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['In-store shopping']</t>
+          <t>['Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>15197580000</v>
+        <v>17055312882</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1465,12 +1463,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Due North Cannabis</t>
+          <t>Sessions Cannabis - Sault Ste Marie</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>150 CHURCHILL BLVD UNIT C001</t>
+          <t>216 SECOND LINE W</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1480,7 +1478,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>http://duenorthcannabis.com/</t>
+          <t>https://www.sessions.ca/sault-ste-marie-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1490,7 +1488,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>5ef5fb055eb50b00e392c351</t>
+          <t>5fea310977b22200aa316ca1</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1499,11 +1497,11 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>17059981935</v>
+        <v>17054506216</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1516,17 +1514,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NORTH YORK</t>
+          <t xml:space="preserve">WATERLOO </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FOGTOWN FLOWER</t>
+          <t>Session7</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4687 YONGE ST</t>
+          <t>210-220 KING ST N UNIT G2</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1536,7 +1534,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>http://fogtown.ca/</t>
+          <t>http://session7.ca/</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1546,16 +1544,16 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">613fd98e2e64f800c74add5f </t>
+          <t>5f04b8e052817c014c31690c</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>16478128873</v>
+        <v>15192087775</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1565,22 +1563,24 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ALLISTON</t>
+          <t>NORTH YORK</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Green Grove</t>
+          <t>QUNUBU CANNABIS</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>70 VICTORIA ST E SUITE 3</t>
+          <t>274 WILSON AVE</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>http://greengrove.ca/</t>
+          <t>https://www.qunubucannabis.ca/?utm_source=GMB&amp;utm_medium=organic&amp;utm_campaign=gmb-website</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1600,16 +1600,16 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>5edd2dbd17c8c400aacd58b4</t>
+          <t>5f91ac6528be6e049a9f5b07</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>17052500187</v>
+        <v>14166389151</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1626,17 +1626,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>ETOBICOKE</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GreenPort</t>
+          <t>PLUTO PLANTS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>686 COLLEGE ST</t>
+          <t>62 MARINE PARADE DR UNIT 4</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>http://greenport.store/</t>
+          <t>http://plutoplants.ca/</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1656,20 +1656,20 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>632a3632ae6a2b00ac1ec89a</t>
+          <t>6009c8ecc0245c00d346d396</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>14165362121</v>
+        <v>16476402899</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1682,17 +1682,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>WINDSOR</t>
+          <t>PETERBOROUGH</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Greentown Cannabis Discount Hut</t>
+          <t>NORTHERN LIGHTS CANNABIS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3580 TECUMSEH RD E UNIT 4</t>
+          <t>51 LANSDOWNE ST W</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1702,7 +1702,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>http://greentowndiscount.com/</t>
+          <t>http://northern-lights.ca/</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1712,16 +1712,16 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>63dd3ab12a28f600d47fe64b</t>
+          <t>5fd6f1b824a619010096cd34</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>12267042190</v>
+        <v>17054389333</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1738,17 +1738,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>WINDSOR</t>
+          <t>HAMILTON</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Greentown Cannabis Discount Hut</t>
+          <t>NEKU CANNABIS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1519 DROUILLARD RD</t>
+          <t>38 HESS ST S</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>http://greentowndiscount.com/</t>
+          <t>https://nekucannabis.com/</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1768,20 +1768,20 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>63dd3a784e9a4f005bc682c2</t>
+          <t>5ff389d871214700d4e6d808</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pick-up', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>12267042190</v>
+        <v>19055245555</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1794,17 +1794,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ORANGEVILLE</t>
+          <t>SUDBURY</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Hempire House</t>
+          <t>HIGHLIFE CANNABIS LASALLE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>59 FIRST ST</t>
+          <t>1855 LASALLE BLVD</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>http://hempirehouse.ca/</t>
+          <t>http://www.bananasdispensary.ca/</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1824,20 +1824,20 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>5ec6f81d01de1901493a356d</t>
+          <t>6100268cbc2cf3009bf95b3b</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'Delivery']</t>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>15193074367</v>
+        <v>17055210119</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1850,17 +1850,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ETOBICOKE</t>
+          <t>CHELMSFORD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PLUTO PLANTS</t>
+          <t>HIGHLIFE CANNABIS CHELMSFORD</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>62 MARINE PARADE DR UNIT 4</t>
+          <t>3454 ERRINGTON AVE</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>http://plutoplants.ca/</t>
+          <t>http://www.bananasdispensary.ca/</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1880,20 +1880,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>6009c8ecc0245c00d346d396</t>
+          <t>6100268cbc2cf3009bf95b3b</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>16476402899</v>
+        <v>17058550866</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No delivery / delivery time unknown']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -1906,17 +1906,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PETERBOROUGH</t>
+          <t>ORANGEVILLE</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NORTHERN LIGHTS CANNABIS</t>
+          <t>Hempire House</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>51 LANSDOWNE ST W</t>
+          <t>59 FIRST ST</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>http://northern-lights.ca/</t>
+          <t>http://hempirehouse.ca/</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1936,20 +1936,20 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>5fd6f1b824a619010096cd34</t>
+          <t>5ec6f81d01de1901493a356d</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping', 'Delivery']</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>17054389333</v>
+        <v>15193074367</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -1962,17 +1962,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>WINDSOR</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Body and Spirit Cannabis</t>
+          <t>Greentown Cannabis Discount Hut</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>361 YONGE ST</t>
+          <t>3580 TECUMSEH RD E UNIT 4</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://bodyandspiritcannabis.com/</t>
+          <t>http://greentowndiscount.com/</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1992,20 +1992,20 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>5e45c5d96a6aef00702ed11f</t>
+          <t>63dd3ab12a28f600d47fe64b</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>16478125989</v>
+        <v>12267042190</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -2018,17 +2018,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">WATERLOO </t>
+          <t>WINDSOR</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Session7</t>
+          <t>Greentown Cannabis Discount Hut</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>210-220 KING ST N UNIT G2</t>
+          <t>1519 DROUILLARD RD</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>http://session7.ca/</t>
+          <t>http://greentowndiscount.com/</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2048,20 +2048,20 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>5f04b8e052817c014c31690c</t>
+          <t>63dd3a784e9a4f005bc682c2</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pick-up', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>15192087775</v>
+        <v>12267042190</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -2074,17 +2074,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>KITCHENER</t>
+          <t>LASALLE</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DAB GLASS</t>
+          <t>Greentown</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>685 FISCHER HALLMAN RD SUITE M</t>
+          <t>5994 MALDEN RD UNIT 3</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>http://shopdabglass.ca/</t>
+          <t>https://greentowncannabis.com/</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2104,16 +2104,16 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>60e4a511dca91d00a81b7867</t>
+          <t>609c59eaf57edb00a09da192</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>15192084527</v>
+        <v>12267731006</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2130,17 +2130,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ROCKWOOD</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Taste Buds Cannabis</t>
+          <t>GreenPort</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">155 MAIN ST S UNIT "A" </t>
+          <t>686 COLLEGE ST</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>http://tbcontario.com/</t>
+          <t>http://greenport.store/</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2160,45 +2160,43 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>64833eaca3386b0017a49653</t>
+          <t>632a3632ae6a2b00ac1ec89a</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>15196050558</v>
+        <v>14165362121</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
+      <c r="N31" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>WAWA</t>
+          <t>ALLISTON</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>T CANNABIS NW</t>
+          <t>Green Grove</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>152 MISSION RD</t>
+          <t>70 VICTORIA ST E SUITE 3</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2208,7 +2206,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>http://tcann.ca/</t>
+          <t>http://greengrove.ca/</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2218,20 +2216,20 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>635c46308a312000a44da3f2</t>
+          <t>5edd2dbd17c8c400aacd58b4</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>17058567777</v>
+        <v>17052500187</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2244,17 +2242,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ETOBICOKE</t>
+          <t>KINGSTON</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Terps &amp; Rec Cannabis</t>
+          <t>Giggles Cannabis</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>127 WESTMORE DR UNIT 106</t>
+          <t>652 PRINCESS ST SUITE 108</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2264,7 +2262,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>http://terpsrec.com/</t>
+          <t>https://kingstongiggles.com/</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2274,7 +2272,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>610054d396959e00d9e7480d</t>
+          <t>62e858e63967b40082a6aba1</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2283,7 +2281,7 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>14166013734</v>
+        <v>16135420377</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2300,17 +2298,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>KESWICK</t>
+          <t>NORTH YORK</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>The House of Cannabis - Keswick</t>
+          <t>FOGTOWN FLOWER</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1 CHURCH ST SUITE 9</t>
+          <t>4687 YONGE ST</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2320,7 +2318,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>http://thehousecannabis.ca/</t>
+          <t>http://fogtown.ca/</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2330,16 +2328,16 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2261116815efa0af00a9068d41</t>
+          <t xml:space="preserve">613fd98e2e64f800c74add5f </t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>12898039462</v>
+        <v>16478128873</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2354,17 +2352,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>WINDSOR</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>THE WE STORE</t>
+          <t>Edition X</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1800 HURON CHURCH RD UNIT B</t>
+          <t>764 ST CLAIR AVE W</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2374,7 +2372,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>http://thewestore.com/</t>
+          <t>https://helloedition.com/</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2384,7 +2382,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>614ba1c7b4849f5565ec9a4b</t>
+          <t>5fa05f1cfc2d590101017618</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2393,11 +2391,11 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>12267836259</v>
+        <v>14165194460</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery information', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2410,17 +2408,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SUDBURY</t>
+          <t>SAULT STE. MARIE</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Wild Flowerz</t>
+          <t>Due North Cannabis</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>533 KATHLEEN ST UNIT B</t>
+          <t>150 CHURCHILL BLVD UNIT C001</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2430,7 +2428,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>http://wildflowerz.ca/</t>
+          <t>http://duenorthcannabis.com/</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2440,7 +2438,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>636536f141c9a200b6e1ab48</t>
+          <t>5ef5fb055eb50b00e392c351</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2449,7 +2447,7 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>17055860402</v>
+        <v>17059981935</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2466,17 +2464,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>THOROLD</t>
+          <t>KITCHENER</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TAKE OFF CANNABIS</t>
+          <t>DAB GLASS</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>9 PINE ST N UNIT 28</t>
+          <t>685 FISCHER HALLMAN RD SUITE M</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2486,7 +2484,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>http://www.takeoffcannabis.com/</t>
+          <t>http://shopdabglass.ca/</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2496,16 +2494,16 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>5ede8220a9dfe7011a6a593d</t>
+          <t>60e4a511dca91d00a81b7867</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>19052278288</v>
+        <v>15192084527</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2522,17 +2520,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TECUMSEH</t>
+          <t>BRANTFORD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>URBNBUD</t>
+          <t>COST CANNABIS</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1614 LESPERANCE RD BUILDING F3 UNIT D</t>
+          <t>61 LYNDEN RD UNIT B4</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2542,7 +2540,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>http://www.urbnbud.com/</t>
+          <t>http://costcan.ca/</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2552,20 +2550,20 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>6148e2c8b258a800cd749439</t>
+          <t>63864282925f8000e17fd63a</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store shopping']</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>15199567667</v>
+        <v>15197580000</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2578,27 +2576,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>HAMILTON</t>
+          <t>PARIS</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BUD BROTHERS CANNABIS</t>
+          <t>Chillin Buds</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1568 MAIN ST W</t>
+          <t>1 HARTLEY AVE BUILDING A UNIT A6</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>Public Notice Period: Ended 2023/05/30</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://budbrotherscannabis.ca/</t>
+          <t>https://chillinbuds.com/</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2608,16 +2606,16 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>60a2acc7143d8600a7a11f35</t>
+          <t>612d270900432e00b065dead</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>12897685659</v>
+        <v>15194429966</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2634,17 +2632,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CALLANDER</t>
+          <t>BEETON</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BUDSSMOKE</t>
+          <t>CANNABIS XPRESS</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>6 MAIN ST S UNIT 4</t>
+          <t>8 MAIN ST W</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2654,7 +2652,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://budssmoke.com/6-main-street-south-callander/</t>
+          <t>http://www.cannabis-xpress.com/</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2664,20 +2662,20 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>642f1ce57f22fc00c0a5be1f</t>
+          <t>61f8b018b3081b00a7e4806d</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>17057523333</v>
+        <v>16475472890</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2690,17 +2688,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CanaCulture Cannabis Store</t>
+          <t>CANNABIS XPRESS</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>914 EGLINTON AVE W</t>
+          <t>11670 HURONTARIO ST UNIT 6</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2710,7 +2708,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://canaculture.ca/</t>
+          <t>http://www.cannabis-xpress.com/</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2720,20 +2718,20 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>5fe2b0a97ae1a100f5c5aa85</t>
+          <t>619d0d70de36fb00a524ad2c</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>14167858325</v>
+        <v>16472432682</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2746,27 +2744,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PARIS</t>
+          <t>DELHI</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Chillin Buds</t>
+          <t>CANNABIS XPRESS</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1 HARTLEY AVE BUILDING A UNIT A6</t>
+          <t>158 MAIN STREET OF DELHI</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Public Notice Period: Ended 2023/05/30</t>
+          <t>Authorized to Open</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://chillinbuds.com/</t>
+          <t>http://www.cannabis-xpress.com/</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2776,20 +2774,20 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>612d270900432e00b065dead</t>
+          <t>639c70ba04a4f500d825f21d</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>15194429966</v>
+        <v>16472432124</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2802,17 +2800,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>LONDON</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Spiritleaf Beaches</t>
+          <t xml:space="preserve">CANNABIS LINK </t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2116 QUEEN ST E UNIT J</t>
+          <t>1225 WONDERLAND RD N UNIT 40A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2822,7 +2820,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://spiritleaf.ca/collections/spiritleaf-beaches</t>
+          <t>http://www.cannabislinkinc.com/</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2832,7 +2830,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>6079b8182436d800b5c874f9</t>
+          <t>5fe12a0a5652e700bc6624ad</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2841,7 +2839,7 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>16473505323</v>
+        <v>15196574747</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2858,17 +2856,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>LASALLE</t>
+          <t>LONDON</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Greentown</t>
+          <t>Cannabis Link</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>5994 MALDEN RD UNIT 3</t>
+          <t>1175 HYDE PARK RD UNIT 2B</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2878,7 +2876,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://greentowncannabis.com/</t>
+          <t>http://www.cannabislinkinc.com/</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2888,20 +2886,20 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>609c59eaf57edb00a09da192</t>
+          <t>5efcaf8053ee9400f1baaccc</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>12267731006</v>
+        <v>15196577979</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2914,17 +2912,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>LONDON</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>HOT BUDS</t>
+          <t>Cannabis Link</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>25 KENSINGTON AVE</t>
+          <t>390 SPRINGBANK DR UNIT 10B</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2934,7 +2932,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://hotbuds.ca/</t>
+          <t>http://www.cannabislinkinc.com/</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2944,7 +2942,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>5ed826b6960b4a28966976fd</t>
+          <t>63cef96a67b9fe00b0cecc3d</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2953,7 +2951,7 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>14165489333</v>
+        <v>12268844747</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2970,17 +2968,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>KINGSTON</t>
+          <t>LONDON</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Giggles Cannabis</t>
+          <t>Cannabis Link</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>652 PRINCESS ST SUITE 108</t>
+          <t>509 COMMISSIONERS RD W UNIT A35</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2990,7 +2988,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://kingstongiggles.com/</t>
+          <t>http://www.cannabislinkinc.com/</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3000,20 +2998,20 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>62e858e63967b40082a6aba1</t>
+          <t>604142d7fad36600d0758e2d</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>16135420377</v>
+        <v>15192045777</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -3026,17 +3024,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HAMILTON</t>
+          <t>LONDON</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NEKU CANNABIS</t>
+          <t>Cannabis Link</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>38 HESS ST S</t>
+          <t>1295 HIGHBURY AVE N UNIT A6B</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3046,7 +3044,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://nekucannabis.com/</t>
+          <t>http://www.cannabislinkinc.com/</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3056,20 +3054,20 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>5ff389d871214700d4e6d808</t>
+          <t>603561b5f0941300bf77dfa8</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>19055245555</v>
+        <v>15194577070</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -3082,17 +3080,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ST CATHARINES</t>
+          <t>SAULT STE. MARIE</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>The Hempire</t>
+          <t>Cannabis Jack's</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">25-27 ONTARIO ST </t>
+          <t>518 GREAT NORTHERN RD UNIT 1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3102,7 +3100,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://thehempire.ca/</t>
+          <t>http://www.cannabisjacks.ca/</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3112,20 +3110,20 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>5fa9614f32967f00c691818d</t>
+          <t>621567bc734be400a037b396</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>19056847776</v>
+        <v>17052565225</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -3138,17 +3136,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>LASALLE</t>
+          <t>SCARBOROUGH</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BRO CANNABIS INC.</t>
+          <t>Cannabis Hut Ltd.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2596 FRONT RD UNIT 1</t>
+          <t>2254 BIRCHMOUNT RD</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3158,7 +3156,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://www.brocannabis.ca/</t>
+          <t>http://www.cannabishut.ca/</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3168,7 +3166,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>62cafd003b150b0080d2a796</t>
+          <t>60ec7592c7c21f00ba6fd559</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -3177,7 +3175,7 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>12263405531</v>
+        <v>14162690639</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -3194,17 +3192,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>NORTH YORK</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>QUNUBU CANNABIS</t>
+          <t xml:space="preserve">Cannabis Hut </t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>274 WILSON AVE</t>
+          <t>699 COXWELL AVE UNIT G01 &amp; G02</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3214,7 +3212,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://www.qunubucannabis.ca/?utm_source=GMB&amp;utm_medium=organic&amp;utm_campaign=gmb-website</t>
+          <t>http://www.cannabishut.ca/</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3224,20 +3222,20 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>5f91ac6528be6e049a9f5b07</t>
+          <t>638fa49f627e040095ac90bc</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>14166389151</v>
+        <v>16473688582</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -3250,17 +3248,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BROCKVILLE</t>
+          <t>OWEN SOUND</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Sessions Cannabis Brockville</t>
+          <t>Cannabis Grey Bruce</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2441 PARKEDALE AVE UNIT C</t>
+          <t>236 8TH ST E</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3270,7 +3268,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://www.sessions.ca/brockville-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+          <t>http://www.cannabisgreybruce.ca/</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3280,20 +3278,20 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>5fea314982004300ae6b9475</t>
+          <t>60df8bdc1c562500bb62498e</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>16133424503</v>
+        <v>12266640681</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3311,12 +3309,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>WOW World of Weed</t>
+          <t>CanaCulture Cannabis Store</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3412 WESTON ROAD</t>
+          <t>914 EGLINTON AVE W</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3326,7 +3324,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://www.woweeds.ca/</t>
+          <t>https://canaculture.ca/</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3336,16 +3334,16 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>60806bc5ece0aa00d28bff8d</t>
+          <t>5fe2b0a97ae1a100f5c5aa85</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>14167431234</v>
+        <v>14167858325</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -3362,17 +3360,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BELLE RIVER</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>The We Store</t>
+          <t xml:space="preserve">CABIN CANNABIS </t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1303 ESSEX COUNTY ROAD #22, UNIT 180</t>
+          <t>688 BLOOR ST W</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3382,7 +3380,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://thewestore.com/shop/?dtche%5Bpath%5D=checkout</t>
+          <t>http://www.cabincannabis.ca/</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3392,18 +3390,20 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>6065096543756f00a7467b51</t>
+          <t>5f2c4160cb53ca00d7c50001</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'Delivery']</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
+          <t>['Kerbside pickup', 'In-store pick-up', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>14165380688</v>
+      </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -3413,6 +3413,1292 @@
         <v>1</v>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Buzzed Buds</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1375 SOUTHDOWN RD UNIT 6</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>http://www.buzzedbuds.co/</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>6494cd4b4e5be60009acabef</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>16474058606</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>BRANTFORD</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>BUDSSMOKE</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>299 WAYNE GRETZKY PKY SUITE 5</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>http://budssmoke.com/</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>6126c4088ae089009b8e8ce2</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>12269172837</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>BURLINGTON</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>BUDSSMOKE</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2017 LAKESHORE RD</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>http://budssmoke.com/</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>5f7d38d029883400facd32a9</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>19056372837</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>MATTAWA</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>BUDSSMOKE</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>298 MAIN ST UNIT A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>http://budssmoke.com/</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>63ac522a24ce0700cf2cd11c</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>17057442839</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>NORTH BAY</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>BUDSSMOKE</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1236 ALGONQUIN AVE UNIT B</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>http://budssmoke.com/</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>6126c3a977dcda00b6cd237a</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>17054970887</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>SUNDRIDGE</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>BUDSSMOKE</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>10425 HWY 124 UNIT B</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>http://budssmoke.com/</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>6272b206da78bd00a6e7f67b</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>17053840899</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>PICKERING</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>BUDSSMOKE</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>940 BROCK RD UNIT 3</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>http://www.budssmoke.com/</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>60c77a5112bba400ca82bdc9</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>12892102837</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ST CATHARINES</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>BUDSSMOKE</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>186 LAKE ST</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>http://www.budssmoke.com/</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>6126c36e566a61009c2b3090</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>12898162837</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>CALLANDER</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>BUDSSMOKE</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>6 MAIN ST S UNIT 4</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>https://budssmoke.com/6-main-street-south-callander/</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>642f1ce57f22fc00c0a5be1f</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>17057523333</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>GUELPH</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>BUD'S CANNABIS STORE</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>370 STONE RD W UNIT 4B</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>http://www.budscannabisstore.ca/</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Dutchie/Buddi</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>5f4416ed23690900fae74899</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>15198212837</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>['No-delivery']</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>BARRIE</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>BUDS 4 LESS</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>489 YONGE ST UNIT 2</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>http://www.buds4less.ca/</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>60ee00a567496700c951430f</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>17054810124</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>['No-delivery']</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ORLEANS</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>BUDGET BUD ORLEANS TOWN CENTER</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>250 CENTRUM BLVD UNIT 105A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>http://www.budget-bud.com/orleans</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>60e479140aa679304130c809</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>16138303335</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>HAMILTON</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>BUD BROTHERS CANNABIS</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1568 MAIN ST W</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>https://budbrotherscannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>60a2acc7143d8600a7a11f35</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>12897685659</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>LASALLE</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>BRO CANNABIS INC.</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2596 FRONT RD UNIT 1</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>https://www.brocannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>62cafd003b150b0080d2a796</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>12263405531</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Bonnefire</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>129 MUNRO ST</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>http://bonnefire.ca/</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>627eb92e88f7de00a435c07d</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>14164630420</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Body and Spirit Cannabis</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>361 YONGE ST</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>https://bodyandspiritcannabis.com/</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>5e45c5d96a6aef00702ed11f</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>16478125989</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>BRAMPTON</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Bodega Boyz</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>69 BRAMALEA RD SUITE 3</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>http://www.bodegaboyz.ca/</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>61d38e4ca8388a008cb50d87</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>19054580439</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>GEORGETOWN</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>BODEGA BOYZ</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>68-78 MAIN ST N UNIT 2 &amp; 3</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>http://www.bodegaboyz.ca/</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>61d38df67bdd52009766d458</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>19057028797</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>['No-delivery']</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>KANATA</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>BLUEBIRD CANNABIS MARCH ROAD</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>806 MARCH RD</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>http://bluebirdcannabis.store/</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>601abc789ec2de3539c94656</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>16135923222</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>KANATA</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>BLUEBIRD CANNABIS CO.</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>499 TERRY FOX DR UNIT 60</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>http://bluebirdcannabis.store/</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>5fac6a5955a05800c45083bd</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>16136722233</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>ALMONTE</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Bluebird Almonte</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>14 MILL ST UNIT 8A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>http://bluebirdcannabis.store/</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>608c1dbd89a04b00cadc09b0</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>16134610091</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>BRADFORD</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ATLAS CANNABIS CLUB</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>78 BRIDGE ST</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>http://www.atlascannabis.net/</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>61006d51de65d700be55e7f2</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>16475172045</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>HAMILTON</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>AFFX CANNABIS</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>919 UPPER PARADISE RD UNIT 5</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>http://www.affxcannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>6010a9348eb69600e3e4fbb9</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>12897550420</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N76"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,17 +508,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>OTTAWA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WOW World of Weed</t>
+          <t>Athena Cannabis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3412 WESTON ROAD</t>
+          <t>782 EAGLESON RD UNIT D4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -528,30 +528,26 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.woweeds.ca/</t>
+          <t>http://www.athenacannabis.ca/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>60806bc5ece0aa00d28bff8d</t>
-        </is>
-      </c>
+          <t>Techpos</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>14167431234</v>
+        <v>16135951420</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -564,17 +560,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SUDBURY</t>
+          <t>BANCROFT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Wild Flowerz</t>
+          <t>BANCROFT CANNABIS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>533 KATHLEEN ST UNIT B</t>
+          <t>7 STATION ST RR 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -584,30 +580,26 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>http://wildflowerz.ca/</t>
+          <t>http://www.bancroftcannabis.ca/</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>636536f141c9a200b6e1ab48</t>
-        </is>
-      </c>
+          <t>Techpos</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>17055860402</v>
+        <v>16133320250</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -620,17 +612,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TECUMSEH</t>
+          <t>LONDON</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>URBNBUD</t>
+          <t xml:space="preserve">Benkz Budz </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1614 LESPERANCE RD BUILDING F3 UNIT D</t>
+          <t>699 WILKINS ST UNIT 17</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -640,30 +632,26 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>http://www.urbnbud.com/</t>
+          <t>http://www.benkzbudz.com/</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>6148e2c8b258a800cd749439</t>
-        </is>
-      </c>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>15199567667</v>
+        <v>15196686858</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -676,17 +664,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ST CATHARINES</t>
+          <t>OTTAWA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TOP FINEST CANNABIS</t>
+          <t>The Big Bamboo Cannabis Company</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>436 VANSICKLE RD SUITE 9</t>
+          <t>144 RENFREW AVE UNIT C1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -696,30 +684,26 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://topfinestcannabis.ca/</t>
+          <t>http://www.bigbamboocannabis.com/</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>6144e516fb232c009b6c8132</t>
-        </is>
-      </c>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>19056886886</v>
+        <v>16134225544</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -732,17 +716,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>WINDSOR</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>THE WE STORE</t>
+          <t>Blackstar Cannabis</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1800 HURON CHURCH RD UNIT B</t>
+          <t>666 BURNHAMTHORPE RD UNIT C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -752,30 +736,26 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>http://thewestore.com/</t>
+          <t>http://www.blackstarcannabis.ca/</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>614ba1c7b4849f5565ec9a4b</t>
-        </is>
-      </c>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>12267836259</v>
+        <v>14378870872</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -788,17 +768,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BELLE RIVER</t>
+          <t>IROQUOIS FALLS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>The We Store</t>
+          <t>Blazeco Cannabis</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1303 ESSEX COUNTY ROAD #22, UNIT 180</t>
+          <t>231 AMBRIDGE DRIVE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -808,28 +788,26 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://thewestore.com/shop/?dtche%5Bpath%5D=checkout</t>
+          <t>http://www.blazeco.ca/</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>6065096543756f00a7467b51</t>
-        </is>
-      </c>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'Delivery']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>['In-store pick-up', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>17052691688</v>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -842,17 +820,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>KESWICK</t>
+          <t>MANOTICK</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>The House of Cannabis - Keswick</t>
+          <t>Blue Haven Cannabis</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1 CHURCH ST SUITE 9</t>
+          <t>990 RIVER RD UNIT 8</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -862,51 +840,49 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>http://thehousecannabis.ca/</t>
+          <t>http://www.bluehavencannabis.com/</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2261116815efa0af00a9068d41</t>
-        </is>
-      </c>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>12898039462</v>
+        <v>16136922639</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ST CATHARINES</t>
+          <t>HAMILTON</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The Hempire</t>
+          <t>Blue Sage Cannabis</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">25-27 ONTARIO ST </t>
+          <t>835 KING ST E</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -916,30 +892,26 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://thehempire.ca/</t>
+          <t>http://www.bluesagehamilton.ca/</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>5fa9614f32967f00c691818d</t>
-        </is>
-      </c>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>19056847776</v>
+        <v>19055442555</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -952,17 +924,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ETOBICOKE</t>
+          <t>GEORGETOWN</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Terps &amp; Rec Cannabis</t>
+          <t>BODEGA BOYZ</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>127 WESTMORE DR UNIT 106</t>
+          <t>68-78 MAIN ST N UNIT 2 &amp; 3</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -972,7 +944,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>http://terpsrec.com/</t>
+          <t>http://www.bodegaboyz.ca/</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -982,7 +954,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>610054d396959e00d9e7480d</t>
+          <t>61d38df67bdd52009766d458</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -991,11 +963,11 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>14166013734</v>
+        <v>19057028797</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -1008,17 +980,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ROCKWOOD</t>
+          <t>CHATHAM</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Taste Buds Cannabis</t>
+          <t>Bud Bank</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">155 MAIN ST S UNIT "A" </t>
+          <t>445 RICHMOND ST</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1028,55 +1000,49 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>http://tbcontario.com/</t>
+          <t>http://www.budbank.shop/</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>64833eaca3386b0017a49653</t>
-        </is>
-      </c>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>15196050558</v>
+        <v>18774420420</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
+      <c r="N11" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>THOROLD</t>
+          <t>BARRIE</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TAKE OFF CANNABIS</t>
+          <t>BUDS 4 LESS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9 PINE ST N UNIT 28</t>
+          <t>489 YONGE ST UNIT 2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1086,7 +1052,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>http://www.takeoffcannabis.com/</t>
+          <t>http://www.buds4less.ca/</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1096,20 +1062,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>5ede8220a9dfe7011a6a593d</t>
+          <t>60ee00a567496700c951430f</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store shopping']</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>19052278288</v>
+        <v>17054810124</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1122,17 +1088,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>WAWA</t>
+          <t>GUELPH</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>T CANNABIS NW</t>
+          <t>BUD'S CANNABIS STORE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>152 MISSION RD</t>
+          <t>370 STONE RD W UNIT 4B</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1142,17 +1108,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>http://tcann.ca/</t>
+          <t>http://www.budscannabisstore.ca/</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dutchie</t>
+          <t>Dutchie/Buddi</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>635c46308a312000a44da3f2</t>
+          <t>5f4416ed23690900fae74899</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1161,11 +1127,11 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>17058567777</v>
+        <v>15198212837</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1178,17 +1144,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>OTTAWA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Spiritleaf Beaches</t>
+          <t>BYTOWN BUDZZ</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2116 QUEEN ST E UNIT J</t>
+          <t>373 SOMERSET ST W</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1198,30 +1164,26 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://spiritleaf.ca/collections/spiritleaf-beaches</t>
+          <t>http://www.bytownbudzz.com/</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>6079b8182436d800b5c874f9</t>
-        </is>
-      </c>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>16473505323</v>
+        <v>16132382839</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1234,17 +1196,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>WELLAND</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sessions Cannabis Retail</t>
+          <t xml:space="preserve">CABIN CANNABIS </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>200 FITCH ST UNIT 12A</t>
+          <t>688 BLOOR ST W</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1254,7 +1216,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.sessions.ca/welland-niagara-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+          <t>http://www.cabincannabis.ca/</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1264,20 +1226,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>5fd7ab8ac0bf8200d5781daf</t>
+          <t>5f2c4160cb53ca00d7c50001</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Kerbside pickup', 'In-store pick-up', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>19057880641</v>
+        <v>14165380688</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1290,17 +1252,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CAMBRIDGE</t>
+          <t>BURLINGTON</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sessions Cannabis Cambridge</t>
+          <t>Canada Buds</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>101 HOLIDAY INN DR UNIT B1</t>
+          <t>1860 APPLEBY LINE UNIT 11B</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1310,30 +1272,26 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.sessions.ca/cambridge-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+          <t>http://www.canada-buds.ca/</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>5e6f90b1c706d4006afc5033</t>
-        </is>
-      </c>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>15192200201</v>
+        <v>19053192934</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1346,17 +1304,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BROCKVILLE</t>
+          <t>ST CATHARINES</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sessions Cannabis Brockville</t>
+          <t>Canada Buds</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2441 PARKEDALE AVE UNIT C</t>
+          <t>595 CARLTON ST UNIT 28</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1366,30 +1324,26 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.sessions.ca/brockville-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+          <t>http://www.canada-buds.ca/</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>5fea314982004300ae6b9475</t>
-        </is>
-      </c>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>16133424503</v>
+        <v>19059352102</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1402,17 +1356,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TIMMINS</t>
+          <t>ARNPRIOR</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sessions Cannabis - Timmins</t>
+          <t>ARNPRIOR CANNABIS</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>425 ALGONQUIN BLVD E UNIT 4</t>
+          <t>8 ELGIN ST W</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1422,30 +1376,26 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.sessions.ca/timmins-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+          <t>http://www.cannabisarnprior.com/</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>60086d3320e3fc0fef619aba</t>
-        </is>
-      </c>
+          <t>Techpos</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>17055312882</v>
+        <v>16136232423</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1458,17 +1408,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SAULT STE. MARIE</t>
+          <t>OWEN SOUND</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sessions Cannabis - Sault Ste Marie</t>
+          <t>Cannabis Grey Bruce</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>216 SECOND LINE W</t>
+          <t>236 8TH ST E</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1478,7 +1428,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.sessions.ca/sault-ste-marie-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+          <t>http://www.cannabisgreybruce.ca/</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1488,20 +1438,20 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>5fea310977b22200aa316ca1</t>
+          <t>60df8bdc1c562500bb62498e</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>17054506216</v>
+        <v>12266640681</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1514,17 +1464,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">WATERLOO </t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Session7</t>
+          <t xml:space="preserve">Cannabis Hut </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>210-220 KING ST N UNIT G2</t>
+          <t>699 COXWELL AVE UNIT G01 &amp; G02</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1534,7 +1484,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>http://session7.ca/</t>
+          <t>http://www.cannabishut.ca/</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1544,20 +1494,20 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>5f04b8e052817c014c31690c</t>
+          <t>638fa49f627e040095ac90bc</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>15192087775</v>
+        <v>16473688582</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1570,17 +1520,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NORTH YORK</t>
+          <t>SAULT STE. MARIE</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>QUNUBU CANNABIS</t>
+          <t>Cannabis Jack's</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>274 WILSON AVE</t>
+          <t>518 GREAT NORTHERN RD UNIT 1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1590,7 +1540,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.qunubucannabis.ca/?utm_source=GMB&amp;utm_medium=organic&amp;utm_campaign=gmb-website</t>
+          <t>http://www.cannabisjacks.ca/</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1600,20 +1550,20 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>5f91ac6528be6e049a9f5b07</t>
+          <t>621567bc734be400a037b396</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>14166389151</v>
+        <v>17052565225</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1626,17 +1576,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ETOBICOKE</t>
+          <t>NORTH YORK</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PLUTO PLANTS</t>
+          <t>CANNABIS STATION</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>62 MARINE PARADE DR UNIT 4</t>
+          <t>2292 KEELE ST</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1646,30 +1596,26 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>http://plutoplants.ca/</t>
+          <t>http://www.cannabisstn.com/</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>6009c8ecc0245c00d346d396</t>
-        </is>
-      </c>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>16476402899</v>
+        <v>16473651896</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1682,17 +1628,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PETERBOROUGH</t>
+          <t>BEETON</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NORTHERN LIGHTS CANNABIS</t>
+          <t>CANNABIS XPRESS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>51 LANSDOWNE ST W</t>
+          <t>8 MAIN ST W</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1702,7 +1648,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>http://northern-lights.ca/</t>
+          <t>http://www.cannabis-xpress.com/</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1712,20 +1658,20 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>5fd6f1b824a619010096cd34</t>
+          <t>61f8b018b3081b00a7e4806d</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>17054389333</v>
+        <v>16475472890</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1738,17 +1684,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HAMILTON</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NEKU CANNABIS</t>
+          <t>CANNABIS XPRESS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>38 HESS ST S</t>
+          <t>11670 HURONTARIO ST UNIT 6</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1758,7 +1704,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://nekucannabis.com/</t>
+          <t>http://www.cannabis-xpress.com/</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1768,20 +1714,20 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>5ff389d871214700d4e6d808</t>
+          <t>619d0d70de36fb00a524ad2c</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>19055245555</v>
+        <v>16472432682</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1794,17 +1740,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SUDBURY</t>
+          <t>DELHI</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>HIGHLIFE CANNABIS LASALLE</t>
+          <t>CANNABIS XPRESS</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1855 LASALLE BLVD</t>
+          <t>158 MAIN STREET OF DELHI</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1814,7 +1760,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>http://www.bananasdispensary.ca/</t>
+          <t>http://www.cannabis-xpress.com/</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1824,20 +1770,20 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>6100268cbc2cf3009bf95b3b</t>
+          <t>639c70ba04a4f500d825f21d</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>17055210119</v>
+        <v>16472432124</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1850,17 +1796,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CHELMSFORD</t>
+          <t>HAMPTON</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>HIGHLIFE CANNABIS CHELMSFORD</t>
+          <t>CANNABIS XPRESS</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>3454 ERRINGTON AVE</t>
+          <t>1648 TAUNTON RD E UNIT 2</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1870,7 +1816,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>http://www.bananasdispensary.ca/</t>
+          <t>http://www.cannabis-xpress.com/</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1880,20 +1826,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>6100268cbc2cf3009bf95b3b</t>
+          <t>6205908036556e00ad753208</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Kerbside pickup', 'In-store pick-up', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>17058550866</v>
+        <v>16474907753</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['No delivery / delivery time unknown']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -1906,17 +1852,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ORANGEVILLE</t>
+          <t>HILLSDALE</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Hempire House</t>
+          <t>CANNABIS XPRESS</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>59 FIRST ST</t>
+          <t>4570 PENETANGUISHENE RD</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1926,7 +1872,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>http://hempirehouse.ca/</t>
+          <t>http://www.cannabis-xpress.com/</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1936,20 +1882,20 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>5ec6f81d01de1901493a356d</t>
+          <t>60aed1ac3abb70009f6ad118</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'Delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>15193074367</v>
+        <v>12494870029</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -1962,17 +1908,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>WINDSOR</t>
+          <t>NORTH GOWER</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Greentown Cannabis Discount Hut</t>
+          <t>CANNABIS XPRESS</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3580 TECUMSEH RD E UNIT 4</t>
+          <t>2333 CHURCH STREET, UNIT 3</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1982,7 +1928,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>http://greentowndiscount.com/</t>
+          <t>http://www.cannabis-xpress.com/</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1992,20 +1938,20 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>63dd3ab12a28f600d47fe64b</t>
+          <t>6318a91bbb864e00bf9822e3</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>12267042190</v>
+        <v>16474967952</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -2018,17 +1964,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>WINDSOR</t>
+          <t>PICKERING</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Greentown Cannabis Discount Hut</t>
+          <t>CANNABIS XPRESS</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1519 DROUILLARD RD</t>
+          <t>1692 CENTRAL ST UNIT 1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2038,7 +1984,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>http://greentowndiscount.com/</t>
+          <t>http://www.cannabis-xpress.com/</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2048,20 +1994,20 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>63dd3a784e9a4f005bc682c2</t>
+          <t>63079f4276de6f00a660608a</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pick-up', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>12267042190</v>
+        <v>16472434714</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -2074,17 +2020,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LASALLE</t>
+          <t>PORT HOPE</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Greentown</t>
+          <t>CANNABIS XPRESS</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>5994 MALDEN RD UNIT 3</t>
+          <t>5 QUINLAN DR UNIT B</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2094,7 +2040,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://greentowncannabis.com/</t>
+          <t>http://www.cannabis-xpress.com/</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2104,20 +2050,20 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>609c59eaf57edb00a09da192</t>
+          <t>60aed1fa629770009fb19a03</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>12267731006</v>
+        <v>12896343414</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -2130,17 +2076,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>RIDGETOWN</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GreenPort</t>
+          <t>CANNABIS XPRESS</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>686 COLLEGE ST</t>
+          <t>39 MAIN ST E</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2150,7 +2096,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>http://greenport.store/</t>
+          <t>http://www.cannabis-xpress.com/</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2160,20 +2106,20 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>632a3632ae6a2b00ac1ec89a</t>
+          <t>60e4b29402c20200a65849f0</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>14165362121</v>
+        <v>16472432664</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2186,17 +2132,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ALLISTON</t>
+          <t>SCARBOROUGH</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Green Grove</t>
+          <t>CANNABIS XPRESS</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>70 VICTORIA ST E SUITE 3</t>
+          <t>5005 STEELES AVE E UNIT 106</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2206,7 +2152,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>http://greengrove.ca/</t>
+          <t>http://www.cannabis-xpress.com/</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2216,7 +2162,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>5edd2dbd17c8c400aacd58b4</t>
+          <t>62a8a9039e87eb0095be00f9</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2225,11 +2171,11 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>17052500187</v>
+        <v>16472432106</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2242,17 +2188,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>KINGSTON</t>
+          <t>UXBRIDGE</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Giggles Cannabis</t>
+          <t>CANNABIS XPRESS</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>652 PRINCESS ST SUITE 108</t>
+          <t>170 REACH ST UNIT 2</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2262,7 +2208,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://kingstongiggles.com/</t>
+          <t>http://www.cannabis-xpress.com/</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2272,20 +2218,20 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>62e858e63967b40082a6aba1</t>
+          <t>6033fb7431af03263663ac3e</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>16135420377</v>
+        <v>12892012252</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2298,17 +2244,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>NORTH YORK</t>
+          <t>WASAGA BEACH</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FOGTOWN FLOWER</t>
+          <t>CANNABIS XPRESS</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4687 YONGE ST</t>
+          <t>930 RIVER RD W UNIT 1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2318,7 +2264,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>http://fogtown.ca/</t>
+          <t>http://www.cannabis-xpress.com/</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2328,41 +2274,43 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve">613fd98e2e64f800c74add5f </t>
+          <t>60aed1cdb9443d00c9d66e12</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>16478128873</v>
+        <v>12494880093</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
+      <c r="N34" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>OSHAWA</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Edition X</t>
+          <t>Canna Buzz</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>764 ST CLAIR AVE W</t>
+          <t>142 SIMCOE ST S</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2372,30 +2320,26 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://helloedition.com/</t>
+          <t>http://www.cannabuzzinc.ca/</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>5fa05f1cfc2d590101017618</t>
-        </is>
-      </c>
+          <t>Techpos</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>14165194460</v>
+        <v>19052596230</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['No delivery information', 'Same-day delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2408,17 +2352,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SAULT STE. MARIE</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Due North Cannabis</t>
+          <t xml:space="preserve">Canna Havana </t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>150 CHURCHILL BLVD UNIT C001</t>
+          <t>827 KING ST E UNIT A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2428,30 +2372,28 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>http://duenorthcannabis.com/</t>
+          <t>http://www.cannahavana.ca/</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>5ef5fb055eb50b00e392c351</t>
-        </is>
-      </c>
+          <t>Techpos</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>17059981935</v>
+          <t>['In-store pick-up', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['no phone number', 'mail - info@cannahavana.ca']</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2464,17 +2406,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>KITCHENER</t>
+          <t>OTTAWA</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DAB GLASS</t>
+          <t>CANNA NORTH CANNABIS STORE</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>685 FISCHER HALLMAN RD SUITE M</t>
+          <t>800 HUNT CLUB RD UNIT 3</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2484,30 +2426,26 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>http://shopdabglass.ca/</t>
+          <t>http://www.cannanorth.ca/</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>60e4a511dca91d00a81b7867</t>
-        </is>
-      </c>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>15192084527</v>
+        <v>16137366506</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2520,17 +2458,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BRANTFORD</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>COST CANNABIS</t>
+          <t>Canna North Cannabis Store</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>61 LYNDEN RD UNIT B4</t>
+          <t>117 YONGE ST</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2540,30 +2478,26 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>http://costcan.ca/</t>
+          <t>http://www.cannanorth.ca/</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>63864282925f8000e17fd63a</t>
-        </is>
-      </c>
+          <t>Techpos</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['In-store shopping']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>15197580000</v>
+        <v>14165194650</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2576,50 +2510,46 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PARIS</t>
+          <t>MISSISSAUGA</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Chillin Buds</t>
+          <t>Cantopia Cannabis Co.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1 HARTLEY AVE BUILDING A UNIT A6</t>
+          <t>6400 MILLCREEK DR UNIT 14</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Public Notice Period: Ended 2023/05/30</t>
+          <t>Authorized to Open</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://chillinbuds.com/</t>
+          <t>http://www.cantopia.ca/</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>612d270900432e00b065dead</t>
-        </is>
-      </c>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>15194429966</v>
+        <v>16479915455</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2632,17 +2562,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BEETON</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CANNABIS XPRESS</t>
+          <t xml:space="preserve">CANVAS CANNABIS </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>8 MAIN ST W</t>
+          <t>94 HARBORD ST</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2652,7 +2582,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>http://www.cannabis-xpress.com/</t>
+          <t>http://www.canvascannabis.ca/</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2662,20 +2592,20 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>61f8b018b3081b00a7e4806d</t>
+          <t>61991f214b28a50086f54ee6</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>16475472890</v>
+        <v>14165519456</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['No-delivery']</t>
+          <t>['No delivery / time unknown']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2688,17 +2618,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BRAMPTON</t>
+          <t>YORK</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CANNABIS XPRESS</t>
+          <t>Canvas Cannabis</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>11670 HURONTARIO ST UNIT 6</t>
+          <t>1285 WESTON RD</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2708,7 +2638,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>http://www.cannabis-xpress.com/</t>
+          <t>http://www.canvascannabis.ca/</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2718,16 +2648,16 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>619d0d70de36fb00a524ad2c</t>
+          <t>5e5d9099b14b240080d2452a</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>16472432682</v>
+        <v>14165513065</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2744,17 +2674,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>DELHI</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CANNABIS XPRESS</t>
+          <t>Canyon Cannabis</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>158 MAIN STREET OF DELHI</t>
+          <t>1864 QUEEN ST E</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2764,30 +2694,26 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>http://www.cannabis-xpress.com/</t>
+          <t>http://www.canyoncannabis.ca/</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>639c70ba04a4f500d825f21d</t>
-        </is>
-      </c>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>16472432124</v>
+        <v>14163039333</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['No delivery / permanently closed']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2800,17 +2726,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>LONDON</t>
+          <t>CAYUGA</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">CANNABIS LINK </t>
+          <t>Capturing Eden</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1225 WONDERLAND RD N UNIT 40A</t>
+          <t>11B CAYUGA STREET N</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2820,30 +2746,26 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>http://www.cannabislinkinc.com/</t>
+          <t>http://www.capturingeden.com/</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>5fe12a0a5652e700bc6624ad</t>
-        </is>
-      </c>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Kerbside pickup', 'In-store pick-up', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>15196574747</v>
+        <v>12895160070</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No delivery / permanently closed']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2856,17 +2778,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>LONDON</t>
+          <t>TILLSONBURG</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Cannabis Link</t>
+          <t>Capturing Eden</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1175 HYDE PARK RD UNIT 2B</t>
+          <t>52 SIMCOE ST</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2876,30 +2798,26 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>http://www.cannabislinkinc.com/</t>
+          <t>https://app.buddi.io/ecommerce/store/5459/menu</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>5efcaf8053ee9400f1baaccc</t>
-        </is>
-      </c>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>15196577979</v>
+        <v>15197182626</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2912,17 +2830,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>LONDON</t>
+          <t>TIMMINS</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Cannabis Link</t>
+          <t>CASA BLISS</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>390 SPRINGBANK DR UNIT 10B</t>
+          <t>82 THIRD AVE</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2932,7 +2850,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>http://www.cannabislinkinc.com/</t>
+          <t>http://www.casablisscannabis.com/</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2942,20 +2860,20 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>63cef96a67b9fe00b0cecc3d</t>
+          <t>602bddc81b82516323a97746</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>12268844747</v>
+        <v>17054839333</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -2973,12 +2891,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Cannabis Link</t>
+          <t>CLOUD 29 RICHMOND</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>509 COMMISSIONERS RD W UNIT A35</t>
+          <t>660 RICHMOND ST UNIT 6</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2988,30 +2906,26 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>http://www.cannabislinkinc.com/</t>
+          <t>http://www.cloud29.ca/</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>604142d7fad36600d0758e2d</t>
-        </is>
-      </c>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>15192045777</v>
+        <v>15192041229</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -3024,17 +2938,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>LONDON</t>
+          <t>WINDSOR</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Cannabis Link</t>
+          <t>CLOUD 29</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1295 HIGHBURY AVE N UNIT A6B</t>
+          <t>300 CABANA RD E SUITE 2</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3044,30 +2958,26 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>http://www.cannabislinkinc.com/</t>
+          <t>http://www.cloud29.ca/</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>603561b5f0941300bf77dfa8</t>
-        </is>
-      </c>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>15194577070</v>
+        <v>15199152987</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -3080,17 +2990,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SAULT STE. MARIE</t>
+          <t>THOROLD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Cannabis Jack's</t>
+          <t>Coconut Cannabis</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>518 GREAT NORTHERN RD UNIT 1</t>
+          <t>50 FRONT ST N</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3100,7 +3010,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>http://www.cannabisjacks.ca/</t>
+          <t>http://www.coconutcannabis.ca/</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3110,7 +3020,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>621567bc734be400a037b396</t>
+          <t>61606d714e16ae00daf2091c</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -3119,7 +3029,7 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>17052565225</v>
+        <v>19056808403</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3136,50 +3046,46 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SCARBOROUGH</t>
+          <t>MISSISSAUGA</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cannabis Hut Ltd.</t>
+          <t>COST CANNABIS</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2254 BIRCHMOUNT RD</t>
+          <t>918 DUNDAS ST E UNIT B</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>Public Notice: Ends on 2023/11/24</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>http://www.cannabishut.ca/</t>
+          <t>http://www.costcann.ca/</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>60ec7592c7c21f00ba6fd559</t>
-        </is>
-      </c>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>14162690639</v>
+        <v>14162660110</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery / time unknown']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -3192,17 +3098,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>BLIND RIVER</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cannabis Hut </t>
+          <t>Creekside Cannabis</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>699 COXWELL AVE UNIT G01 &amp; G02</t>
+          <t>26220 HWY 17</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3212,26 +3118,22 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>http://www.cannabishut.ca/</t>
+          <t>http://www.creeksidecannabis.ca/</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>638fa49f627e040095ac90bc</t>
-        </is>
-      </c>
+          <t>Techpos</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>16473688582</v>
+        <v>17053561339</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -3248,17 +3150,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>OWEN SOUND</t>
+          <t>GARSON</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Cannabis Grey Bruce</t>
+          <t>Dab Cannabis</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>236 8TH ST E</t>
+          <t>3481 FALCONBRIDGE HWY UNIT 1</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3268,26 +3170,22 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>http://www.cannabisgreybruce.ca/</t>
+          <t>http://www.dabcannabisstore.com/</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>60df8bdc1c562500bb62498e</t>
-        </is>
-      </c>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store shopping']</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>12266640681</v>
+        <v>17056934420</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -3304,17 +3202,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>DEEP RIVER</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CanaCulture Cannabis Store</t>
+          <t>Deep River Cannabis</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>914 EGLINTON AVE W</t>
+          <t>33155 HIGHWAY 17 EAST</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3324,30 +3222,26 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://canaculture.ca/</t>
+          <t>http://www.deeprivercannabis.com/</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>5fe2b0a97ae1a100f5c5aa85</t>
-        </is>
-      </c>
+          <t>Techpos</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>14167858325</v>
+        <v>16137174545</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3360,17 +3254,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>BELLE RIVER</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve">CABIN CANNABIS </t>
+          <t>Discounted Cannabis</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>688 BLOOR ST W</t>
+          <t>473 NOTRE DAME ST UNIT 3</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3380,26 +3274,22 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>http://www.cabincannabis.ca/</t>
+          <t>http://www.discountedcannabis.ca/</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>5f2c4160cb53ca00d7c50001</t>
-        </is>
-      </c>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['Kerbside pickup', 'In-store pick-up', 'In-store shopping']</t>
+          <t>['In-store shopping']</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>14165380688</v>
+        <v>15197280202</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -3416,17 +3306,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>CHATHAM</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Buzzed Buds</t>
+          <t>Discounted Cannabis</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1375 SOUTHDOWN RD UNIT 6</t>
+          <t>229 ST CLAIR ST</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3436,30 +3326,26 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>http://www.buzzedbuds.co/</t>
+          <t>http://www.discountedcannabis.ca/</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>6494cd4b4e5be60009acabef</t>
-        </is>
-      </c>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>16474058606</v>
+        <v>15193514454</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3472,17 +3358,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BRANTFORD</t>
+          <t>ESSEX</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BUDSSMOKE</t>
+          <t>DISCOUNTED CANNABIS</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>299 WAYNE GRETZKY PKY SUITE 5</t>
+          <t xml:space="preserve">4 TALBOT ST N </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3492,30 +3378,26 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>http://budssmoke.com/</t>
+          <t>http://www.discountedcannabis.ca/</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>6126c4088ae089009b8e8ce2</t>
-        </is>
-      </c>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store shopping']</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>12269172837</v>
+        <v>15197765335</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3528,17 +3410,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BURLINGTON</t>
+          <t>LEAMINGTON</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BUDSSMOKE</t>
+          <t>Discounted Cannabis</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2017 LAKESHORE RD</t>
+          <t>282 ERIE ST S UNIT A</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3548,30 +3430,26 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>http://budssmoke.com/</t>
+          <t>http://www.discountedcannabis.ca/</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>5f7d38d029883400facd32a9</t>
-        </is>
-      </c>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store shopping']</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>19056372837</v>
+        <v>15193251313</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3584,17 +3462,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MATTAWA</t>
+          <t>WINDSOR</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BUDSSMOKE</t>
+          <t>Discounted Cannabis</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>298 MAIN ST UNIT A</t>
+          <t>5929 WYANDOTTE ST E</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3604,30 +3482,26 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>http://budssmoke.com/</t>
+          <t>http://www.discountedcannabis.ca/</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>63ac522a24ce0700cf2cd11c</t>
-        </is>
-      </c>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>17057442839</v>
+        <v>15192586988</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3640,17 +3514,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>NORTH BAY</t>
+          <t>WINDSOR</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BUDSSMOKE</t>
+          <t>Discounted Cannabis</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1236 ALGONQUIN AVE UNIT B</t>
+          <t>2007 WYANDOTTE ST W</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3660,30 +3534,26 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>http://budssmoke.com/</t>
+          <t>http://www.discountedcannabis.ca/</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>6126c3a977dcda00b6cd237a</t>
-        </is>
-      </c>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store shopping']</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>17054970887</v>
+        <v>15199770304</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3696,17 +3566,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SUNDRIDGE</t>
+          <t>WINDSOR</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BUDSSMOKE</t>
+          <t>Discounted Cannabis</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>10425 HWY 124 UNIT B</t>
+          <t>1332 WYANDOTTE ST E</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3716,30 +3586,26 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>http://budssmoke.com/</t>
+          <t>http://www.discountedcannabis.ca/</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>6272b206da78bd00a6e7f67b</t>
-        </is>
-      </c>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>17053840899</v>
+        <v>15192586988</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3752,17 +3618,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PICKERING</t>
+          <t>BOBCAYGEON</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BUDSSMOKE</t>
+          <t>DOCKS</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>940 BROCK RD UNIT 3</t>
+          <t>7 KING ST E</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3772,30 +3638,26 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>http://www.budssmoke.com/</t>
+          <t>http://www.dockscannabis.ca/</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>60c77a5112bba400ca82bdc9</t>
-        </is>
-      </c>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>12892102837</v>
+        <v>17054006754</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3805,900 +3667,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>ST CATHARINES</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>BUDSSMOKE</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>186 LAKE ST</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>http://www.budssmoke.com/</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>6126c36e566a61009c2b3090</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
-        <v>12898162837</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>['Delivery', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>CALLANDER</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>BUDSSMOKE</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>6 MAIN ST S UNIT 4</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>https://budssmoke.com/6-main-street-south-callander/</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>642f1ce57f22fc00c0a5be1f</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>['Delivery', 'In-store shopping']</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>17057523333</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>['Delivery', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>GUELPH</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>BUD'S CANNABIS STORE</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>370 STONE RD W UNIT 4B</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>http://www.budscannabisstore.ca/</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Dutchie/Buddi</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>5f4416ed23690900fae74899</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>15198212837</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>['No-delivery']</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>BARRIE</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>BUDS 4 LESS</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>489 YONGE ST UNIT 2</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>http://www.buds4less.ca/</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>60ee00a567496700c951430f</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>['In-store shopping']</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>17054810124</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>['No-delivery']</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>ORLEANS</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>BUDGET BUD ORLEANS TOWN CENTER</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>250 CENTRUM BLVD UNIT 105A</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>http://www.budget-bud.com/orleans</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>60e479140aa679304130c809</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
-        <v>16138303335</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>['No delivery']</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>HAMILTON</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>BUD BROTHERS CANNABIS</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>1568 MAIN ST W</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>https://budbrotherscannabis.ca/</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>60a2acc7143d8600a7a11f35</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>12897685659</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>['Delivery', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>LASALLE</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>BRO CANNABIS INC.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>2596 FRONT RD UNIT 1</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>https://www.brocannabis.ca/</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>62cafd003b150b0080d2a796</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>12263405531</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>['Delivery', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>TORONTO</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Bonnefire</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>129 MUNRO ST</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>http://bonnefire.ca/</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>627eb92e88f7de00a435c07d</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>14164630420</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>['Delivery', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>TORONTO</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Body and Spirit Cannabis</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>361 YONGE ST</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>https://bodyandspiritcannabis.com/</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>5e45c5d96a6aef00702ed11f</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>16478125989</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>['Delivery']</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>BRAMPTON</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Bodega Boyz</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>69 BRAMALEA RD SUITE 3</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>http://www.bodegaboyz.ca/</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>61d38e4ca8388a008cb50d87</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>['In-store shopping']</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>19054580439</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>['Delivery']</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>GEORGETOWN</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>BODEGA BOYZ</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>68-78 MAIN ST N UNIT 2 &amp; 3</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>http://www.bodegaboyz.ca/</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>61d38df67bdd52009766d458</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
-        <v>19057028797</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>['No-delivery']</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>KANATA</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>BLUEBIRD CANNABIS MARCH ROAD</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>806 MARCH RD</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>http://bluebirdcannabis.store/</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>601abc789ec2de3539c94656</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>16135923222</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>['Delivery']</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>KANATA</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>BLUEBIRD CANNABIS CO.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>499 TERRY FOX DR UNIT 60</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>http://bluebirdcannabis.store/</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>5fac6a5955a05800c45083bd</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>16136722233</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>['Delivery', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>ALMONTE</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Bluebird Almonte</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>14 MILL ST UNIT 8A</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>http://bluebirdcannabis.store/</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>608c1dbd89a04b00cadc09b0</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>16134610091</v>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>['Delivery', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>BRADFORD</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>ATLAS CANNABIS CLUB</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>78 BRIDGE ST</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>http://www.atlascannabis.net/</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>61006d51de65d700be55e7f2</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>16475172045</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>['No delivery']</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>HAMILTON</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>AFFX CANNABIS</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>919 UPPER PARADISE RD UNIT 5</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>http://www.affxcannabis.ca/</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>6010a9348eb69600e3e4fbb9</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>12897550420</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>['Delivery', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="b">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,17 +508,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OTTAWA</t>
+          <t>BARRIE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Athena Cannabis</t>
+          <t>BUDS 4 LESS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>782 EAGLESON RD UNIT D4</t>
+          <t>489 YONGE ST UNIT 2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -528,22 +528,26 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>http://www.athenacannabis.ca/</t>
+          <t>http://www.buds4less.ca/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Techpos</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>60ee00a567496700c951430f</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store shopping']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>16135951420</v>
+        <v>17054810124</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -560,17 +564,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BANCROFT</t>
+          <t>GUELPH</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BANCROFT CANNABIS</t>
+          <t>BUD'S CANNABIS STORE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7 STATION ST RR 1</t>
+          <t>370 STONE RD W UNIT 4B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -580,22 +584,26 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>http://www.bancroftcannabis.ca/</t>
+          <t>http://www.budscannabisstore.ca/</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Techpos</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t>Dutchie/Buddi</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5f4416ed23690900fae74899</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>16133320250</v>
+        <v>15198212837</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -612,17 +620,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LONDON</t>
+          <t>OTTAWA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Benkz Budz </t>
+          <t>BYTOWN BUDZZ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>699 WILKINS ST UNIT 17</t>
+          <t>373 SOMERSET ST W</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -632,7 +640,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>http://www.benkzbudz.com/</t>
+          <t>http://www.bytownbudzz.com/</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -643,11 +651,11 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>15196686858</v>
+        <v>16132382839</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -664,17 +672,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OTTAWA</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The Big Bamboo Cannabis Company</t>
+          <t xml:space="preserve">CABIN CANNABIS </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>144 RENFREW AVE UNIT C1</t>
+          <t>688 BLOOR ST W</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -684,22 +692,26 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>http://www.bigbamboocannabis.com/</t>
+          <t>http://www.cabincannabis.ca/</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Buddi</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5f2c4160cb53ca00d7c50001</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Kerbside pickup', 'In-store pick-up', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>16134225544</v>
+        <v>14165380688</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -716,17 +728,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>BURLINGTON</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Blackstar Cannabis</t>
+          <t>Canada Buds</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>666 BURNHAMTHORPE RD UNIT C</t>
+          <t>1860 APPLEBY LINE UNIT 11B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -736,22 +748,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>http://www.blackstarcannabis.ca/</t>
+          <t>http://www.canada-buds.ca/</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Buddi</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>14378870872</v>
+        <v>19053192934</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -768,17 +780,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IROQUOIS FALLS</t>
+          <t>ST CATHARINES</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Blazeco Cannabis</t>
+          <t>Canada Buds</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>231 AMBRIDGE DRIVE</t>
+          <t>595 CARLTON ST UNIT 28</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -788,22 +800,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>http://www.blazeco.ca/</t>
+          <t>http://www.canada-buds.ca/</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Buddi</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['In-store pick-up', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>17052691688</v>
+        <v>19059352102</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -820,17 +832,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MANOTICK</t>
+          <t>ARNPRIOR</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Blue Haven Cannabis</t>
+          <t>ARNPRIOR CANNABIS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>990 RIVER RD UNIT 8</t>
+          <t>8 ELGIN ST W</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -840,12 +852,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>http://www.bluehavencannabis.com/</t>
+          <t>http://www.cannabisarnprior.com/</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Buddi</t>
+          <t>Techpos</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -855,7 +867,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>16136922639</v>
+        <v>16136232423</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -872,17 +884,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HAMILTON</t>
+          <t>OWEN SOUND</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Blue Sage Cannabis</t>
+          <t>Cannabis Grey Bruce</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>835 KING ST E</t>
+          <t>236 8TH ST E</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -892,22 +904,26 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>http://www.bluesagehamilton.ca/</t>
+          <t>http://www.cannabisgreybruce.ca/</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Buddi</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>60df8bdc1c562500bb62498e</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>19055442555</v>
+        <v>12266640681</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -924,17 +940,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GEORGETOWN</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BODEGA BOYZ</t>
+          <t xml:space="preserve">Cannabis Hut </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>68-78 MAIN ST N UNIT 2 &amp; 3</t>
+          <t>699 COXWELL AVE UNIT G01 &amp; G02</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -944,7 +960,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>http://www.bodegaboyz.ca/</t>
+          <t>http://www.cannabishut.ca/</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -954,16 +970,16 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>61d38df67bdd52009766d458</t>
+          <t>638fa49f627e040095ac90bc</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>19057028797</v>
+        <v>16473688582</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -980,17 +996,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHATHAM</t>
+          <t>SAULT STE. MARIE</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bud Bank</t>
+          <t>Cannabis Jack's</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>445 RICHMOND ST</t>
+          <t>518 GREAT NORTHERN RD UNIT 1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1000,22 +1016,26 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>http://www.budbank.shop/</t>
+          <t>http://www.cannabisjacks.ca/</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>621567bc734be400a037b396</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>18774420420</v>
+        <v>17052565225</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1032,17 +1052,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BARRIE</t>
+          <t>NORTH YORK</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BUDS 4 LESS</t>
+          <t>CANNABIS STATION</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>489 YONGE ST UNIT 2</t>
+          <t>2292 KEELE ST</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1052,26 +1072,22 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>http://www.buds4less.ca/</t>
+          <t>http://www.cannabisstn.com/</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>60ee00a567496700c951430f</t>
-        </is>
-      </c>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>17054810124</v>
+        <v>16473651896</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1088,17 +1104,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GUELPH</t>
+          <t>BEETON</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BUD'S CANNABIS STORE</t>
+          <t>CANNABIS XPRESS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>370 STONE RD W UNIT 4B</t>
+          <t>8 MAIN ST W</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1108,26 +1124,26 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>http://www.budscannabisstore.ca/</t>
+          <t>http://www.cannabis-xpress.com/</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dutchie/Buddi</t>
+          <t>Dutchie</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>5f4416ed23690900fae74899</t>
+          <t>61f8b018b3081b00a7e4806d</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>15198212837</v>
+        <v>16475472890</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1144,17 +1160,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>OTTAWA</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BYTOWN BUDZZ</t>
+          <t>CANNABIS XPRESS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>373 SOMERSET ST W</t>
+          <t>11670 HURONTARIO ST UNIT 6</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1164,22 +1180,26 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>http://www.bytownbudzz.com/</t>
+          <t>http://www.cannabis-xpress.com/</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Buddi</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>619d0d70de36fb00a524ad2c</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>16132382839</v>
+        <v>16472432682</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1196,17 +1216,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>DELHI</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">CABIN CANNABIS </t>
+          <t>CANNABIS XPRESS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>688 BLOOR ST W</t>
+          <t>158 MAIN STREET OF DELHI</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1216,7 +1236,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>http://www.cabincannabis.ca/</t>
+          <t>http://www.cannabis-xpress.com/</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1226,16 +1246,16 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>5f2c4160cb53ca00d7c50001</t>
+          <t>639c70ba04a4f500d825f21d</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['Kerbside pickup', 'In-store pick-up', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>14165380688</v>
+        <v>16472432124</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1252,17 +1272,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BURLINGTON</t>
+          <t>HAMPTON</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Canada Buds</t>
+          <t>CANNABIS XPRESS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1860 APPLEBY LINE UNIT 11B</t>
+          <t>1648 TAUNTON RD E UNIT 2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1272,22 +1292,26 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>http://www.canada-buds.ca/</t>
+          <t>http://www.cannabis-xpress.com/</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>6205908036556e00ad753208</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Kerbside pickup', 'In-store pick-up', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>19053192934</v>
+        <v>16474907753</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1304,17 +1328,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ST CATHARINES</t>
+          <t>HILLSDALE</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Canada Buds</t>
+          <t>CANNABIS XPRESS</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>595 CARLTON ST UNIT 28</t>
+          <t>4570 PENETANGUISHENE RD</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1324,22 +1348,26 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>http://www.canada-buds.ca/</t>
+          <t>http://www.cannabis-xpress.com/</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>60aed1ac3abb70009f6ad118</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>19059352102</v>
+        <v>12494870029</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1356,17 +1384,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ARNPRIOR</t>
+          <t>NORTH GOWER</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ARNPRIOR CANNABIS</t>
+          <t>CANNABIS XPRESS</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>8 ELGIN ST W</t>
+          <t>2333 CHURCH STREET, UNIT 3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1376,22 +1404,26 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>http://www.cannabisarnprior.com/</t>
+          <t>http://www.cannabis-xpress.com/</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Techpos</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>6318a91bbb864e00bf9822e3</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>16136232423</v>
+        <v>16474967952</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1408,17 +1440,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OWEN SOUND</t>
+          <t>PICKERING</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cannabis Grey Bruce</t>
+          <t>CANNABIS XPRESS</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>236 8TH ST E</t>
+          <t>1692 CENTRAL ST UNIT 1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1428,7 +1460,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>http://www.cannabisgreybruce.ca/</t>
+          <t>http://www.cannabis-xpress.com/</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1438,16 +1470,16 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>60df8bdc1c562500bb62498e</t>
+          <t>63079f4276de6f00a660608a</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>12266640681</v>
+        <v>16472434714</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1464,17 +1496,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>PORT HOPE</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cannabis Hut </t>
+          <t>CANNABIS XPRESS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>699 COXWELL AVE UNIT G01 &amp; G02</t>
+          <t>5 QUINLAN DR UNIT B</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1484,7 +1516,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>http://www.cannabishut.ca/</t>
+          <t>http://www.cannabis-xpress.com/</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1494,16 +1526,16 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>638fa49f627e040095ac90bc</t>
+          <t>60aed1fa629770009fb19a03</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>16473688582</v>
+        <v>12896343414</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1520,17 +1552,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SAULT STE. MARIE</t>
+          <t>RIDGETOWN</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cannabis Jack's</t>
+          <t>CANNABIS XPRESS</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>518 GREAT NORTHERN RD UNIT 1</t>
+          <t>39 MAIN ST E</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1540,7 +1572,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>http://www.cannabisjacks.ca/</t>
+          <t>http://www.cannabis-xpress.com/</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1550,7 +1582,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>621567bc734be400a037b396</t>
+          <t>60e4b29402c20200a65849f0</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1559,7 +1591,7 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>17052565225</v>
+        <v>16472432664</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1576,17 +1608,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NORTH YORK</t>
+          <t>SCARBOROUGH</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CANNABIS STATION</t>
+          <t>CANNABIS XPRESS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2292 KEELE ST</t>
+          <t>5005 STEELES AVE E UNIT 106</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1596,22 +1628,26 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>http://www.cannabisstn.com/</t>
+          <t>http://www.cannabis-xpress.com/</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Buddi</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>62a8a9039e87eb0095be00f9</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>16473651896</v>
+        <v>16472432106</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1628,7 +1664,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BEETON</t>
+          <t>UXBRIDGE</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1638,7 +1674,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>8 MAIN ST W</t>
+          <t>170 REACH ST UNIT 2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1658,16 +1694,16 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>61f8b018b3081b00a7e4806d</t>
+          <t>6033fb7431af03263663ac3e</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>16475472890</v>
+        <v>12892012252</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1684,7 +1720,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BRAMPTON</t>
+          <t>WASAGA BEACH</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1694,7 +1730,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>11670 HURONTARIO ST UNIT 6</t>
+          <t>930 RIVER RD W UNIT 1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1714,16 +1750,16 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>619d0d70de36fb00a524ad2c</t>
+          <t>60aed1cdb9443d00c9d66e12</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>16472432682</v>
+        <v>12494880093</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1740,17 +1776,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DELHI</t>
+          <t>OSHAWA</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CANNABIS XPRESS</t>
+          <t>Canna Buzz</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>158 MAIN STREET OF DELHI</t>
+          <t>142 SIMCOE ST S</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1760,26 +1796,22 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>http://www.cannabis-xpress.com/</t>
+          <t>http://www.cannabuzzinc.ca/</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>639c70ba04a4f500d825f21d</t>
-        </is>
-      </c>
+          <t>Techpos</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>16472432124</v>
+        <v>19052596230</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1796,17 +1828,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HAMPTON</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CANNABIS XPRESS</t>
+          <t xml:space="preserve">Canna Havana </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1648 TAUNTON RD E UNIT 2</t>
+          <t>827 KING ST E UNIT A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1816,26 +1848,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>http://www.cannabis-xpress.com/</t>
+          <t>http://www.cannahavana.ca/</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>6205908036556e00ad753208</t>
-        </is>
-      </c>
+          <t>Techpos</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['Kerbside pickup', 'In-store pick-up', 'In-store shopping', 'No delivery']</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>16474907753</v>
+          <t>['In-store pick-up', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['no phone number', 'mail - info@cannahavana.ca']</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1852,17 +1882,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HILLSDALE</t>
+          <t>OTTAWA</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CANNABIS XPRESS</t>
+          <t>CANNA NORTH CANNABIS STORE</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4570 PENETANGUISHENE RD</t>
+          <t>800 HUNT CLUB RD UNIT 3</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1872,26 +1902,22 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>http://www.cannabis-xpress.com/</t>
+          <t>http://www.cannanorth.ca/</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>60aed1ac3abb70009f6ad118</t>
-        </is>
-      </c>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>12494870029</v>
+        <v>16137366506</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1908,17 +1934,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>NORTH GOWER</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CANNABIS XPRESS</t>
+          <t>Canna North Cannabis Store</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2333 CHURCH STREET, UNIT 3</t>
+          <t>117 YONGE ST</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1928,26 +1954,22 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>http://www.cannabis-xpress.com/</t>
+          <t>http://www.cannanorth.ca/</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>6318a91bbb864e00bf9822e3</t>
-        </is>
-      </c>
+          <t>Techpos</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>16474967952</v>
+        <v>14165194650</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1964,17 +1986,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PICKERING</t>
+          <t>MISSISSAUGA</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CANNABIS XPRESS</t>
+          <t>Cantopia Cannabis Co.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1692 CENTRAL ST UNIT 1</t>
+          <t>6400 MILLCREEK DR UNIT 14</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1984,26 +2006,22 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>http://www.cannabis-xpress.com/</t>
+          <t>http://www.cantopia.ca/</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>63079f4276de6f00a660608a</t>
-        </is>
-      </c>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>16472434714</v>
+        <v>16479915455</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2020,17 +2038,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PORT HOPE</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CANNABIS XPRESS</t>
+          <t xml:space="preserve">CANVAS CANNABIS </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>5 QUINLAN DR UNIT B</t>
+          <t>94 HARBORD ST</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2040,7 +2058,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>http://www.cannabis-xpress.com/</t>
+          <t>http://www.canvascannabis.ca/</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2050,20 +2068,20 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>60aed1fa629770009fb19a03</t>
+          <t>61991f214b28a50086f54ee6</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>12896343414</v>
+        <v>14165519456</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['No-delivery']</t>
+          <t>['No delivery / time unknown']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -2076,17 +2094,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RIDGETOWN</t>
+          <t>YORK</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CANNABIS XPRESS</t>
+          <t>Canvas Cannabis</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>39 MAIN ST E</t>
+          <t>1285 WESTON RD</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2096,7 +2114,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>http://www.cannabis-xpress.com/</t>
+          <t>http://www.canvascannabis.ca/</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2106,16 +2124,16 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>60e4b29402c20200a65849f0</t>
+          <t>5e5d9099b14b240080d2452a</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>16472432664</v>
+        <v>14165513065</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2132,17 +2150,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SCARBOROUGH</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CANNABIS XPRESS</t>
+          <t>Canyon Cannabis</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>5005 STEELES AVE E UNIT 106</t>
+          <t>1864 QUEEN ST E</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2152,53 +2170,47 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>http://www.cannabis-xpress.com/</t>
+          <t>http://www.canyoncannabis.ca/</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>62a8a9039e87eb0095be00f9</t>
-        </is>
-      </c>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>16472432106</v>
+        <v>14163039333</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['No-delivery']</t>
+          <t>['permanently closed']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="b">
-        <v>1</v>
-      </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>UXBRIDGE</t>
+          <t>CAYUGA</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CANNABIS XPRESS</t>
+          <t>Capturing Eden</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>170 REACH ST UNIT 2</t>
+          <t>11B CAYUGA STREET N</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2208,53 +2220,47 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>http://www.cannabis-xpress.com/</t>
+          <t>http://www.capturingeden.com/</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>6033fb7431af03263663ac3e</t>
-        </is>
-      </c>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Kerbside pickup', 'In-store pick-up', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>12892012252</v>
+        <v>12895160070</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['No-delivery']</t>
+          <t>['permanently closed']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="b">
-        <v>1</v>
-      </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>WASAGA BEACH</t>
+          <t>TILLSONBURG</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CANNABIS XPRESS</t>
+          <t>Capturing Eden</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>930 RIVER RD W UNIT 1</t>
+          <t>52 SIMCOE ST</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2264,26 +2270,22 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>http://www.cannabis-xpress.com/</t>
+          <t>https://app.buddi.io/ecommerce/store/5459/menu</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>60aed1cdb9443d00c9d66e12</t>
-        </is>
-      </c>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
           <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>12494880093</v>
+        <v>15197182626</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2300,17 +2302,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>OSHAWA</t>
+          <t>TIMMINS</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Canna Buzz</t>
+          <t>CASA BLISS</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>142 SIMCOE ST S</t>
+          <t>82 THIRD AVE</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2320,22 +2322,26 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>http://www.cannabuzzinc.ca/</t>
+          <t>http://www.casablisscannabis.com/</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Techpos</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>602bddc81b82516323a97746</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>19052596230</v>
+        <v>17054839333</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2352,17 +2358,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CAMBRIDGE</t>
+          <t>LONDON</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Canna Havana </t>
+          <t>CLOUD 29 RICHMOND</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>827 KING ST E UNIT A</t>
+          <t>660 RICHMOND ST UNIT 6</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2372,24 +2378,22 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>http://www.cannahavana.ca/</t>
+          <t>http://www.cloud29.ca/</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Techpos</t>
+          <t>Buddi</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['In-store pick-up', 'In-store shopping']</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>['no phone number', 'mail - info@cannahavana.ca']</t>
-        </is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>15192041229</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2406,17 +2410,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>OTTAWA</t>
+          <t>WINDSOR</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CANNA NORTH CANNABIS STORE</t>
+          <t>CLOUD 29</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>800 HUNT CLUB RD UNIT 3</t>
+          <t>300 CABANA RD E SUITE 2</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2426,7 +2430,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>http://www.cannanorth.ca/</t>
+          <t>http://www.cloud29.ca/</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2437,11 +2441,11 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>16137366506</v>
+        <v>15199152987</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2458,17 +2462,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>THOROLD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Canna North Cannabis Store</t>
+          <t>Coconut Cannabis</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>117 YONGE ST</t>
+          <t>50 FRONT ST N</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2478,22 +2482,26 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>http://www.cannanorth.ca/</t>
+          <t>http://www.coconutcannabis.ca/</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Techpos</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>61606d714e16ae00daf2091c</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>14165194650</v>
+        <v>19056808403</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2515,41 +2523,41 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Cantopia Cannabis Co.</t>
+          <t>COST CANNABIS</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>6400 MILLCREEK DR UNIT 14</t>
+          <t>918 DUNDAS ST E UNIT B</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>Public Notice: Ends on 2023/11/24</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>http://www.cantopia.ca/</t>
+          <t>http://www.costcann.ca/</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Page doesn't exist</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>16479915455</v>
+        <v>14162660110</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['No-delivery']</t>
+          <t>['No delivery / time unknown']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2562,17 +2570,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>BLIND RIVER</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">CANVAS CANNABIS </t>
+          <t>Creekside Cannabis</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>94 HARBORD ST</t>
+          <t>26220 HWY 17</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2582,30 +2590,26 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>http://www.canvascannabis.ca/</t>
+          <t>http://www.creeksidecannabis.ca/</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>61991f214b28a50086f54ee6</t>
-        </is>
-      </c>
+          <t>Techpos</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>14165519456</v>
+        <v>17053561339</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['No delivery / time unknown']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2618,17 +2622,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>YORK</t>
+          <t>GARSON</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Canvas Cannabis</t>
+          <t>Dab Cannabis</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1285 WESTON RD</t>
+          <t>3481 FALCONBRIDGE HWY UNIT 1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2638,26 +2642,22 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>http://www.canvascannabis.ca/</t>
+          <t>http://www.dabcannabisstore.com/</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>5e5d9099b14b240080d2452a</t>
-        </is>
-      </c>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store shopping']</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>14165513065</v>
+        <v>17056934420</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2674,17 +2674,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>DEEP RIVER</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Canyon Cannabis</t>
+          <t>Deep River Cannabis</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1864 QUEEN ST E</t>
+          <t>33155 HIGHWAY 17 EAST</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2694,26 +2694,26 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>http://www.canyoncannabis.ca/</t>
+          <t>http://www.deeprivercannabis.com/</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Techpos</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>14163039333</v>
+        <v>16137174545</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['No delivery / permanently closed']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2726,17 +2726,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CAYUGA</t>
+          <t>BELLE RIVER</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Capturing Eden</t>
+          <t>Discounted Cannabis</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>11B CAYUGA STREET N</t>
+          <t>473 NOTRE DAME ST UNIT 3</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2746,26 +2746,26 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>http://www.capturingeden.com/</t>
+          <t>http://www.discountedcannabis.ca/</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Buddi</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['Kerbside pickup', 'In-store pick-up', 'In-store shopping']</t>
+          <t>['In-store shopping']</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>12895160070</v>
+        <v>15197280202</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['No delivery / permanently closed']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2778,17 +2778,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>TILLSONBURG</t>
+          <t>CHATHAM</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Capturing Eden</t>
+          <t>Discounted Cannabis</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>52 SIMCOE ST</t>
+          <t>229 ST CLAIR ST</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2798,7 +2798,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://app.buddi.io/ecommerce/store/5459/menu</t>
+          <t>http://www.discountedcannabis.ca/</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2809,11 +2809,11 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>15197182626</v>
+        <v>15193514454</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2830,17 +2830,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>TIMMINS</t>
+          <t>ESSEX</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CASA BLISS</t>
+          <t>DISCOUNTED CANNABIS</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>82 THIRD AVE</t>
+          <t xml:space="preserve">4 TALBOT ST N </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2850,26 +2850,22 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>http://www.casablisscannabis.com/</t>
+          <t>http://www.discountedcannabis.ca/</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>602bddc81b82516323a97746</t>
-        </is>
-      </c>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store shopping']</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>17054839333</v>
+        <v>15197765335</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2886,17 +2882,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>LONDON</t>
+          <t>LEAMINGTON</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CLOUD 29 RICHMOND</t>
+          <t>Discounted Cannabis</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>660 RICHMOND ST UNIT 6</t>
+          <t>282 ERIE ST S UNIT A</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2906,7 +2902,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>http://www.cloud29.ca/</t>
+          <t>http://www.discountedcannabis.ca/</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2917,11 +2913,11 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['In-store shopping']</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>15192041229</v>
+        <v>15193251313</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2943,12 +2939,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CLOUD 29</t>
+          <t>Discounted Cannabis</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>300 CABANA RD E SUITE 2</t>
+          <t>5929 WYANDOTTE ST E</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2958,7 +2954,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>http://www.cloud29.ca/</t>
+          <t>http://www.discountedcannabis.ca/</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2969,11 +2965,11 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>15199152987</v>
+        <v>15192586988</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2990,17 +2986,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>THOROLD</t>
+          <t>WINDSOR</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Coconut Cannabis</t>
+          <t>Discounted Cannabis</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>50 FRONT ST N</t>
+          <t>2007 WYANDOTTE ST W</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3010,26 +3006,22 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>http://www.coconutcannabis.ca/</t>
+          <t>http://www.discountedcannabis.ca/</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>61606d714e16ae00daf2091c</t>
-        </is>
-      </c>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['In-store shopping']</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>19056808403</v>
+        <v>15199770304</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3046,46 +3038,46 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>WINDSOR</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>COST CANNABIS</t>
+          <t>Discounted Cannabis</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>918 DUNDAS ST E UNIT B</t>
+          <t>1332 WYANDOTTE ST E</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Public Notice: Ends on 2023/11/24</t>
+          <t>Authorized to Open</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>http://www.costcann.ca/</t>
+          <t>http://www.discountedcannabis.ca/</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Page doesn't exist</t>
+          <t>Buddi</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>14162660110</v>
+        <v>15192586988</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['No delivery / time unknown']</t>
+          <t>['No-delivery']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -3098,17 +3090,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BLIND RIVER</t>
+          <t>BOBCAYGEON</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Creekside Cannabis</t>
+          <t>DOCKS</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>26220 HWY 17</t>
+          <t>7 KING ST E</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3118,22 +3110,22 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>http://www.creeksidecannabis.ca/</t>
+          <t>http://www.dockscannabis.ca/</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Techpos</t>
+          <t>Buddi</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>17053561339</v>
+        <v>17054006754</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -3150,17 +3142,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>GARSON</t>
+          <t>SAULT STE. MARIE</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Dab Cannabis</t>
+          <t>Due North Cannabis Co.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>3481 FALCONBRIDGE HWY UNIT 1</t>
+          <t>695 PINE ST UNIT T6</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3170,22 +3162,26 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>http://www.dabcannabisstore.com/</t>
+          <t>http://www.duenorthcannabis.com/</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>6080a9ac26a10800c1ee4941</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>17056934420</v>
+        <v>17059983330</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -3199,474 +3195,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>DEEP RIVER</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Deep River Cannabis</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>33155 HIGHWAY 17 EAST</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>http://www.deeprivercannabis.com/</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Techpos</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>16137174545</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>['No-delivery']</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>BELLE RIVER</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Discounted Cannabis</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>473 NOTRE DAME ST UNIT 3</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>http://www.discountedcannabis.ca/</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Buddi</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>['In-store shopping']</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>15197280202</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>['No-delivery']</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>CHATHAM</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Discounted Cannabis</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>229 ST CLAIR ST</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>http://www.discountedcannabis.ca/</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Buddi</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>15193514454</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>['No-delivery']</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>ESSEX</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>DISCOUNTED CANNABIS</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4 TALBOT ST N </t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>http://www.discountedcannabis.ca/</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Buddi</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>['In-store shopping']</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
-        <v>15197765335</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>['No-delivery']</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>LEAMINGTON</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Discounted Cannabis</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>282 ERIE ST S UNIT A</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>http://www.discountedcannabis.ca/</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Buddi</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>['In-store shopping']</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>15193251313</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>['No-delivery']</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>WINDSOR</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Discounted Cannabis</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>5929 WYANDOTTE ST E</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>http://www.discountedcannabis.ca/</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Buddi</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>15192586988</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>['No-delivery']</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>WINDSOR</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Discounted Cannabis</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>2007 WYANDOTTE ST W</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>http://www.discountedcannabis.ca/</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Buddi</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>['In-store shopping']</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>15199770304</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>['No-delivery']</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>WINDSOR</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Discounted Cannabis</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>1332 WYANDOTTE ST E</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>http://www.discountedcannabis.ca/</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Buddi</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>15192586988</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>['No-delivery']</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>BOBCAYGEON</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>DOCKS</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>7 KING ST E</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>http://www.dockscannabis.ca/</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Buddi</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
-        <v>17054006754</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>['No-delivery']</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="b">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,17 +508,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TIMMINS</t>
+          <t>BRADFORD</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CASA BLISS</t>
+          <t>ATLAS CANNABIS CLUB</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>82 THIRD AVE</t>
+          <t>78 BRIDGE ST</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>http://www.casablisscannabis.com/</t>
+          <t>http://www.atlascannabis.net/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -538,20 +538,20 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>602bddc81b82516323a97746</t>
+          <t>61006d51de65d700be55e7f2</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>17054839333</v>
+        <v>16475172045</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['No-delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -564,17 +564,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>ALMONTE</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">CANVAS CANNABIS </t>
+          <t>Bluebird Almonte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>94 HARBORD ST</t>
+          <t>14 MILL ST UNIT 8A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -584,7 +584,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>http://www.canvascannabis.ca/</t>
+          <t>http://bluebirdcannabis.store/</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -594,20 +594,20 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>61991f214b28a50086f54ee6</t>
+          <t>608c1dbd89a04b00cadc09b0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>14165519456</v>
+        <v>16134610091</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['No delivery / time unknown']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -617,6 +617,3552 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>KANATA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BLUEBIRD CANNABIS CO.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>499 TERRY FOX DR UNIT 60</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>http://bluebirdcannabis.store/</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5fac6a5955a05800c45083bd</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>16136722233</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>KANATA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BLUEBIRD CANNABIS MARCH ROAD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>806 MARCH RD</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>http://bluebirdcannabis.store/</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>601abc789ec2de3539c94656</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>16135923222</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BRAMPTON</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bodega Boyz</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>69 BRAMALEA RD SUITE 3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>http://www.bodegaboyz.ca/</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>61d38e4ca8388a008cb50d87</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>19054580439</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Body and Spirit Cannabis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>361 YONGE ST</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://bodyandspiritcannabis.com/</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5e45c5d96a6aef00702ed11f</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>16478125989</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bonnefire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>129 MUNRO ST</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>http://bonnefire.ca/</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>627eb92e88f7de00a435c07d</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>14164630420</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LASALLE</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BRO CANNABIS INC.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2596 FRONT RD UNIT 1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://www.brocannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>62cafd003b150b0080d2a796</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>12263405531</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HAMILTON</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BUD BROTHERS CANNABIS</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1568 MAIN ST W</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://budbrotherscannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>60a2acc7143d8600a7a11f35</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>12897685659</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ORLEANS</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BUDGET BUD ORLEANS TOWN CENTER</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>250 CENTRUM BLVD UNIT 105A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>http://www.budget-bud.com/orleans</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>60e479140aa679304130c809</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>16138303335</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BRANTFORD</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BUDSSMOKE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>299 WAYNE GRETZKY PKY SUITE 5</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>http://budssmoke.com/</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>6126c4088ae089009b8e8ce2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>12269172837</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BURLINGTON</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BUDSSMOKE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2017 LAKESHORE RD</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>http://budssmoke.com/</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>5f7d38d029883400facd32a9</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>19056372837</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MATTAWA</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BUDSSMOKE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>298 MAIN ST UNIT A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>http://budssmoke.com/</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>63ac522a24ce0700cf2cd11c</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>17057442839</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NORTH BAY</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BUDSSMOKE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1236 ALGONQUIN AVE UNIT B</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>http://budssmoke.com/</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>6126c3a977dcda00b6cd237a</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>17054970887</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SUNDRIDGE</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>BUDSSMOKE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>10425 HWY 124 UNIT B</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>http://budssmoke.com/</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>6272b206da78bd00a6e7f67b</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>17053840899</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PICKERING</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>BUDSSMOKE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>940 BROCK RD UNIT 3</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>http://www.budssmoke.com/</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>60c77a5112bba400ca82bdc9</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>12892102837</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ST CATHARINES</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BUDSSMOKE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>186 LAKE ST</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>http://www.budssmoke.com/</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>6126c36e566a61009c2b3090</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>12898162837</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CALLANDER</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BUDSSMOKE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>6 MAIN ST S UNIT 4</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://budssmoke.com/6-main-street-south-callander/</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>642f1ce57f22fc00c0a5be1f</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>17057523333</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CanaCulture Cannabis Store</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>914 EGLINTON AVE W</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://canaculture.ca/</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>5fe2b0a97ae1a100f5c5aa85</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>14167858325</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>LONDON</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Cannabis Link</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1175 HYDE PARK RD UNIT 2B</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>http://www.cannabislinkinc.com/</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>5efcaf8053ee9400f1baaccc</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>15196577979</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>LONDON</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Cannabis Link</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>390 SPRINGBANK DR UNIT 10B</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>http://www.cannabislinkinc.com/</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>63cef96a67b9fe00b0cecc3d</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>12268844747</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>LONDON</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Cannabis Link</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>509 COMMISSIONERS RD W UNIT A35</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>http://www.cannabislinkinc.com/</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>604142d7fad36600d0758e2d</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>15192045777</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>LONDON</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Cannabis Link</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1295 HIGHBURY AVE N UNIT A6B</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>http://www.cannabislinkinc.com/</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>603561b5f0941300bf77dfa8</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>15194577070</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>LONDON</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CANNABIS LINK </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1225 WONDERLAND RD N UNIT 40A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>http://www.cannabislinkinc.com/</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>5fe12a0a5652e700bc6624ad</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>15196574747</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>WINDSOR</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Cannasavvy Cannabis Co.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>3395 HOWARD AVE UNIT 4</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>http://www.cannasavvy.ca/</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>5fecae1a64e54f7d4233ddb9</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>15192566262</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BRAMPTON</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CANTOPIA CANNABIS CO.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>55 MOUNTAINASH ROAD, D2-A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>http://www.cantopia.ca/</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>609ae8d36ce2b100c0cd424f</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>19057899433</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>['Delivery - Time unknown']</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Canvas Cannabis</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>171 EAST LIBERTY ST SUITE 145</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>http://www.canvascannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>5fdbff46f2207962b1b027c4</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>14165513971</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PARIS</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Chillin Buds</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1 HARTLEY AVE BUILDING A UNIT A6</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/05/30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://chillinbuds.com/</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>612d270900432e00b065dead</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>15194429966</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>COBOURG</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CIRCA 1818</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>8 STRATHY RD UNIT 3</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>http://www.circa1818.ca/</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>5fea0378f5ace000aec64753</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>12892521803</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>COSMO CANNA</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>613 DUPONT ST UNIT 1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>http://www.cosmocanna.ca/</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>6151f3fbb5b615009a616690</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>14165320084</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>BRANTFORD</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>COST CANNABIS</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>61 LYNDEN RD UNIT B4</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>http://costcan.ca/</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>63864282925f8000e17fd63a</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>15197580000</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>SCARBOROUGH</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>COST CANNABIS - ST CLAIR</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>3443 ST CLAIR AVE E</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>http://www.costcann.ca/</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>624244440abb5d3a9260bb44</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>14162660110</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>KITCHENER</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DAB GLASS</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>685 FISCHER HALLMAN RD SUITE M</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>http://shopdabglass.ca/</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>60e4a511dca91d00a81b7867</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>15192084527</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>SAULT STE. MARIE</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Due North Cannabis</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>150 CHURCHILL BLVD UNIT C001</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>http://duenorthcannabis.com/</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>5ef5fb055eb50b00e392c351</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>17059981935</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Edition X</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>764 ST CLAIR AVE W</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://helloedition.com/</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>5fa05f1cfc2d590101017618</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>14165194460</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>['No delivery information', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>NORTH YORK</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>FOGTOWN FLOWER</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4687 YONGE ST</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>http://fogtown.ca/</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">613fd98e2e64f800c74add5f </t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>16478128873</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>KINGSTON</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Giggles Cannabis</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>652 PRINCESS ST SUITE 108</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://kingstongiggles.com/</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>62e858e63967b40082a6aba1</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>16135420377</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ALLISTON</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Green Grove</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>70 VICTORIA ST E SUITE 3</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>http://greengrove.ca/</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>5edd2dbd17c8c400aacd58b4</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>17052500187</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>GreenPort</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>686 COLLEGE ST</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>http://greenport.store/</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>632a3632ae6a2b00ac1ec89a</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>14165362121</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>LASALLE</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Greentown</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>5994 MALDEN RD UNIT 3</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://greentowncannabis.com/</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>609c59eaf57edb00a09da192</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>12267731006</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>WINDSOR</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Greentown Cannabis Discount Hut</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>3580 TECUMSEH RD E UNIT 4</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>http://greentowndiscount.com/</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>63dd3ab12a28f600d47fe64b</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>12267042190</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>WINDSOR</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Greentown Cannabis Discount Hut</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1519 DROUILLARD RD</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>http://greentowndiscount.com/</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>63dd3a784e9a4f005bc682c2</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pick-up', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>12267042190</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ORANGEVILLE</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Hempire House</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>59 FIRST ST</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>http://hempirehouse.ca/</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>5ec6f81d01de1901493a356d</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'Delivery']</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>15193074367</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>HAMILTON</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>NEKU CANNABIS</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>38 HESS ST S</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://nekucannabis.com/</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>5ff389d871214700d4e6d808</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>19055245555</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>PETERBOROUGH</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>NORTHERN LIGHTS CANNABIS</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>51 LANSDOWNE ST W</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>http://northern-lights.ca/</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>5fd6f1b824a619010096cd34</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>17054389333</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ETOBICOKE</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>PLUTO PLANTS</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>62 MARINE PARADE DR UNIT 4</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>http://plutoplants.ca/</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>6009c8ecc0245c00d346d396</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>16476402899</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>NORTH YORK</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>QUNUBU CANNABIS</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>274 WILSON AVE</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://www.qunubucannabis.ca/?utm_source=GMB&amp;utm_medium=organic&amp;utm_campaign=gmb-website</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>5f91ac6528be6e049a9f5b07</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>14166389151</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WATERLOO </t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Session7</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>210-220 KING ST N UNIT G2</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>http://session7.ca/</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>5f04b8e052817c014c31690c</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>15192087775</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>SAULT STE. MARIE</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Sessions Cannabis - Sault Ste Marie</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>216 SECOND LINE W</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://www.sessions.ca/sault-ste-marie-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>5fea310977b22200aa316ca1</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>17054506216</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>TIMMINS</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Sessions Cannabis - Timmins</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>425 ALGONQUIN BLVD E UNIT 4</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://www.sessions.ca/timmins-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>60086d3320e3fc0fef619aba</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>17055312882</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>BROCKVILLE</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Sessions Cannabis Brockville</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2441 PARKEDALE AVE UNIT C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://www.sessions.ca/brockville-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>5fea314982004300ae6b9475</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>16133424503</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>CAMBRIDGE</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Sessions Cannabis Cambridge</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>101 HOLIDAY INN DR UNIT B1</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://www.sessions.ca/cambridge-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>5e6f90b1c706d4006afc5033</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>15192200201</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>WELLAND</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Sessions Cannabis Retail</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>200 FITCH ST UNIT 12A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://www.sessions.ca/welland-niagara-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>5fd7ab8ac0bf8200d5781daf</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>19057880641</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Spiritleaf Beaches</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2116 QUEEN ST E UNIT J</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://spiritleaf.ca/collections/spiritleaf-beaches</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>6079b8182436d800b5c874f9</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>16473505323</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>WAWA</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>T CANNABIS NW</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>152 MISSION RD</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>http://tcann.ca/</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>635c46308a312000a44da3f2</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>17058567777</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>THOROLD</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>TAKE OFF CANNABIS</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>9 PINE ST N UNIT 28</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>http://www.takeoffcannabis.com/</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>5ede8220a9dfe7011a6a593d</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>19052278288</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>ROCKWOOD</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Taste Buds Cannabis</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">155 MAIN ST S UNIT "A" </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>http://tbcontario.com/</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>64833eaca3386b0017a49653</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>15196050558</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ETOBICOKE</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Terps &amp; Rec Cannabis</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>127 WESTMORE DR UNIT 106</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>http://terpsrec.com/</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>610054d396959e00d9e7480d</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>14166013734</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ST CATHARINES</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>The Hempire</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">25-27 ONTARIO ST </t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://thehempire.ca/</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>5fa9614f32967f00c691818d</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>19056847776</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>KESWICK</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>The House of Cannabis - Keswick</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1 CHURCH ST SUITE 9</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>http://thehousecannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2261116815efa0af00a9068d41</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>12898039462</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>WINDSOR</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>THE WE STORE</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1800 HURON CHURCH RD UNIT B</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>http://thewestore.com/</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>614ba1c7b4849f5565ec9a4b</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>12267836259</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>BELLE RIVER</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>The We Store</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1303 ESSEX COUNTY ROAD #22, UNIT 180</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>https://thewestore.com/shop/?dtche%5Bpath%5D=checkout</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>6065096543756f00a7467b51</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'Delivery']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ST CATHARINES</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>TOP FINEST CANNABIS</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>436 VANSICKLE RD SUITE 9</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>https://topfinestcannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>6144e516fb232c009b6c8132</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>19056886886</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>TECUMSEH</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>URBNBUD</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>1614 LESPERANCE RD BUILDING F3 UNIT D</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>http://www.urbnbud.com/</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>6148e2c8b258a800cd749439</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>15199567667</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>SUDBURY</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Wild Flowerz</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>533 KATHLEEN ST UNIT B</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>http://wildflowerz.ca/</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>636536f141c9a200b6e1ab48</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>17055860402</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>WOW World of Weed</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>3412 WESTON ROAD</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>https://www.woweeds.ca/</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>60806bc5ece0aa00d28bff8d</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>14167431234</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -3299,7 +3299,9 @@
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+      <c r="N51" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3353,7 +3355,9 @@
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+      <c r="N52" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3407,7 +3411,9 @@
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+      <c r="N53" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3461,7 +3467,9 @@
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+      <c r="N54" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3515,7 +3523,9 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
+      <c r="N55" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3569,7 +3579,9 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
+      <c r="N56" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3623,7 +3635,9 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3677,7 +3691,11 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3731,7 +3749,9 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
+      <c r="N59" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3785,7 +3805,9 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
+      <c r="N60" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3893,7 +3915,9 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
+      <c r="N62" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3945,7 +3969,9 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
+      <c r="N63" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3999,7 +4025,9 @@
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
+      <c r="N64" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4053,7 +4081,9 @@
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
+      <c r="N65" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4107,7 +4137,9 @@
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
+      <c r="N66" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4161,7 +4193,9 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
+      <c r="N67" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,17 +508,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BRADFORD</t>
+          <t>WINDSOR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ATLAS CANNABIS CLUB</t>
+          <t>Greentown Cannabis Discount Hut</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>78 BRIDGE ST</t>
+          <t>3580 TECUMSEH RD E UNIT 4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>http://www.atlascannabis.net/</t>
+          <t>http://greentowndiscount.com/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -538,43 +538,41 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>61006d51de65d700be55e7f2</t>
+          <t>63dd3ab12a28f600d47fe64b</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>16475172045</v>
+        <v>12267042190</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="b">
-        <v>1</v>
-      </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ALMONTE</t>
+          <t>WINDSOR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bluebird Almonte</t>
+          <t>Greentown Cannabis Discount Hut</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14 MILL ST UNIT 8A</t>
+          <t>1519 DROUILLARD RD</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -584,7 +582,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>http://bluebirdcannabis.store/</t>
+          <t>http://greentowndiscount.com/</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -594,43 +592,41 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>608c1dbd89a04b00cadc09b0</t>
+          <t>63dd3a784e9a4f005bc682c2</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pick-up', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>16134610091</v>
+        <v>12267042190</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="b">
-        <v>1</v>
-      </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>KANATA</t>
+          <t>WINDSOR</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BLUEBIRD CANNABIS CO.</t>
+          <t>THE WE STORE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>499 TERRY FOX DR UNIT 60</t>
+          <t>1800 HURON CHURCH RD UNIT B</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -640,7 +636,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>http://bluebirdcannabis.store/</t>
+          <t>http://thewestore.com/</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -650,16 +646,16 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5fac6a5955a05800c45083bd</t>
+          <t>614ba1c7b4849f5565ec9a4b</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>16136722233</v>
+        <v>12267836259</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -669,24 +665,22 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="b">
-        <v>1</v>
-      </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>KANATA</t>
+          <t>WINDSOR</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BLUEBIRD CANNABIS MARCH ROAD</t>
+          <t>Cannasavvy Cannabis Co.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>806 MARCH RD</t>
+          <t>3395 HOWARD AVE UNIT 4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -696,7 +690,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>http://bluebirdcannabis.store/</t>
+          <t>http://www.cannasavvy.ca/</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -706,16 +700,16 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>601abc789ec2de3539c94656</t>
+          <t>5fecae1a64e54f7d4233ddb9</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>16135923222</v>
+        <v>15192566262</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -725,24 +719,22 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="b">
-        <v>1</v>
-      </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BRAMPTON</t>
+          <t>WELLAND</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bodega Boyz</t>
+          <t>Sessions Cannabis Retail</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>69 BRAMALEA RD SUITE 3</t>
+          <t>200 FITCH ST UNIT 12A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -752,7 +744,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>http://www.bodegaboyz.ca/</t>
+          <t>https://www.sessions.ca/welland-niagara-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -762,16 +754,16 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>61d38e4ca8388a008cb50d87</t>
+          <t>5fd7ab8ac0bf8200d5781daf</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>19054580439</v>
+        <v>19057880641</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -781,24 +773,22 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="b">
-        <v>1</v>
-      </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>WAWA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Body and Spirit Cannabis</t>
+          <t>T CANNABIS NW</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>361 YONGE ST</t>
+          <t>152 MISSION RD</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -808,7 +798,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://bodyandspiritcannabis.com/</t>
+          <t>http://tcann.ca/</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -818,16 +808,16 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>5e45c5d96a6aef00702ed11f</t>
+          <t>635c46308a312000a44da3f2</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>16478125989</v>
+        <v>17058567777</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -837,24 +827,22 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="b">
-        <v>1</v>
-      </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t xml:space="preserve">WATERLOO </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bonnefire</t>
+          <t>Session7</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>129 MUNRO ST</t>
+          <t>210-220 KING ST N UNIT G2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -864,7 +852,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>http://bonnefire.ca/</t>
+          <t>http://session7.ca/</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -874,7 +862,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>627eb92e88f7de00a435c07d</t>
+          <t>5f04b8e052817c014c31690c</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -883,7 +871,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>14164630420</v>
+        <v>15192087775</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -893,24 +881,22 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="b">
-        <v>1</v>
-      </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LASALLE</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BRO CANNABIS INC.</t>
+          <t>Edition X</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2596 FRONT RD UNIT 1</t>
+          <t>764 ST CLAIR AVE W</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -920,7 +906,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.brocannabis.ca/</t>
+          <t>https://helloedition.com/</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -930,7 +916,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>62cafd003b150b0080d2a796</t>
+          <t>5fa05f1cfc2d590101017618</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -939,34 +925,32 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>12263405531</v>
+        <v>14165194460</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery information', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="b">
-        <v>1</v>
-      </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HAMILTON</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BUD BROTHERS CANNABIS</t>
+          <t>Bonnefire</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1568 MAIN ST W</t>
+          <t>129 MUNRO ST</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -976,7 +960,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://budbrotherscannabis.ca/</t>
+          <t>http://bonnefire.ca/</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -986,7 +970,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>60a2acc7143d8600a7a11f35</t>
+          <t>627eb92e88f7de00a435c07d</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -995,7 +979,7 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>12897685659</v>
+        <v>14164630420</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1005,24 +989,22 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="b">
-        <v>1</v>
-      </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ORLEANS</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BUDGET BUD ORLEANS TOWN CENTER</t>
+          <t>GreenPort</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>250 CENTRUM BLVD UNIT 105A</t>
+          <t>686 COLLEGE ST</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1032,7 +1014,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>http://www.budget-bud.com/orleans</t>
+          <t>http://greenport.store/</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1042,43 +1024,41 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>60e479140aa679304130c809</t>
+          <t>632a3632ae6a2b00ac1ec89a</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>16138303335</v>
+        <v>14165362121</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="b">
-        <v>1</v>
-      </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BRANTFORD</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BUDSSMOKE</t>
+          <t>Body and Spirit Cannabis</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>299 WAYNE GRETZKY PKY SUITE 5</t>
+          <t>361 YONGE ST</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1088,7 +1068,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>http://budssmoke.com/</t>
+          <t>https://bodyandspiritcannabis.com/</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1098,43 +1078,41 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>6126c4088ae089009b8e8ce2</t>
+          <t>5e45c5d96a6aef00702ed11f</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>12269172837</v>
+        <v>16478125989</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="b">
-        <v>1</v>
-      </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BURLINGTON</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BUDSSMOKE</t>
+          <t>Canvas Cannabis</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2017 LAKESHORE RD</t>
+          <t>171 EAST LIBERTY ST SUITE 145</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1144,7 +1122,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>http://budssmoke.com/</t>
+          <t>http://www.canvascannabis.ca/</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1154,7 +1132,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>5f7d38d029883400facd32a9</t>
+          <t>5fdbff46f2207962b1b027c4</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1163,7 +1141,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>19056372837</v>
+        <v>14165513971</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1173,24 +1151,22 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="b">
-        <v>1</v>
-      </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MATTAWA</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BUDSSMOKE</t>
+          <t>CanaCulture Cannabis Store</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>298 MAIN ST UNIT A</t>
+          <t>914 EGLINTON AVE W</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1200,7 +1176,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>http://budssmoke.com/</t>
+          <t>https://canaculture.ca/</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1210,43 +1186,41 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>63ac522a24ce0700cf2cd11c</t>
+          <t>5fe2b0a97ae1a100f5c5aa85</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>17057442839</v>
+        <v>14167858325</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="b">
-        <v>1</v>
-      </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NORTH BAY</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BUDSSMOKE</t>
+          <t>Spiritleaf Beaches</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1236 ALGONQUIN AVE UNIT B</t>
+          <t>2116 QUEEN ST E UNIT J</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1256,7 +1230,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>http://budssmoke.com/</t>
+          <t>https://spiritleaf.ca/collections/spiritleaf-beaches</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1266,43 +1240,41 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>6126c3a977dcda00b6cd237a</t>
+          <t>6079b8182436d800b5c874f9</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>17054970887</v>
+        <v>16473505323</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="b">
-        <v>1</v>
-      </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SUNDRIDGE</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BUDSSMOKE</t>
+          <t>WOW World of Weed</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>10425 HWY 124 UNIT B</t>
+          <t>3412 WESTON ROAD</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1312,7 +1284,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>http://budssmoke.com/</t>
+          <t>https://www.woweeds.ca/</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1322,43 +1294,41 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>6272b206da78bd00a6e7f67b</t>
+          <t>60806bc5ece0aa00d28bff8d</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>17053840899</v>
+        <v>14167431234</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="b">
-        <v>1</v>
-      </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PICKERING</t>
+          <t>TIMMINS</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BUDSSMOKE</t>
+          <t>Sessions Cannabis - Timmins</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>940 BROCK RD UNIT 3</t>
+          <t>425 ALGONQUIN BLVD E UNIT 4</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1368,7 +1338,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>http://www.budssmoke.com/</t>
+          <t>https://www.sessions.ca/timmins-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1378,43 +1348,41 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>60c77a5112bba400ca82bdc9</t>
+          <t>60086d3320e3fc0fef619aba</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>12892102837</v>
+        <v>17055312882</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="b">
-        <v>1</v>
-      </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ST CATHARINES</t>
+          <t>THOROLD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BUDSSMOKE</t>
+          <t>TAKE OFF CANNABIS</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>186 LAKE ST</t>
+          <t>9 PINE ST N UNIT 28</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1424,7 +1392,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>http://www.budssmoke.com/</t>
+          <t>http://www.takeoffcannabis.com/</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1434,16 +1402,16 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>6126c36e566a61009c2b3090</t>
+          <t>5ede8220a9dfe7011a6a593d</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>12898162837</v>
+        <v>19052278288</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1453,24 +1421,22 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="b">
-        <v>1</v>
-      </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CALLANDER</t>
+          <t>TECUMSEH</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BUDSSMOKE</t>
+          <t>URBNBUD</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>6 MAIN ST S UNIT 4</t>
+          <t>1614 LESPERANCE RD BUILDING F3 UNIT D</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1480,7 +1446,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://budssmoke.com/6-main-street-south-callander/</t>
+          <t>http://www.urbnbud.com/</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1490,16 +1456,16 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>642f1ce57f22fc00c0a5be1f</t>
+          <t>6148e2c8b258a800cd749439</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>17057523333</v>
+        <v>15199567667</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1509,24 +1475,22 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="b">
-        <v>1</v>
-      </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>SUNDRIDGE</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CanaCulture Cannabis Store</t>
+          <t>BUDSSMOKE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>914 EGLINTON AVE W</t>
+          <t>10425 HWY 124 UNIT B</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1536,7 +1500,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://canaculture.ca/</t>
+          <t>http://budssmoke.com/</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1546,43 +1510,41 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>5fe2b0a97ae1a100f5c5aa85</t>
+          <t>6272b206da78bd00a6e7f67b</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>14167858325</v>
+        <v>17053840899</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="b">
-        <v>1</v>
-      </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LONDON</t>
+          <t>SUDBURY</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cannabis Link</t>
+          <t>Wild Flowerz</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1175 HYDE PARK RD UNIT 2B</t>
+          <t>533 KATHLEEN ST UNIT B</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1592,7 +1554,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>http://www.cannabislinkinc.com/</t>
+          <t>http://wildflowerz.ca/</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1602,43 +1564,41 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>5efcaf8053ee9400f1baaccc</t>
+          <t>636536f141c9a200b6e1ab48</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>15196577979</v>
+        <v>17055860402</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="b">
-        <v>1</v>
-      </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LONDON</t>
+          <t>ST CATHARINES</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Cannabis Link</t>
+          <t>TOP FINEST CANNABIS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>390 SPRINGBANK DR UNIT 10B</t>
+          <t>436 VANSICKLE RD SUITE 9</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1648,7 +1608,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>http://www.cannabislinkinc.com/</t>
+          <t>https://topfinestcannabis.ca/</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1658,7 +1618,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>63cef96a67b9fe00b0cecc3d</t>
+          <t>6144e516fb232c009b6c8132</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1667,7 +1627,7 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>12268844747</v>
+        <v>19056886886</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1677,24 +1637,22 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="b">
-        <v>1</v>
-      </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LONDON</t>
+          <t>ST CATHARINES</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Cannabis Link</t>
+          <t>BUDSSMOKE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>509 COMMISSIONERS RD W UNIT A35</t>
+          <t>186 LAKE ST</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1704,7 +1662,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>http://www.cannabislinkinc.com/</t>
+          <t>http://www.budssmoke.com/</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1714,43 +1672,41 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>604142d7fad36600d0758e2d</t>
+          <t>6126c36e566a61009c2b3090</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>15192045777</v>
+        <v>12898162837</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="b">
-        <v>1</v>
-      </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>LONDON</t>
+          <t>ST CATHARINES</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cannabis Link</t>
+          <t>The Hempire</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1295 HIGHBURY AVE N UNIT A6B</t>
+          <t xml:space="preserve">25-27 ONTARIO ST </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1760,7 +1716,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>http://www.cannabislinkinc.com/</t>
+          <t>https://thehempire.ca/</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1770,43 +1726,41 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>603561b5f0941300bf77dfa8</t>
+          <t>5fa9614f32967f00c691818d</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>15194577070</v>
+        <v>19056847776</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="b">
-        <v>1</v>
-      </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>LONDON</t>
+          <t>SAULT STE. MARIE</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">CANNABIS LINK </t>
+          <t>Sessions Cannabis - Sault Ste Marie</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1225 WONDERLAND RD N UNIT 40A</t>
+          <t>216 SECOND LINE W</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1816,7 +1770,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>http://www.cannabislinkinc.com/</t>
+          <t>https://www.sessions.ca/sault-ste-marie-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1826,16 +1780,16 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>5fe12a0a5652e700bc6624ad</t>
+          <t>5fea310977b22200aa316ca1</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>15196574747</v>
+        <v>17054506216</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1845,24 +1799,22 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="b">
-        <v>1</v>
-      </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>WINDSOR</t>
+          <t>SAULT STE. MARIE</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cannasavvy Cannabis Co.</t>
+          <t>Due North Cannabis</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>3395 HOWARD AVE UNIT 4</t>
+          <t>150 CHURCHILL BLVD UNIT C001</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1872,7 +1824,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>http://www.cannasavvy.ca/</t>
+          <t>http://duenorthcannabis.com/</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1882,43 +1834,41 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>5fecae1a64e54f7d4233ddb9</t>
+          <t>5ef5fb055eb50b00e392c351</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>15192566262</v>
+        <v>17059981935</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="b">
-        <v>1</v>
-      </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BRAMPTON</t>
+          <t>ROCKWOOD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CANTOPIA CANNABIS CO.</t>
+          <t>Taste Buds Cannabis</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>55 MOUNTAINASH ROAD, D2-A</t>
+          <t xml:space="preserve">155 MAIN ST S UNIT "A" </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1928,7 +1878,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>http://www.cantopia.ca/</t>
+          <t>http://tbcontario.com/</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1938,43 +1888,41 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>609ae8d36ce2b100c0cd424f</t>
+          <t>64833eaca3386b0017a49653</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>19057899433</v>
+        <v>15196050558</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Delivery - Time unknown']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" t="b">
-        <v>1</v>
-      </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>PICKERING</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Canvas Cannabis</t>
+          <t>BUDSSMOKE</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>171 EAST LIBERTY ST SUITE 145</t>
+          <t>940 BROCK RD UNIT 3</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1984,7 +1932,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>http://www.canvascannabis.ca/</t>
+          <t>http://www.budssmoke.com/</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1994,7 +1942,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>5fdbff46f2207962b1b027c4</t>
+          <t>60c77a5112bba400ca82bdc9</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2003,7 +1951,7 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>14165513971</v>
+        <v>12892102837</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2013,34 +1961,32 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="b">
-        <v>1</v>
-      </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PARIS</t>
+          <t>PETERBOROUGH</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Chillin Buds</t>
+          <t>NORTHERN LIGHTS CANNABIS</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1 HARTLEY AVE BUILDING A UNIT A6</t>
+          <t>51 LANSDOWNE ST W</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Public Notice Period: Ended 2023/05/30</t>
+          <t>Authorized to Open</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://chillinbuds.com/</t>
+          <t>http://northern-lights.ca/</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2050,7 +1996,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>612d270900432e00b065dead</t>
+          <t>5fd6f1b824a619010096cd34</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2059,7 +2005,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>15194429966</v>
+        <v>17054389333</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2069,34 +2015,32 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="b">
-        <v>1</v>
-      </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>COBOURG</t>
+          <t>PARIS</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CIRCA 1818</t>
+          <t>Chillin Buds</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>8 STRATHY RD UNIT 3</t>
+          <t>1 HARTLEY AVE BUILDING A UNIT A6</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>Public Notice Period: Ended 2023/05/30</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>http://www.circa1818.ca/</t>
+          <t>https://chillinbuds.com/</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2106,16 +2050,16 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>5fea0378f5ace000aec64753</t>
+          <t>612d270900432e00b065dead</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>12892521803</v>
+        <v>15194429966</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2125,24 +2069,22 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="b">
-        <v>1</v>
-      </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>ORANGEVILLE</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>COSMO CANNA</t>
+          <t>Hempire House</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>613 DUPONT ST UNIT 1</t>
+          <t>59 FIRST ST</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2152,7 +2094,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>http://www.cosmocanna.ca/</t>
+          <t>http://hempirehouse.ca/</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2162,43 +2104,41 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>6151f3fbb5b615009a616690</t>
+          <t>5ec6f81d01de1901493a356d</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping', 'Delivery']</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>14165320084</v>
+        <v>15193074367</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="b">
-        <v>1</v>
-      </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BRANTFORD</t>
+          <t>NORTH YORK</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>COST CANNABIS</t>
+          <t>FOGTOWN FLOWER</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>61 LYNDEN RD UNIT B4</t>
+          <t>4687 YONGE ST</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2208,7 +2148,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>http://costcan.ca/</t>
+          <t>http://fogtown.ca/</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2218,43 +2158,41 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>63864282925f8000e17fd63a</t>
+          <t xml:space="preserve">613fd98e2e64f800c74add5f </t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['In-store shopping']</t>
+          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>15197580000</v>
+        <v>16478128873</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="b">
-        <v>1</v>
-      </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SCARBOROUGH</t>
+          <t>NORTH YORK</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>COST CANNABIS - ST CLAIR</t>
+          <t>QUNUBU CANNABIS</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>3443 ST CLAIR AVE E</t>
+          <t>274 WILSON AVE</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2264,7 +2202,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>http://www.costcann.ca/</t>
+          <t>https://www.qunubucannabis.ca/?utm_source=GMB&amp;utm_medium=organic&amp;utm_campaign=gmb-website</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2274,43 +2212,41 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>624244440abb5d3a9260bb44</t>
+          <t>5f91ac6528be6e049a9f5b07</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>14162660110</v>
+        <v>14166389151</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="b">
-        <v>1</v>
-      </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>KITCHENER</t>
+          <t>NORTH BAY</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DAB GLASS</t>
+          <t>BUDSSMOKE</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>685 FISCHER HALLMAN RD SUITE M</t>
+          <t>1236 ALGONQUIN AVE UNIT B</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2320,7 +2256,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>http://shopdabglass.ca/</t>
+          <t>http://budssmoke.com/</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2330,16 +2266,16 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>60e4a511dca91d00a81b7867</t>
+          <t>6126c3a977dcda00b6cd237a</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>15192084527</v>
+        <v>17054970887</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2349,24 +2285,22 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="b">
-        <v>1</v>
-      </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SAULT STE. MARIE</t>
+          <t>MATTAWA</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Due North Cannabis</t>
+          <t>BUDSSMOKE</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>150 CHURCHILL BLVD UNIT C001</t>
+          <t>298 MAIN ST UNIT A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2376,7 +2310,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>http://duenorthcannabis.com/</t>
+          <t>http://budssmoke.com/</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2386,43 +2320,41 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>5ef5fb055eb50b00e392c351</t>
+          <t>63ac522a24ce0700cf2cd11c</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>17059981935</v>
+        <v>17057442839</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="b">
-        <v>1</v>
-      </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>LONDON</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Edition X</t>
+          <t>Cannabis Link</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>764 ST CLAIR AVE W</t>
+          <t>1175 HYDE PARK RD UNIT 2B</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2432,7 +2364,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://helloedition.com/</t>
+          <t>http://www.cannabislinkinc.com/</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2442,43 +2374,41 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>5fa05f1cfc2d590101017618</t>
+          <t>5efcaf8053ee9400f1baaccc</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>14165194460</v>
+        <v>15196577979</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['No delivery information', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="b">
-        <v>1</v>
-      </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>NORTH YORK</t>
+          <t>LONDON</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FOGTOWN FLOWER</t>
+          <t>Cannabis Link</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>4687 YONGE ST</t>
+          <t>390 SPRINGBANK DR UNIT 10B</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2488,7 +2418,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>http://fogtown.ca/</t>
+          <t>http://www.cannabislinkinc.com/</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2498,16 +2428,16 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve">613fd98e2e64f800c74add5f </t>
+          <t>63cef96a67b9fe00b0cecc3d</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>16478128873</v>
+        <v>12268844747</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2522,17 +2452,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>KINGSTON</t>
+          <t>LONDON</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Giggles Cannabis</t>
+          <t>Cannabis Link</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>652 PRINCESS ST SUITE 108</t>
+          <t>509 COMMISSIONERS RD W UNIT A35</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2542,7 +2472,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://kingstongiggles.com/</t>
+          <t>http://www.cannabislinkinc.com/</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2552,43 +2482,41 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>62e858e63967b40082a6aba1</t>
+          <t>604142d7fad36600d0758e2d</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>16135420377</v>
+        <v>15192045777</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="b">
-        <v>1</v>
-      </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ALLISTON</t>
+          <t>LONDON</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Green Grove</t>
+          <t>Cannabis Link</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>70 VICTORIA ST E SUITE 3</t>
+          <t>1295 HIGHBURY AVE N UNIT A6B</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2598,7 +2526,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>http://greengrove.ca/</t>
+          <t>http://www.cannabislinkinc.com/</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2608,43 +2536,41 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>5edd2dbd17c8c400aacd58b4</t>
+          <t>603561b5f0941300bf77dfa8</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>17052500187</v>
+        <v>15194577070</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="b">
-        <v>1</v>
-      </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>LONDON</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>GreenPort</t>
+          <t xml:space="preserve">CANNABIS LINK </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>686 COLLEGE ST</t>
+          <t>1225 WONDERLAND RD N UNIT 40A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2654,7 +2580,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>http://greenport.store/</t>
+          <t>http://www.cannabislinkinc.com/</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2664,28 +2590,26 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>632a3632ae6a2b00ac1ec89a</t>
+          <t>5fe12a0a5652e700bc6624ad</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>14165362121</v>
+        <v>15196574747</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="b">
-        <v>1</v>
-      </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2739,24 +2663,22 @@
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="b">
-        <v>1</v>
-      </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>WINDSOR</t>
+          <t>LASALLE</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Greentown Cannabis Discount Hut</t>
+          <t>BRO CANNABIS INC.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>3580 TECUMSEH RD E UNIT 4</t>
+          <t>2596 FRONT RD UNIT 1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2766,7 +2688,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>http://greentowndiscount.com/</t>
+          <t>https://www.brocannabis.ca/</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2776,16 +2698,16 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>63dd3ab12a28f600d47fe64b</t>
+          <t>62cafd003b150b0080d2a796</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>12267042190</v>
+        <v>12263405531</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2795,24 +2717,22 @@
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="b">
-        <v>1</v>
-      </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>WINDSOR</t>
+          <t>KITCHENER</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Greentown Cannabis Discount Hut</t>
+          <t>DAB GLASS</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1519 DROUILLARD RD</t>
+          <t>685 FISCHER HALLMAN RD SUITE M</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2822,7 +2742,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>http://greentowndiscount.com/</t>
+          <t>http://shopdabglass.ca/</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2832,43 +2752,41 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>63dd3a784e9a4f005bc682c2</t>
+          <t>60e4a511dca91d00a81b7867</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pick-up', 'In-store shopping']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>12267042190</v>
+        <v>15192084527</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" t="b">
-        <v>1</v>
-      </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ORANGEVILLE</t>
+          <t>KINGSTON</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Hempire House</t>
+          <t>Giggles Cannabis</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>59 FIRST ST</t>
+          <t>652 PRINCESS ST SUITE 108</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2878,7 +2796,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>http://hempirehouse.ca/</t>
+          <t>https://kingstongiggles.com/</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2888,43 +2806,41 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>5ec6f81d01de1901493a356d</t>
+          <t>62e858e63967b40082a6aba1</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'Delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>15193074367</v>
+        <v>16135420377</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" t="b">
-        <v>1</v>
-      </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HAMILTON</t>
+          <t>KESWICK</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NEKU CANNABIS</t>
+          <t>The House of Cannabis - Keswick</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>38 HESS ST S</t>
+          <t>1 CHURCH ST SUITE 9</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2934,7 +2850,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://nekucannabis.com/</t>
+          <t>http://thehousecannabis.ca/</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2944,7 +2860,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>5ff389d871214700d4e6d808</t>
+          <t>2261116815efa0af00a9068d41</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2953,7 +2869,7 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>19055245555</v>
+        <v>12898039462</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2963,24 +2879,22 @@
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" t="b">
-        <v>1</v>
-      </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PETERBOROUGH</t>
+          <t>KANATA</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NORTHERN LIGHTS CANNABIS</t>
+          <t>BLUEBIRD CANNABIS CO.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>51 LANSDOWNE ST W</t>
+          <t>499 TERRY FOX DR UNIT 60</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2990,7 +2904,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>http://northern-lights.ca/</t>
+          <t>http://bluebirdcannabis.store/</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3000,16 +2914,16 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>5fd6f1b824a619010096cd34</t>
+          <t>5fac6a5955a05800c45083bd</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>17054389333</v>
+        <v>16136722233</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3019,24 +2933,22 @@
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
-      <c r="N46" t="b">
-        <v>1</v>
-      </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ETOBICOKE</t>
+          <t>KANATA</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PLUTO PLANTS</t>
+          <t>BLUEBIRD CANNABIS MARCH ROAD</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>62 MARINE PARADE DR UNIT 4</t>
+          <t>806 MARCH RD</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3046,7 +2958,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>http://plutoplants.ca/</t>
+          <t>http://bluebirdcannabis.store/</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3056,7 +2968,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>6009c8ecc0245c00d346d396</t>
+          <t>601abc789ec2de3539c94656</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3065,7 +2977,7 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>16476402899</v>
+        <v>16135923222</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3075,24 +2987,22 @@
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="b">
-        <v>1</v>
-      </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>NORTH YORK</t>
+          <t>HAMILTON</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>QUNUBU CANNABIS</t>
+          <t>BUD BROTHERS CANNABIS</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>274 WILSON AVE</t>
+          <t>1568 MAIN ST W</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3102,7 +3012,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://www.qunubucannabis.ca/?utm_source=GMB&amp;utm_medium=organic&amp;utm_campaign=gmb-website</t>
+          <t>https://budbrotherscannabis.ca/</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3112,16 +3022,16 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>5f91ac6528be6e049a9f5b07</t>
+          <t>60a2acc7143d8600a7a11f35</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>14166389151</v>
+        <v>12897685659</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3131,24 +3041,22 @@
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" t="b">
-        <v>1</v>
-      </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">WATERLOO </t>
+          <t>HAMILTON</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Session7</t>
+          <t>NEKU CANNABIS</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>210-220 KING ST N UNIT G2</t>
+          <t>38 HESS ST S</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3158,7 +3066,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>http://session7.ca/</t>
+          <t>https://nekucannabis.com/</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3168,16 +3076,16 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>5f04b8e052817c014c31690c</t>
+          <t>5ff389d871214700d4e6d808</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>15192087775</v>
+        <v>19055245555</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -3187,24 +3095,22 @@
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="b">
-        <v>1</v>
-      </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SAULT STE. MARIE</t>
+          <t>ETOBICOKE</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Sessions Cannabis - Sault Ste Marie</t>
+          <t>PLUTO PLANTS</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>216 SECOND LINE W</t>
+          <t>62 MARINE PARADE DR UNIT 4</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3214,7 +3120,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://www.sessions.ca/sault-ste-marie-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+          <t>http://plutoplants.ca/</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3224,16 +3130,16 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>5fea310977b22200aa316ca1</t>
+          <t>6009c8ecc0245c00d346d396</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>17054506216</v>
+        <v>16476402899</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -3243,24 +3149,22 @@
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
-      <c r="N50" t="b">
-        <v>1</v>
-      </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TIMMINS</t>
+          <t>ETOBICOKE</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Sessions Cannabis - Timmins</t>
+          <t>Terps &amp; Rec Cannabis</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>425 ALGONQUIN BLVD E UNIT 4</t>
+          <t>127 WESTMORE DR UNIT 106</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3270,7 +3174,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://www.sessions.ca/timmins-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+          <t>http://terpsrec.com/</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3280,43 +3184,41 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>60086d3320e3fc0fef619aba</t>
+          <t>610054d396959e00d9e7480d</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>17055312882</v>
+        <v>14166013734</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="b">
-        <v>1</v>
-      </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BROCKVILLE</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Sessions Cannabis Brockville</t>
+          <t>Sessions Cannabis Cambridge</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2441 PARKEDALE AVE UNIT C</t>
+          <t>101 HOLIDAY INN DR UNIT B1</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3326,7 +3228,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://www.sessions.ca/brockville-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+          <t>https://www.sessions.ca/cambridge-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3336,16 +3238,16 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>5fea314982004300ae6b9475</t>
+          <t>5e6f90b1c706d4006afc5033</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>16133424503</v>
+        <v>15192200201</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -3355,24 +3257,22 @@
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="b">
-        <v>1</v>
-      </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>CAMBRIDGE</t>
+          <t>CALLANDER</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Sessions Cannabis Cambridge</t>
+          <t>BUDSSMOKE</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>101 HOLIDAY INN DR UNIT B1</t>
+          <t>6 MAIN ST S UNIT 4</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3382,7 +3282,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://www.sessions.ca/cambridge-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+          <t>https://budssmoke.com/6-main-street-south-callander/</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3392,43 +3292,41 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>5e6f90b1c706d4006afc5033</t>
+          <t>642f1ce57f22fc00c0a5be1f</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Delivery', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>15192200201</v>
+        <v>17057523333</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="b">
-        <v>1</v>
-      </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>WELLAND</t>
+          <t>BURLINGTON</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Sessions Cannabis Retail</t>
+          <t>BUDSSMOKE</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>200 FITCH ST UNIT 12A</t>
+          <t>2017 LAKESHORE RD</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3438,7 +3336,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://www.sessions.ca/welland-niagara-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+          <t>http://budssmoke.com/</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3448,43 +3346,41 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>5fd7ab8ac0bf8200d5781daf</t>
+          <t>5f7d38d029883400facd32a9</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>19057880641</v>
+        <v>19056372837</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="b">
-        <v>1</v>
-      </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>BROCKVILLE</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Spiritleaf Beaches</t>
+          <t>Sessions Cannabis Brockville</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2116 QUEEN ST E UNIT J</t>
+          <t>2441 PARKEDALE AVE UNIT C</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3494,7 +3390,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://spiritleaf.ca/collections/spiritleaf-beaches</t>
+          <t>https://www.sessions.ca/brockville-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3504,16 +3400,16 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>6079b8182436d800b5c874f9</t>
+          <t>5fea314982004300ae6b9475</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>16473505323</v>
+        <v>16133424503</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -3523,24 +3419,22 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="b">
-        <v>1</v>
-      </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>WAWA</t>
+          <t>BRANTFORD</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>T CANNABIS NW</t>
+          <t>BUDSSMOKE</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>152 MISSION RD</t>
+          <t>299 WAYNE GRETZKY PKY SUITE 5</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3550,7 +3444,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>http://tcann.ca/</t>
+          <t>http://budssmoke.com/</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3560,43 +3454,41 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>635c46308a312000a44da3f2</t>
+          <t>6126c4088ae089009b8e8ce2</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>17058567777</v>
+        <v>12269172837</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="b">
-        <v>1</v>
-      </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>THOROLD</t>
+          <t>BRANTFORD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TAKE OFF CANNABIS</t>
+          <t>COST CANNABIS</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>9 PINE ST N UNIT 28</t>
+          <t>61 LYNDEN RD UNIT B4</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3606,7 +3498,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>http://www.takeoffcannabis.com/</t>
+          <t>http://costcan.ca/</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3616,43 +3508,41 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>5ede8220a9dfe7011a6a593d</t>
+          <t>63864282925f8000e17fd63a</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store shopping']</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>19052278288</v>
+        <v>15197580000</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="b">
-        <v>1</v>
-      </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ROCKWOOD</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Taste Buds Cannabis</t>
+          <t>Bodega Boyz</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">155 MAIN ST S UNIT "A" </t>
+          <t>69 BRAMALEA RD SUITE 3</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3662,7 +3552,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>http://tbcontario.com/</t>
+          <t>http://www.bodegaboyz.ca/</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3672,45 +3562,41 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>64833eaca3386b0017a49653</t>
+          <t>61d38e4ca8388a008cb50d87</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['In-store shopping']</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>15196050558</v>
+        <v>19054580439</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ETOBICOKE</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Terps &amp; Rec Cannabis</t>
+          <t>CANTOPIA CANNABIS CO.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>127 WESTMORE DR UNIT 106</t>
+          <t>55 MOUNTAINASH ROAD, D2-A</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3720,7 +3606,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>http://terpsrec.com/</t>
+          <t>http://www.cantopia.ca/</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3730,7 +3616,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>610054d396959e00d9e7480d</t>
+          <t>609ae8d36ce2b100c0cd424f</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3739,34 +3625,32 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>14166013734</v>
+        <v>19057899433</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery - Time unknown']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="b">
-        <v>1</v>
-      </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ST CATHARINES</t>
+          <t>ALMONTE</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>The Hempire</t>
+          <t>Bluebird Almonte</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve">25-27 ONTARIO ST </t>
+          <t>14 MILL ST UNIT 8A</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3776,7 +3660,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://thehempire.ca/</t>
+          <t>http://bluebirdcannabis.store/</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3786,16 +3670,16 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>5fa9614f32967f00c691818d</t>
+          <t>608c1dbd89a04b00cadc09b0</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>19056847776</v>
+        <v>16134610091</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -3805,24 +3689,22 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="b">
-        <v>1</v>
-      </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>KESWICK</t>
+          <t>ALLISTON</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>The House of Cannabis - Keswick</t>
+          <t>Green Grove</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1 CHURCH ST SUITE 9</t>
+          <t>70 VICTORIA ST E SUITE 3</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3832,7 +3714,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>http://thehousecannabis.ca/</t>
+          <t>http://greengrove.ca/</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3842,16 +3724,16 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2261116815efa0af00a9068d41</t>
+          <t>5edd2dbd17c8c400aacd58b4</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>12898039462</v>
+        <v>17052500187</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -3866,17 +3748,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>WINDSOR</t>
+          <t>HAMILTON</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>THE WE STORE</t>
+          <t>Giggles Cannabis</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1800 HURON CHURCH RD UNIT B</t>
+          <t>163 MAIN ST W</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3886,7 +3768,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>http://thewestore.com/</t>
+          <t>http://www.gigglescannabis.ca/</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3896,7 +3778,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>614ba1c7b4849f5565ec9a4b</t>
+          <t>5ef0f71569f918127cfe83f7</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3905,7 +3787,7 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>12267836259</v>
+        <v>12893893803</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -3915,24 +3797,22 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="b">
-        <v>1</v>
-      </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BELLE RIVER</t>
+          <t>SUDBURY</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>The We Store</t>
+          <t>HAPPY LIFE</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1303 ESSEX COUNTY ROAD #22, UNIT 180</t>
+          <t>1021 KINGSWAY UNIT 3</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3942,7 +3822,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://thewestore.com/shop/?dtche%5Bpath%5D=checkout</t>
+          <t>http://www.happylifepotshop.ca/</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3952,41 +3832,41 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>6065096543756f00a7467b51</t>
+          <t>60108ae8f1653900ddcb2e47</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'Delivery']</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr"/>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>17052223886</v>
+      </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="b">
-        <v>1</v>
-      </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ST CATHARINES</t>
+          <t>TOTTENHAM</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TOP FINEST CANNABIS</t>
+          <t>Hempire House</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>436 VANSICKLE RD SUITE 9</t>
+          <t>18 MILL ST W</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3996,7 +3876,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://topfinestcannabis.ca/</t>
+          <t>http://www.hempirehouse.ca/</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -4006,43 +3886,41 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>6144e516fb232c009b6c8132</t>
+          <t>620156d21fe55c0ddc06f697</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>19056886886</v>
+        <v>17055309594</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="b">
-        <v>1</v>
-      </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TECUMSEH</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>URBNBUD</t>
+          <t>Hibuzz</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1614 LESPERANCE RD BUILDING F3 UNIT D</t>
+          <t>7955 FINANCIAL DR UNIT B</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -4052,7 +3930,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>http://www.urbnbud.com/</t>
+          <t>http://www.hibuzz.ca/</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4062,43 +3940,41 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>6148e2c8b258a800cd749439</t>
+          <t>604bb1f1a6aa9a00b9b30826</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>15199567667</v>
+        <v>19054591311</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
-      <c r="N65" t="b">
-        <v>1</v>
-      </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SUDBURY</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Wild Flowerz</t>
+          <t>HIBUZZ</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>533 KATHLEEN ST UNIT B</t>
+          <t>40 RIVERMONT RD UNIT D2</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4108,7 +3984,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>http://wildflowerz.ca/</t>
+          <t>http://www.hibuzz.ca/</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4118,43 +3994,41 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>636536f141c9a200b6e1ab48</t>
+          <t>601981d2a219bd00e0cd7804</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>17055860402</v>
+        <v>19054553111</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
-      <c r="N66" t="b">
-        <v>1</v>
-      </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>ANCASTER</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>WOW World of Weed</t>
+          <t>HIGHLIFE ANCASTER</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>3412 WESTON ROAD</t>
+          <t>1142 WILSON ST W UNIT 9</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -4164,7 +4038,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://www.woweeds.ca/</t>
+          <t>http://www.highlife.ca/</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4174,28 +4048,134 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>60806bc5ece0aa00d28bff8d</t>
+          <t>5e94097f74d093009baa0e36</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>14167431234</v>
+        <v>12894438880</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="b">
-        <v>1</v>
-      </c>
+      <c r="N67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>SARNIA</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>HIGHLIFE BLUEWATER</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>940 MURPHY RD UNIT 1</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>http://www.highlife.ca/</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>5fa09025819cfe0108210ded</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>15195421193</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>SIMCOE</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>HIGHLIFE SIMCOE</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>95 QUEENSWAY W SUITE 4</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>http://www.highlife.ca/</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>5fa090512d10e500b4810559</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>15194288001</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -508,17 +508,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WINDSOR</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Greentown Cannabis Discount Hut</t>
+          <t>WOW World of Weed</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3580 TECUMSEH RD E UNIT 4</t>
+          <t>3412 WESTON ROAD</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>http://greentowndiscount.com/</t>
+          <t>https://www.woweeds.ca/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -538,16 +538,16 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>63dd3ab12a28f600d47fe64b</t>
+          <t>60806bc5ece0aa00d28bff8d</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>12267042190</v>
+        <v>14167431234</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -557,22 +557,24 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>WINDSOR</t>
+          <t>SUDBURY</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Greentown Cannabis Discount Hut</t>
+          <t>Wild Flowerz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1519 DROUILLARD RD</t>
+          <t>533 KATHLEEN ST UNIT B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -582,7 +584,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>http://greentowndiscount.com/</t>
+          <t>http://wildflowerz.ca/</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -592,41 +594,43 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>63dd3a784e9a4f005bc682c2</t>
+          <t>636536f141c9a200b6e1ab48</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pick-up', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>12267042190</v>
+        <v>17055860402</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>WINDSOR</t>
+          <t>TECUMSEH</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>THE WE STORE</t>
+          <t>URBNBUD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1800 HURON CHURCH RD UNIT B</t>
+          <t>1614 LESPERANCE RD BUILDING F3 UNIT D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -636,7 +640,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>http://thewestore.com/</t>
+          <t>http://www.urbnbud.com/</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -646,7 +650,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>614ba1c7b4849f5565ec9a4b</t>
+          <t>6148e2c8b258a800cd749439</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -655,7 +659,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>12267836259</v>
+        <v>15199567667</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -665,22 +669,24 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>WINDSOR</t>
+          <t>ST CATHARINES</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cannasavvy Cannabis Co.</t>
+          <t>TOP FINEST CANNABIS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3395 HOWARD AVE UNIT 4</t>
+          <t>436 VANSICKLE RD SUITE 9</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -690,7 +696,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>http://www.cannasavvy.ca/</t>
+          <t>https://topfinestcannabis.ca/</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -700,41 +706,43 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5fecae1a64e54f7d4233ddb9</t>
+          <t>6144e516fb232c009b6c8132</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>15192566262</v>
+        <v>19056886886</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>WELLAND</t>
+          <t>WINDSOR</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sessions Cannabis Retail</t>
+          <t>THE WE STORE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>200 FITCH ST UNIT 12A</t>
+          <t>1800 HURON CHURCH RD UNIT B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -744,7 +752,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.sessions.ca/welland-niagara-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+          <t>http://thewestore.com/</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -754,41 +762,43 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>5fd7ab8ac0bf8200d5781daf</t>
+          <t>614ba1c7b4849f5565ec9a4b</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>19057880641</v>
+        <v>12267836259</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WAWA</t>
+          <t>KESWICK</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>T CANNABIS NW</t>
+          <t>The House of Cannabis - Keswick</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>152 MISSION RD</t>
+          <t>1 CHURCH ST SUITE 9</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -798,7 +808,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>http://tcann.ca/</t>
+          <t>http://thehousecannabis.ca/</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -808,20 +818,20 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>635c46308a312000a44da3f2</t>
+          <t>2261116815efa0af00a9068d41</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>17058567777</v>
+        <v>12898039462</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -832,17 +842,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">WATERLOO </t>
+          <t>ST CATHARINES</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Session7</t>
+          <t>The Hempire</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>210-220 KING ST N UNIT G2</t>
+          <t xml:space="preserve">25-27 ONTARIO ST </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -852,7 +862,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>http://session7.ca/</t>
+          <t>https://thehempire.ca/</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -862,16 +872,16 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>5f04b8e052817c014c31690c</t>
+          <t>5fa9614f32967f00c691818d</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>15192087775</v>
+        <v>19056847776</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -881,22 +891,24 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>ETOBICOKE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Edition X</t>
+          <t>Terps &amp; Rec Cannabis</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>764 ST CLAIR AVE W</t>
+          <t>127 WESTMORE DR UNIT 106</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -906,7 +918,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://helloedition.com/</t>
+          <t>http://terpsrec.com/</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -916,7 +928,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>5fa05f1cfc2d590101017618</t>
+          <t>610054d396959e00d9e7480d</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -925,32 +937,34 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>14165194460</v>
+        <v>14166013734</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['No delivery information', 'Same-day delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>ROCKWOOD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bonnefire</t>
+          <t>Taste Buds Cannabis</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>129 MUNRO ST</t>
+          <t xml:space="preserve">155 MAIN ST S UNIT "A" </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -960,7 +974,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>http://bonnefire.ca/</t>
+          <t>http://tbcontario.com/</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -970,41 +984,45 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>627eb92e88f7de00a435c07d</t>
+          <t>64833eaca3386b0017a49653</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>14164630420</v>
+        <v>15196050558</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>THOROLD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GreenPort</t>
+          <t>TAKE OFF CANNABIS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>686 COLLEGE ST</t>
+          <t>9 PINE ST N UNIT 28</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1014,7 +1032,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>http://greenport.store/</t>
+          <t>http://www.takeoffcannabis.com/</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1024,16 +1042,16 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>632a3632ae6a2b00ac1ec89a</t>
+          <t>5ede8220a9dfe7011a6a593d</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>14165362121</v>
+        <v>19052278288</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1043,22 +1061,24 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>WAWA</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Body and Spirit Cannabis</t>
+          <t>T CANNABIS NW</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>361 YONGE ST</t>
+          <t>152 MISSION RD</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1068,7 +1088,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://bodyandspiritcannabis.com/</t>
+          <t>http://tcann.ca/</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1078,16 +1098,16 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>5e45c5d96a6aef00702ed11f</t>
+          <t>635c46308a312000a44da3f2</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>16478125989</v>
+        <v>17058567777</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1097,7 +1117,9 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1107,12 +1129,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Canvas Cannabis</t>
+          <t>Spiritleaf Beaches</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>171 EAST LIBERTY ST SUITE 145</t>
+          <t>2116 QUEEN ST E UNIT J</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1122,7 +1144,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>http://www.canvascannabis.ca/</t>
+          <t>https://spiritleaf.ca/collections/spiritleaf-beaches</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1132,41 +1154,43 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>5fdbff46f2207962b1b027c4</t>
+          <t>6079b8182436d800b5c874f9</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>14165513971</v>
+        <v>16473505323</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>WELLAND</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CanaCulture Cannabis Store</t>
+          <t>Sessions Cannabis Retail</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>914 EGLINTON AVE W</t>
+          <t>200 FITCH ST UNIT 12A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1176,7 +1200,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://canaculture.ca/</t>
+          <t>https://www.sessions.ca/welland-niagara-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1186,41 +1210,43 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>5fe2b0a97ae1a100f5c5aa85</t>
+          <t>5fd7ab8ac0bf8200d5781daf</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>14167858325</v>
+        <v>19057880641</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Spiritleaf Beaches</t>
+          <t>Sessions Cannabis Cambridge</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2116 QUEEN ST E UNIT J</t>
+          <t>101 HOLIDAY INN DR UNIT B1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1230,7 +1256,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://spiritleaf.ca/collections/spiritleaf-beaches</t>
+          <t>https://www.sessions.ca/cambridge-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1240,16 +1266,16 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>6079b8182436d800b5c874f9</t>
+          <t>5e6f90b1c706d4006afc5033</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>16473505323</v>
+        <v>15192200201</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1259,22 +1285,24 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>BROCKVILLE</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>WOW World of Weed</t>
+          <t>Sessions Cannabis Brockville</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3412 WESTON ROAD</t>
+          <t>2441 PARKEDALE AVE UNIT C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1284,7 +1312,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.woweeds.ca/</t>
+          <t>https://www.sessions.ca/brockville-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1294,26 +1322,28 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>60806bc5ece0aa00d28bff8d</t>
+          <t>5fea314982004300ae6b9475</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>14167431234</v>
+        <v>16133424503</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1367,22 +1397,24 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>THOROLD</t>
+          <t>SAULT STE. MARIE</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TAKE OFF CANNABIS</t>
+          <t>Sessions Cannabis - Sault Ste Marie</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>9 PINE ST N UNIT 28</t>
+          <t>216 SECOND LINE W</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1392,7 +1424,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>http://www.takeoffcannabis.com/</t>
+          <t>https://www.sessions.ca/sault-ste-marie-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1402,41 +1434,43 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>5ede8220a9dfe7011a6a593d</t>
+          <t>5fea310977b22200aa316ca1</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>19052278288</v>
+        <v>17054506216</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TECUMSEH</t>
+          <t xml:space="preserve">WATERLOO </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>URBNBUD</t>
+          <t>Session7</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1614 LESPERANCE RD BUILDING F3 UNIT D</t>
+          <t>210-220 KING ST N UNIT G2</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1446,7 +1480,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>http://www.urbnbud.com/</t>
+          <t>http://session7.ca/</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1456,16 +1490,16 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>6148e2c8b258a800cd749439</t>
+          <t>5f04b8e052817c014c31690c</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>15199567667</v>
+        <v>15192087775</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1475,22 +1509,24 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SUNDRIDGE</t>
+          <t>NORTH YORK</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BUDSSMOKE</t>
+          <t>QUNUBU CANNABIS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10425 HWY 124 UNIT B</t>
+          <t>274 WILSON AVE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1500,7 +1536,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>http://budssmoke.com/</t>
+          <t>https://www.qunubucannabis.ca/?utm_source=GMB&amp;utm_medium=organic&amp;utm_campaign=gmb-website</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1510,41 +1546,43 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>6272b206da78bd00a6e7f67b</t>
+          <t>5f91ac6528be6e049a9f5b07</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>17053840899</v>
+        <v>14166389151</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SUDBURY</t>
+          <t>ETOBICOKE</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Wild Flowerz</t>
+          <t>PLUTO PLANTS</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>533 KATHLEEN ST UNIT B</t>
+          <t>62 MARINE PARADE DR UNIT 4</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1554,7 +1592,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>http://wildflowerz.ca/</t>
+          <t>http://plutoplants.ca/</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1564,41 +1602,43 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>636536f141c9a200b6e1ab48</t>
+          <t>6009c8ecc0245c00d346d396</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>17055860402</v>
+        <v>16476402899</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ST CATHARINES</t>
+          <t>PETERBOROUGH</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TOP FINEST CANNABIS</t>
+          <t>NORTHERN LIGHTS CANNABIS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>436 VANSICKLE RD SUITE 9</t>
+          <t>51 LANSDOWNE ST W</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1608,7 +1648,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://topfinestcannabis.ca/</t>
+          <t>http://northern-lights.ca/</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1618,16 +1658,16 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>6144e516fb232c009b6c8132</t>
+          <t>5fd6f1b824a619010096cd34</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>19056886886</v>
+        <v>17054389333</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1637,22 +1677,24 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ST CATHARINES</t>
+          <t>HAMILTON</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BUDSSMOKE</t>
+          <t>NEKU CANNABIS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>186 LAKE ST</t>
+          <t>38 HESS ST S</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1662,7 +1704,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>http://www.budssmoke.com/</t>
+          <t>https://nekucannabis.com/</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1672,7 +1714,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>6126c36e566a61009c2b3090</t>
+          <t>5ff389d871214700d4e6d808</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1681,7 +1723,7 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>12898162837</v>
+        <v>19055245555</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1691,22 +1733,24 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ST CATHARINES</t>
+          <t>SIMCOE</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>The Hempire</t>
+          <t>HIGHLIFE SIMCOE</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">25-27 ONTARIO ST </t>
+          <t>95 QUEENSWAY W SUITE 4</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1716,7 +1760,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://thehempire.ca/</t>
+          <t>http://www.highlife.ca/</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1726,41 +1770,43 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>5fa9614f32967f00c691818d</t>
+          <t>5fa090512d10e500b4810559</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>19056847776</v>
+        <v>15194288001</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SAULT STE. MARIE</t>
+          <t>SARNIA</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sessions Cannabis - Sault Ste Marie</t>
+          <t>HIGHLIFE BLUEWATER</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>216 SECOND LINE W</t>
+          <t>940 MURPHY RD UNIT 1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1770,7 +1816,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.sessions.ca/sault-ste-marie-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+          <t>http://www.highlife.ca/</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1780,7 +1826,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>5fea310977b22200aa316ca1</t>
+          <t>5fa09025819cfe0108210ded</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1789,32 +1835,34 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>17054506216</v>
+        <v>15195421193</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
+      <c r="N25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SAULT STE. MARIE</t>
+          <t>ANCASTER</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Due North Cannabis</t>
+          <t>HIGHLIFE ANCASTER</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>150 CHURCHILL BLVD UNIT C001</t>
+          <t>1142 WILSON ST W UNIT 9</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1824,7 +1872,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>http://duenorthcannabis.com/</t>
+          <t>http://www.highlife.ca/</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1834,41 +1882,43 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>5ef5fb055eb50b00e392c351</t>
+          <t>5e94097f74d093009baa0e36</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>17059981935</v>
+        <v>12894438880</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
+      <c r="N26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ROCKWOOD</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Taste Buds Cannabis</t>
+          <t>Hibuzz</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">155 MAIN ST S UNIT "A" </t>
+          <t>7955 FINANCIAL DR UNIT B</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1878,7 +1928,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>http://tbcontario.com/</t>
+          <t>http://www.hibuzz.ca/</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1888,41 +1938,43 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>64833eaca3386b0017a49653</t>
+          <t>604bb1f1a6aa9a00b9b30826</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>15196050558</v>
+        <v>19054591311</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PICKERING</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BUDSSMOKE</t>
+          <t>HIBUZZ</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>940 BROCK RD UNIT 3</t>
+          <t>40 RIVERMONT RD UNIT D2</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1932,7 +1984,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>http://www.budssmoke.com/</t>
+          <t>http://www.hibuzz.ca/</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1942,41 +1994,43 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>60c77a5112bba400ca82bdc9</t>
+          <t>601981d2a219bd00e0cd7804</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>12892102837</v>
+        <v>19054553111</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PETERBOROUGH</t>
+          <t>ORANGEVILLE</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NORTHERN LIGHTS CANNABIS</t>
+          <t>Hempire House</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>51 LANSDOWNE ST W</t>
+          <t>59 FIRST ST</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1986,7 +2040,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>http://northern-lights.ca/</t>
+          <t>http://hempirehouse.ca/</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1996,51 +2050,53 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>5fd6f1b824a619010096cd34</t>
+          <t>5ec6f81d01de1901493a356d</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping', 'Delivery']</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>17054389333</v>
+        <v>15193074367</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
+      <c r="N29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PARIS</t>
+          <t>TOTTENHAM</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chillin Buds</t>
+          <t>Hempire House</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1 HARTLEY AVE BUILDING A UNIT A6</t>
+          <t>18 MILL ST W</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Public Notice Period: Ended 2023/05/30</t>
+          <t>Authorized to Open</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://chillinbuds.com/</t>
+          <t>http://www.hempirehouse.ca/</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2050,41 +2106,43 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>612d270900432e00b065dead</t>
+          <t>620156d21fe55c0ddc06f697</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>15194429966</v>
+        <v>17055309594</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ORANGEVILLE</t>
+          <t>SUDBURY</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Hempire House</t>
+          <t>HAPPY LIFE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>59 FIRST ST</t>
+          <t>1021 KINGSWAY UNIT 3</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2094,7 +2152,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>http://hempirehouse.ca/</t>
+          <t>http://www.happylifepotshop.ca/</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2104,41 +2162,43 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>5ec6f81d01de1901493a356d</t>
+          <t>60108ae8f1653900ddcb2e47</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'Delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>15193074367</v>
+        <v>17052223886</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>NORTH YORK</t>
+          <t>WINDSOR</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FOGTOWN FLOWER</t>
+          <t>Greentown Cannabis Discount Hut</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4687 YONGE ST</t>
+          <t>3580 TECUMSEH RD E UNIT 4</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2148,7 +2208,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>http://fogtown.ca/</t>
+          <t>http://greentowndiscount.com/</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2158,16 +2218,16 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve">613fd98e2e64f800c74add5f </t>
+          <t>63dd3ab12a28f600d47fe64b</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>16478128873</v>
+        <v>12267042190</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2177,22 +2237,24 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+      <c r="N32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>NORTH YORK</t>
+          <t>WINDSOR</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>QUNUBU CANNABIS</t>
+          <t>Greentown Cannabis Discount Hut</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>274 WILSON AVE</t>
+          <t>1519 DROUILLARD RD</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2202,7 +2264,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://www.qunubucannabis.ca/?utm_source=GMB&amp;utm_medium=organic&amp;utm_campaign=gmb-website</t>
+          <t>http://greentowndiscount.com/</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2212,41 +2274,43 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>5f91ac6528be6e049a9f5b07</t>
+          <t>63dd3a784e9a4f005bc682c2</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pick-up', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>14166389151</v>
+        <v>12267042190</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+      <c r="N33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>NORTH BAY</t>
+          <t>LASALLE</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BUDSSMOKE</t>
+          <t>Greentown</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1236 ALGONQUIN AVE UNIT B</t>
+          <t>5994 MALDEN RD UNIT 3</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2256,7 +2320,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>http://budssmoke.com/</t>
+          <t>https://greentowncannabis.com/</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2266,7 +2330,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>6126c3a977dcda00b6cd237a</t>
+          <t>609c59eaf57edb00a09da192</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2275,7 +2339,7 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>17054970887</v>
+        <v>12267731006</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2285,22 +2349,24 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
+      <c r="N34" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MATTAWA</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BUDSSMOKE</t>
+          <t>GreenPort</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>298 MAIN ST UNIT A</t>
+          <t>686 COLLEGE ST</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2310,7 +2376,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>http://budssmoke.com/</t>
+          <t>http://greenport.store/</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2320,41 +2386,43 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>63ac522a24ce0700cf2cd11c</t>
+          <t>632a3632ae6a2b00ac1ec89a</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>17057442839</v>
+        <v>14165362121</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
+      <c r="N35" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>LONDON</t>
+          <t>ALLISTON</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Cannabis Link</t>
+          <t>Green Grove</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1175 HYDE PARK RD UNIT 2B</t>
+          <t>70 VICTORIA ST E SUITE 3</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2364,7 +2432,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>http://www.cannabislinkinc.com/</t>
+          <t>http://greengrove.ca/</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2374,41 +2442,43 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>5efcaf8053ee9400f1baaccc</t>
+          <t>5edd2dbd17c8c400aacd58b4</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>15196577979</v>
+        <v>17052500187</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>LONDON</t>
+          <t>KINGSTON</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Cannabis Link</t>
+          <t>Giggles Cannabis</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>390 SPRINGBANK DR UNIT 10B</t>
+          <t>652 PRINCESS ST SUITE 108</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2418,7 +2488,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>http://www.cannabislinkinc.com/</t>
+          <t>https://kingstongiggles.com/</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2428,7 +2498,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>63cef96a67b9fe00b0cecc3d</t>
+          <t>62e858e63967b40082a6aba1</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2437,7 +2507,7 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>12268844747</v>
+        <v>16135420377</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2447,22 +2517,24 @@
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
+      <c r="N37" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LONDON</t>
+          <t>HAMILTON</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Cannabis Link</t>
+          <t>Giggles Cannabis</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>509 COMMISSIONERS RD W UNIT A35</t>
+          <t>163 MAIN ST W</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2472,7 +2544,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>http://www.cannabislinkinc.com/</t>
+          <t>http://www.gigglescannabis.ca/</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2482,41 +2554,43 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>604142d7fad36600d0758e2d</t>
+          <t>5ef0f71569f918127cfe83f7</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>15192045777</v>
+        <v>12893893803</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
+      <c r="N38" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LONDON</t>
+          <t>NORTH YORK</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Cannabis Link</t>
+          <t>FOGTOWN FLOWER</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1295 HIGHBURY AVE N UNIT A6B</t>
+          <t>4687 YONGE ST</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2526,7 +2600,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>http://www.cannabislinkinc.com/</t>
+          <t>http://fogtown.ca/</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2536,20 +2610,20 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>603561b5f0941300bf77dfa8</t>
+          <t xml:space="preserve">613fd98e2e64f800c74add5f </t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>15194577070</v>
+        <v>16478128873</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2560,17 +2634,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LONDON</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">CANNABIS LINK </t>
+          <t>Edition X</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1225 WONDERLAND RD N UNIT 40A</t>
+          <t>764 ST CLAIR AVE W</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2580,7 +2654,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>http://www.cannabislinkinc.com/</t>
+          <t>https://helloedition.com/</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2590,41 +2664,43 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>5fe12a0a5652e700bc6624ad</t>
+          <t>5fa05f1cfc2d590101017618</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>15196574747</v>
+        <v>14165194460</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+      <c r="N40" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LASALLE</t>
+          <t>SAULT STE. MARIE</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Greentown</t>
+          <t>Due North Cannabis</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>5994 MALDEN RD UNIT 3</t>
+          <t>150 CHURCHILL BLVD UNIT C001</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2634,7 +2710,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://greentowncannabis.com/</t>
+          <t>http://duenorthcannabis.com/</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2644,7 +2720,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>609c59eaf57edb00a09da192</t>
+          <t>5ef5fb055eb50b00e392c351</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2653,7 +2729,7 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>12267731006</v>
+        <v>17059981935</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2663,22 +2739,24 @@
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
+      <c r="N41" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>LASALLE</t>
+          <t>KITCHENER</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BRO CANNABIS INC.</t>
+          <t>DAB GLASS</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2596 FRONT RD UNIT 1</t>
+          <t>685 FISCHER HALLMAN RD SUITE M</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2688,7 +2766,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://www.brocannabis.ca/</t>
+          <t>http://shopdabglass.ca/</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2698,16 +2776,16 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>62cafd003b150b0080d2a796</t>
+          <t>60e4a511dca91d00a81b7867</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>12263405531</v>
+        <v>15192084527</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2717,22 +2795,24 @@
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
+      <c r="N42" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>KITCHENER</t>
+          <t>BRANTFORD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DAB GLASS</t>
+          <t>COST CANNABIS</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>685 FISCHER HALLMAN RD SUITE M</t>
+          <t>61 LYNDEN RD UNIT B4</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2742,7 +2822,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>http://shopdabglass.ca/</t>
+          <t>http://costcan.ca/</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2752,51 +2832,53 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>60e4a511dca91d00a81b7867</t>
+          <t>63864282925f8000e17fd63a</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store shopping']</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>15192084527</v>
+        <v>15197580000</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
+      <c r="N43" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>KINGSTON</t>
+          <t>PARIS</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Giggles Cannabis</t>
+          <t>Chillin Buds</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>652 PRINCESS ST SUITE 108</t>
+          <t>1 HARTLEY AVE BUILDING A UNIT A6</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>Public Notice Period: Ended 2023/05/30</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://kingstongiggles.com/</t>
+          <t>https://chillinbuds.com/</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2806,16 +2888,16 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>62e858e63967b40082a6aba1</t>
+          <t>612d270900432e00b065dead</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>16135420377</v>
+        <v>15194429966</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2825,22 +2907,24 @@
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
+      <c r="N44" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>KESWICK</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>The House of Cannabis - Keswick</t>
+          <t>Canvas Cannabis</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1 CHURCH ST SUITE 9</t>
+          <t>171 EAST LIBERTY ST SUITE 145</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2850,7 +2934,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>http://thehousecannabis.ca/</t>
+          <t>http://www.canvascannabis.ca/</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2860,7 +2944,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2261116815efa0af00a9068d41</t>
+          <t>5fdbff46f2207962b1b027c4</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2869,7 +2953,7 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>12898039462</v>
+        <v>14165513971</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2879,22 +2963,24 @@
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
+      <c r="N45" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>KANATA</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BLUEBIRD CANNABIS CO.</t>
+          <t>CANTOPIA CANNABIS CO.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>499 TERRY FOX DR UNIT 60</t>
+          <t>55 MOUNTAINASH ROAD, D2-A</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2904,7 +2990,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>http://bluebirdcannabis.store/</t>
+          <t>http://www.cantopia.ca/</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2914,41 +3000,43 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>5fac6a5955a05800c45083bd</t>
+          <t>609ae8d36ce2b100c0cd424f</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>16136722233</v>
+        <v>19057899433</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery - Time unknown']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
+      <c r="N46" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>KANATA</t>
+          <t>WINDSOR</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BLUEBIRD CANNABIS MARCH ROAD</t>
+          <t>Cannasavvy Cannabis Co.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>806 MARCH RD</t>
+          <t>3395 HOWARD AVE UNIT 4</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2958,7 +3046,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>http://bluebirdcannabis.store/</t>
+          <t>http://www.cannasavvy.ca/</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2968,16 +3056,16 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>601abc789ec2de3539c94656</t>
+          <t>5fecae1a64e54f7d4233ddb9</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>16135923222</v>
+        <v>15192566262</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2987,22 +3075,24 @@
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
+      <c r="N47" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HAMILTON</t>
+          <t>LONDON</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BUD BROTHERS CANNABIS</t>
+          <t xml:space="preserve">CANNABIS LINK </t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1568 MAIN ST W</t>
+          <t>1225 WONDERLAND RD N UNIT 40A</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3012,7 +3102,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://budbrotherscannabis.ca/</t>
+          <t>http://www.cannabislinkinc.com/</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3022,41 +3112,43 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>60a2acc7143d8600a7a11f35</t>
+          <t>5fe12a0a5652e700bc6624ad</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>12897685659</v>
+        <v>15196574747</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
+      <c r="N48" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HAMILTON</t>
+          <t>LONDON</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NEKU CANNABIS</t>
+          <t>Cannabis Link</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>38 HESS ST S</t>
+          <t>1175 HYDE PARK RD UNIT 2B</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3066,7 +3158,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://nekucannabis.com/</t>
+          <t>http://www.cannabislinkinc.com/</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3076,41 +3168,43 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>5ff389d871214700d4e6d808</t>
+          <t>5efcaf8053ee9400f1baaccc</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>19055245555</v>
+        <v>15196577979</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
+      <c r="N49" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ETOBICOKE</t>
+          <t>LONDON</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PLUTO PLANTS</t>
+          <t>Cannabis Link</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>62 MARINE PARADE DR UNIT 4</t>
+          <t>390 SPRINGBANK DR UNIT 10B</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3120,7 +3214,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>http://plutoplants.ca/</t>
+          <t>http://www.cannabislinkinc.com/</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3130,41 +3224,43 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>6009c8ecc0245c00d346d396</t>
+          <t>63cef96a67b9fe00b0cecc3d</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>16476402899</v>
+        <v>12268844747</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
+      <c r="N50" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ETOBICOKE</t>
+          <t>LONDON</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Terps &amp; Rec Cannabis</t>
+          <t>Cannabis Link</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>127 WESTMORE DR UNIT 106</t>
+          <t>509 COMMISSIONERS RD W UNIT A35</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3174,7 +3270,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>http://terpsrec.com/</t>
+          <t>http://www.cannabislinkinc.com/</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3184,41 +3280,43 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>610054d396959e00d9e7480d</t>
+          <t>604142d7fad36600d0758e2d</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>14166013734</v>
+        <v>15192045777</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+      <c r="N51" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CAMBRIDGE</t>
+          <t>LONDON</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Sessions Cannabis Cambridge</t>
+          <t>Cannabis Link</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>101 HOLIDAY INN DR UNIT B1</t>
+          <t>1295 HIGHBURY AVE N UNIT A6B</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3228,7 +3326,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://www.sessions.ca/cambridge-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+          <t>http://www.cannabislinkinc.com/</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3238,16 +3336,16 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>5e6f90b1c706d4006afc5033</t>
+          <t>603561b5f0941300bf77dfa8</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>15192200201</v>
+        <v>15194577070</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -3257,22 +3355,24 @@
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+      <c r="N52" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>CALLANDER</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BUDSSMOKE</t>
+          <t>CanaCulture Cannabis Store</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>6 MAIN ST S UNIT 4</t>
+          <t>914 EGLINTON AVE W</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3282,7 +3382,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://budssmoke.com/6-main-street-south-callander/</t>
+          <t>https://canaculture.ca/</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3292,16 +3392,16 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>642f1ce57f22fc00c0a5be1f</t>
+          <t>5fe2b0a97ae1a100f5c5aa85</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store shopping']</t>
+          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>17057523333</v>
+        <v>14167858325</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -3311,12 +3411,14 @@
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+      <c r="N53" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BURLINGTON</t>
+          <t>SUNDRIDGE</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3326,7 +3428,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2017 LAKESHORE RD</t>
+          <t>10425 HWY 124 UNIT B</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3346,41 +3448,43 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>5f7d38d029883400facd32a9</t>
+          <t>6272b206da78bd00a6e7f67b</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>19056372837</v>
+        <v>17053840899</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+      <c r="N54" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BROCKVILLE</t>
+          <t>ST CATHARINES</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Sessions Cannabis Brockville</t>
+          <t>BUDSSMOKE</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2441 PARKEDALE AVE UNIT C</t>
+          <t>186 LAKE ST</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3390,7 +3494,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://www.sessions.ca/brockville-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+          <t>http://www.budssmoke.com/</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3400,7 +3504,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>5fea314982004300ae6b9475</t>
+          <t>6126c36e566a61009c2b3090</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3409,22 +3513,24 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>16133424503</v>
+        <v>12898162837</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
+      <c r="N55" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BRANTFORD</t>
+          <t>PICKERING</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3434,7 +3540,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>299 WAYNE GRETZKY PKY SUITE 5</t>
+          <t>940 BROCK RD UNIT 3</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3444,7 +3550,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>http://budssmoke.com/</t>
+          <t>http://www.budssmoke.com/</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3454,7 +3560,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>6126c4088ae089009b8e8ce2</t>
+          <t>60c77a5112bba400ca82bdc9</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3463,7 +3569,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>12269172837</v>
+        <v>12892102837</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -3473,22 +3579,24 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
+      <c r="N56" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BRANTFORD</t>
+          <t>NORTH BAY</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>COST CANNABIS</t>
+          <t>BUDSSMOKE</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>61 LYNDEN RD UNIT B4</t>
+          <t>1236 ALGONQUIN AVE UNIT B</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3498,7 +3606,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>http://costcan.ca/</t>
+          <t>http://budssmoke.com/</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3508,41 +3616,43 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>63864282925f8000e17fd63a</t>
+          <t>6126c3a977dcda00b6cd237a</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>15197580000</v>
+        <v>17054970887</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BRAMPTON</t>
+          <t>MATTAWA</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Bodega Boyz</t>
+          <t>BUDSSMOKE</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>69 BRAMALEA RD SUITE 3</t>
+          <t>298 MAIN ST UNIT A</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3552,7 +3662,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>http://www.bodegaboyz.ca/</t>
+          <t>http://budssmoke.com/</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3562,16 +3672,16 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>61d38e4ca8388a008cb50d87</t>
+          <t>63ac522a24ce0700cf2cd11c</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>19054580439</v>
+        <v>17057442839</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -3581,22 +3691,24 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
+      <c r="N58" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BRAMPTON</t>
+          <t>CALLANDER</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CANTOPIA CANNABIS CO.</t>
+          <t>BUDSSMOKE</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>55 MOUNTAINASH ROAD, D2-A</t>
+          <t>6 MAIN ST S UNIT 4</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3606,7 +3718,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>http://www.cantopia.ca/</t>
+          <t>https://budssmoke.com/6-main-street-south-callander/</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3616,41 +3728,43 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>609ae8d36ce2b100c0cd424f</t>
+          <t>642f1ce57f22fc00c0a5be1f</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>19057899433</v>
+        <v>17057523333</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Delivery - Time unknown']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
+      <c r="N59" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ALMONTE</t>
+          <t>BURLINGTON</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Bluebird Almonte</t>
+          <t>BUDSSMOKE</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>14 MILL ST UNIT 8A</t>
+          <t>2017 LAKESHORE RD</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3660,7 +3774,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>http://bluebirdcannabis.store/</t>
+          <t>http://budssmoke.com/</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3670,16 +3784,16 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>608c1dbd89a04b00cadc09b0</t>
+          <t>5f7d38d029883400facd32a9</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>16134610091</v>
+        <v>19056372837</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -3689,22 +3803,24 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
+      <c r="N60" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ALLISTON</t>
+          <t>BRANTFORD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Green Grove</t>
+          <t>BUDSSMOKE</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>70 VICTORIA ST E SUITE 3</t>
+          <t>299 WAYNE GRETZKY PKY SUITE 5</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3714,7 +3830,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>http://greengrove.ca/</t>
+          <t>http://budssmoke.com/</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3724,16 +3840,16 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>5edd2dbd17c8c400aacd58b4</t>
+          <t>6126c4088ae089009b8e8ce2</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>17052500187</v>
+        <v>12269172837</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -3743,7 +3859,9 @@
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+      <c r="N61" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3753,12 +3871,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Giggles Cannabis</t>
+          <t>BUD BROTHERS CANNABIS</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>163 MAIN ST W</t>
+          <t>1568 MAIN ST W</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3768,7 +3886,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>http://www.gigglescannabis.ca/</t>
+          <t>https://budbrotherscannabis.ca/</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3778,16 +3896,16 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>5ef0f71569f918127cfe83f7</t>
+          <t>60a2acc7143d8600a7a11f35</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>12893893803</v>
+        <v>12897685659</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -3797,22 +3915,24 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
+      <c r="N62" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SUDBURY</t>
+          <t>LASALLE</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>HAPPY LIFE</t>
+          <t>BRO CANNABIS INC.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1021 KINGSWAY UNIT 3</t>
+          <t>2596 FRONT RD UNIT 1</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3822,7 +3942,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>http://www.happylifepotshop.ca/</t>
+          <t>https://www.brocannabis.ca/</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3832,7 +3952,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>60108ae8f1653900ddcb2e47</t>
+          <t>62cafd003b150b0080d2a796</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3841,7 +3961,7 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>17052223886</v>
+        <v>12263405531</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -3851,22 +3971,24 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
+      <c r="N63" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TOTTENHAM</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Hempire House</t>
+          <t>Bonnefire</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>18 MILL ST W</t>
+          <t>129 MUNRO ST</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3876,7 +3998,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>http://www.hempirehouse.ca/</t>
+          <t>http://bonnefire.ca/</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3886,41 +4008,43 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>620156d21fe55c0ddc06f697</t>
+          <t>627eb92e88f7de00a435c07d</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>17055309594</v>
+        <v>14164630420</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
+      <c r="N64" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BRAMPTON</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Hibuzz</t>
+          <t>Body and Spirit Cannabis</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>7955 FINANCIAL DR UNIT B</t>
+          <t>361 YONGE ST</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3930,7 +4054,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>http://www.hibuzz.ca/</t>
+          <t>https://bodyandspiritcannabis.com/</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3940,16 +4064,16 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>604bb1f1a6aa9a00b9b30826</t>
+          <t>5e45c5d96a6aef00702ed11f</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>19054591311</v>
+        <v>16478125989</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -3959,7 +4083,9 @@
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
+      <c r="N65" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3969,12 +4095,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>HIBUZZ</t>
+          <t>Bodega Boyz</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>40 RIVERMONT RD UNIT D2</t>
+          <t>69 BRAMALEA RD SUITE 3</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3984,7 +4110,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>http://www.hibuzz.ca/</t>
+          <t>http://www.bodegaboyz.ca/</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3994,16 +4120,16 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>601981d2a219bd00e0cd7804</t>
+          <t>61d38e4ca8388a008cb50d87</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['In-store shopping']</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>19054553111</v>
+        <v>19054580439</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -4013,22 +4139,24 @@
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
+      <c r="N66" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ANCASTER</t>
+          <t>KANATA</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>HIGHLIFE ANCASTER</t>
+          <t>BLUEBIRD CANNABIS MARCH ROAD</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1142 WILSON ST W UNIT 9</t>
+          <t>806 MARCH RD</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -4038,7 +4166,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>http://www.highlife.ca/</t>
+          <t>http://bluebirdcannabis.store/</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4048,16 +4176,16 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>5e94097f74d093009baa0e36</t>
+          <t>601abc789ec2de3539c94656</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>12894438880</v>
+        <v>16135923222</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -4072,17 +4200,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SARNIA</t>
+          <t>KANATA</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>HIGHLIFE BLUEWATER</t>
+          <t>BLUEBIRD CANNABIS CO.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>940 MURPHY RD UNIT 1</t>
+          <t>499 TERRY FOX DR UNIT 60</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -4092,7 +4220,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>http://www.highlife.ca/</t>
+          <t>http://bluebirdcannabis.store/</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -4102,16 +4230,16 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>5fa09025819cfe0108210ded</t>
+          <t>5fac6a5955a05800c45083bd</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>15195421193</v>
+        <v>16136722233</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -4126,17 +4254,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SIMCOE</t>
+          <t>ALMONTE</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>HIGHLIFE SIMCOE</t>
+          <t>Bluebird Almonte</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>95 QUEENSWAY W SUITE 4</t>
+          <t>14 MILL ST UNIT 8A</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -4146,7 +4274,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>http://www.highlife.ca/</t>
+          <t>http://bluebirdcannabis.store/</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4156,20 +4284,20 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>5fa090512d10e500b4810559</t>
+          <t>608c1dbd89a04b00cadc09b0</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>15194288001</v>
+        <v>16134610091</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -4195,7 +4195,9 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
+      <c r="N67" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4249,7 +4251,9 @@
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
+      <c r="N68" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4303,7 +4307,9 @@
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
+      <c r="N69" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N69"/>
+  <dimension ref="A1:N176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,17 +508,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>NORTH YORK</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WOW World of Weed</t>
+          <t>FOGTOWN FLOWER</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3412 WESTON ROAD</t>
+          <t>4687 YONGE ST</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.woweeds.ca/</t>
+          <t>http://fogtown.ca/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -538,16 +538,16 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>60806bc5ece0aa00d28bff8d</t>
+          <t xml:space="preserve">613fd98e2e64f800c74add5f </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>14167431234</v>
+        <v>16478128873</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -557,24 +557,22 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SUDBURY</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Wild Flowerz</t>
+          <t>Body and Spirit Cannabis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>533 KATHLEEN ST UNIT B</t>
+          <t>361 YONGE ST</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -584,7 +582,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>http://wildflowerz.ca/</t>
+          <t>https://bodyandspiritcannabis.com/</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -594,43 +592,43 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>636536f141c9a200b6e1ab48</t>
+          <t>5e45c5d96a6aef00702ed11f</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>17055860402</v>
+        <v>16478125989</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="N3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TECUMSEH</t>
+          <t>ROCKWOOD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>URBNBUD</t>
+          <t>Taste Buds Cannabis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1614 LESPERANCE RD BUILDING F3 UNIT D</t>
+          <t xml:space="preserve">155 MAIN ST S UNIT "A" </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -640,7 +638,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>http://www.urbnbud.com/</t>
+          <t>http://tbcontario.com/</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -650,43 +648,45 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>6148e2c8b258a800cd749439</t>
+          <t>64833eaca3386b0017a49653</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>15199567667</v>
+        <v>15196050558</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
-        <v>1</v>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ST CATHARINES</t>
+          <t>KESWICK</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TOP FINEST CANNABIS</t>
+          <t>The House of Cannabis - Keswick</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>436 VANSICKLE RD SUITE 9</t>
+          <t>1 CHURCH ST SUITE 9</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://topfinestcannabis.ca/</t>
+          <t>http://thehousecannabis.ca/</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>6144e516fb232c009b6c8132</t>
+          <t>2261116815efa0af00a9068d41</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>19056886886</v>
+        <v>12898039462</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -725,24 +725,22 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
-        <v>1</v>
-      </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>WINDSOR</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>THE WE STORE</t>
+          <t>Bodega Boyz</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1800 HURON CHURCH RD UNIT B</t>
+          <t>69 BRAMALEA RD SUITE 3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -752,7 +750,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>http://thewestore.com/</t>
+          <t>http://www.bodegaboyz.ca/</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -762,43 +760,43 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>614ba1c7b4849f5565ec9a4b</t>
+          <t>61d38e4ca8388a008cb50d87</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store shopping']</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>12267836259</v>
+        <v>19054580439</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="N6" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>KESWICK</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>The House of Cannabis - Keswick</t>
+          <t>CANTOPIA CANNABIS CO.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1 CHURCH ST SUITE 9</t>
+          <t>55 MOUNTAINASH ROAD, D2-A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -808,7 +806,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>http://thehousecannabis.ca/</t>
+          <t>http://www.cantopia.ca/</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -818,7 +816,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2261116815efa0af00a9068d41</t>
+          <t>609ae8d36ce2b100c0cd424f</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -827,32 +825,34 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>12898039462</v>
+        <v>19057899433</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery - Time unknown']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ST CATHARINES</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>The Hempire</t>
+          <t>Hibuzz</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">25-27 ONTARIO ST </t>
+          <t>7955 FINANCIAL DR UNIT B</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://thehempire.ca/</t>
+          <t>http://www.hibuzz.ca/</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -872,43 +872,43 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>5fa9614f32967f00c691818d</t>
+          <t>604bb1f1a6aa9a00b9b30826</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>19056847776</v>
+        <v>19054591311</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="N8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ETOBICOKE</t>
+          <t>SIMCOE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Terps &amp; Rec Cannabis</t>
+          <t>HIGHLIFE SIMCOE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>127 WESTMORE DR UNIT 106</t>
+          <t>95 QUEENSWAY W SUITE 4</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>http://terpsrec.com/</t>
+          <t>http://www.highlife.ca/</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -928,43 +928,43 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>610054d396959e00d9e7480d</t>
+          <t>5fa090512d10e500b4810559</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>14166013734</v>
+        <v>15194288001</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="N9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ROCKWOOD</t>
+          <t>PLANTAGENET</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Taste Buds Cannabis</t>
+          <t>Highties Cannabis Store</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">155 MAIN ST S UNIT "A" </t>
+          <t>5787 COUNTY RD 17</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>http://tbcontario.com/</t>
+          <t>http://www.highties.ca/</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -984,45 +984,43 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>64833eaca3386b0017a49653</t>
+          <t>61b6860aecc71e00998e8a4c</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>15196050558</v>
+        <v>16136731313</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
+      <c r="N10" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>THOROLD</t>
+          <t>SCARBOROUGH</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TAKE OFF CANNABIS</t>
+          <t>HOLLAND DAZE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>9 PINE ST N UNIT 28</t>
+          <t>3226 EGLINTON AVE E</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1032,7 +1030,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>http://www.takeoffcannabis.com/</t>
+          <t>http://www.hollanddaze.ca/</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1042,43 +1040,43 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>5ede8220a9dfe7011a6a593d</t>
+          <t>6488d4ffd11c3a000940351c</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>19052278288</v>
+        <v>13658990341</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="N11" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>WAWA</t>
+          <t>SCARBOROUGH</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>T CANNABIS NW</t>
+          <t>HOLLAND DAZE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>152 MISSION RD</t>
+          <t>275 PORT UNION RD UNIT 8</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1088,7 +1086,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>http://tcann.ca/</t>
+          <t>http://www.hollanddaze.ca/</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1098,43 +1096,43 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>635c46308a312000a44da3f2</t>
+          <t>64597cd10f7320006a785443</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>17058567777</v>
+        <v>14378806777</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="N12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>SCARBOROUGH</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Spiritleaf Beaches</t>
+          <t>HOLLAND DAZE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2116 QUEEN ST E UNIT J</t>
+          <t>793 MARKHAM RD</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1144,7 +1142,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://spiritleaf.ca/collections/spiritleaf-beaches</t>
+          <t>http://www.hollanddaze.ca/</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1154,43 +1152,43 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>6079b8182436d800b5c874f9</t>
+          <t>5f8d929a34307700c8d5cf0a</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>16473505323</v>
+        <v>14164383442</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="N13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>WELLAND</t>
+          <t>HUNTSVILLE</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sessions Cannabis Retail</t>
+          <t>Kasa Kana Hunstville</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>200 FITCH ST UNIT 12A</t>
+          <t>6 KING WILLIAM ST</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1200,7 +1198,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.sessions.ca/welland-niagara-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+          <t>http://www.kasakana.com/</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1210,43 +1208,43 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>5fd7ab8ac0bf8200d5781daf</t>
+          <t>6025497ea46cec17aaf77a30</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>19057880641</v>
+        <v>17057899090</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="N14" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CAMBRIDGE</t>
+          <t>SAUBLE BEACH</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sessions Cannabis Cambridge</t>
+          <t>Moonfire Cannabis</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>101 HOLIDAY INN DR UNIT B1</t>
+          <t>329 MAIN ST UNIT 3</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1256,7 +1254,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.sessions.ca/cambridge-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+          <t>http://www.moonfirecannabis.ca/</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1266,16 +1264,16 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>5e6f90b1c706d4006afc5033</t>
+          <t>60d2237dbd13650ceb09635a</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>15192200201</v>
+        <v>15194220101</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1285,24 +1283,24 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="N15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BROCKVILLE</t>
+          <t>WINDSOR</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sessions Cannabis Brockville</t>
+          <t>On the Cannabis Side</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2441 PARKEDALE AVE UNIT C</t>
+          <t>4756 TECUMSEH RD E</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1312,7 +1310,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.sessions.ca/brockville-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+          <t>http://www.onthecannabisside.ca/</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1322,7 +1320,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>5fea314982004300ae6b9475</t>
+          <t>6243110e7a183d008e0f8a72</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1331,34 +1329,34 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>16133424503</v>
+        <v>12266740420</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="N16" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TIMMINS</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sessions Cannabis - Timmins</t>
+          <t>Piffingtons Cannabis Co</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>425 ALGONQUIN BLVD E UNIT 4</t>
+          <t>345 QUEEN ST W UNIT 10</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1368,7 +1366,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.sessions.ca/timmins-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+          <t>http://www.piffingtons.com/</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1378,43 +1376,43 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>60086d3320e3fc0fef619aba</t>
+          <t>61020a2f312cdd00b8c35c88</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>17055312882</v>
+        <v>19054527433</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="N17" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SAULT STE. MARIE</t>
+          <t>MILTON</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sessions Cannabis - Sault Ste Marie</t>
+          <t>Piffingtons Cannabis Co</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>216 SECOND LINE W</t>
+          <t>100 BRONTE ST S UNIT 4</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1424,7 +1422,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.sessions.ca/sault-ste-marie-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
+          <t>http://www.piffingtons.com/</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1434,7 +1432,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>5fea310977b22200aa316ca1</t>
+          <t>6102092329b08b00b7c22945</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1443,34 +1441,34 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>17054506216</v>
+        <v>12898782203</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="N18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">WATERLOO </t>
+          <t>ALMONTE</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Session7</t>
+          <t>Pop's Cannabis Co. Almonte</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>210-220 KING ST N UNIT G2</t>
+          <t>401 OTTAWA ST UNIT 6</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1480,7 +1478,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>http://session7.ca/</t>
+          <t>http://www.popscannabis.ca/</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1490,7 +1488,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>5f04b8e052817c014c31690c</t>
+          <t>61324c230ff49e00ced01853</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1499,7 +1497,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>15192087775</v>
+        <v>13434642220</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1509,24 +1507,24 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="N19" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NORTH YORK</t>
+          <t>BARRIE</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>QUNUBU CANNABIS</t>
+          <t xml:space="preserve">Pop's Cannabis Co. Big Bay Point </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>274 WILSON AVE</t>
+          <t>829 BIG BAY POINT RD UNIT D6</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1536,7 +1534,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.qunubucannabis.ca/?utm_source=GMB&amp;utm_medium=organic&amp;utm_campaign=gmb-website</t>
+          <t>http://www.popscannabis.ca/</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1546,53 +1544,53 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>5f91ac6528be6e049a9f5b07</t>
+          <t>61e9af45956237007dcc6c2a</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>14166389151</v>
+        <v>12498881600</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="N20" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ETOBICOKE</t>
+          <t>BOWMANVILLE</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PLUTO PLANTS</t>
+          <t>Pop's Cannabis Co.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>62 MARINE PARADE DR UNIT 4</t>
+          <t>2316 HWY 2 UNIT K2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>Public Notice Period: Ended 2023/10/10</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>http://plutoplants.ca/</t>
+          <t>http://www.popscannabis.ca/</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1602,43 +1600,43 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>6009c8ecc0245c00d346d396</t>
+          <t>64dfc6210e4045000960071c</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>16476402899</v>
+        <v>12892221020</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="N21" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PETERBOROUGH</t>
+          <t>BRIGHT'S GROVE</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NORTHERN LIGHTS CANNABIS</t>
+          <t>Pop's Cannabis Brights Grove</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>51 LANSDOWNE ST W</t>
+          <t>2600 LAKESHORE RD UNIT 9</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1648,7 +1646,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>http://northern-lights.ca/</t>
+          <t>http://www.popscannabis.ca/</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1658,43 +1656,43 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>5fd6f1b824a619010096cd34</t>
+          <t>60bfc0a2a2c7f600d898ea36</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>17054389333</v>
+        <v>15199089211</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="N22" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>HAMILTON</t>
+          <t>COURTICE</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NEKU CANNABIS</t>
+          <t xml:space="preserve">Pop's Cannabis Co. Courtice </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>38 HESS ST S</t>
+          <t>1635 HWY 2 UNIT 102</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1704,7 +1702,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://nekucannabis.com/</t>
+          <t>http://www.popscannabis.ca/</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1714,43 +1712,43 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>5ff389d871214700d4e6d808</t>
+          <t>61324c4db4b58300ceb6dcc7</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>19055245555</v>
+        <v>12892221020</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="N23" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SIMCOE</t>
+          <t>HANMER</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>HIGHLIFE SIMCOE</t>
+          <t>Pop's Cannabis Co. Hanmer</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>95 QUEENSWAY W SUITE 4</t>
+          <t xml:space="preserve">5118 OLD HIGHWAY 69 N., UNIT 2 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1760,7 +1758,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>http://www.highlife.ca/</t>
+          <t>http://www.popscannabis.ca/</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1770,43 +1768,43 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>5fa090512d10e500b4810559</t>
+          <t>60bfbb5fadfe5300a020f10f</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>15194288001</v>
+        <v>17058313090</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="N24" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SARNIA</t>
+          <t>KAPUSKASING</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>HIGHLIFE BLUEWATER</t>
+          <t>Pop's Cannabis Co. Kapuskasing</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>940 MURPHY RD UNIT 1</t>
+          <t>25 BRUNETVILLE RD UNIT B1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1816,7 +1814,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>http://www.highlife.ca/</t>
+          <t>http://www.popscannabis.ca/</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1826,7 +1824,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>5fa09025819cfe0108210ded</t>
+          <t>60bfbfdcf3dcf000bbfc7288</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1835,7 +1833,7 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>15195421193</v>
+        <v>17053190040</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1845,24 +1843,24 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="N25" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ANCASTER</t>
+          <t>KIRKLAND LAKE</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>HIGHLIFE ANCASTER</t>
+          <t>POP’S CANNABIS CO. KIRKLAND LAKE</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1142 WILSON ST W UNIT 9</t>
+          <t>150 GOVERNMENT RD W UNIT 260</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1872,7 +1870,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>http://www.highlife.ca/</t>
+          <t>http://www.popscannabis.ca/</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1882,43 +1880,43 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>5e94097f74d093009baa0e36</t>
+          <t>60bfbae68f82d900ad91727c</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>12894438880</v>
+        <v>17055720023</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="N26" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BRAMPTON</t>
+          <t>MOUNT FOREST</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Hibuzz</t>
+          <t xml:space="preserve">Pop's Cannabis Co. Mt. Forest </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>7955 FINANCIAL DR UNIT B</t>
+          <t>286 MAIN ST S UNIT C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1928,7 +1926,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>http://www.hibuzz.ca/</t>
+          <t>http://www.popscannabis.ca/</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1938,43 +1936,43 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>604bb1f1a6aa9a00b9b30826</t>
+          <t>60bfc064dc2c6000bb169504</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>19054591311</v>
+        <v>12266662100</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="N27" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BRAMPTON</t>
+          <t>NEW LISKEARD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>HIBUZZ</t>
+          <t>POP'S CANNABIS CO. NEW LISKEARD</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>40 RIVERMONT RD UNIT D2</t>
+          <t>883303 HIGHWAY 65 UNIT 11</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1984,7 +1982,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>http://www.hibuzz.ca/</t>
+          <t>http://www.popscannabis.ca/</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1994,43 +1992,43 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>601981d2a219bd00e0cd7804</t>
+          <t>60bfbb38d8149c00bc1ade9e</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>19054553111</v>
+        <v>17056800101</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="N28" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ORANGEVILLE</t>
+          <t>PENETANGUISHENE</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Hempire House</t>
+          <t>POP'S CANNABIS CO. PENETANG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>59 FIRST ST</t>
+          <t>175 MAIN ST UNIT 4</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2040,7 +2038,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>http://hempirehouse.ca/</t>
+          <t>http://www.popscannabis.ca/</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2050,43 +2048,43 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>5ec6f81d01de1901493a356d</t>
+          <t>60bfbc1c78d5a300a5e46321</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'Delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>15193074367</v>
+        <v>17056144199</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="N29" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TOTTENHAM</t>
+          <t>PICKERING</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Hempire House</t>
+          <t>Pop's Cannabis Co. Pickering</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>18 MILL ST W</t>
+          <t>1822 WHITES RD UNIT 13</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2096,7 +2094,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>http://www.hempirehouse.ca/</t>
+          <t>http://www.popscannabis.ca/</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2106,43 +2104,43 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>620156d21fe55c0ddc06f697</t>
+          <t>60bfc00f8e31de00b564e4fe</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>17055309594</v>
+        <v>12892241122</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="N30" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SUDBURY</t>
+          <t>SMITHS FALLS</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>HAPPY LIFE</t>
+          <t>Pop's Cannabis Co. Smiths Falls</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1021 KINGSWAY UNIT 3</t>
+          <t>123 LOMBARD ST UNIT 9</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2152,7 +2150,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>http://www.happylifepotshop.ca/</t>
+          <t>http://www.popscannabis.ca/</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2162,7 +2160,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>60108ae8f1653900ddcb2e47</t>
+          <t>60bfc0ed656f2500ae29653e</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2171,34 +2169,34 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>17052223886</v>
+        <v>13438811400</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="N31" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>WINDSOR</t>
+          <t>STRATFORD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Greentown Cannabis Discount Hut</t>
+          <t>Pop's Cannabis Co. Stratford</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>3580 TECUMSEH RD E UNIT 4</t>
+          <t>581 HURON ST UNIT 3B</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2208,7 +2206,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>http://greentowndiscount.com/</t>
+          <t>http://www.popscannabis.ca/</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2218,43 +2216,43 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>63dd3ab12a28f600d47fe64b</t>
+          <t>6279a14be838d20087999275</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store pick-up', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>12267042190</v>
+        <v>12267668550</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="N32" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>WINDSOR</t>
+          <t>SUDBURY</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Greentown Cannabis Discount Hut</t>
+          <t>Pop's Cannabis Co.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1519 DROUILLARD RD</t>
+          <t>450 NOTRE DAME AVE UNIT 105B</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2264,7 +2262,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>http://greentowndiscount.com/</t>
+          <t>http://www.popscannabis.ca/</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2274,43 +2272,43 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>63dd3a784e9a4f005bc682c2</t>
+          <t>61201b42c79bf700a3ed1e58</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pick-up', 'In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>12267042190</v>
+        <v>17058851110</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="N33" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>LASALLE</t>
+          <t>TOTTENHAM</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Greentown</t>
+          <t>Pop's Cannabis Co.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>5994 MALDEN RD UNIT 3</t>
+          <t>133 QUEEN ST. S. UNIT A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2320,7 +2318,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://greentowncannabis.com/</t>
+          <t>http://www.popscannabis.ca/</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2330,20 +2328,20 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>609c59eaf57edb00a09da192</t>
+          <t>60bfbb1161ec7800d0d8533f</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>12267731006</v>
+        <v>12898504044</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2356,17 +2354,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>WINDSOR</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>GreenPort</t>
+          <t xml:space="preserve">Pop's Cannabis Co. </t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>686 COLLEGE ST</t>
+          <t>1940 TECUMSEH RD W</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2376,7 +2374,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>http://greenport.store/</t>
+          <t>http://www.popscannabis.ca/</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2386,20 +2384,20 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>632a3632ae6a2b00ac1ec89a</t>
+          <t>630fbd6bb7782700e636f939</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>14165362121</v>
+        <v>12266920139</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2412,17 +2410,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ALLISTON</t>
+          <t>WINDSOR</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Green Grove</t>
+          <t xml:space="preserve">Pop's Cannabis Co. </t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>70 VICTORIA ST E SUITE 3</t>
+          <t>4782 WYANDOTTE ST E</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2432,7 +2430,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>http://greengrove.ca/</t>
+          <t>http://www.popscannabis.ca/</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2442,20 +2440,20 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>5edd2dbd17c8c400aacd58b4</t>
+          <t>630fbda1e1ff1600da981b8a</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>17052500187</v>
+        <v>12267822712</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2468,17 +2466,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>KINGSTON</t>
+          <t>GOULAIS RIVER</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Giggles Cannabis</t>
+          <t>SESSIONS CANNABIS GOULAIS RIVER</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>652 PRINCESS ST SUITE 108</t>
+          <t>2771 ON-17 UNIT 1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2488,7 +2486,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://kingstongiggles.com/</t>
+          <t>http://www.sessions.ca/</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2498,20 +2496,20 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>62e858e63967b40082a6aba1</t>
+          <t>6449558f03b38100eced4596</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>16135420377</v>
+        <v>17059984743</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2524,17 +2522,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HAMILTON</t>
+          <t>AURORA</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Giggles Cannabis</t>
+          <t>Spark Cannabis</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>163 MAIN ST W</t>
+          <t>15191 YONGE ST</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2544,7 +2542,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>http://www.gigglescannabis.ca/</t>
+          <t>http://www.sparkonline.ca/</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2554,7 +2552,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>5ef0f71569f918127cfe83f7</t>
+          <t>6055145c1a94e800d931b2a1</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2563,7 +2561,7 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>12893893803</v>
+        <v>19055030348</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2580,17 +2578,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>NORTH YORK</t>
+          <t>COBOCONK</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FOGTOWN FLOWER</t>
+          <t xml:space="preserve">Spark Cannabis </t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4687 YONGE ST</t>
+          <t>6666 ON-35</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2600,7 +2598,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>http://fogtown.ca/</t>
+          <t>http://www.sparkonline.ca/</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2610,41 +2608,43 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve">613fd98e2e64f800c74add5f </t>
+          <t>63626c9dae28a200a36bfd7d</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>16478128873</v>
+        <v>17058214200</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
+      <c r="N39" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>UXBRIDGE</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Edition X</t>
+          <t xml:space="preserve">Spark Cannabis </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>764 ST CLAIR AVE W</t>
+          <t>24 TORONTO ST N</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://helloedition.com/</t>
+          <t>http://www.sparkonline.ca/</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2664,20 +2664,20 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>5fa05f1cfc2d590101017618</t>
+          <t>6421f062dec24c01013d620b</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>14165194460</v>
+        <v>12896400941</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2690,17 +2690,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SAULT STE. MARIE</t>
+          <t>ACTON</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Due North Cannabis</t>
+          <t>T Cannabis</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>150 CHURCHILL BLVD UNIT C001</t>
+          <t>38 MILL ST E</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>http://duenorthcannabis.com/</t>
+          <t>http://www.tcann.ca/</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2720,7 +2720,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>5ef5fb055eb50b00e392c351</t>
+          <t>5fe12432a142c8010650e89e</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2729,7 +2729,7 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>17059981935</v>
+        <v>15198539898</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2746,17 +2746,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>KITCHENER</t>
+          <t>SARNIA</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DAB GLASS</t>
+          <t>Bogarts Cannabis Shop</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>685 FISCHER HALLMAN RD SUITE M</t>
+          <t>1202 LAKESHORE RD UNIT A</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>http://shopdabglass.ca/</t>
+          <t>http://www.thebogarts.ca/</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2776,20 +2776,20 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>60e4a511dca91d00a81b7867</t>
+          <t>5fe9fc084a132000c5dcd389</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>15192084527</v>
+        <v>15194912243</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2802,17 +2802,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BRANTFORD</t>
+          <t>SARNIA</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>COST CANNABIS</t>
+          <t>The We Store</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>61 LYNDEN RD UNIT B4</t>
+          <t>450 TRUDEAU DR UNIT 7/8</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>http://costcan.ca/</t>
+          <t>http://www.thewestore.com/</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2832,20 +2832,20 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>63864282925f8000e17fd63a</t>
+          <t>614ba1c7b4849f5565ec9a4b</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>15197580000</v>
+        <v>12267847719</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2858,27 +2858,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PARIS</t>
+          <t>SARNIA</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Chillin Buds</t>
+          <t>The We Store</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1 HARTLEY AVE BUILDING A UNIT A6</t>
+          <t>889 EXMOUTH ST UNIT 11</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Public Notice Period: Ended 2023/05/30</t>
+          <t>Authorized to Open</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://chillinbuds.com/</t>
+          <t>http://www.thewestore.com/</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2888,16 +2888,16 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>612d270900432e00b065dead</t>
+          <t>60eda27780d08337569eab9d</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>15194429966</v>
+        <v>12267787386</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2914,17 +2914,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>WINDSOR</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Canvas Cannabis</t>
+          <t>THE WE STORE</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>171 EAST LIBERTY ST SUITE 145</t>
+          <t>1565 WYANDOTTE ST E</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2934,7 +2934,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>http://www.canvascannabis.ca/</t>
+          <t>http://www.thewestore.com/</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2944,7 +2944,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>5fdbff46f2207962b1b027c4</t>
+          <t>5fbc4a16410d5c24f91076a2</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>14165513971</v>
+        <v>12267826347</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2970,17 +2970,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BRAMPTON</t>
+          <t>BEAMSVILLE</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CANTOPIA CANNABIS CO.</t>
+          <t>Toke Cannabis</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>55 MOUNTAINASH ROAD, D2-A</t>
+          <t>4999 KING STREET</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>http://www.cantopia.ca/</t>
+          <t>http://www.tokecannabis.com/beamsville/store</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3000,20 +3000,20 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>609ae8d36ce2b100c0cd424f</t>
+          <t>62ab2e05465fc3008f246452</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>19057899433</v>
+        <v>12895668474</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Delivery - Time unknown']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -3026,17 +3026,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>WINDSOR</t>
+          <t>BURLINGTON</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Cannasavvy Cannabis Co.</t>
+          <t>TreeTop</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>3395 HOWARD AVE UNIT 4</t>
+          <t>796 BRANT ST</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>http://www.cannasavvy.ca/</t>
+          <t>http://www.tree-top-cannabis.ca/</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3056,20 +3056,20 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>5fecae1a64e54f7d4233ddb9</t>
+          <t>644c5cb6dbcb6f01de148411</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>15192566262</v>
+        <v>19056344420</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -3082,17 +3082,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>LONDON</t>
+          <t>WINDSOR</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve">CANNABIS LINK </t>
+          <t>Urbnbud</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1225 WONDERLAND RD N UNIT 40A</t>
+          <t>7405 TECUMSEH ROAD EAST UNIT 200</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>http://www.cannabislinkinc.com/</t>
+          <t>http://www.urbnbud.com/</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3112,20 +3112,20 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>5fe12a0a5652e700bc6624ad</t>
+          <t>5fd9168a64ccd200ff633df5</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>15196574747</v>
+        <v>12266744283</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -3138,17 +3138,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>LONDON</t>
+          <t>HAMILTON</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cannabis Link</t>
+          <t>WE'D</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1175 HYDE PARK RD UNIT 2B</t>
+          <t>205 QUIGLEY RD SUITE 5</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3158,7 +3158,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>http://www.cannabislinkinc.com/</t>
+          <t>http://www.we-d.ca/</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3168,16 +3168,16 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>5efcaf8053ee9400f1baaccc</t>
+          <t>624c42b1c1b4df0d5b411270</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>15196577979</v>
+        <v>19052966516</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -3194,17 +3194,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>LONDON</t>
+          <t xml:space="preserve">HAMILTON </t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Cannabis Link</t>
+          <t>WE’D</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>390 SPRINGBANK DR UNIT 10B</t>
+          <t>1070 STONE CHURCH RD E UNIT 37</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>http://www.cannabislinkinc.com/</t>
+          <t>http://www.we-d.ca/</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3224,20 +3224,20 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>63cef96a67b9fe00b0cecc3d</t>
+          <t>6102e14b62497500cb052f45</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>12268844747</v>
+        <v>12896749333</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -3250,17 +3250,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>LONDON</t>
+          <t>WOODSTOCK</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Cannabis Link</t>
+          <t>Woodstock Cannabis Co</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>509 COMMISSIONERS RD W UNIT A35</t>
+          <t>579 DUNDAS ST</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3270,7 +3270,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>http://www.cannabislinkinc.com/</t>
+          <t>http://www.woodstockcannabisco.ca/</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3280,20 +3280,20 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>604142d7fad36600d0758e2d</t>
+          <t>6001f023ebd1154463af0add</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>15192045777</v>
+        <v>15192904420</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3306,17 +3306,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>LONDON</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Cannabis Link</t>
+          <t>YERBA BUENA CANNABIS</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1295 HIGHBURY AVE N UNIT A6B</t>
+          <t>1111 COLLEGE ST</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3326,7 +3326,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>http://www.cannabislinkinc.com/</t>
+          <t>http://ybcannabis.com/</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>603561b5f0941300bf77dfa8</t>
+          <t>610dabe6b77f9f00c5b0acef</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3345,11 +3345,11 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>15194577070</v>
+        <v>14165160811</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3362,17 +3362,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>SARNIA</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CanaCulture Cannabis Store</t>
+          <t>Yield Cannabis Co.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>914 EGLINTON AVE W</t>
+          <t>1000 FINCH DR UNIT 9</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3382,7 +3382,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://canaculture.ca/</t>
+          <t>http://yieldcannabis.com/</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3392,16 +3392,16 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>5fe2b0a97ae1a100f5c5aa85</t>
+          <t>602be64188f00800c9c45a5c</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>14167858325</v>
+        <v>15193401561</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -3418,17 +3418,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SUNDRIDGE</t>
+          <t>ETOBICOKE</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BUDSSMOKE</t>
+          <t>ABOVE THE CLOUDS CANNABIS</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>10425 HWY 124 UNIT B</t>
+          <t>1126 THE QUEENSWAY UNIT 1 AND 2</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3438,7 +3438,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>http://budssmoke.com/</t>
+          <t>https://abovethecloudscannabis.com/</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3448,20 +3448,20 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>6272b206da78bd00a6e7f67b</t>
+          <t>5f722e483b805100af41339c</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>17053840899</v>
+        <v>14169013434</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3474,17 +3474,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ST CATHARINES</t>
+          <t>AURORA</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BUDSSMOKE</t>
+          <t>ALPHA CANNABIS</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>186 LAKE ST</t>
+          <t>118 WELLINGTON ST E</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3494,7 +3494,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>http://www.budssmoke.com/</t>
+          <t>https://alpha-cannabis.ca/?utm_source=google&amp;utm_medium=gmb&amp;utm_campaign=aurora</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3504,7 +3504,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>6126c36e566a61009c2b3090</t>
+          <t>6051120c07a3ce00c813d70c</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3513,7 +3513,7 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>12898162837</v>
+        <v>19055032500</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -3530,17 +3530,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PICKERING</t>
+          <t>ESPANOLA</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BUDSSMOKE</t>
+          <t>HIGHLIFE CANNABIS ESPANOLA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>940 BROCK RD UNIT 3</t>
+          <t>800 CENTRE ST</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3550,7 +3550,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>http://www.budssmoke.com/</t>
+          <t>https://bananasdispensary.ca/</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3560,20 +3560,20 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>60c77a5112bba400ca82bdc9</t>
+          <t>6195e39a2e0c5e00996444e4</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>12892102837</v>
+        <v>17058693644</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery / Time unknown']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3586,17 +3586,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>NORTH BAY</t>
+          <t>HAMILTON</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BUDSSMOKE</t>
+          <t>Barttowa Tree</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1236 ALGONQUIN AVE UNIT B</t>
+          <t>1081 BARTON ST E</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>http://budssmoke.com/</t>
+          <t>https://barttowatree.ca/about-us</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>6126c3a977dcda00b6cd237a</t>
+          <t>601da0e63f6d3300d3e57de0</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>17054970887</v>
+        <v>19055451192</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -3635,24 +3635,22 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="b">
-        <v>1</v>
-      </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MATTAWA</t>
+          <t>HAWKESBURY</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BUDSSMOKE</t>
+          <t>BLUEBIRD CANNABIS EXPRESS - HAWKESBURY</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>298 MAIN ST UNIT A</t>
+          <t>792 MAIN ST E UNIT A</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3662,7 +3660,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>http://budssmoke.com/</t>
+          <t>https://bluebirdcannabis.store/</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3672,7 +3670,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>63ac522a24ce0700cf2cd11c</t>
+          <t>6303e63282b60400cf7d9ac1</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3681,34 +3679,32 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>17057442839</v>
+        <v>16136325111</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="b">
-        <v>1</v>
-      </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CALLANDER</t>
+          <t>OTTAWA</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BUDSSMOKE</t>
+          <t>BLUEBIRD CANNABIS CO. BANK ST</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>6 MAIN ST S UNIT 4</t>
+          <t>208 BANK ST</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3718,7 +3714,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://budssmoke.com/6-main-street-south-callander/</t>
+          <t>https://bluebirdcannabis.store/bank/</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3728,16 +3724,16 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>642f1ce57f22fc00c0a5be1f</t>
+          <t>5f03a722c696510135ab9ded</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>17057523333</v>
+        <v>16135653420</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -3747,24 +3743,22 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="b">
-        <v>1</v>
-      </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BURLINGTON</t>
+          <t>OTTAWA</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BUDSSMOKE</t>
+          <t>BLUEBIRD CANNABIS CO. CLARENCE STREET</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2017 LAKESHORE RD</t>
+          <t>121 CLARENCE ST</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3774,7 +3768,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>http://budssmoke.com/</t>
+          <t>https://bluebirdcannabis.store/byward/</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3784,16 +3778,16 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>5f7d38d029883400facd32a9</t>
+          <t>fjySu4BPYqScFCR2t</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>19056372837</v>
+        <v>16136950777</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -3803,24 +3797,22 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="b">
-        <v>1</v>
-      </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BRANTFORD</t>
+          <t>OTTAWA</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BUDSSMOKE</t>
+          <t>Bluebird Cannabis Gladstone</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>299 WAYNE GRETZKY PKY SUITE 5</t>
+          <t>502 GLADSTONE AVE</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3830,7 +3822,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>http://budssmoke.com/</t>
+          <t>https://bluebirdcannabis.store/gladstone/</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3840,43 +3832,41 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>6126c4088ae089009b8e8ce2</t>
+          <t>612e3e1a82df5000be178eec</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>12269172837</v>
+        <v>16136806777</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="b">
-        <v>1</v>
-      </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>HAMILTON</t>
+          <t>ST THOMAS</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BUD BROTHERS CANNABIS</t>
+          <t>Bob's Bud Emporium</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1568 MAIN ST W</t>
+          <t>483 TALBOT ST</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3886,7 +3876,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://budbrotherscannabis.ca/</t>
+          <t>https://bobsbudemporium.ca/</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3896,7 +3886,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>60a2acc7143d8600a7a11f35</t>
+          <t>5e41eec57008ad00710c23ca</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3905,7 +3895,7 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>12897685659</v>
+        <v>15192071022</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -3915,24 +3905,22 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="b">
-        <v>1</v>
-      </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>LASALLE</t>
+          <t>ST THOMAS</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BRO CANNABIS INC.</t>
+          <t>BOB'S BUD EMPORIUM (ELGIN CENTRE)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2596 FRONT RD UNIT 1</t>
+          <t>417 WELLINGTON ST UNIT 141</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3942,7 +3930,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://www.brocannabis.ca/</t>
+          <t>https://bobsbudemporium.ca/</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3952,16 +3940,16 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>62cafd003b150b0080d2a796</t>
+          <t>62471ee05755c90e25c2e75a</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>12263405531</v>
+        <v>15192071605</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -3971,24 +3959,22 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="b">
-        <v>1</v>
-      </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Bonnefire</t>
+          <t>Cantopia Cannabis Co.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>129 MUNRO ST</t>
+          <t>1785 QUEEN ST E UNIT H</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3998,7 +3984,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>http://bonnefire.ca/</t>
+          <t>https://bramalea.cantopia.ca/stores/cantopia-cannabis-co-bramalea</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -4008,43 +3994,41 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>627eb92e88f7de00a435c07d</t>
+          <t>622f718f3027a300aecaf01f</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>14164630420</v>
+        <v>19057930833</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="b">
-        <v>1</v>
-      </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>BARRIE</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Body and Spirit Cannabis</t>
+          <t>BUDSSMOKE</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>361 YONGE ST</t>
+          <t>389 BAYFIELD ST</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -4054,7 +4038,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://bodyandspiritcannabis.com/</t>
+          <t>https://budssmoke.com/</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4064,53 +4048,51 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>5e45c5d96a6aef00702ed11f</t>
+          <t>651f3783ce38360009d59863</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>16478125989</v>
+        <v>17052192837</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
-      <c r="N65" t="b">
-        <v>1</v>
-      </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BRAMPTON</t>
+          <t>DEEP RIVER</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Bodega Boyz</t>
+          <t>BUDSSMOKE</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>69 BRAMALEA RD SUITE 3</t>
+          <t>27 CHAMPLAIN ST.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>Public Notice Period: Ended 2023/11/09</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>http://www.bodegaboyz.ca/</t>
+          <t>https://budssmoke.com/</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4120,43 +4102,39 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>61d38e4ca8388a008cb50d87</t>
+          <t>656a585a62b2ec0009410fd9</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['In-store shopping']</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>19054580439</v>
-      </c>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
-      <c r="N66" t="b">
-        <v>1</v>
-      </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>KANATA</t>
+          <t>BARRIE</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BLUEBIRD CANNABIS MARCH ROAD</t>
+          <t>Budtimez</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>806 MARCH RD</t>
+          <t>165 WELLINGTON ST W SUITE 2A</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -4166,7 +4144,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>http://bluebirdcannabis.store/</t>
+          <t>https://budtimez.ca/</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4176,43 +4154,41 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>601abc789ec2de3539c94656</t>
+          <t>5ff629d0108f8200b7fbf896</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>16135923222</v>
+        <v>17057199192</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="b">
-        <v>1</v>
-      </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>KANATA</t>
+          <t>NORTH BAY</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BLUEBIRD CANNABIS CO.</t>
+          <t>Cannabis Jacks</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>499 TERRY FOX DR UNIT 60</t>
+          <t>1881 CASSELLS ST</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -4222,7 +4198,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>http://bluebirdcannabis.store/</t>
+          <t>https://cannabisjacks.ca/</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -4232,43 +4208,41 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>5fac6a5955a05800c45083bd</t>
+          <t>622a5a553b4a4600ac971a67</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store shopping']</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>16136722233</v>
+        <v>17052235255</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
-      <c r="N68" t="b">
-        <v>1</v>
-      </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ALMONTE</t>
+          <t>CARLETON PLACE</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Bluebird Almonte</t>
+          <t>The Cannabis Shop</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>14 MILL ST UNIT 8A</t>
+          <t>545 MCNEELY AVE UNIT 2B</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -4278,7 +4252,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>http://bluebirdcannabis.store/</t>
+          <t>https://cannabis-shop.ca/</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4288,28 +4262,5806 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>608c1dbd89a04b00cadc09b0</t>
+          <t>5f07b18f3b080100cd019449</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>16134610091</v>
+        <v>16134929333</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
-      <c r="N69" t="b">
+      <c r="N69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>BRANTFORD</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>CANNABIS SUPPLY CO.</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>108 COLBORNE ST W UNIT D</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>https://cannabissupplyco.ca/brantford/</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>5ea9b3fbe9376e01315f40fc</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>15193043420</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>KITCHENER</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Cannabis Supply Co.</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1400 WEBER ST E</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>https://cannabissupplyco.ca/kitchener/</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>5ea9b46dd1de4500a9eafe74</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>15192085330</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ST CATHARINES</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Cannabis Supply Co.</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>314 LAKE ST UNIT 4</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>https://cannabissupplyco.ca/st_catharines/</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>5ea9b4c4f611e900b033ae2f</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>19056461006</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>SUDBURY</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CASA BLISS </t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>324 ELM ST UNIT 2</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://casablisscannabis.com/</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>62fa71a275458f00ac57099f</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>17054799333</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>NORTH BAY</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Cheerful Charlies Cannabis Co.</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>16 OSPREY MIIKAN RD</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>https://cccanna.co/</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>5e66a3632a042d3eb5e55648</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>17054729111</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PARIS </t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Chillin' Buds</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1070 REST ACRES RD UNIT D2</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>https://chillinbuds.com/</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>612d270900432e00b065dead</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>15194429966</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Civilian House of Cannabis</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>734 QUEEN ST W</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>https://civiliancannabis.com/</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>60400715bbca1300ce51bdc5</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>14168147494</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>ETOBICOKE</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Consumers Cannabis</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>4864 DUNDAS ST W</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://consumerscannabis.com/</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>6041b0d0d58ce500e092887d</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>14165514864</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>EAST YORK</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>TOKYO SMOKE</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1031 PAPE AVE</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-1031-pape-at-cosburn</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>6063363d05f85c7f84a42111</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>14166139449</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>NORTH YORK</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke 1819 Avenue</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1819 AVENUE RD</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/dispensary/Tokyo-Smoke-1819-Avenue-Rd</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>225fde9c7b97573b00c2b7b82e</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>16473451819</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke 333 Yonge</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>333 YONGE ST</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/dispensary/tokyo-smoke-333-yonge</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>xifehQAT5xMwJRjbb</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>14164773618</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>BARRIE</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke Barrie Essa Road</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>555 ESSA RD</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/dispensary/tokyo-smoke-barrie-essa-rd</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2261bae7d71e928b22c91b5ed4</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>17058812555</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>BRADFORD</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke Bradford</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>494 HOLLAND ST W UNIT 103</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/dispensary/tokyo-smoke-bradford-holland-st</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>22612691afdcef3300bf66fc0d</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>19057755983</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>HAMILTON</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke Fennell</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>967 FENNELL AVE E UNIT 4</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/dispensary/tokyo-smoke-hamilton-fennell-ave</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>6218fd50919b5900af3406df</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>19053180818</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>EAST YORK</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke 3003 Danforth</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>3003 DANFORTH AVE UNIT 29</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/dispensary/tokyo-smoke-shoppers-world-danforth-and-victoria-park</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>5fde9c64e44d9a00e4257748</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>14166720501</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>OTTAWA</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>TWEED</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>204 RIDEAU STREET</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/cannabis-rideau</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>611ec4c260dc3700be58078d</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>13436449644</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>On High Inc.</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>806A ST CLAIR AVE W</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/on-high</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>62ebe20808d2b55736863496</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>16477800039</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>BRAMPTON</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke Brampton Northeast</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>11795 BRAMALEA RD UNIT E5</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-11795-bramalea-rd</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>61bae7b4ba493e3a3030dd61</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>19057994044</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>ETOBICOKE</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>164 EVANS AVE UNIT 1</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-164-evans</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>6040061cbffb6e00c6ffc70f</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>14162557149</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>HAMILTON</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>TOKYO SMOKE</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>235 JAMES ST N</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-235-james-st-n/</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>5f0e3b5d9bd6e000f40150ae</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>12893896685</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>TOKYO SMOKE</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2577 YONGE ST</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-2577-yonge-st</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>61269229d0895400b10a576c</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>14166135997</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>SCARBOROUGH</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>TOKYO SMOKE</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>4660 KINGSTON RD SUITE 1</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-4660-kingston-rd</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>60f9c14a1fee2500b8879650</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>14162822355</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>LONDON</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>TOKYO SMOKE</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>666 WONDERLAND RD N UNIT 6B</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-666-wonderland/</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>5e860090ace6c400bd0eb873</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>12266674545</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>TOKYO SMOKE 715 DANFORTH</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>715 DANFORTH AVE UNIT A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-715-danforth-at-pape</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>604005e37308f800c66b6789</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>14166132466</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TORONTO </t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">94 CUMBERLAND ST UNIT 2 </t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-94-cumberland-st</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>60d25ede0e8faf00a7cb0860</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>14169260565</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>STOUFFVILLE</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>15301 HIGHWAY 48 UNIT 7</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-ballantrae-hwy-48</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>606336686ae36300ad608b7a</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>12895781000</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>BELLEVILLE</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tokyo Smoke Belleville </t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>305 NORTH FRONT ST UNIT 4</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-belleville-front-st</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>5e962e6fa2affa0098cc82ad</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>16137797951</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke 570 Bloor St W</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>570 BLOOR ST W</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-bloor/</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>5e446da5623234007f8657f6</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>14165518659</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>979 BLOOR ST W</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-bloor-and-dovercourt</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>5fde9cc19169f800ae5132eb</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>14165389074</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>BRAMPTON</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TOKYO SMOKE BRAMALEA </t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>25 PEEL CENTRE DR UNIT 360A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-brampton-bramalea-city-centre</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>6169f395f176c500bf5a0581</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>12897520400</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>BRAMPTON</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke Shoppers World Brampton</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>499 MAIN ST S UNIT 70</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-brampton-shoppers-world</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>62d9a3dcd9ecd000a50eb5ce</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>['Kerbside pickup', 'In-store pick-up', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>16473688373</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>BRANTFORD</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>TOKYO SMOKE BRANTFORD COMMONS</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>300 KING GEORGE RD UNIT K5</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-brantford-commons</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>5fde9bea858ee800f3df6325</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>15197530714</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>BURLINGTON</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tokyo Smoke </t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>4517 DUNDAS ST SUITE B5</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-burlington-dundas</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>619921ae1a86eb00a9767d3e</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>12894275474</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>CAMBRIDGE</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>TOKYO SMOKE 75 PINEBUSH</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>75 PINEBUSH RD UNIT D0005</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-cambridge/</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>5e723d33316d610081a11c5f</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>15196248509</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>NEPEAN</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke Chapman Mills</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>80 MARKETPLACE AVE UNIT J009</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-chapman-mills</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>5fde9c36e582c400ccee8f26</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>16138232732</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>SCARBOROUGH</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke Chartwell</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2375 BRIMLEY RD. UNIT 6</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-chartwell-shopping-centre</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>60ad62bec60ed500ae008f82</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>14162997779</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>COLLINGWOOD</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke Collingwood</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>510 FIRST ST</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-collingwood-first</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>623a226183da2f008837bdf7</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>15488660172</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke - Cornwall</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>31 NINTH ST E UNIT 3</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-cornwall-ninth-st</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>61bae8169ba9de00a77fc404</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>16139323005</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TORONTO </t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tokyo Smoke Eaton Centre </t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">220 YONGE ST. UNIT H009 </t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-eaton-centre</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>614b97105eb41400bf44a0c1</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>14167920337</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SCARBOROUGH </t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke Eglinton Town Centre</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>8 LEBOVIC AVE UNIT B5</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-eglinton-town-centre</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>5fde9c1ebffe240101f90087</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>14166720504</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>NORTH YORK</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>5095 YONGE ST UNIT A005</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-empress-walk</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>60f08193eae73800d6a89097</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>14165516150</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke Fairview</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>1800 SHEPPARD AVE E, UNIT 2071</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-fairview-mall</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>61974938366e4200a4747046</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pick-up', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>14378800871</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>GEORGETOWN</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>361 MOUNTAINVIEW RD S UNIT BB03</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-georgetown-mountainview</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>60f9c1272e252900b174454a</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>19058737190</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>GUELPH</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke Guelph</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>35 HARVARD RD UNIT 7A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-guelph-harvard-rd</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>623a22c1ddbaa9008fa0b8af</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>15488550021</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>KANATA</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke Kanata Centrum</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>300 EARL GREY DR UNIT A18</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-kanata</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>5fde9c05551cdc4f895e9f6b</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>16132549950</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>KINGSTON</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>TOKYO SMOKE KINGSTON</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>1011 PRINCESS ST</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-kingston-1011-princess-st</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>614b952fd0040f00c5e4d3a3</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>16137663332</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>KINGSTON</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke Princess Street</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2790 PRINCESS ST</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-kingston-2790-princess</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>60d25eb880292a00d8d33a25</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>16137661128</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>LASALLE</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>5844 MALDEN RD UNIT 120</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-lasalle-malden-road</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>62d9a4007dbf13008f76ade7</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>15199150807</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>LONDON</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>1240 COMMISSIONERS RD W UNIT 111</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-london-byron-village</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>6036d0550d249560f8048a7b</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>15192041111</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="b">
         <v>1</v>
       </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>LONDON</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>645 COMMISSIONERS RD E UNIT 103</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-london-wellington-corners</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>60f9c1029bd65e00a26d0d39</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>15192045300</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>MILTON</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke Milton</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>890 MAIN ST E UNIT 8</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-milton-commons</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>6126925fb0810a00cdb4e4ad</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>12898784482</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>NORTH BAY</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>TOKYO SMOKE NORTH BAY</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>390 LAKESHORE DR SUITE 3</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-north-bay/</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>5e723d5493db2e006e06acae</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>17054725222</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>ORLEANS</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2006 MER BLEUE RD UNIT G1</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-orleans-mer-bleue</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>6064c22263bfb300b5abddb4</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>13435744329</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>OSHAWA</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>400 KING ST W UNIT 7</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-oshawa-king-st</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>606336ba1d353119a96d5639</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>19052400400</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>OTTAWA</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>TOKYO SMOKE WELLINGTON ST</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>1000 WELLINGTON ST W UNIT 101</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-ottawa</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>5e723d7cb332730074443596</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>16137293000</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>OTTAWA</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>234 LAURIER AVE W</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-ottawa-laurier</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>61787935f2c3ac00781fd67a</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>16134217000</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>OTTAWA</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke Richmond Road</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>297 RICHMOND RD UNIT A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-ottawa-richmond-rd</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>61bae7f5ac634a476f195baa</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>13435880437</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>OTTAWA</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke Rideau Centre</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>50 RIDEAU ST UNIT 123B</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-ottawa-rideau-centre</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>5ea5b6fa05299601288e646b</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>13435880038</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>PORT ELGIN</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke - Port Elgin</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>216 GODERICH ST UNIT 3</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-port-elgin</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>5e9b338bcb362100d5ef8cf9</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>15193899333</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>545 QUEEN ST W</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-queen-st-w/</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>5fde9c4ee4238800b2d03d4a</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>16473418688</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke 1180 Queen Street W</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1180 QUEEN ST W </t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-queen-st-w/</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>5e723de810451500688a85be</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>16473418688</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>ETOBICOKE</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke Sherway</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>25 THE WEST MALL UNIT 1723</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-sherway-gardens</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>61992177f55d4e007c592c6a</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>14167921106</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>NORTH YORK</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>TOKYO SMOKE SHOPS AT DON MILLS</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>1090 DON MILLS RD UNIT H008</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-shops-at-don-mills</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>617878d1f3516d00a2a73f94</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>14165198525</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>STONEY CREEK</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke Rymal</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2257 RYMAL RD E UNIT D1</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-stoney-creek/</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>5e723dc78146ed0072e3e1e6</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>19055613555</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>STOUFFVILLE</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>TOKYO SMOKE STOUFFVILLE MAIN ST.</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>5758 MAIN ST UNIT 1</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-stouffville-main</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>6178790afcf4e4007eaa91be</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>19055910664</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>STOUFFVILLE</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke Stouffville</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>12277 10TH LINE UNIT B1</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-stouffville-tenth-line</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>6169f3dc45b4e000b0b9c9b8</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>19056422643</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>ST THOMAS</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>TOKYO SMOKE ST. THOMAS</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>1055 TALBOT ST UNIT 7</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-st-thomas-talbot</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>61974903a47a1e007fc9db49</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>15196313059</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>THUNDER BAY</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TOKYO SMOKE 1082 MEMORIAL </t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>1082 MEMORIAL AVE</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-thunder-bay/</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>5e723da501c2190078b47b96</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>18072851812</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>THUNDER BAY</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>TOKYO SMOKE</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>572 ARTHUR ST W UNIT 5</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-thunder-bay-arthur-st</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>60633692f7747d00d78d41b5</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>18072853849</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>WASAGA BEACH</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>1890 MOSLEY ST UNIT 2</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-wasaga-beach-mosley</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>6064c26504978b7108204724</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>17056171678</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>WATERDOWN</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke Waterdown</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>52-90 DUNDAS ST E UNIT C4.5</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-waterdown-dundas</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>623a22943b4581061fd5b26f</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>19056901630</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>WATERLOO</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke Cannabis</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>94 BRIDGEPORT RD E SUITE 135</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-waterloo-bridgeport-plaza</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>60d256b1b6348d00d18a4d27</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>15198881888</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>WATERLOO</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>655 ERB STREET WEST, UNIT 665-500</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-waterloo-commons</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>6036d028cb599700ccc2e806</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>12264760739</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WINDSOR </t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>3100 HOWARD AVE UNIT T19A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tokyo-smoke-windsor-devonshire-mall</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>60d11bbb86d3de028555958b</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>15199678836</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>LONDON</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>TWEED</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>1025 WELLINGTON ROAD, UNIT A-2</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tweed-london</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>iiYZCAo5b7g7Ntd3R</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>12266674999</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>SCARBOROUGH</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>FIKA LOCAL CANNABIS</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>1900 EGLINTON AVE E UNIT F0002</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>https://fikasupply.com/</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>612eacdee5360800a90c9530</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>16477990924</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>SCARBOROUGH</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>FIKA LOCAL CANNABIS</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>797 MILNER AVE UNIT 200</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>https://fikasupply.com/</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>61150ec9ea216a00bda44649</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>16477990925</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>SUDBURY</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>FIKA LOCAL CANNABIS</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2408 LONG LAKE RD UNIT E006</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>https://fikasupply.com/</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>6109576114b80d009b918a44</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>17058050979</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Fika Canary</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>430 FRONT ST E UNIT 15A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>https://fikasupply.com/</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>612ead367ff173009ad7a910</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>16476941556</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>FIKA Cannabis</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>65 FRONT ST W UNIT 405</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>https://fikasupply.com/</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>62d054adf1d44e007f44daa9</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>14162192869</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>FIKA LOCAL CANNABIS</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>1025 LAKE SHORE BLVD E UNIT 11</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>https://fikasupply.com/</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>62d053cd13251c00b0e89310</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>14166034592</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>WINDSOR</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>FIKA LOCAL CANNABIS</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>3222A DOUGALL AVE</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>https://fikasupply.com/</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>611512120e8ac9009cafbb84</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>12267836236</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>LONDON</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>FIKA LOCAL CANNABIS</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>1965 HYDE PARK RD UNIT 104A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>https://fikasupply.com/stores/</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>635feebcc9571e00d87baafd</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>12267850590</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>ETOBICOKE</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>FIKA LOCAL CANNABIS</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>171 NORTH QUEEN ST UNIT G4A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>https://fikasupply.com/stores/etobicoke/</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>612eacacb050b400a6424387</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>16477990918</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>LONDON</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>FIKA LOCAL CANNABIS</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>340 CLARKE RD UNIT 3</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>https://fikasupply.com/stores/london-east/</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>61112f1cfb493500d3bf66fb</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>12262713839</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OSHAWA </t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>FIKA LOCAL CANNABIS</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>1445 HARMONY RD N UNIT 100</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>https://fikasupply.com/stores/oshawa-harmony/</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>61112461a20d9600a9e9b4d0</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>12892744004</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>FIKA Local Cannabis</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>2955 HAZELTON PL UNIT 29</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>https://fikasupply.com/shop/?store=fika-local-mississauga-hazelton-cannabis-store</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>6548f8995592fc0009fbe149</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>18888183452</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Fika Distillery</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>49 TANK HOUSE LANE</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>https://fikasupply.com/stores/toronto-distillery/</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>6037fb6c6031ed3f80969785</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>18888183452</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>NEPEAN</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Go Green Cannabis Co</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>3802-3812 GREENBANK RD UNIT 4</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>https://gogreencannabisco.com/</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>6228c469dbc1db00ac7fa6f0</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>16136920174</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>FONTHILL</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Grand Cannabis</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>1809 MERRITTVILLE HWY UNIT B</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>https://grandcannabis.ca/locations/fonthill-cannabis-dispensary/</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>609a92f38e1e2800d113c5bf</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>19058631420</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>WINDSOR</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Greentown Ontario</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>74 CHATHAM ST W</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>https://greentowncannabis.com/</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>5ea9af95f3070d00f157cfc7</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>15192581919</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>SCARBOROUGH</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Growers Retail</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>821 BRIMLEY RD</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>https://growersretailcannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>5f7caee4a1205e010152f8d1</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>14162646355</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Growers Retail</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>2620 DANFORTH AVE</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>https://growersretailcannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>5eb9a4f4d02e6f014af90e7c</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>14166948264</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>SUDBURY</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>HIGHLIFE CANNABIS SUDBURY</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>1299 MARCUS DR</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>https://highlife.ca/</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>5e8bbb5631b42900994ded28</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>17055604455</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>BRANTFORD</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>HIGHLIFE CANNABIS BRANTFORD</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>10 STANLEY ST</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>https://highlife.ca/pages/brantford-cannabis-store?</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>5ea873e9555e85012748fcf9</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>15193041020</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>GUELPH</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>HIGHLIFE CANNABIS GUELPH</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>128 WYNDHAM ST N</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>https://highlife.ca/pages/guelph-cannabis-store</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>5efcd2b49829650152b4f03b</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>15197637837</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>NORTH YORK</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>HIGHLIFE YONGE AND STEELES</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>6375 YONGE ST</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>https://highlife.ca/pages/steeles-cannabis-store</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>5ff2983609e61e00c13f0557</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>14169015152</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>TILLSONBURG</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>HIGHLIFE CANNABIS TILLSONBURG</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>200 BROADWAY ST UNIT A1052</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>https://highlife.ca/pages/tillsonburg-cannabis-store</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>60b799ee77c01800a6ac6d8c</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>15194090113</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>EMBRUN</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>HIGHTIES CANNABIS STORE</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>825 NOTRE DAME ST</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>https://highties.ca/</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>60077d833dd1aa00e56b06ad</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>16133704420</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>PICKERING</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>HOLLAND DAZE</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>981 BROCK RD UNIT 2</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>https://hollanddaze.ca/</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>6230dcaac4d061009620045f</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>19054210420</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>WASAGA BEACH</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Holland Daze</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>1288 MOSLEY ST UNIT 5</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>https://hollanddaze.ca/</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>6248db546ff29e00a50581f0</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>17058880932</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>CAMBRIDGE</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Speak Easy Cannabis</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>561 HESPELER RD UNIT 14</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>https://hyperboloid-marigold-934k.squarespace.com/cambridge-dispensary</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>5f1f6318c34abe01262d97f2</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>15196248730</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>WELLAND</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>INSALATA (UNITS 1 &amp; 2)</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>905 NIAGARA ST UNIT 2</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>https://insalatamarket.com/</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>61934da5bd05a400a19370cc</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>19057321222</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>SCARBOROUGH</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Kiosk Cannabis</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>4915 STEELES AVE E UNIT 11</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>https://kioskcannabis.com/</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>6081d5527a4b1400a74ac920</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>14163219415</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>ETOBICOKE</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>MA CANNABIS</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>3373 BLOOR ST W</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>https://macannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>64c16fadaaf2b700096839c4</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>14378807666</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Ma Cannabis</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>234 WELLINGTON ST W</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>https://macannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>61941358b192c80091c20c23</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>14378801239</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>HAMILTON</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>NEKU CANNABIS</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>38 HESS ST S</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>https://nekucannabis.com/</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>5ff389d871214700d4e6d808</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>19055245555</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N176"/>
+  <dimension ref="A1:N175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3635,7 +3635,9 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3689,7 +3691,9 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
+      <c r="N58" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3743,7 +3747,9 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
+      <c r="N59" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3851,7 +3857,9 @@
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+      <c r="N61" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3905,7 +3913,9 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
+      <c r="N62" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3959,7 +3969,9 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
+      <c r="N63" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4013,7 +4025,9 @@
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
+      <c r="N64" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4067,7 +4081,9 @@
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
+      <c r="N65" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4119,7 +4135,9 @@
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
+      <c r="N66" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4173,7 +4191,9 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
+      <c r="N67" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4227,7 +4247,9 @@
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
+      <c r="N68" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4281,7 +4303,9 @@
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
+      <c r="N69" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4335,7 +4359,9 @@
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
+      <c r="N70" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4389,7 +4415,9 @@
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
+      <c r="N71" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4443,7 +4471,9 @@
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
+      <c r="N72" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4497,7 +4527,9 @@
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
+      <c r="N73" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4551,7 +4583,9 @@
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
+      <c r="N74" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4605,7 +4639,9 @@
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
+      <c r="N75" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4659,7 +4695,9 @@
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
+      <c r="N76" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4713,7 +4751,9 @@
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
+      <c r="N77" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4767,7 +4807,9 @@
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
+      <c r="N78" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5037,7 +5079,9 @@
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
+      <c r="N83" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5091,7 +5135,9 @@
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
+      <c r="N84" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5145,7 +5191,9 @@
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
+      <c r="N85" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5199,7 +5247,9 @@
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
+      <c r="N86" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5253,7 +5303,9 @@
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
+      <c r="N87" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5307,7 +5359,9 @@
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
+      <c r="N88" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5361,7 +5415,9 @@
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
+      <c r="N89" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5415,7 +5471,9 @@
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
+      <c r="N90" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5469,7 +5527,9 @@
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
+      <c r="N91" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5523,7 +5583,9 @@
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
+      <c r="N92" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5577,7 +5639,9 @@
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr"/>
+      <c r="N93" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5631,7 +5695,9 @@
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
+      <c r="N94" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5685,7 +5751,9 @@
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
+      <c r="N95" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5739,7 +5807,9 @@
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
-      <c r="N96" t="inlineStr"/>
+      <c r="N96" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5793,7 +5863,9 @@
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr"/>
+      <c r="N97" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5847,7 +5919,9 @@
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
-      <c r="N98" t="inlineStr"/>
+      <c r="N98" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5901,7 +5975,9 @@
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr"/>
-      <c r="N99" t="inlineStr"/>
+      <c r="N99" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5955,7 +6031,9 @@
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
-      <c r="N100" t="inlineStr"/>
+      <c r="N100" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6009,7 +6087,9 @@
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr"/>
-      <c r="N101" t="inlineStr"/>
+      <c r="N101" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6063,7 +6143,9 @@
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr"/>
-      <c r="N102" t="inlineStr"/>
+      <c r="N102" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6117,7 +6199,9 @@
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr"/>
-      <c r="N103" t="inlineStr"/>
+      <c r="N103" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6171,7 +6255,9 @@
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr"/>
-      <c r="N104" t="inlineStr"/>
+      <c r="N104" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6225,7 +6311,9 @@
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr"/>
-      <c r="N105" t="inlineStr"/>
+      <c r="N105" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6279,7 +6367,9 @@
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
-      <c r="N106" t="inlineStr"/>
+      <c r="N106" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6333,7 +6423,9 @@
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
-      <c r="N107" t="inlineStr"/>
+      <c r="N107" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6387,7 +6479,9 @@
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr"/>
-      <c r="N108" t="inlineStr"/>
+      <c r="N108" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6441,7 +6535,9 @@
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
-      <c r="N109" t="inlineStr"/>
+      <c r="N109" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6495,7 +6591,9 @@
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr"/>
-      <c r="N110" t="inlineStr"/>
+      <c r="N110" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6549,7 +6647,9 @@
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr"/>
-      <c r="N111" t="inlineStr"/>
+      <c r="N111" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6603,7 +6703,9 @@
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
-      <c r="N112" t="inlineStr"/>
+      <c r="N112" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6657,7 +6759,9 @@
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr"/>
-      <c r="N113" t="inlineStr"/>
+      <c r="N113" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6711,7 +6815,9 @@
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr"/>
-      <c r="N114" t="inlineStr"/>
+      <c r="N114" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6765,7 +6871,9 @@
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr"/>
-      <c r="N115" t="inlineStr"/>
+      <c r="N115" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6819,7 +6927,9 @@
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
-      <c r="N116" t="inlineStr"/>
+      <c r="N116" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6873,7 +6983,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6983,7 +7095,9 @@
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr"/>
-      <c r="N119" t="inlineStr"/>
+      <c r="N119" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -7037,7 +7151,9 @@
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr"/>
-      <c r="N120" t="inlineStr"/>
+      <c r="N120" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -7091,7 +7207,9 @@
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr"/>
-      <c r="N121" t="inlineStr"/>
+      <c r="N121" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7145,7 +7263,9 @@
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr"/>
-      <c r="N122" t="inlineStr"/>
+      <c r="N122" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7199,7 +7319,9 @@
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr"/>
-      <c r="N123" t="inlineStr"/>
+      <c r="N123" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7253,7 +7375,9 @@
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr"/>
-      <c r="N124" t="inlineStr"/>
+      <c r="N124" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -7307,7 +7431,9 @@
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr"/>
-      <c r="N125" t="inlineStr"/>
+      <c r="N125" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -7361,7 +7487,9 @@
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr"/>
-      <c r="N126" t="inlineStr"/>
+      <c r="N126" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7415,7 +7543,9 @@
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr"/>
-      <c r="N127" t="inlineStr"/>
+      <c r="N127" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7469,7 +7599,9 @@
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr"/>
-      <c r="N128" t="inlineStr"/>
+      <c r="N128" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -7523,7 +7655,9 @@
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr"/>
-      <c r="N129" t="inlineStr"/>
+      <c r="N129" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7577,7 +7711,9 @@
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr"/>
-      <c r="N130" t="inlineStr"/>
+      <c r="N130" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -7631,7 +7767,9 @@
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr"/>
-      <c r="N131" t="inlineStr"/>
+      <c r="N131" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -7685,7 +7823,9 @@
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr"/>
-      <c r="N132" t="inlineStr"/>
+      <c r="N132" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7739,7 +7879,9 @@
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
-      <c r="N133" t="inlineStr"/>
+      <c r="N133" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -7793,7 +7935,9 @@
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
-      <c r="N134" t="inlineStr"/>
+      <c r="N134" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -7847,7 +7991,9 @@
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
-      <c r="N135" t="inlineStr"/>
+      <c r="N135" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -7901,7 +8047,9 @@
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
-      <c r="N136" t="inlineStr"/>
+      <c r="N136" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -7955,7 +8103,9 @@
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr"/>
-      <c r="N137" t="inlineStr"/>
+      <c r="N137" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -8009,7 +8159,9 @@
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr"/>
-      <c r="N138" t="inlineStr"/>
+      <c r="N138" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -8063,7 +8215,9 @@
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr"/>
-      <c r="N139" t="inlineStr"/>
+      <c r="N139" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -8117,7 +8271,9 @@
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr"/>
-      <c r="N140" t="inlineStr"/>
+      <c r="N140" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -8171,7 +8327,9 @@
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr"/>
-      <c r="N141" t="inlineStr"/>
+      <c r="N141" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -8225,7 +8383,9 @@
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
-      <c r="N142" t="inlineStr"/>
+      <c r="N142" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -8279,7 +8439,9 @@
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
-      <c r="N143" t="inlineStr"/>
+      <c r="N143" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -8387,7 +8549,9 @@
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr"/>
-      <c r="N145" t="inlineStr"/>
+      <c r="N145" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -8441,7 +8605,9 @@
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr"/>
-      <c r="N146" t="inlineStr"/>
+      <c r="N146" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -8495,7 +8661,9 @@
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr"/>
-      <c r="N147" t="inlineStr"/>
+      <c r="N147" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -8549,7 +8717,9 @@
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr"/>
-      <c r="N148" t="inlineStr"/>
+      <c r="N148" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -8603,7 +8773,9 @@
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr"/>
-      <c r="N149" t="inlineStr"/>
+      <c r="N149" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -8657,7 +8829,9 @@
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr"/>
-      <c r="N150" t="inlineStr"/>
+      <c r="N150" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -8711,7 +8885,9 @@
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr"/>
-      <c r="N151" t="inlineStr"/>
+      <c r="N151" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -8765,7 +8941,9 @@
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr"/>
-      <c r="N152" t="inlineStr"/>
+      <c r="N152" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -8819,7 +8997,9 @@
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
-      <c r="N153" t="inlineStr"/>
+      <c r="N153" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -8873,7 +9053,9 @@
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr"/>
-      <c r="N154" t="inlineStr"/>
+      <c r="N154" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -8927,7 +9109,9 @@
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr"/>
-      <c r="N155" t="inlineStr"/>
+      <c r="N155" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -8981,7 +9165,9 @@
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr"/>
-      <c r="N156" t="inlineStr"/>
+      <c r="N156" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -9035,7 +9221,9 @@
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr"/>
-      <c r="N157" t="inlineStr"/>
+      <c r="N157" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -9089,7 +9277,9 @@
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr"/>
-      <c r="N158" t="inlineStr"/>
+      <c r="N158" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -9143,7 +9333,9 @@
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr"/>
-      <c r="N159" t="inlineStr"/>
+      <c r="N159" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -9197,7 +9389,9 @@
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr"/>
-      <c r="N160" t="inlineStr"/>
+      <c r="N160" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -9251,7 +9445,9 @@
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
       <c r="M161" t="inlineStr"/>
-      <c r="N161" t="inlineStr"/>
+      <c r="N161" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -9305,7 +9501,9 @@
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
       <c r="M162" t="inlineStr"/>
-      <c r="N162" t="inlineStr"/>
+      <c r="N162" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -9359,22 +9557,24 @@
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
       <c r="M163" t="inlineStr"/>
-      <c r="N163" t="inlineStr"/>
+      <c r="N163" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>BRANTFORD</t>
+          <t>GUELPH</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>HIGHLIFE CANNABIS BRANTFORD</t>
+          <t>HIGHLIFE CANNABIS GUELPH</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>10 STANLEY ST</t>
+          <t>128 WYNDHAM ST N</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -9384,7 +9584,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://highlife.ca/pages/brantford-cannabis-store?</t>
+          <t>https://highlife.ca/pages/guelph-cannabis-store</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -9394,20 +9594,20 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>5ea873e9555e85012748fcf9</t>
+          <t>5efcd2b49829650152b4f03b</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I164" t="n">
-        <v>15193041020</v>
+        <v>15197637837</v>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K164" t="inlineStr"/>
@@ -9418,17 +9618,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>GUELPH</t>
+          <t>NORTH YORK</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>HIGHLIFE CANNABIS GUELPH</t>
+          <t>HIGHLIFE YONGE AND STEELES</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>128 WYNDHAM ST N</t>
+          <t>6375 YONGE ST</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -9438,7 +9638,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://highlife.ca/pages/guelph-cannabis-store</t>
+          <t>https://highlife.ca/pages/steeles-cannabis-store</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -9448,20 +9648,20 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>5efcd2b49829650152b4f03b</t>
+          <t>5ff2983609e61e00c13f0557</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I165" t="n">
-        <v>15197637837</v>
+        <v>14169015152</v>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K165" t="inlineStr"/>
@@ -9472,17 +9672,17 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>NORTH YORK</t>
+          <t>TILLSONBURG</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>HIGHLIFE YONGE AND STEELES</t>
+          <t>HIGHLIFE CANNABIS TILLSONBURG</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>6375 YONGE ST</t>
+          <t>200 BROADWAY ST UNIT A1052</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -9492,7 +9692,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://highlife.ca/pages/steeles-cannabis-store</t>
+          <t>https://highlife.ca/pages/tillsonburg-cannabis-store</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -9502,20 +9702,20 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>5ff2983609e61e00c13f0557</t>
+          <t>60b799ee77c01800a6ac6d8c</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I166" t="n">
-        <v>14169015152</v>
+        <v>15194090113</v>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K166" t="inlineStr"/>
@@ -9526,17 +9726,17 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>TILLSONBURG</t>
+          <t>EMBRUN</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>HIGHLIFE CANNABIS TILLSONBURG</t>
+          <t>HIGHTIES CANNABIS STORE</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>200 BROADWAY ST UNIT A1052</t>
+          <t>825 NOTRE DAME ST</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -9546,7 +9746,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://highlife.ca/pages/tillsonburg-cannabis-store</t>
+          <t>https://highties.ca/</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -9556,7 +9756,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>60b799ee77c01800a6ac6d8c</t>
+          <t>60077d833dd1aa00e56b06ad</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -9565,7 +9765,7 @@
         </is>
       </c>
       <c r="I167" t="n">
-        <v>15194090113</v>
+        <v>16133704420</v>
       </c>
       <c r="J167" t="inlineStr">
         <is>
@@ -9580,17 +9780,17 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>EMBRUN</t>
+          <t>PICKERING</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>HIGHTIES CANNABIS STORE</t>
+          <t>HOLLAND DAZE</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>825 NOTRE DAME ST</t>
+          <t>981 BROCK RD UNIT 2</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -9600,7 +9800,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://highties.ca/</t>
+          <t>https://hollanddaze.ca/</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -9610,7 +9810,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>60077d833dd1aa00e56b06ad</t>
+          <t>6230dcaac4d061009620045f</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -9619,7 +9819,7 @@
         </is>
       </c>
       <c r="I168" t="n">
-        <v>16133704420</v>
+        <v>19054210420</v>
       </c>
       <c r="J168" t="inlineStr">
         <is>
@@ -9634,17 +9834,17 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>PICKERING</t>
+          <t>WASAGA BEACH</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>HOLLAND DAZE</t>
+          <t>Holland Daze</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>981 BROCK RD UNIT 2</t>
+          <t>1288 MOSLEY ST UNIT 5</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -9664,7 +9864,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>6230dcaac4d061009620045f</t>
+          <t>6248db546ff29e00a50581f0</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -9673,11 +9873,11 @@
         </is>
       </c>
       <c r="I169" t="n">
-        <v>19054210420</v>
+        <v>17058880932</v>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K169" t="inlineStr"/>
@@ -9688,17 +9888,17 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>WASAGA BEACH</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Holland Daze</t>
+          <t>Speak Easy Cannabis</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>1288 MOSLEY ST UNIT 5</t>
+          <t>561 HESPELER RD UNIT 14</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -9708,7 +9908,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://hollanddaze.ca/</t>
+          <t>https://hyperboloid-marigold-934k.squarespace.com/cambridge-dispensary</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -9718,7 +9918,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>6248db546ff29e00a50581f0</t>
+          <t>5f1f6318c34abe01262d97f2</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -9727,7 +9927,7 @@
         </is>
       </c>
       <c r="I170" t="n">
-        <v>17058880932</v>
+        <v>15196248730</v>
       </c>
       <c r="J170" t="inlineStr">
         <is>
@@ -9742,17 +9942,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>CAMBRIDGE</t>
+          <t>WELLAND</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Speak Easy Cannabis</t>
+          <t>INSALATA (UNITS 1 &amp; 2)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>561 HESPELER RD UNIT 14</t>
+          <t>905 NIAGARA ST UNIT 2</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -9762,7 +9962,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://hyperboloid-marigold-934k.squarespace.com/cambridge-dispensary</t>
+          <t>https://insalatamarket.com/</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -9772,20 +9972,20 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>5f1f6318c34abe01262d97f2</t>
+          <t>61934da5bd05a400a19370cc</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I171" t="n">
-        <v>15196248730</v>
+        <v>19057321222</v>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K171" t="inlineStr"/>
@@ -9796,17 +9996,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>WELLAND</t>
+          <t>SCARBOROUGH</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>INSALATA (UNITS 1 &amp; 2)</t>
+          <t>Kiosk Cannabis</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>905 NIAGARA ST UNIT 2</t>
+          <t>4915 STEELES AVE E UNIT 11</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -9816,7 +10016,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://insalatamarket.com/</t>
+          <t>https://kioskcannabis.com/</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -9826,20 +10026,20 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>61934da5bd05a400a19370cc</t>
+          <t>6081d5527a4b1400a74ac920</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I172" t="n">
-        <v>19057321222</v>
+        <v>14163219415</v>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K172" t="inlineStr"/>
@@ -9850,17 +10050,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>SCARBOROUGH</t>
+          <t>ETOBICOKE</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Kiosk Cannabis</t>
+          <t>MA CANNABIS</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>4915 STEELES AVE E UNIT 11</t>
+          <t>3373 BLOOR ST W</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -9870,7 +10070,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://kioskcannabis.com/</t>
+          <t>https://macannabis.ca/</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -9880,16 +10080,16 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>6081d5527a4b1400a74ac920</t>
+          <t>64c16fadaaf2b700096839c4</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I173" t="n">
-        <v>14163219415</v>
+        <v>14378807666</v>
       </c>
       <c r="J173" t="inlineStr">
         <is>
@@ -9904,17 +10104,17 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ETOBICOKE</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>MA CANNABIS</t>
+          <t>Ma Cannabis</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>3373 BLOOR ST W</t>
+          <t>234 WELLINGTON ST W</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -9934,16 +10134,16 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>64c16fadaaf2b700096839c4</t>
+          <t>61941358b192c80091c20c23</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>14378807666</v>
+        <v>14378801239</v>
       </c>
       <c r="J174" t="inlineStr">
         <is>
@@ -9958,17 +10158,17 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>HAMILTON</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Ma Cannabis</t>
+          <t>NEKU CANNABIS</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>234 WELLINGTON ST W</t>
+          <t>38 HESS ST S</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -9978,7 +10178,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://macannabis.ca/</t>
+          <t>https://nekucannabis.com/</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9988,20 +10188,20 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>61941358b192c80091c20c23</t>
+          <t>5ff389d871214700d4e6d808</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>14378801239</v>
+        <v>19055245555</v>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K175" t="inlineStr"/>
@@ -10009,60 +10209,6 @@
       <c r="M175" t="inlineStr"/>
       <c r="N175" t="inlineStr"/>
     </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>HAMILTON</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>NEKU CANNABIS</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>38 HESS ST S</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>https://nekucannabis.com/</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>5ff389d871214700d4e6d808</t>
-        </is>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="I176" t="n">
-        <v>19055245555</v>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>['Delivery', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="inlineStr"/>
-      <c r="N176" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -17705,7 +17705,9 @@
       <c r="K310" t="inlineStr"/>
       <c r="L310" t="inlineStr"/>
       <c r="M310" t="inlineStr"/>
-      <c r="N310" t="inlineStr"/>
+      <c r="N310" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -17759,7 +17761,9 @@
       <c r="K311" t="inlineStr"/>
       <c r="L311" t="inlineStr"/>
       <c r="M311" t="inlineStr"/>
-      <c r="N311" t="inlineStr"/>
+      <c r="N311" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -17813,7 +17817,9 @@
       <c r="K312" t="inlineStr"/>
       <c r="L312" t="inlineStr"/>
       <c r="M312" t="inlineStr"/>
-      <c r="N312" t="inlineStr"/>
+      <c r="N312" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -17917,7 +17923,9 @@
       <c r="K314" t="inlineStr"/>
       <c r="L314" t="inlineStr"/>
       <c r="M314" t="inlineStr"/>
-      <c r="N314" t="inlineStr"/>
+      <c r="N314" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -17971,7 +17979,9 @@
       <c r="K315" t="inlineStr"/>
       <c r="L315" t="inlineStr"/>
       <c r="M315" t="inlineStr"/>
-      <c r="N315" t="inlineStr"/>
+      <c r="N315" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -18075,7 +18085,9 @@
       <c r="K317" t="inlineStr"/>
       <c r="L317" t="inlineStr"/>
       <c r="M317" t="inlineStr"/>
-      <c r="N317" t="inlineStr"/>
+      <c r="N317" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -18129,7 +18141,9 @@
       <c r="K318" t="inlineStr"/>
       <c r="L318" t="inlineStr"/>
       <c r="M318" t="inlineStr"/>
-      <c r="N318" t="inlineStr"/>
+      <c r="N318" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -18183,7 +18197,9 @@
       <c r="K319" t="inlineStr"/>
       <c r="L319" t="inlineStr"/>
       <c r="M319" t="inlineStr"/>
-      <c r="N319" t="inlineStr"/>
+      <c r="N319" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -18237,7 +18253,9 @@
       <c r="K320" t="inlineStr"/>
       <c r="L320" t="inlineStr"/>
       <c r="M320" t="inlineStr"/>
-      <c r="N320" t="inlineStr"/>
+      <c r="N320" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -18291,7 +18309,9 @@
       <c r="K321" t="inlineStr"/>
       <c r="L321" t="inlineStr"/>
       <c r="M321" t="inlineStr"/>
-      <c r="N321" t="inlineStr"/>
+      <c r="N321" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -18395,7 +18415,9 @@
       <c r="K323" t="inlineStr"/>
       <c r="L323" t="inlineStr"/>
       <c r="M323" t="inlineStr"/>
-      <c r="N323" t="inlineStr"/>
+      <c r="N323" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -18449,7 +18471,9 @@
       <c r="K324" t="inlineStr"/>
       <c r="L324" t="inlineStr"/>
       <c r="M324" t="inlineStr"/>
-      <c r="N324" t="inlineStr"/>
+      <c r="N324" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -18503,7 +18527,9 @@
       <c r="K325" t="inlineStr"/>
       <c r="L325" t="inlineStr"/>
       <c r="M325" t="inlineStr"/>
-      <c r="N325" t="inlineStr"/>
+      <c r="N325" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -18657,7 +18683,9 @@
       <c r="K328" t="inlineStr"/>
       <c r="L328" t="inlineStr"/>
       <c r="M328" t="inlineStr"/>
-      <c r="N328" t="inlineStr"/>
+      <c r="N328" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -18761,7 +18789,9 @@
       <c r="K330" t="inlineStr"/>
       <c r="L330" t="inlineStr"/>
       <c r="M330" t="inlineStr"/>
-      <c r="N330" t="inlineStr"/>
+      <c r="N330" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -18915,7 +18945,9 @@
       <c r="K333" t="inlineStr"/>
       <c r="L333" t="inlineStr"/>
       <c r="M333" t="inlineStr"/>
-      <c r="N333" t="inlineStr"/>
+      <c r="N333" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -18969,7 +19001,9 @@
       <c r="K334" t="inlineStr"/>
       <c r="L334" t="inlineStr"/>
       <c r="M334" t="inlineStr"/>
-      <c r="N334" t="inlineStr"/>
+      <c r="N334" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -19023,7 +19057,9 @@
       <c r="K335" t="inlineStr"/>
       <c r="L335" t="inlineStr"/>
       <c r="M335" t="inlineStr"/>
-      <c r="N335" t="inlineStr"/>
+      <c r="N335" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -19077,7 +19113,9 @@
       <c r="K336" t="inlineStr"/>
       <c r="L336" t="inlineStr"/>
       <c r="M336" t="inlineStr"/>
-      <c r="N336" t="inlineStr"/>
+      <c r="N336" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -19131,7 +19169,9 @@
       <c r="K337" t="inlineStr"/>
       <c r="L337" t="inlineStr"/>
       <c r="M337" t="inlineStr"/>
-      <c r="N337" t="inlineStr"/>
+      <c r="N337" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -19185,7 +19225,9 @@
       <c r="K338" t="inlineStr"/>
       <c r="L338" t="inlineStr"/>
       <c r="M338" t="inlineStr"/>
-      <c r="N338" t="inlineStr"/>
+      <c r="N338" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -19239,7 +19281,9 @@
       <c r="K339" t="inlineStr"/>
       <c r="L339" t="inlineStr"/>
       <c r="M339" t="inlineStr"/>
-      <c r="N339" t="inlineStr"/>
+      <c r="N339" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -19293,7 +19337,9 @@
       <c r="K340" t="inlineStr"/>
       <c r="L340" t="inlineStr"/>
       <c r="M340" t="inlineStr"/>
-      <c r="N340" t="inlineStr"/>
+      <c r="N340" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -19347,7 +19393,9 @@
       <c r="K341" t="inlineStr"/>
       <c r="L341" t="inlineStr"/>
       <c r="M341" t="inlineStr"/>
-      <c r="N341" t="inlineStr"/>
+      <c r="N341" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -19401,7 +19449,9 @@
       <c r="K342" t="inlineStr"/>
       <c r="L342" t="inlineStr"/>
       <c r="M342" t="inlineStr"/>
-      <c r="N342" t="inlineStr"/>
+      <c r="N342" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -19505,7 +19555,9 @@
       <c r="K344" t="inlineStr"/>
       <c r="L344" t="inlineStr"/>
       <c r="M344" t="inlineStr"/>
-      <c r="N344" t="inlineStr"/>
+      <c r="N344" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -19559,7 +19611,9 @@
       <c r="K345" t="inlineStr"/>
       <c r="L345" t="inlineStr"/>
       <c r="M345" t="inlineStr"/>
-      <c r="N345" t="inlineStr"/>
+      <c r="N345" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -19613,7 +19667,9 @@
       <c r="K346" t="inlineStr"/>
       <c r="L346" t="inlineStr"/>
       <c r="M346" t="inlineStr"/>
-      <c r="N346" t="inlineStr"/>
+      <c r="N346" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -19663,7 +19719,9 @@
       <c r="K347" t="inlineStr"/>
       <c r="L347" t="inlineStr"/>
       <c r="M347" t="inlineStr"/>
-      <c r="N347" t="inlineStr"/>
+      <c r="N347" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -19717,7 +19775,9 @@
       <c r="K348" t="inlineStr"/>
       <c r="L348" t="inlineStr"/>
       <c r="M348" t="inlineStr"/>
-      <c r="N348" t="inlineStr"/>
+      <c r="N348" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -19771,7 +19831,9 @@
       <c r="K349" t="inlineStr"/>
       <c r="L349" t="inlineStr"/>
       <c r="M349" t="inlineStr"/>
-      <c r="N349" t="inlineStr"/>
+      <c r="N349" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -19825,7 +19887,9 @@
       <c r="K350" t="inlineStr"/>
       <c r="L350" t="inlineStr"/>
       <c r="M350" t="inlineStr"/>
-      <c r="N350" t="inlineStr"/>
+      <c r="N350" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -19879,7 +19943,9 @@
       <c r="K351" t="inlineStr"/>
       <c r="L351" t="inlineStr"/>
       <c r="M351" t="inlineStr"/>
-      <c r="N351" t="inlineStr"/>
+      <c r="N351" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -19933,7 +19999,9 @@
       <c r="K352" t="inlineStr"/>
       <c r="L352" t="inlineStr"/>
       <c r="M352" t="inlineStr"/>
-      <c r="N352" t="inlineStr"/>
+      <c r="N352" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -19987,7 +20055,9 @@
       <c r="K353" t="inlineStr"/>
       <c r="L353" t="inlineStr"/>
       <c r="M353" t="inlineStr"/>
-      <c r="N353" t="inlineStr"/>
+      <c r="N353" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -20041,7 +20111,9 @@
       <c r="K354" t="inlineStr"/>
       <c r="L354" t="inlineStr"/>
       <c r="M354" t="inlineStr"/>
-      <c r="N354" t="inlineStr"/>
+      <c r="N354" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -20095,7 +20167,9 @@
       <c r="K355" t="inlineStr"/>
       <c r="L355" t="inlineStr"/>
       <c r="M355" t="inlineStr"/>
-      <c r="N355" t="inlineStr"/>
+      <c r="N355" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -20149,7 +20223,9 @@
       <c r="K356" t="inlineStr"/>
       <c r="L356" t="inlineStr"/>
       <c r="M356" t="inlineStr"/>
-      <c r="N356" t="inlineStr"/>
+      <c r="N356" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -20203,7 +20279,9 @@
       <c r="K357" t="inlineStr"/>
       <c r="L357" t="inlineStr"/>
       <c r="M357" t="inlineStr"/>
-      <c r="N357" t="inlineStr"/>
+      <c r="N357" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -20257,7 +20335,9 @@
       <c r="K358" t="inlineStr"/>
       <c r="L358" t="inlineStr"/>
       <c r="M358" t="inlineStr"/>
-      <c r="N358" t="inlineStr"/>
+      <c r="N358" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -20311,7 +20391,9 @@
       <c r="K359" t="inlineStr"/>
       <c r="L359" t="inlineStr"/>
       <c r="M359" t="inlineStr"/>
-      <c r="N359" t="inlineStr"/>
+      <c r="N359" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -20365,7 +20447,9 @@
       <c r="K360" t="inlineStr"/>
       <c r="L360" t="inlineStr"/>
       <c r="M360" t="inlineStr"/>
-      <c r="N360" t="inlineStr"/>
+      <c r="N360" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -20419,7 +20503,9 @@
       <c r="K361" t="inlineStr"/>
       <c r="L361" t="inlineStr"/>
       <c r="M361" t="inlineStr"/>
-      <c r="N361" t="inlineStr"/>
+      <c r="N361" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -20473,7 +20559,9 @@
       <c r="K362" t="inlineStr"/>
       <c r="L362" t="inlineStr"/>
       <c r="M362" t="inlineStr"/>
-      <c r="N362" t="inlineStr"/>
+      <c r="N362" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -20527,7 +20615,9 @@
       <c r="K363" t="inlineStr"/>
       <c r="L363" t="inlineStr"/>
       <c r="M363" t="inlineStr"/>
-      <c r="N363" t="inlineStr"/>
+      <c r="N363" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -20581,7 +20671,9 @@
       <c r="K364" t="inlineStr"/>
       <c r="L364" t="inlineStr"/>
       <c r="M364" t="inlineStr"/>
-      <c r="N364" t="inlineStr"/>
+      <c r="N364" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -20635,7 +20727,9 @@
       <c r="K365" t="inlineStr"/>
       <c r="L365" t="inlineStr"/>
       <c r="M365" t="inlineStr"/>
-      <c r="N365" t="inlineStr"/>
+      <c r="N365" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -20689,7 +20783,9 @@
       <c r="K366" t="inlineStr"/>
       <c r="L366" t="inlineStr"/>
       <c r="M366" t="inlineStr"/>
-      <c r="N366" t="inlineStr"/>
+      <c r="N366" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -20743,7 +20839,9 @@
       <c r="K367" t="inlineStr"/>
       <c r="L367" t="inlineStr"/>
       <c r="M367" t="inlineStr"/>
-      <c r="N367" t="inlineStr"/>
+      <c r="N367" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -20797,7 +20895,9 @@
       <c r="K368" t="inlineStr"/>
       <c r="L368" t="inlineStr"/>
       <c r="M368" t="inlineStr"/>
-      <c r="N368" t="inlineStr"/>
+      <c r="N368" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -20851,7 +20951,9 @@
       <c r="K369" t="inlineStr"/>
       <c r="L369" t="inlineStr"/>
       <c r="M369" t="inlineStr"/>
-      <c r="N369" t="inlineStr"/>
+      <c r="N369" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -20905,7 +21007,9 @@
       <c r="K370" t="inlineStr"/>
       <c r="L370" t="inlineStr"/>
       <c r="M370" t="inlineStr"/>
-      <c r="N370" t="inlineStr"/>
+      <c r="N370" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -20959,7 +21063,9 @@
       <c r="K371" t="inlineStr"/>
       <c r="L371" t="inlineStr"/>
       <c r="M371" t="inlineStr"/>
-      <c r="N371" t="inlineStr"/>
+      <c r="N371" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -21013,7 +21119,9 @@
       <c r="K372" t="inlineStr"/>
       <c r="L372" t="inlineStr"/>
       <c r="M372" t="inlineStr"/>
-      <c r="N372" t="inlineStr"/>
+      <c r="N372" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -21067,7 +21175,9 @@
       <c r="K373" t="inlineStr"/>
       <c r="L373" t="inlineStr"/>
       <c r="M373" t="inlineStr"/>
-      <c r="N373" t="inlineStr"/>
+      <c r="N373" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -21121,7 +21231,9 @@
       <c r="K374" t="inlineStr"/>
       <c r="L374" t="inlineStr"/>
       <c r="M374" t="inlineStr"/>
-      <c r="N374" t="inlineStr"/>
+      <c r="N374" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -21225,7 +21337,9 @@
       <c r="K376" t="inlineStr"/>
       <c r="L376" t="inlineStr"/>
       <c r="M376" t="inlineStr"/>
-      <c r="N376" t="inlineStr"/>
+      <c r="N376" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -21329,7 +21443,9 @@
       <c r="K378" t="inlineStr"/>
       <c r="L378" t="inlineStr"/>
       <c r="M378" t="inlineStr"/>
-      <c r="N378" t="inlineStr"/>
+      <c r="N378" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -21383,7 +21499,9 @@
       <c r="K379" t="inlineStr"/>
       <c r="L379" t="inlineStr"/>
       <c r="M379" t="inlineStr"/>
-      <c r="N379" t="inlineStr"/>
+      <c r="N379" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -21437,7 +21555,9 @@
       <c r="K380" t="inlineStr"/>
       <c r="L380" t="inlineStr"/>
       <c r="M380" t="inlineStr"/>
-      <c r="N380" t="inlineStr"/>
+      <c r="N380" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -21491,7 +21611,9 @@
       <c r="K381" t="inlineStr"/>
       <c r="L381" t="inlineStr"/>
       <c r="M381" t="inlineStr"/>
-      <c r="N381" t="inlineStr"/>
+      <c r="N381" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -21545,7 +21667,9 @@
       <c r="K382" t="inlineStr"/>
       <c r="L382" t="inlineStr"/>
       <c r="M382" t="inlineStr"/>
-      <c r="N382" t="inlineStr"/>
+      <c r="N382" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -21599,7 +21723,9 @@
       <c r="K383" t="inlineStr"/>
       <c r="L383" t="inlineStr"/>
       <c r="M383" t="inlineStr"/>
-      <c r="N383" t="inlineStr"/>
+      <c r="N383" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -21653,7 +21779,9 @@
       <c r="K384" t="inlineStr"/>
       <c r="L384" t="inlineStr"/>
       <c r="M384" t="inlineStr"/>
-      <c r="N384" t="inlineStr"/>
+      <c r="N384" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -21707,7 +21835,9 @@
       <c r="K385" t="inlineStr"/>
       <c r="L385" t="inlineStr"/>
       <c r="M385" t="inlineStr"/>
-      <c r="N385" t="inlineStr"/>
+      <c r="N385" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -21761,7 +21891,9 @@
       <c r="K386" t="inlineStr"/>
       <c r="L386" t="inlineStr"/>
       <c r="M386" t="inlineStr"/>
-      <c r="N386" t="inlineStr"/>
+      <c r="N386" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -21815,7 +21947,9 @@
       <c r="K387" t="inlineStr"/>
       <c r="L387" t="inlineStr"/>
       <c r="M387" t="inlineStr"/>
-      <c r="N387" t="inlineStr"/>
+      <c r="N387" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -21923,7 +22057,9 @@
       <c r="K389" t="inlineStr"/>
       <c r="L389" t="inlineStr"/>
       <c r="M389" t="inlineStr"/>
-      <c r="N389" t="inlineStr"/>
+      <c r="N389" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -21977,7 +22113,9 @@
       <c r="K390" t="inlineStr"/>
       <c r="L390" t="inlineStr"/>
       <c r="M390" t="inlineStr"/>
-      <c r="N390" t="inlineStr"/>
+      <c r="N390" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -22031,7 +22169,9 @@
       <c r="K391" t="inlineStr"/>
       <c r="L391" t="inlineStr"/>
       <c r="M391" t="inlineStr"/>
-      <c r="N391" t="inlineStr"/>
+      <c r="N391" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -22085,7 +22225,9 @@
       <c r="K392" t="inlineStr"/>
       <c r="L392" t="inlineStr"/>
       <c r="M392" t="inlineStr"/>
-      <c r="N392" t="inlineStr"/>
+      <c r="N392" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -22139,7 +22281,9 @@
       <c r="K393" t="inlineStr"/>
       <c r="L393" t="inlineStr"/>
       <c r="M393" t="inlineStr"/>
-      <c r="N393" t="inlineStr"/>
+      <c r="N393" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -22193,7 +22337,9 @@
       <c r="K394" t="inlineStr"/>
       <c r="L394" t="inlineStr"/>
       <c r="M394" t="inlineStr"/>
-      <c r="N394" t="inlineStr"/>
+      <c r="N394" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -22247,7 +22393,9 @@
       <c r="K395" t="inlineStr"/>
       <c r="L395" t="inlineStr"/>
       <c r="M395" t="inlineStr"/>
-      <c r="N395" t="inlineStr"/>
+      <c r="N395" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -22301,7 +22449,9 @@
       <c r="K396" t="inlineStr"/>
       <c r="L396" t="inlineStr"/>
       <c r="M396" t="inlineStr"/>
-      <c r="N396" t="inlineStr"/>
+      <c r="N396" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -22505,7 +22505,9 @@
       <c r="K397" t="inlineStr"/>
       <c r="L397" t="inlineStr"/>
       <c r="M397" t="inlineStr"/>
-      <c r="N397" t="inlineStr"/>
+      <c r="N397" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -22559,7 +22561,9 @@
       <c r="K398" t="inlineStr"/>
       <c r="L398" t="inlineStr"/>
       <c r="M398" t="inlineStr"/>
-      <c r="N398" t="inlineStr"/>
+      <c r="N398" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -22613,7 +22617,9 @@
       <c r="K399" t="inlineStr"/>
       <c r="L399" t="inlineStr"/>
       <c r="M399" t="inlineStr"/>
-      <c r="N399" t="inlineStr"/>
+      <c r="N399" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -22667,7 +22673,9 @@
       <c r="K400" t="inlineStr"/>
       <c r="L400" t="inlineStr"/>
       <c r="M400" t="inlineStr"/>
-      <c r="N400" t="inlineStr"/>
+      <c r="N400" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -22721,7 +22729,9 @@
       <c r="K401" t="inlineStr"/>
       <c r="L401" t="inlineStr"/>
       <c r="M401" t="inlineStr"/>
-      <c r="N401" t="inlineStr"/>
+      <c r="N401" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -22775,7 +22785,9 @@
       <c r="K402" t="inlineStr"/>
       <c r="L402" t="inlineStr"/>
       <c r="M402" t="inlineStr"/>
-      <c r="N402" t="inlineStr"/>
+      <c r="N402" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -22829,7 +22841,9 @@
       <c r="K403" t="inlineStr"/>
       <c r="L403" t="inlineStr"/>
       <c r="M403" t="inlineStr"/>
-      <c r="N403" t="inlineStr"/>
+      <c r="N403" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -22883,7 +22897,9 @@
       <c r="K404" t="inlineStr"/>
       <c r="L404" t="inlineStr"/>
       <c r="M404" t="inlineStr"/>
-      <c r="N404" t="inlineStr"/>
+      <c r="N404" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -22937,7 +22953,9 @@
       <c r="K405" t="inlineStr"/>
       <c r="L405" t="inlineStr"/>
       <c r="M405" t="inlineStr"/>
-      <c r="N405" t="inlineStr"/>
+      <c r="N405" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -22991,7 +23009,9 @@
       <c r="K406" t="inlineStr"/>
       <c r="L406" t="inlineStr"/>
       <c r="M406" t="inlineStr"/>
-      <c r="N406" t="inlineStr"/>
+      <c r="N406" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -23095,7 +23115,9 @@
       <c r="K408" t="inlineStr"/>
       <c r="L408" t="inlineStr"/>
       <c r="M408" t="inlineStr"/>
-      <c r="N408" t="inlineStr"/>
+      <c r="N408" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -23249,7 +23271,9 @@
       <c r="K411" t="inlineStr"/>
       <c r="L411" t="inlineStr"/>
       <c r="M411" t="inlineStr"/>
-      <c r="N411" t="inlineStr"/>
+      <c r="N411" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -23303,7 +23327,9 @@
       <c r="K412" t="inlineStr"/>
       <c r="L412" t="inlineStr"/>
       <c r="M412" t="inlineStr"/>
-      <c r="N412" t="inlineStr"/>
+      <c r="N412" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -23405,7 +23431,9 @@
       <c r="K414" t="inlineStr"/>
       <c r="L414" t="inlineStr"/>
       <c r="M414" t="inlineStr"/>
-      <c r="N414" t="inlineStr"/>
+      <c r="N414" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -23457,7 +23485,9 @@
       <c r="K415" t="inlineStr"/>
       <c r="L415" t="inlineStr"/>
       <c r="M415" t="inlineStr"/>
-      <c r="N415" t="inlineStr"/>
+      <c r="N415" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,71 +508,69 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NORTH YORK</t>
+          <t>HAMILTON</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FOGTOWN FLOWER</t>
+          <t>NEKU CANNABIS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4687 YONGE ST</t>
+          <t>858 UPPER JAMES ST UNIT 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>Public Notice Period: Ended 2023/10/13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>http://fogtown.ca/</t>
+          <t>https://nekucannabis.com/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">613fd98e2e64f800c74add5f </t>
-        </is>
-      </c>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'No-delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>16478128873</v>
+        <v>19056642340</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery / page doesn't exist']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>PICKERING</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Body and Spirit Cannabis</t>
+          <t>OFFSIDE CANNABIS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>361 YONGE ST</t>
+          <t>776 LIVERPOOL RD UNIT 4</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -582,30 +580,26 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://bodyandspiritcannabis.com/</t>
+          <t>https://offsidecannabis.ca/shop/?dtche%5Blocation%5D=spdr-cannabis-pickering</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>5e45c5d96a6aef00702ed11f</t>
-        </is>
-      </c>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>16478125989</v>
+        <v>19058318273</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No-delivery / page doesn't exist']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -618,162 +612,150 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ROCKWOOD</t>
+          <t>OTTAWA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Taste Buds Cannabis</t>
+          <t>Ouid</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">155 MAIN ST S UNIT "A" </t>
+          <t>423 RICHMOND RD</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>In Progress</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>http://tbcontario.com/</t>
+          <t>https://ouid.com/</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>64833eaca3386b0017a49653</t>
-        </is>
-      </c>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>15196050558</v>
+        <v>16138430843</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['No-delivery / page doesn't exist']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
+      <c r="N4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>KESWICK</t>
+          <t>MISSISSAUGA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The House of Cannabis - Keswick</t>
+          <t>Pop's Cannabis Co.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1 CHURCH ST SUITE 9</t>
+          <t>801 DUNDAS STREET EAST UNIT D1-D2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>In Progress</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>http://thehousecannabis.ca/</t>
+          <t>https://popscannabis.ca/</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2261116815efa0af00a9068d41</t>
-        </is>
-      </c>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>12898039462</v>
+        <v>14378883764</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery / page doesn't exist']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BRAMPTON</t>
+          <t>TECUMSEH</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bodega Boyz</t>
+          <t>Pop's Cannabis Co.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>69 BRAMALEA RD SUITE 3</t>
+          <t>13412 TECUMSEH RD E UNIT C2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>Public Notice Period: Ended 2023/09/20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>http://www.bodegaboyz.ca/</t>
+          <t>https://popscannabis.ca/</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>61d38e4ca8388a008cb50d87</t>
-        </is>
-      </c>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>19054580439</v>
+        <v>12265264050</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No-delivery / page doesn't exist']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -786,50 +768,46 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SARNIA</t>
+          <t>MISSISSAUGA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>The We Store</t>
+          <t>Sativa Bliss Cannabis Boutique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>450 TRUDEAU DR UNIT 7/8</t>
+          <t>3460 PLATINUM DR UNIT 23</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>Public Notice Period: Ended 2023/07/15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>http://www.thewestore.com/</t>
+          <t>https://sativabliss.ca/shop-etobicoke/</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>614ba1c7b4849f5565ec9a4b</t>
-        </is>
-      </c>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>12267847719</v>
+        <v>14167406111</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery / page doesn't exist']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -842,50 +820,46 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OTTAWA</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BLUEBIRD CANNABIS CO. BANK ST</t>
+          <t>Tokyo Smoke</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>208 BANK ST</t>
+          <t>420 MAIN ST UNIT 105</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>In Progress</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://bluebirdcannabis.store/bank/</t>
+          <t>https://dutchie.com/stores/tokyo-smoke-cambridge/</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>5f03a722c696510135ab9ded</t>
-        </is>
-      </c>
+          <t>Dutchie / Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
           <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>16135653420</v>
+        <v>15196248509</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['No delivery / Page doesn’t exist']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -898,104 +872,98 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OTTAWA</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BLUEBIRD CANNABIS CO. CLARENCE STREET</t>
+          <t>Superette</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>121 CLARENCE ST</t>
+          <t>3077 DUNDAS ST W</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>Public Notice Period: Ended 2021/10/07</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://bluebirdcannabis.store/byward/</t>
+          <t>https://superetteshop.com/pages/bellwoods-location?utm_source=GMBBellwoods&amp;utm_medium=OrganicSEO&amp;utm_campaign=GMB_Bellwoods</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>fjySu4BPYqScFCR2t</t>
-        </is>
-      </c>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>16136950777</v>
+        <v>14165515482</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery / page doesn't exist']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ST THOMAS</t>
+          <t>SUDBURY</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BOB'S BUD EMPORIUM (ELGIN CENTRE)</t>
+          <t>Stash &amp; Co.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>417 WELLINGTON ST UNIT 141</t>
+          <t>900 LASALLE BLVD</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>In Progress</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://bobsbudemporium.ca/</t>
+          <t>https://thestashandco.com/oshawa-whitby-location/</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>62471ee05755c90e25c2e75a</t>
-        </is>
-      </c>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>15192071605</v>
+        <v>19052432744</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery / page doesn't exist']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -1008,17 +976,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NORTH YORK</t>
+          <t>ETOBICOKE</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tokyo Smoke 1819 Avenue</t>
+          <t>TREES CANNABIS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1819 AVENUE RD</t>
+          <t>3812A BLOOR ST W</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1028,51 +996,49 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://dutchie.com/dispensary/Tokyo-Smoke-1819-Avenue-Rd</t>
+          <t>https://treescannabis.ca/</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>225fde9c7b97573b00c2b7b82e</t>
-        </is>
-      </c>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Kerbside pickup', 'In-store pick-up', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>16473451819</v>
+        <v>16478477812</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery / page doesn't exist']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>PALMERSTON</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tokyo Smoke 333 Yonge</t>
+          <t>VIP Cannabis Company</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>333 YONGE ST</t>
+          <t>214 MAIN ST W UNIT 2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1082,105 +1048,101 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://dutchie.com/dispensary/tokyo-smoke-333-yonge</t>
+          <t>https://vipcannabis.ca/</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>xifehQAT5xMwJRjbb</t>
-        </is>
-      </c>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>14164773618</v>
+        <v>15199307954</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery / page doesn't exist']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BARRIE</t>
+          <t>MISSISSAUGA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Tokyo Smoke Barrie Essa Road</t>
+          <t>The Farmhouse Cannabis Co.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>555 ESSA RD</t>
+          <t>279 LAKESHORE RD E</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>Public Notice Period: Ended 2023/10/16</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://dutchie.com/dispensary/tokyo-smoke-barrie-essa-rd</t>
+          <t>https://welcometofarmhouse.com/</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2261bae7d71e928b22c91b5ed4</t>
-        </is>
-      </c>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>[Opening Soon!']</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>17058812555</v>
+        <v>19053335113</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['No delivery / Opening Soon!']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BRADFORD</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tokyo Smoke Bradford</t>
+          <t>Buzzed Buds</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>494 HOLLAND ST W UNIT 103</t>
+          <t>1562 QUEEN ST E</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1190,84 +1152,78 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://dutchie.com/dispensary/tokyo-smoke-bradford-holland-st</t>
+          <t>https://www.buzzedbuds.co/</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>22612691afdcef3300bf66fc0d</t>
-        </is>
-      </c>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Permanently closed'']</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>19057755983</v>
+        <v>16473687830</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['No delivery / Permanently closed']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>KITCHENER</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tokyo Smoke Fairview</t>
+          <t>THE CANNABIST SHOP – KING E</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1800 SHEPPARD AVE E, UNIT 2071</t>
+          <t>325 KING ST E</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>Public Notice Period: Ended 2021/10/04</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://dutchie.com/stores/tokyo-smoke-fairview-mall</t>
+          <t>https://www.cannabistshop.ca/</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>61974938366e4200a4747046</t>
-        </is>
-      </c>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pick-up', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>14378800871</v>
+        <v>15192080606</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['No-delivery / page doesn't exist']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1285,45 +1241,41 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tokyo Smoke Cannabis</t>
+          <t>THE CANNABIST SHOP - WATERLOO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>94 BRIDGEPORT RD E SUITE 135</t>
+          <t>380 KING ST N UNIT 5</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>Public Notice Period: Ended 2020/06/03</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://dutchie.com/stores/tokyo-smoke-waterloo-bridgeport-plaza</t>
+          <t>https://www.cannabistshop.ca/</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>60d256b1b6348d00d18a4d27</t>
-        </is>
-      </c>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
           <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>15198881888</v>
+        <v>15192080606</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery / page doesn't exist']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1336,17 +1288,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LONDON</t>
+          <t>GLOUCESTER</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TWEED</t>
+          <t>Highties Cannabis Store</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1025 WELLINGTON ROAD, UNIT A-2</t>
+          <t>4000 BRIDLE PATH DR</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1356,84 +1308,78 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://dutchie.com/stores/tweed-london</t>
+          <t>https://www.highties.ca/downtown/</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>iiYZCAo5b7g7Ntd3R</t>
-        </is>
-      </c>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Permanently closed'']</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>12266674999</v>
+        <v>16136952420</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery / page doesn't exist']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BRANTFORD</t>
+          <t>GERALDTON</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HIGHLIFE CANNABIS BRANTFORD</t>
+          <t>J. Supply Co. Geraldton</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>10 STANLEY ST</t>
+          <t>404 MAIN STREET UNIT C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>Public Notice Period: Ended 2021/10/23</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://highlife.ca/pages/brantford-cannabis-store?</t>
+          <t>https://www.jsupplyco.com/memorial?</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>5ea873e9555e85012748fcf9</t>
-        </is>
-      </c>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>15193041020</v>
+        <v>18073455510</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No-delivery / page doesn't exist']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1446,50 +1392,46 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GUELPH</t>
+          <t>MARATHON</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HIGHLIFE CANNABIS GUELPH</t>
+          <t>J. Supply Co. Marathon</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>128 WYNDHAM ST N</t>
+          <t>4 STEVENS AVENUE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>Public Notice Period: Ended 2021/10/23</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://highlife.ca/pages/guelph-cannabis-store</t>
+          <t>https://www.jsupplyco.com/memorial?</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>5efcd2b49829650152b4f03b</t>
-        </is>
-      </c>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
           <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>15197637837</v>
+        <v>18073455510</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery / page doesn't exist']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1502,17 +1444,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>KITCHENER</t>
+          <t>WINDSOR</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sativa Bliss Cannabis Boutique</t>
+          <t>J. SUPPLY CO. - WINDSOR OUELETTE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>57 QUEEN ST SOUTH</t>
+          <t>545 OUELLETTE AVE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1522,30 +1464,26 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://sativabliss.ca/shop-kitchener/</t>
+          <t>https://www.jsupplyco.com/windsor#/menu</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>5fc5762bd9d0e500abb94e2b</t>
-        </is>
-      </c>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping']</t>
+          <t>['Permanently closed'']</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>15192083377</v>
+        <v>15199150605</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No-delivery / page doesn't exist']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1558,17 +1496,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GUELPH</t>
+          <t>HAMILTON</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>J. Supply Co. Guelph</t>
+          <t>Sessions Cannabis Retail</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1515 GORDON ST UNIT 106</t>
+          <t>1096 BARTON ST E UNIT 2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1578,30 +1516,26 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://shopguelph.jsupplyco.com/stores/j-supply-co-guelph</t>
+          <t>https://www.sessions.ca/barton-hamilton-dispensary-menu?utm_source=gmb&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>615d96d3efdc8d00aa0b1537</t>
-        </is>
-      </c>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Permanently closed'']</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>15198218180</v>
+        <v>19053939333</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery / page doesn't exist']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1614,17 +1548,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BURLINGTON</t>
+          <t>NIAGARA FALLS</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sparkle Cannabis Company</t>
+          <t>NEOLITIC</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>730 GUELPH LINE UNIT 1</t>
+          <t>4665 QUEEN ST</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1634,51 +1568,49 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://sparklecannabis.ca/shop-burlington</t>
+          <t>https://neolitic.ca/menu/#/menu</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>7k8k4j6WKL3edhgdE</t>
-        </is>
-      </c>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>19056343033</v>
+        <v>12892482599</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ETOBICOKE</t>
+          <t>NORTH BAY</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Spiritleaf</t>
+          <t xml:space="preserve">True North Cannabis Co. </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>900 ALBION RD UNIT C24/C25</t>
+          <t>1720 ALGONQUIN AVE</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1688,7 +1620,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://spiritleaf.ca/collections/spiritleaf-rexdale</t>
+          <t>https://www.tncc.ca</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1696,22 +1628,18 @@
           <t>Dutchie</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>642b2d4592bde2000f7a4648</t>
-        </is>
-      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Permanently closed']</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>14167416988</v>
+        <v>17054727412</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No-delivery / page doesn't exist']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1724,46 +1652,42 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>OTTAWA</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SUPERETTE</t>
+          <t>WOW World of Weed</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1306 WELLINGTON ST W UNIT 100</t>
+          <t>117 INSPIRE BLVD</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>Public Notice: Ends on 2024/01/26</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://superetteshop.com/pages/ottawa-wellington-location?utm_source=GMBWellington&amp;utm_medium=OrganicSEO&amp;utm_campaign=GMB_Wellington</t>
+          <t>https://www.woweeds.ca/</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Cu9bbMqEXZXAWYNnD</t>
-        </is>
-      </c>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['closed']</t>
+          <t>['Closed']</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>16135185020</v>
+        <v>14167431234</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1773,223 +1697,109 @@
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+      <c r="N24" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>MISSISSAUGA</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>The Hunny Pot Cannabis Co.</t>
+          <t xml:space="preserve">WOW WORLD OF WEED INC </t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>202 QUEEN ST W</t>
+          <t>1900 DUNDAS ST W UNIT B29A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>Public Notice Period: Ended 2023/11/10</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://thehunnypot.com/downtown-toronto-cannabis-menu/</t>
+          <t>https://www.woweeds.ca/</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>iWuTC5A7S33baJjvR</t>
-        </is>
-      </c>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Closed']</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>16475984044</v>
+        <v>14167431234</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery / page doesn't exist']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
+      <c r="N25" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>OTTAWA</t>
+          <t>OSHAWA</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Buzzed Buds</t>
+          <t>Yield Cannabis Co.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>179 GEORGE ST UNIT 101</t>
+          <t>944 SIMCOE ST N</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>Public Notice Period: Ended 2020/07/29</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.buzzedbuds.co/</t>
+          <t>https://yieldcannabis.com/</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>NqnNjmJkkCXMrHWjw</t>
-        </is>
-      </c>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>16136633253</v>
-      </c>
+          <t>['Closed']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No-delivery / page doesn't exist']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>SUDBURY</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">True North Cannabis Co. </t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>372 RIVERSIDE DR</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>https://www.tncc.ca/shop/sudbury/?utm_source=GMB_sudbury&amp;utm_medium=organic</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Y6JM3uLfBxMs9FKdP</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>17055861260</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>['No delivery']</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>HAMILTON</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>TOKE CANNABIS</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>247 CENTENNIAL PKY N UNIT 2</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>https://www.tokecannabis.com/hamilton/store</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>62ab2d7ee716cd00a3caa324</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>12893891885</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>['Delivery', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="b">
+      <c r="N26" t="b">
         <v>1</v>
       </c>
     </row>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,7 +508,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHATHAM</t>
+          <t>ROCKWOOD</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -518,7 +518,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>188 PARK ST</t>
+          <t xml:space="preserve">155 MAIN ST S UNIT A </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -533,17 +533,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dutchie / Page doesn't exist</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>64833eaca3386b0017a49653</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>12263382936</v>
+        <v>15196050558</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -553,24 +557,24 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="N2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NORTH YORK</t>
+          <t>BARRIE</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Taste Buds Cannabis</t>
+          <t>Tokyo Smoke Barrie Essa Road</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1193 LAWRENCE AVE W</t>
+          <t>555 ESSA RD</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -580,22 +584,26 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>http://tbcontario.com/</t>
+          <t>https://dutchie.com/dispensary/tokyo-smoke-barrie-essa-rd</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dutchie / Page doesn't exist</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2261bae7d71e928b22c91b5ed4</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['Permanently closed']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>14167811851</v>
+        <v>17058812555</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -612,17 +620,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ROCKWOOD</t>
+          <t>BRADFORD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Taste Buds Cannabis</t>
+          <t>Tokyo Smoke Bradford</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">155 MAIN ST S UNIT "A" </t>
+          <t>494 HOLLAND ST W UNIT 103</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -632,7 +640,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>http://tbcontario.com/</t>
+          <t>https://dutchie.com/dispensary/tokyo-smoke-bradford-holland-st</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -642,16 +650,16 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>64833eaca3386b0017a49653</t>
+          <t>22612691afdcef3300bf66fc0d</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>15196050558</v>
+        <v>19057755983</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -661,26 +669,24 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
+      <c r="N4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BARRIE</t>
+          <t>OTTAWA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tokyo Smoke Barrie Essa Road</t>
+          <t>SUPERETTE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>555 ESSA RD</t>
+          <t>1306 WELLINGTON ST W UNIT 100</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -690,7 +696,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://dutchie.com/dispensary/tokyo-smoke-barrie-essa-rd</t>
+          <t>https://superetteshop.com/pages/ottawa-wellington-location?utm_source=GMBWellington&amp;utm_medium=OrganicSEO&amp;utm_campaign=GMB_Wellington</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -700,20 +706,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2261bae7d71e928b22c91b5ed4</t>
+          <t>Cu9bbMqEXZXAWYNnD</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['closed']</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>17058812555</v>
+        <v>16135185020</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['No-delivery / page doesn't exist']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -726,17 +732,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BRADFORD</t>
+          <t>SUDBURY</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tokyo Smoke Bradford</t>
+          <t xml:space="preserve">True North Cannabis Co. </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>494 HOLLAND ST W UNIT 103</t>
+          <t>372 RIVERSIDE DR</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -746,7 +752,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://dutchie.com/dispensary/tokyo-smoke-bradford-holland-st</t>
+          <t>https://www.tncc.ca/shop/sudbury/?utm_source=GMB_sudbury&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -756,16 +762,16 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22612691afdcef3300bf66fc0d</t>
+          <t>Y6JM3uLfBxMs9FKdP</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>19057755983</v>
+        <v>17055861260</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -779,118 +785,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>OTTAWA</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>SUPERETTE</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1306 WELLINGTON ST W UNIT 100</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://superetteshop.com/pages/ottawa-wellington-location?utm_source=GMBWellington&amp;utm_medium=OrganicSEO&amp;utm_campaign=GMB_Wellington</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Cu9bbMqEXZXAWYNnD</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>['closed']</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>16135185020</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>['No-delivery / page doesn't exist']</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>SUDBURY</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">True North Cannabis Co. </t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>372 RIVERSIDE DR</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>https://www.tncc.ca/shop/sudbury/?utm_source=GMB_sudbury&amp;utm_medium=organic</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Y6JM3uLfBxMs9FKdP</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>17055861260</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>['No delivery']</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,50 +508,46 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ROCKWOOD</t>
+          <t>ORLEANS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Taste Buds Cannabis</t>
+          <t>GreenBank Cannabis Ltd.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">155 MAIN ST S UNIT A </t>
+          <t>2208 ST. JOSEPH BLVD UNIT 111</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>Public Notice Period: Ended 2023/08/16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>http://tbcontario.com/</t>
+          <t>http://dreamcannabis.net/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>64833eaca3386b0017a49653</t>
-        </is>
-      </c>
+          <t>Buddi / Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>15196050558</v>
+        <v>16135964991</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -564,224 +560,6120 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BARRIE</t>
+          <t>PICKERING</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tokyo Smoke Barrie Essa Road</t>
+          <t>Tokyo Smoke Pickering Town Centre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>555 ESSA RD</t>
+          <t>1355 KINGSTON RD SUITE 71</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>Public Notice Period: Ended 2023/09/13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://dutchie.com/dispensary/tokyo-smoke-barrie-essa-rd</t>
+          <t>https://ca.tokyosmoke.com/</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2261bae7d71e928b22c91b5ed4</t>
-        </is>
-      </c>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>17058812555</v>
+        <v>19056837171</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="N3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BRADFORD</t>
+          <t>GUELPH</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tokyo Smoke Bradford</t>
+          <t>Pur Cannabis – Woolwich</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>494 HOLLAND ST W UNIT 103</t>
+          <t>739 WOOLWICH ST</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>Public Notice Period: Ended 2022/05/31</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://dutchie.com/dispensary/tokyo-smoke-bradford-holland-st</t>
+          <t>http://purcannabis.ca/</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>22612691afdcef3300bf66fc0d</t>
-        </is>
-      </c>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
           <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>19057755983</v>
+        <v>15192651550</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="N4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OTTAWA</t>
+          <t>RAMARA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SUPERETTE</t>
+          <t>SUPREME LEAF CANNABIS COMPANY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1306 WELLINGTON ST W UNIT 100</t>
+          <t>5236 HIGHWAY 12 SOUTH, UNIT B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>Public Notice Period: Ended 2020/10/16</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://superetteshop.com/pages/ottawa-wellington-location?utm_source=GMBWellington&amp;utm_medium=OrganicSEO&amp;utm_campaign=GMB_Wellington</t>
+          <t>http://southernleafhemp.co/</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Cu9bbMqEXZXAWYNnD</t>
-        </is>
-      </c>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['closed']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>16135185020</v>
+        <v>19016728467</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['No-delivery / page doesn't exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="N5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SUDBURY</t>
+          <t>OSHAWA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">True North Cannabis Co. </t>
+          <t>The Nug Co.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>372 RIVERSIDE DR</t>
+          <t>514 RITSON RD S</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>Public Notice Period: Ended 2022/02/24</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.tncc.ca/shop/sudbury/?utm_source=GMB_sudbury&amp;utm_medium=organic</t>
+          <t>http://thenugco.ca/</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Y6JM3uLfBxMs9FKdP</t>
-        </is>
-      </c>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>17055861260</v>
+        <v>19052420647</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['No delivery / Temporarily closed']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bongbaba Cannabis Culture</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>940 BROADVIEW AVE SUITE 134</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/09/03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>http://www.bongbaba.ca/</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>16479715284</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>['No delivery / Permanently closed']</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HAMILTON</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Due North Cannabis Co.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1580 MAIN ST W</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/06/18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://duenorthcannabis.com/</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>['No delivery / Closed - coming soon']</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LONDON </t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sticky Nuggz London Wellington Inc.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>354 WELLINGTON ST UNIT B</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2022/04/11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://stickynuggzinc.ca/</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn't exist']</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ST CATHARINES</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>10 dunlop</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>10 DUNLOP DR UNIT G</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2020/08/13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>http://www.niagaragolf.ca/</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>19059846306</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn't exist']</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HAMILTON</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>RELM Cannabis Co.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>148 OTTAWA ST N</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2020/09/30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>http://www.relm.ca/</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>19055164031</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>['No delivery / Permanently closed']</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ALLISTON</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SESSIONS CANNABIS - ALLISTON</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>689 VICTORIA STREET EAST UNIT 2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/07/21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>http://www.sessions.ca/</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>17054457374</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Silverleaf Cannabis</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>628-630 BLOOR ST</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/11/03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://silverleafcannabis.ca/mississauga-store/</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>9058967756</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>['No delivery / Closed - coming soon']</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Spot420 The Cannabis Store</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2180 CREDIT VALLEY RD UNIT 102</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/11/17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>http://www.spot420.ca/</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>4162467769</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>['No delivery / Closed - coming soon']</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>BRAMPTON</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sticky Nuggz Cottrelle Inc.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>85 COTTRELLE BLVD UNIT 3</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/03/04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>http://www.stickynuggzinc.com/</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn't exist']</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>STRATFORD</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke Stratford Centre</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>925 ONTARIO ST UNIT 5B</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/10/20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://ca.tokyosmoke.com/pages/store-locator-1</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>15195081925</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn't exist']</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>WE'D Cannabis</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2400 DUNDAS ST W UNIT 14</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/07/26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>http://www.we-d.ca/</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>12896749333</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>['No delivery / Closed']</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ETOBICOKE</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>420 Love 3259 Lakeshore Boulevard West</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3259 LAKE SHORE BLVD W</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/02/20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://420love.ca/</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>19055460729</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn't exist']</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Above The Clouds Cannabis</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>553 LAKESHORE RD E</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/12/01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://abovethecloudscannabis.com/</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>14169013434</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>BARRIE</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>228 CANNABIS STORE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>12 CHASE MCEACHERN WAY</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/11/16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://cannabis228.com/</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>16134322288</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Canna Cabana</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>5700 MAVIS RD UNIT 5</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/08/22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://cannacabana.com/</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>9055018886</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>KANATA</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Canna Cabana</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>457 HAZELDEAN RD UNIT 5</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/07/18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://cannacabana.com/</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>['In-store pick-up', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>613-963-3711</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>BRAMPTON</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Dope Cannabis</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>13 KENVIEW BLVD UNIT 11</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2022/02/19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://dopecannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>14162564815</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>NORTH YORK</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Northern Fire Cannabis</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4801 STEELES AVE W SUITE 7</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/09/28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://fireandflower.com/stores/ON/brampton-steeles-ave?utm_medium=organic&amp;utm_source=google&amp;utm_campaign=gmb</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>13655445618</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>LONDON</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>HOLY CANNABIS</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>785 HAMILTON RD</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/10/15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://holycannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>15192045678</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>GERALDTON</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>High Society Cannabis Co.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>403 MAIN ST</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/08/08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://hsociety.ca/</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>18076989420</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BURLINGTON</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Tweed</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2971 WALKER'S LINE UNIT A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2022/02/04</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://locations.timhortons.ca/en/on/burlington/2971-walkers-line/</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>19053325355</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ETOBICOKE</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Olli Brands</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>130 NORTH QUEEN ST SUITE 5</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/11/23</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://ollibrands.com/</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>COLLINGWOOD</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Value Buds</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>70 FIRST ST</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/09/06</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://on.valuebuds.com/</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>14163642321</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>BURLINGTON</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>892 BRANT ST UNIT 3</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2022/06/27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://pleasantreescorp.ca/</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>19056323154</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>HAMILTON</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Kindling Cannabis Hamilton</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>35 PINE ST</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/11/30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://shopkindling.ca/pages/kindling-cannabis-toronto-weed-delivery-dispensary-pickup?utm_source=terrayn_gbp&amp;utm_medium=organic&amp;utm_campaign=toronto</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>14167922447</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>NESTOR FALLS</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Cannabis North</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1624D HWY 71</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/04/12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://www.tncc.ca/</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>15415731399</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CARLETON PLACE</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Twisted Terps Cannabis</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>10488 HIGHWAY 7</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/10/12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://twistedterpsdispensary.com/</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>19363559752</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>TIMMINS</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Cannaverse</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1500 RIVERSIDE DR UNIT 35B</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2022/07/20</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://www.cannaversedispensaries.com/</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>15758884343</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>HAMILTON</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke Lime Ridge Mall</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>999 UPPER WENTWORTH ST UNIT 167</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/02/03</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://ca.tokyosmoke.com/</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>19053874455</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>OTTAWA</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Tweed</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1970 WALKLEY RD</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2022/02/07</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://www.tweed.com/</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>16135219090</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CANNABIS ESTATES</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>618 LAKESHORE RD E</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/10/05</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://www.lakeshorecannabis.com/</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>17209209617</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>HAMILTON</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Queen George Cannabis</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>640 MOHAWK RD W UNIT 29C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/12/01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://www.queengeorge.ca/</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>12893896889</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ANCASTER</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>AB LABORATORIES</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1428 SANDHILL DR</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2020/08/04</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://www.steelcitygreen.ca/</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>19056482430</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>The Woods Cannabis</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>3145 DUNDAS ST W UNIT 11A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/06/29</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://www.thewoodscannabis.ca/dispensary-mississauga</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>905-820-5559</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>BEAVERTON</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>C SHOP</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>B30 BEAVER AVE</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2022/05/07</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://www.yourindependentgrocer.ca/store-locator/details/0839?utm_source=G&amp;utm_medium=LPM&amp;utm_campaign=Loblaws</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>17054262598</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>PICKERING</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Zen Cannabis</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2250 HIGHWAY 7</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/06/17</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://www.zencann.ca/</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>15197429366</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>DUTTON</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Yolo Cannabis</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>168 CURRIE RD</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/11/08</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://yolocan.ca/</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>15197626262</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>AJAX</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>The Peace Pipe</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>465 BAYLY ST W UNIT 1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/09/30</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://peacepipe420.com/</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ANCASTER</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Miss Jones</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1015 GOLF LINKS RD UNIT 202B</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/02/01</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://missjonescannabis.com/</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>AYR</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Taste Buds Cannabis</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>45 STANLEY ST UNIT 200</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/11/19</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://www.tbcontario.com/</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>AZILDA</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Grassroots Co</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>93 NOTRE DAME AVE W UNIT 14</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/07/12</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://grassrootscannabis.com/</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>BARRIE</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CITY CANNABIS CO</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>130 DUNLOP ST E SUITE 102</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2020/07/06</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://citycannabis.co/about/</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>BARRIE</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Tweed</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">99 MAPLEVIEW DR E UNIT A </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/10/19</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> https://www.tweed.com/</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>BELLEVILLE</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>HEMISPHERE CANNABIS CO.</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>464 DUNDAS ST E</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/01/19</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://www.cannabistshop.ca/</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>BRANTFORD</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MULTIGREEN</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>11 BODINE DR</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/07/08</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>['url not found']</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>BURLINGTON</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Hidden Leaf Cannabis</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>181 PLAINS RD W UNIT 2</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2022/05/29</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://hiddenleafcannabisco.com/</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>COLLINGWOOD</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Pop's Cannabis Co.</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>151 FIRST ST UNIT 102</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/09/01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://popscannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>COOKSTOWN</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Bananas</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>25 QUEEN ST</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2022/05/18</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://bananasdispensary.ca/</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>DELHI</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Highlife Delhi</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>289 JAMES ST UNIT 2</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/12/30</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://highlife.ca/</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>DORSET</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Groovy's Dorset</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1059 MAIN STREET UNIT 1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/10/14</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://groovys.ca/baysville-homepage/</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>ETOBICOKE</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>416CANNABIS</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>419 ATTWELL DR</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/08/07</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://highsociety416.com/verify/age</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>ETOBICOKE</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Giggle Leaf Rexdale</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>110 REXDALE BLVD UNIT 1</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/05/11</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://giggleleaf.ca/</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ETOBICOKE</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>GreenGo Cannabis</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>3755 LAKE SHORE BLVD W</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2020/04/15</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://greengoproducts.com/</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ETOBICOKE</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Weed Academy</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1192 THE QUEENSWAY</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2020/09/30</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>['url not found']</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>['No delivery / Permanently closed']</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>GEORGETOWN</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Dab Cannabis</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>378 MOUNTAINVIEW RD S UNIT 10</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/08/27</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://dabcannabisstore.com/</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>['No delivery / Permanently closed']</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>GUELPH</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>LEAFTRONICS</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>130 SILVERCREEK PKY N UNIT 12</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2022/04/22</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>['url not found']</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>['No delivery / Permanently closed']</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>GUELPH</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>The Green Room - Macdonell</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>89 MACDONELL ST</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/08/13</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>https://cbd.puffingbird.com/ontario/guelph/the-green-room</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>['No delivery / Permanently closed']</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>HALIBURTON</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>GreenLeaf Cannabis</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>195 HIGHLAND STREET, FRONT LEVEL UNIT</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/06/24</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>https://www.greenleafcannabis.me/</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>['No delivery / Permanently closed']</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>HAMILTON</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Golden Leaf Cannabis Store</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>105 GEORGE ST</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2020/05/30</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>https://goldenleaf.co/</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>['No delivery / Permanently closed']</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KINGSTON </t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Tweed</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">500 GARDINERS ROAD UNIT 2B </t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/04/23</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>https://www.tweed.com/</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>['No delivery / Permanently closed']</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>KITCHENER</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>86 King Street W Cannabis</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>86 KING ST W</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2022/04/19</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>['url not found']</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>KITCHENER</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>The Green Room - King W</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>109 KING ST W</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/09/11</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>https://www.thegreenroomcannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>LONDON</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Cosmic Cabbage</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>649 RICHMOND ST</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/08/11</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>https://mondaynightbrewing.com/</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>LONDON</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>THE CANNABIST SHOP - WHARNCLIFFE</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>62 WHARNCLIFFE RD N</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/08/28</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>https://www.cannabistshop.ca/london-dispensary</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>LONDON</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>The Hunny Pot Cannabis Co</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>3010 COLONEL TALBOT RD SUITE 1</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/10/14</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>https://thehunnypot.com/</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>['No delivery / Permanently closed']</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>MALLORYTOWN</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Arbud</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>74 QUABBIN RD</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/05/14</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>['url not found']</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>['No delivery / Permanently closed']</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Canna Cabana</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2901 EGLINTON AVE W UNIT 7</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/11/09</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://cannacabana.com/</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Canna Cabana</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>4141 DIXIE RD UNIT PH2-2</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/10/13</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>https://cannacabana.com/</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Canna Cabana</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>925 RATHBURN RD E UNIT B4A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/10/06</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>https://cannacabana.com/</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Canna Cabana</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>1891 RATHBURN RD E UNIT 7B</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/10/13</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>https://cannacabana.com/</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>MISSISSAUGA</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>The Woods Cannabis</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>660 EGLINTON AVE W UNIT 7</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/08/18</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://www.thewoodscannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>['No delivery / Temprorary closed']</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>MOUNT BRYDGES</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>High Cannabis 22534</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>22534 ADELAIDE RD UNIT 2</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/12/01</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>https://www.highcannabis.com/</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>NAPANEE</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>GREENHEART FLOWERS</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>425 CAMDEN RD UNIT 2</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/10/19</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>https://greenheartflowers.com/</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>NEPEAN</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Tweed</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2162 PRINCE OF WALES DR</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2022/02/07</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>https://www.tweed.com/</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>NEPEAN</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>UNCLE HERBS CANNABIS</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1527 MERIVALE RD</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/02/19</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>https://uncleherbs.com/</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>6137274567</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>NORTH YORK</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12603411 CANADA INC </t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>934 WILSON AVE</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2022/06/12</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>['url not found']</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>NORTH YORK</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Loosh</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>160 STEEPROCK DR UNIT 3</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/07/01</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>https://looshbrands.com/</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>NORTH YORK</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>The Trip House</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>850 WILSON AVE</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2022/10/14</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>https://triphouseco.com/</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ORLEANS</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Bud Room</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>900 WATTERS RD UNIT 7</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/03/17</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>https://thebuddroom.ca/</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>OTTAWA</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>BlueBird Cannabis Co</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>27 YORK ST</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/10/03</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>https://bluebirdcannabis.store/</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>OTTAWA</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>OLYMPIA CANNABIS</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>327 BANK ST</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2020/07/30</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>https://www.olympiacannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>['No delivery / Temprorary closed']</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>PETERBOROUGH</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Tweed</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>950 LANSDOWNE ST W UNIT A-07</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/12/22</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>https://www.tweed.com/</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>['No delivery / Temprorary closed']</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>PORT ELGIN</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Bitz n Budz</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>554 GODERICH ST</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2020/08/04</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>['url not found']</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>['No delivery / Temprorary closed']</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>PORT ELGIN</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Moonfire Cannabis</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1110 GODERICH ST UNIT C2</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/11/16</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>https://www.moonfirecannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>PRESCOTT</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>DREAM CANNABIS</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>290 KING ST W UNIT A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/12/01</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>https://www.dreamcannabis.net/</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>6139251614</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>RICHMOND</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Shinybud Cannabis Co. Richmond</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>5921 PERTH ST UNIT 300</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2022/12/01</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>https://www.shinybud.com/</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>SARNIA</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Gold Coast Cannabis</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>680 CATHCART BLVD UNIT 3A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/03/27</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>['url not found']</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>SCARBOROUGH</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Tampi Incorporation</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>4651 SHEPPARD AVE E UNIT S102</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/06/19</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>['url not found']</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>ST CATHARINES</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>NITRO CANNABIS</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>491 MERRITT ST</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/03/06</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>['url not found']</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>STITTSVILLE</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ouid</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>3-1539 STITTSVILLE MAIN ST</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/06/10</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>https://ouid.com/</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>STRATFORD</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>CanDream Cannabis</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>557 DOWNIE ST</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/08/10</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>['url not found']</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>SUDBURY</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>TOKE CANNABIS</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>1133 NOTRE DAME AVE</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/08/31</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>https://www.tokecannabis.com/</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>17052073887</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>THORNTON</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Ashario</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>239 BARRIE ST</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/02/25</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>https://www.ashario.com/</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>4164779333</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>TICHBORNE</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Prime Greenz</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>11628 HIGHWAY 38 RR 1</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/09/06</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>['url not found']</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>TIMMINS</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Inspired Cannabis</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>681 ALGONQUIN BLVD E</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/06/02</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>https://inspiredcannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>['No delivery / Closed - coming soon']</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2758103 Ontario</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>900 KINGSTON RD</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/07/29</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>['url not found']</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>CANNAVERSE</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>424 BLOOR ST W</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/02/01</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>https://cannaverse.io/</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>['No delivery / Temprorary closed']</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>LIGHT HOUSE CANNABIS</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>1506 DUNDAS ST W</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/01/19</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>https://lighthousedispensary.com/</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Smoke Lab Cannabis - King West</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>1234 KING ST W</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/05/27</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>https://www.smokelab.ca/</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Superette</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2 OSSINGTON AVE UNIT 1</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/07/02</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>https://superetteshop.com/</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>THC CANADA</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>38 BLUE JAYS WAY UNIT 5</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/02/02</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>https://thccanada.ca/</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>WATERDOWN</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Buds House</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>10 MALLARD TRAIL UNIT 6</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/11/02</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>https://budshouse.ca/</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>WATERLOO</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>The Cannabist Shop - Bridgeport W</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>10 BRIDGEPORT RD W</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/10/04</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>https://www.cannabistshop.ca/</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>WATERLOO</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>The Green Closet Waterloo</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>250 ALBERT ST SUITE 107</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2021/06/18</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>https://www.thegreencloset.ca/</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WELLAND </t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>High Society</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">188 MAPLE AVE </t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2022/06/10</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>https://hsociety.ca/</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>WEST LORNE</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>West Lorne Leaf</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>234 GRAHAM ROAD</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/10/27</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>['url not found']</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>5197682620</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>WINDSOR</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Value Buds</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>1726 HURON CHURCH RD SUITE 4</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/09/08</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>https://on.valuebuds.com/pages/search-results-page?collection=value-buds-huron-church-rd</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>15192549933</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>WEST LORNE</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>West Lorne Leaf</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>234 GRAHAM ROAD</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/10/27</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>['url not found']</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>5197682620</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>WINDSOR</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Grass Roots</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>5124 TECUMSEH RD E UNIT 1</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/10/05</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>https://www.grassrootswindsor.com/shop-tecumseh/#/</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>12267397668</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>WINDSOR</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>URBNBUD</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>3838 MCGREGOR BLVD</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/02/15</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>https://www.urbnbud.com/shop-south-windsor/</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>2266641157</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>WINDSOR</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Value Buds</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>1726 HURON CHURCH RD SUITE 4</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/09/08</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>https://on.valuebuds.com/pages/search-results-page?collection=value-buds-huron-church-rd</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>15192549933</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn’t exist']</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="b">
         <v>1</v>
       </c>
     </row>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -1071,7 +1071,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1803,7 +1803,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3339,7 +3339,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
@@ -4095,7 +4095,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr"/>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr"/>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr"/>
@@ -4473,7 +4473,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr"/>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
@@ -4635,7 +4635,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr"/>
@@ -4795,7 +4795,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr"/>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr"/>
@@ -4903,7 +4903,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K84" t="inlineStr"/>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
@@ -5011,7 +5011,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K86" t="inlineStr"/>
@@ -5227,7 +5227,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K90" t="inlineStr"/>
@@ -5333,7 +5333,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K92" t="inlineStr"/>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K93" t="inlineStr"/>
@@ -5441,7 +5441,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K94" t="inlineStr"/>
@@ -5495,7 +5495,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K95" t="inlineStr"/>
@@ -5549,7 +5549,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K96" t="inlineStr"/>
@@ -5603,7 +5603,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K97" t="inlineStr"/>
@@ -5655,7 +5655,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K98" t="inlineStr"/>
@@ -5707,7 +5707,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K99" t="inlineStr"/>
@@ -5761,7 +5761,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K100" t="inlineStr"/>
@@ -5869,7 +5869,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K102" t="inlineStr"/>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K104" t="inlineStr"/>
@@ -6031,7 +6031,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K105" t="inlineStr"/>
@@ -6085,7 +6085,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K106" t="inlineStr"/>
@@ -6139,7 +6139,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K107" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K108" t="inlineStr"/>
@@ -6247,7 +6247,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K109" t="inlineStr"/>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K110" t="inlineStr"/>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K111" t="inlineStr"/>
@@ -6407,7 +6407,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K112" t="inlineStr"/>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K113" t="inlineStr"/>
@@ -6511,7 +6511,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K114" t="inlineStr"/>
@@ -6667,7 +6667,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['No delivery / Page doesn’t exist']</t>
+          <t>['No delivery / Page doesn't exist']</t>
         </is>
       </c>
       <c r="K117" t="inlineStr"/>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -508,17 +508,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NORTH YORK</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FOGTOWN FLOWER</t>
+          <t>Kiosk Cannabis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4687 YONGE ST</t>
+          <t>985 O'CONNOR DR</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>http://fogtown.ca/</t>
+          <t>http://www.kioskcannabis.com/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -538,26 +538,28 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>613fd98e2e64f800c74add5f</t>
+          <t>5f73aa489c99f300d11da18f</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>16478128873</v>
+        <v>14166152946</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -508,17 +508,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>NEWCASTLE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kiosk Cannabis</t>
+          <t>Central Plains Cannabis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>985 O'CONNOR DR</t>
+          <t>34 BEAVER ST N</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>http://www.kioskcannabis.com/</t>
+          <t>http://www.centralplainscannabis.com/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -538,7 +538,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5f73aa489c99f300d11da18f</t>
+          <t>5ef279e2e1b8ca00e45c166c</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -547,11 +547,11 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>14166152946</v>
+        <v>18559871767</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,17 +508,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NEWCASTLE</t>
+          <t>BARRIE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Central Plains Cannabis</t>
+          <t>Hemisphere Cannabis Co.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>34 BEAVER ST N</t>
+          <t>15 CEDAR POINTE DR UNIT 11 &amp; 12</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -528,30 +528,26 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>http://www.centralplainscannabis.com/</t>
+          <t>http://nexuscannabis.ca/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5ef279e2e1b8ca00e45c166c</t>
-        </is>
-      </c>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>18559871767</v>
+        <v>12498804202</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -561,6 +557,1720 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EAST YORK</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>HEMISPHERE CANNABIS CO.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1669 BAYVIEW AVE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>http://nexuscannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>14167819333</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NORTH YORK</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hemisphere Cannabis Co.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1887 AVENUE RD</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>http://nexuscannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>['In-store pick-up', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>14167819333</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HAGERSVILLE</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The Underground</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>11 MAIN STREET NORTH UNIT 9</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.theunderground.store/cannabis-shop-hagersville-ontario?store_id=7383#/menu</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>15052469455</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PETROLIA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rose Gold Cannabis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4247 OIL HERITAGE RD UNIT 4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>http://rosegoldcannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Tymber</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>18888862795</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BATH</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Baths Bud N Boutique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>220 MAIN ST UNIT 6</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>http://bathbudz.ca/</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Techpos</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>16133520334</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ANGUS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>The Den Cannabis Store</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>173 MILL ST SUITE 1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>http://thedencannabis.com/</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Techpos</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>17055160055</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>BARRIE</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>The Den Cannabis Store</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>190 MINETS POINT UNIT 4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>http://thedencannabis.com/</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Techpos</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>12498804070</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ORILLIA</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>THE DEN CANNABIS STORE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>660 ATHERLEY RD SUITE 5</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>http://thedencannabis.com/</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Techpos</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>17052590887</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BRAMPTON</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>VALUE BUDS</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>90 RESOLUTION DR UNIT 103</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>http://valuebuds.com/</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>19054500372</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NORTH YORK</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Club Canapa Cannabis </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2 SATTERLY RD</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>http://clubcanapa.com/</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>14165461904</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>KINGSTON</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cannabis Bazaar</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1126 SYDENHAM RD</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>http://www.cannabisbazaar.ca/</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>16137776187</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>COLLEGE STREET CANNABIS</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>966 COLLEGE ST</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>http://collegestreetcannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>14165469904</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>['No delivery / Permanently closed']</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>TECUMSEH</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Cloud 29 Manning</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1655 MANNING RD UNIT 2B</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>http://www.cloud29.ca/</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>15199791441</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HAMILTON</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Crafted Nugs Cannabis Co.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>237 KING ST E</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>http://www.craftednugs.ca/</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>19055288000</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>['No delivery time unknown / craftednugswebmenu.azurewebsites.net’s server IP address could not be found.']</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>LINDSAY</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Docks</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>86 KENT ST W</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>http://www.dockscannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>17054006754</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>D-SE OF DOPE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>620 YONGE ST</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>http://www.doseofdope.ca/</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>14168298909</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Fika Local Dufferin Mall</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>900 DUFFERIN ST UNIT 38</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>['url not found']</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>14165321152</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>OTTAWA</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Creekside Greens</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1192 BANK ST</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>http://creeksidegreens.ca/</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>16137336664</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ETOBICOKE</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>HERB N BUD</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3759 LAKE SHORE BLVD W</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>http://www.herbnbud.ca/</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>14165518087</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>BRAMPTON</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Growcery Cannabis</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>178 QUEEN STREET WEST (MAIN FLOOR)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>http://growcerycannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>16479195500</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>BLENHEIM</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Higher Limits Cannabis Company</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>52 CATHERINE ST UNIT 4</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>http://higherlimits.com/</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>12263670433</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>BRANTFORD</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SWEET RELEAFS INC</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>248 LYNDEN RD UNIT 3</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>http://sweetreleafsbrantford.store/</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>15197531181</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>LONDON</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Forest City Marijuana</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1470 DUNDAS ST</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>http://www.forestcitymarijuana.com/</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>15192041420</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CAMBRIDGE</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HESPELER VILLAGE CANNABIS </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>209 PINEBUSH RD SUITE 6</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>http://www.hespelervillagecannabis.com/</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>['In-store pick-up', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>15192672420</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>NIAGARA FALLS</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Honeypot Smoke Shop</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>6832 DRUMMOND RD</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>http://www.honeypotsmokeshop.ca/</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Tymber</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>19053541661</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ATIKOKAN</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Ideal Buds (Atikokan)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>100 MERCURY AVENUE WEST</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>http://www.idealbuds.ca/</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>8072202810</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>DRYDEN</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Ideal Buds</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>27 KING ST</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>http://www.idealbuds.ca/</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>8072202810</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>SIOUX LOOKOUT</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Ideal Buds (Sioux Lookout)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>90 FRONT STREET</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>http://www.idealbuds.ca/</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Ignite Cannabis Inc.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1044 BATHURST ST</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://weedmaps.com/dispensaries/ignite-cannabis-inc#details</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Weedmaps</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>14165337617</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>WATERLOO</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Insalata</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>520 UNIVERSITY AVE W UNIT 103</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>http://www.insalatamarket.com/</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>16474794240</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>HAILEYBURY</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>King of Queens Cannabis Company</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>462 FERGUSON AVE</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>http://www.kingofqueenscannabis.com/</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Techpos</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>17054821714</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>LINDSAY</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Lindsay Cannabis Store</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>17 KENT ST W</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>http://www.lindsaycannabisstore.ca/</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Techpos</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>17053282420</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUDBURY </t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Lost Lake</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>42 LORNE ST. UNIT 4</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>http://www.lostlake.shop/</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>17052227467</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,69 +508,73 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BARRIE</t>
+          <t>NORTH BAY</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hemisphere Cannabis Co.</t>
+          <t>Golden Harvest</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15 CEDAR POINTE DR UNIT 11 &amp; 12</t>
+          <t>1 JOCKO POINT RD</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>In Progress</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>http://nexuscannabis.ca/</t>
+          <t>https://golden-harvest.ca/menu/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Page doesn't exist</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>62fd3fc40b5b0900accd8a50</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>12498804202</v>
+        <v>7059801444</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="b">
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EAST YORK</t>
+          <t>PENETANGUISHENE</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HEMISPHERE CANNABIS CO.</t>
+          <t>Speakeasy Cannabis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1669 BAYVIEW AVE</t>
+          <t>68 MAIN STREET, UNIT 1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -580,101 +584,109 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>http://nexuscannabis.ca/</t>
+          <t>https://dutchie.com/dispensary/speakeasy-penetang</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Page doesn't exist</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>60db5f6cfaea563a41c9c1f2</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>14167819333</v>
+        <v>17055492323</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="b">
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NORTH YORK</t>
+          <t>WINDSOR</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hemisphere Cannabis Co.</t>
+          <t>URBNBUD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1887 AVENUE RD</t>
+          <t>3838 MCGREGOR BLVD</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>Public Notice Period: Ended 2023/02/15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>http://nexuscannabis.ca/</t>
+          <t>https://www.urbnbud.com/shop-south-windsor/</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Page doesn't exist</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>657366ba62ee120009a8da69</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['In-store pick-up', 'In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>14167819333</v>
+        <v>2266641157</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="b">
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HAGERSVILLE</t>
+          <t>NORTH YORK</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The Underground</t>
+          <t>FOGTOWN FLOWER</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11 MAIN STREET NORTH UNIT 9</t>
+          <t>4687 YONGE ST</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -684,49 +696,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.theunderground.store/cannabis-shop-hagersville-ontario?store_id=7383#/menu</t>
+          <t>http://fogtown.ca/</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Buddi</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">613fd98e2e64f800c74add5f </t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['In-store shopping']</t>
+          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>15052469455</v>
+        <v>16478128873</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="b">
-        <v>1</v>
-      </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PETROLIA</t>
+          <t>HAMILTON</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rose Gold Cannabis</t>
+          <t>AFFX CANNABIS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4247 OIL HERITAGE RD UNIT 4</t>
+          <t>263 UPPER CENTENNIAL PKY UNIT 3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -736,49 +750,53 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>http://rosegoldcannabis.ca/</t>
+          <t>http://affxcannabis.ca/</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tymber</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>65046f0bbece03000927b021</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>18888862795</v>
+        <v>19056626777</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="b">
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BATH</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Baths Bud N Boutique</t>
+          <t>Body and Spirit Cannabis</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>220 MAIN ST UNIT 6</t>
+          <t>361 YONGE ST</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -788,49 +806,53 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>http://bathbudz.ca/</t>
+          <t>https://bodyandspiritcannabis.com/</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Techpos</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5e45c5d96a6aef00702ed11f</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>16133520334</v>
+        <v>16478125989</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="b">
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ANGUS</t>
+          <t>KESWICK</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>The Den Cannabis Store</t>
+          <t>The House of Cannabis - Keswick</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>173 MILL ST SUITE 1</t>
+          <t>1 CHURCH ST SUITE 9</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -840,49 +862,51 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>http://thedencannabis.com/</t>
+          <t>http://thehousecannabis.ca/</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Techpos</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2261116815efa0af00a9068d41</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>17055160055</v>
+        <v>12898039462</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="b">
-        <v>1</v>
-      </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BARRIE</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The Den Cannabis Store</t>
+          <t>Bodega Boyz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>190 MINETS POINT UNIT 4</t>
+          <t>69 BRAMALEA RD SUITE 3</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -892,49 +916,53 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>http://thedencannabis.com/</t>
+          <t>http://www.bodegaboyz.ca/</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Techpos</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>61d38e4ca8388a008cb50d87</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store shopping']</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>12498804070</v>
+        <v>19054580439</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="b">
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ORILLIA</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>THE DEN CANNABIS STORE</t>
+          <t>Caribbean Oxygen</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>660 ATHERLEY RD SUITE 5</t>
+          <t>124 MAIN ST</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -944,101 +972,109 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>http://thedencannabis.com/</t>
+          <t>http://www.caribbeanoxygen.com/</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Techpos</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>5fc6b18731d99d00f606cb03</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>17052590887</v>
+        <v>15192672225</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="b">
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BRAMPTON</t>
+          <t>PLANTAGENET</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>VALUE BUDS</t>
+          <t>Cannabis Connect</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>90 RESOLUTION DR UNIT 103</t>
+          <t>5787 COUNTY RD 17</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>Public Notice Period: Ended 2021/06/15</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>http://valuebuds.com/</t>
+          <t>http://www.highties.ca/</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Custom</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>61b6860aecc71e00998e8a4c</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>19054500372</v>
+        <v>16136731313</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="b">
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NORTH YORK</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Club Canapa Cannabis </t>
+          <t>AMBROSIA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2 SATTERLY RD</t>
+          <t>1605 QUEEN ST W UNIT 1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1048,49 +1084,53 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>http://clubcanapa.com/</t>
+          <t>http://www.ambrosiacannabis.ca/</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Custom</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>602fde0105211900d5c0fd0e</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>14165461904</v>
+        <v>14165193487</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="b">
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>KINGSTON</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cannabis Bazaar</t>
+          <t>Insalata</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1126 SYDENHAM RD</t>
+          <t>1331 ST CLAIR AVE W</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1100,49 +1140,53 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>http://www.cannabisbazaar.ca/</t>
+          <t>http://www.insalatamarket.com/</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Custom</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>5e7400ed8dc5960077ea1a59</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>16137776187</v>
+        <v>16474794240</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="b">
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>PETERBOROUGH</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>COLLEGE STREET CANNABIS</t>
+          <t>SPARQ RETAIL</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>966 COLLEGE ST</t>
+          <t>340 CHARLOTTE ST</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1152,49 +1196,53 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>http://collegestreetcannabis.ca/</t>
+          <t>http://www.sparqretail.ca/</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Page doesn't exist</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>5f072e155584c1011bac2c53</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>14165469904</v>
+        <v>17057491833</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['No delivery / Permanently closed']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="b">
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TECUMSEH</t>
+          <t>BEAMSVILLE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cloud 29 Manning</t>
+          <t>T CANNABIS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1655 MANNING RD UNIT 2B</t>
+          <t>4322 ONTARIO STREET UNIT 3</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1204,49 +1252,53 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>http://www.cloud29.ca/</t>
+          <t>http://www.tcann.ca/</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Page doesn't exist</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>5eb9e4463836aa00b88a6251</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>15199791441</v>
+        <v>19055635255</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="b">
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HAMILTON</t>
+          <t>COCHRANE</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Crafted Nugs Cannabis Co.</t>
+          <t>T CANNABIS NW - Cochrane</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>237 KING ST E</t>
+          <t>143 FOURTH ST W</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1256,49 +1308,53 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>http://www.craftednugs.ca/</t>
+          <t>http://www.tcann.ca/</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Page doesn't exist</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>60da566de735ef00bcb2c8f1</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
           <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>19055288000</v>
+        <v>17059132339</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['No delivery time unknown / craftednugswebmenu.azurewebsites.net’s server IP address could not be found.']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="b">
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LINDSAY</t>
+          <t>FORT FRANCES</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Docks</t>
+          <t xml:space="preserve">T CANNABIS </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>86 KENT ST W</t>
+          <t>130 SECOND ST E UNIT 2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1308,49 +1364,53 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>http://www.dockscannabis.ca/</t>
+          <t>http://www.tcann.ca/</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Page doesn't exist</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>6022bdd8b61c4d00c787981c</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>17054006754</v>
+        <v>18072742222</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="b">
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>KIRKLAND LAKE</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>D-SE OF DOPE</t>
+          <t>T CANNABIS NW - Kirkland Lake</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>620 YONGE ST</t>
+          <t>59 GOVERNMENT RD W</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1360,49 +1420,53 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>http://www.doseofdope.ca/</t>
+          <t>http://www.tcann.ca/</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Page doesn't exist</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>60da569417dfe2009d363270</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>14168298909</v>
+        <v>17054626626</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="b">
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>NEW LISKEARD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Fika Local Dufferin Mall</t>
+          <t>T CANNABIS</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>900 DUFFERIN ST UNIT 38</t>
+          <t>9 ARMSTRONG ST N</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1412,49 +1476,53 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['url not found']</t>
+          <t>http://www.tcann.ca/</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Page doesn't exist</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>604fe19833c51e00b841d38d</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>14165321152</v>
+        <v>17056288828</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="b">
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>OTTAWA</t>
+          <t>SIOUX LOOKOUT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Creekside Greens</t>
+          <t>T CANNABIS NW</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1192 BANK ST</t>
+          <t>37 FRONT ST</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1464,49 +1532,53 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>http://creeksidegreens.ca/</t>
+          <t>http://www.tcann.ca/</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Custom</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>635fcd3a60823d00b26a25d7</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>16137336664</v>
+        <v>18072742222</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="b">
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ETOBICOKE</t>
+          <t>SARNIA</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HERB N BUD</t>
+          <t>The We Store</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3759 LAKE SHORE BLVD W</t>
+          <t>450 TRUDEAU DR UNIT 7/8</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1516,49 +1588,53 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>http://www.herbnbud.ca/</t>
+          <t>http://www.thewestore.com/</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Custom</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>614ba1c7b4849f5565ec9a4b</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>14165518087</v>
+        <v>12267847719</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="b">
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BRAMPTON</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Growcery Cannabis</t>
+          <t>VIP Cannabis Company</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>178 QUEEN STREET WEST (MAIN FLOOR)</t>
+          <t>336 EAGLE ST N SUITE 102</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1568,26 +1644,30 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>http://growcerycannabis.ca/</t>
+          <t>http://www.vipcannabis.ca/</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Custom</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>6244dae4f8d1a4009d5fc921</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>16479195500</v>
+        <v>15199042676</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1600,17 +1680,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BLENHEIM</t>
+          <t>MITCHELL</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Higher Limits Cannabis Company</t>
+          <t>VIP Cannabis Company</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>52 CATHERINE ST UNIT 4</t>
+          <t>46 ONTARIO RD</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1620,26 +1700,30 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>http://higherlimits.com/</t>
+          <t>http://www.vipcannabis.ca/</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Custom</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>61a71aedd26831009b8f7558</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
           <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>12263670433</v>
+        <v>15199043926</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1652,17 +1736,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BRANTFORD</t>
+          <t>NEW HAMBURG</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SWEET RELEAFS INC</t>
+          <t>VIP Cannabis Company</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>248 LYNDEN RD UNIT 3</t>
+          <t>179 UNION ST UNIT 5</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1672,26 +1756,30 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>http://sweetreleafsbrantford.store/</t>
+          <t>http://www.vipcannabis.ca/</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Buddi</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>6062643f79c36d00bb5f28ed</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>15197531181</v>
+        <v>15199043605</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1704,17 +1792,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>LONDON</t>
+          <t>PETERSBURG</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Forest City Marijuana</t>
+          <t>VIP Cannabis Company</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1470 DUNDAS ST</t>
+          <t>1656 SNYDERS RD E, UNIT B</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1724,26 +1812,30 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>http://www.forestcitymarijuana.com/</t>
+          <t>http://www.vipcannabis.ca/</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Buddi</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>610041d2e739f2009bc1a2f1</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>15192041420</v>
+        <v>15199042741</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1756,17 +1848,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CAMBRIDGE</t>
+          <t>WOODSTOCK</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">HESPELER VILLAGE CANNABIS </t>
+          <t>VIP Cannabis Co.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>209 PINEBUSH RD SUITE 6</t>
+          <t>930 DUNDAS ST UNIT 107</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1776,26 +1868,30 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>http://www.hespelervillagecannabis.com/</t>
+          <t>http://www.vipcannabis.ca/</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Buddi</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>6021795f5d88f600b7d13fc9</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['In-store pick-up', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>15192672420</v>
+        <v>15193981032</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -1808,17 +1904,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>NIAGARA FALLS</t>
+          <t>OTTAWA</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Honeypot Smoke Shop</t>
+          <t>BLUEBIRD CANNABIS CO. CLARENCE STREET</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>6832 DRUMMOND RD</t>
+          <t>121 CLARENCE ST</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1828,49 +1924,51 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>http://www.honeypotsmokeshop.ca/</t>
+          <t>https://bluebirdcannabis.store/byward/</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tymber</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>fjySu4BPYqScFCR2t</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>19053541661</v>
+        <v>16136950777</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" t="b">
-        <v>1</v>
-      </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ATIKOKAN</t>
+          <t>NORTH YORK</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ideal Buds (Atikokan)</t>
+          <t>Tokyo Smoke 1819 Avenue</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>100 MERCURY AVENUE WEST</t>
+          <t>1819 AVENUE RD</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1880,49 +1978,51 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>http://www.idealbuds.ca/</t>
+          <t>https://dutchie.com/dispensary/Tokyo-Smoke-1819-Avenue-Rd</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Buddi</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>225fde9c7b97573b00c2b7b82e</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>8072202810</v>
+        <v>16473451819</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="b">
-        <v>1</v>
-      </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DRYDEN</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ideal Buds</t>
+          <t>Tokyo Smoke 333 Yonge</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>27 KING ST</t>
+          <t>333 YONGE ST</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1932,49 +2032,51 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>http://www.idealbuds.ca/</t>
+          <t>https://dutchie.com/dispensary/tokyo-smoke-333-yonge</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Buddi</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>xifehQAT5xMwJRjbb</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>8072202810</v>
+        <v>14164773618</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="b">
-        <v>1</v>
-      </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SIOUX LOOKOUT</t>
+          <t>LONDON</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ideal Buds (Sioux Lookout)</t>
+          <t>TWEED</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>90 FRONT STREET</t>
+          <t>1025 WELLINGTON ROAD, UNIT A-2</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1984,32 +2086,36 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>http://www.idealbuds.ca/</t>
+          <t>https://dutchie.com/stores/tweed-london</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Buddi</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>iiYZCAo5b7g7Ntd3R</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>12266674999</v>
+      </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="b">
-        <v>1</v>
-      </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2019,12 +2125,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ignite Cannabis Inc.</t>
+          <t>TOKYO SMOKE 1303 QUEEN ST E</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1044 BATHURST ST</t>
+          <t>1303 QUEEN ST E</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2034,26 +2140,30 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://weedmaps.com/dispensaries/ignite-cannabis-inc#details</t>
+          <t>https://dutchie.com/dispensary/tokyo-smoke-1303-queen-st-e</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Weedmaps</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>5f23864b98756000eebb9fff</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>14165337617</v>
+        <v>14164610035</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2066,17 +2176,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>WATERLOO</t>
+          <t>CARLETON PLACE</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Insalata</t>
+          <t>TWEED</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>520 UNIVERSITY AVE W UNIT 103</t>
+          <t>450 MCNEELY AVE</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2086,26 +2196,30 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>http://www.insalatamarket.com/</t>
+          <t>https://dutchie.com/stores/cannabis-mcneely</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Page doesn't exist</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>611ec322360a9700c7086685</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>16474794240</v>
+        <v>13436550255</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2118,17 +2232,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HAILEYBURY</t>
+          <t>BURLINGTON</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>King of Queens Cannabis Company</t>
+          <t>Sparkle Cannabis Company</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>462 FERGUSON AVE</t>
+          <t>730 GUELPH LINE UNIT 1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2138,49 +2252,51 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>http://www.kingofqueenscannabis.com/</t>
+          <t>https://sparklecannabis.ca/shop-burlington</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Techpos</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>7k8k4j6WKL3edhgdE</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>17054821714</v>
+        <v>19056343033</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="b">
-        <v>1</v>
-      </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>LINDSAY</t>
+          <t>ETOBICOKE</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Lindsay Cannabis Store</t>
+          <t>Spiritleaf</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>17 KENT ST W</t>
+          <t>900 ALBION RD UNIT C24/C25</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2190,26 +2306,30 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>http://www.lindsaycannabisstore.ca/</t>
+          <t>https://spiritleaf.ca/collections/spiritleaf-rexdale</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Techpos</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>642b2d4592bde2000f7a4648</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>17053282420</v>
+        <v>14167416988</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2222,17 +2342,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUDBURY </t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Lost Lake</t>
+          <t>The Hunny Pot Cannabis Co.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>42 LORNE ST. UNIT 4</t>
+          <t>202 QUEEN ST W</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2242,34 +2362,90 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>http://www.lostlake.shop/</t>
+          <t>https://thehunnypot.com/downtown-toronto-cannabis-menu/</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Custom</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>iWuTC5A7S33baJjvR</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>17052227467</v>
+        <v>16475984044</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="b">
-        <v>1</v>
-      </c>
+      <c r="N35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>OTTAWA</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Buzzed Buds</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>179 GEORGE ST UNIT 101</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://www.buzzedbuds.co/</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>NqnNjmJkkCXMrHWjw</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>16136633253</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,73 +508,69 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NORTH BAY</t>
+          <t>HAGERSVILLE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Golden Harvest</t>
+          <t>The Underground</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1 JOCKO POINT RD</t>
+          <t>11 MAIN STREET NORTH UNIT 9</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>In Progress</t>
+          <t>Authorized to Open</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://golden-harvest.ca/menu/</t>
+          <t>https://www.theunderground.store/cannabis-shop-hagersville-ontario?store_id=7383#/menu</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>62fd3fc40b5b0900accd8a50</t>
-        </is>
-      </c>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store shopping']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>7059801444</v>
+        <v>15052469455</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="N2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PENETANGUISHENE</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Speakeasy Cannabis</t>
+          <t>Lockstock. Cannabis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>68 MAIN STREET, UNIT 1</t>
+          <t>8 GLADSTONE AVE UNIT 1B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -584,109 +580,101 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://dutchie.com/dispensary/speakeasy-penetang</t>
+          <t>http://lockstockcannabis.com/</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>60db5f6cfaea563a41c9c1f2</t>
-        </is>
-      </c>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>17055492323</v>
+        <v>16473950883</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No delivery / Permanently closed']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="N3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>WINDSOR</t>
+          <t>THUNDER BAY</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>URBNBUD</t>
+          <t>Kia Ora Kannabis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3838 MCGREGOR BLVD</t>
+          <t>1111 VICTORIA AVE E</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Public Notice Period: Ended 2023/02/15</t>
+          <t>Authorized to Open</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.urbnbud.com/shop-south-windsor/</t>
+          <t>http://www.kiaorakannabis.com/</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>657366ba62ee120009a8da69</t>
-        </is>
-      </c>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2266641157</v>
+        <v>18076296987</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No delivery / Permanently closed']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="N4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NORTH YORK</t>
+          <t>THUNDER BAY</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FOGTOWN FLOWER</t>
+          <t>Kia Ora Kannabis</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4687 YONGE ST</t>
+          <t>236 RED RIVER RD</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -696,51 +684,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>http://fogtown.ca/</t>
+          <t>http://www.kiaorakannabis.com/</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">613fd98e2e64f800c74add5f </t>
-        </is>
-      </c>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>16478128873</v>
+        <v>18076296735</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery / Permanently closed']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HAMILTON</t>
+          <t>PEMBROKE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AFFX CANNABIS</t>
+          <t>Kushys</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>263 UPPER CENTENNIAL PKY UNIT 3</t>
+          <t>100 PEMBROKE ST E SUITE A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -750,53 +736,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>http://affxcannabis.ca/</t>
+          <t>https://kushyscannabis.com/pembroke/#/menu</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>65046f0bbece03000927b021</t>
-        </is>
-      </c>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>19056626777</v>
+        <v>16137359278</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="N6" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>RAMARA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Body and Spirit Cannabis</t>
+          <t>Longbottom Leaf</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>361 YONGE ST</t>
+          <t>2267 HIGHWAY 12</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -806,107 +788,103 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://bodyandspiritcannabis.com/</t>
+          <t>http://www.longbottomleaf.ca/</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>5e45c5d96a6aef00702ed11f</t>
-        </is>
-      </c>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>16478125989</v>
+        <v>17055059509</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="N7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>KESWICK</t>
+          <t>LUCKNOW</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>The House of Cannabis - Keswick</t>
+          <t>Budzrus Lucknow</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1 CHURCH ST SUITE 9</t>
+          <t>638 CAMPBELL ST</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>Public Notice Period: Ended 2024/01/11</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>http://thehousecannabis.ca/</t>
+          <t>http://www.lucknow.nic.in/</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2261116815efa0af00a9068d41</t>
-        </is>
-      </c>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>12898039462</v>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BRAMPTON</t>
+          <t>BEETON</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bodega Boyz</t>
+          <t>NORTHERN BUDZZ</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>69 BRAMALEA RD SUITE 3</t>
+          <t>29 MAIN ST W UNIT 700 &amp; 800</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -916,53 +894,49 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>http://www.bodegaboyz.ca/</t>
+          <t>https://northernbudzz.com/online-store/#/menu</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>61d38e4ca8388a008cb50d87</t>
-        </is>
-      </c>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>19054580439</v>
+        <v>19057482010</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="N9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CAMBRIDGE</t>
+          <t>AURORA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Caribbean Oxygen</t>
+          <t>MALIBU ROAD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>124 MAIN ST</t>
+          <t>150 HOLLIDGE BLVD UNIT 5</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -972,92 +946,84 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>http://www.caribbeanoxygen.com/</t>
+          <t>http://www.maliburoad.shop/</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>5fc6b18731d99d00f606cb03</t>
-        </is>
-      </c>
+          <t>Tendy</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>15192672225</v>
+        <v>19055037467</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="N10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PLANTAGENET</t>
+          <t>PETERBOROUGH</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cannabis Connect</t>
+          <t>Mellow Leaf</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5787 COUNTY RD 17</t>
+          <t>724 LANSDOWNE ST W</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Public Notice Period: Ended 2021/06/15</t>
+          <t>Authorized to Open</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>http://www.highties.ca/</t>
+          <t>http://www.mellowleaf.ca/</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>61b6860aecc71e00998e8a4c</t>
-        </is>
-      </c>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>16136731313</v>
+        <v>17057433999</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No delivery / Permanently closed']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="N11" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1069,12 +1035,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AMBROSIA</t>
+          <t>MEXICANNABIS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1605 QUEEN ST W UNIT 1</t>
+          <t>73 COXWELL AVE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1084,53 +1050,49 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>http://www.ambrosiacannabis.ca/</t>
+          <t>http://www.mexicannabis.ca/</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>602fde0105211900d5c0fd0e</t>
-        </is>
-      </c>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'Same-day delivery', 'No delivery']</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>14165193487</v>
+        <v>14166578983</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="N12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>GODERICH</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Insalata</t>
+          <t>Miss Jones</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1331 ST CLAIR AVE W</t>
+          <t>397 BAYFIELD ROAD</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1140,53 +1102,49 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>http://www.insalatamarket.com/</t>
+          <t>http://www.missjonescannabis.com/</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>5e7400ed8dc5960077ea1a59</t>
-        </is>
-      </c>
+          <t>Budler</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>16474794240</v>
+        <v>12264556595</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="N13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PETERBOROUGH</t>
+          <t>LONDON</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SPARQ RETAIL</t>
+          <t>Miss Jones</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>340 CHARLOTTE ST</t>
+          <t>765 EXETER RD UNIT C64</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1196,53 +1154,49 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>http://www.sparqretail.ca/</t>
+          <t>http://www.missjonescannabis.com/</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>5f072e155584c1011bac2c53</t>
-        </is>
-      </c>
+          <t>Budler</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>17057491833</v>
+        <v>12266676033</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="N14" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BEAMSVILLE</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>T CANNABIS</t>
+          <t>Miss Jones</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4322 ONTARIO STREET UNIT 3</t>
+          <t>315 KING ST W</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1252,53 +1206,49 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>http://www.tcann.ca/</t>
+          <t>http://www.missjonescannabis.com/</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>5eb9e4463836aa00b88a6251</t>
-        </is>
-      </c>
+          <t>Budler</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>19055635255</v>
+        <v>16475470383</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery / Permanently closed']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="N15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>COCHRANE</t>
+          <t>WELLAND</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>T CANNABIS NW - Cochrane</t>
+          <t>Miss Jones</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>143 FOURTH ST W</t>
+          <t>300 LINCOLN ST UNIT 13</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1308,53 +1258,49 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>http://www.tcann.ca/</t>
+          <t>http://www.missjonescannabis.com/</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>60da566de735ef00bcb2c8f1</t>
-        </is>
-      </c>
+          <t>Budler</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>17059132339</v>
+        <v>12899740162</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="N16" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>FORT FRANCES</t>
+          <t>BURLINGTON</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">T CANNABIS </t>
+          <t>Mont Kailash Cannabis</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>130 SECOND ST E UNIT 2</t>
+          <t>1220 BRANT ST UNIT 3B</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1364,53 +1310,49 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>http://www.tcann.ca/</t>
+          <t>http://www.montkailash.ca/</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>6022bdd8b61c4d00c787981c</t>
-        </is>
-      </c>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
           <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>18072742222</v>
+        <v>12893134713</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="N17" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>KIRKLAND LAKE</t>
+          <t>ETOBICOKE</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>T CANNABIS NW - Kirkland Lake</t>
+          <t>MOONROCK CANNABIS</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>59 GOVERNMENT RD W</t>
+          <t>2324 LAKE SHORE BLVD W UNIT 3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1420,53 +1362,49 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>http://www.tcann.ca/</t>
+          <t>http://www.moonrockcannabis.ca/</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>60da569417dfe2009d363270</t>
-        </is>
-      </c>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>17054626626</v>
+        <v>14165039333</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="N18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NEW LISKEARD</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>T CANNABIS</t>
+          <t>Mota Toke</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>9 ARMSTRONG ST N</t>
+          <t>249 GREENWOOD AVE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1476,53 +1414,49 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>http://www.tcann.ca/</t>
+          <t>http://www.motatoke.com/</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>604fe19833c51e00b841d38d</t>
-        </is>
-      </c>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>17056288828</v>
+        <v>14164663113</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery / Temprorary closed']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="N19" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SIOUX LOOKOUT</t>
+          <t>WINGHAM</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>T CANNABIS NW</t>
+          <t xml:space="preserve">Naturally Bongins </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>37 FRONT ST</t>
+          <t>11 VETERANS ROAD, UNIT B</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1532,53 +1466,49 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>http://www.tcann.ca/</t>
+          <t>http://www.naturallybongins.ca/</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>635fcd3a60823d00b26a25d7</t>
-        </is>
-      </c>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>18072742222</v>
+        <v>19052260420</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="N20" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SARNIA</t>
+          <t>NORTHYORK</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>The We Store</t>
+          <t>Moksha Cannabis</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>450 TRUDEAU DR UNIT 7/8</t>
+          <t>4720 JANE ST UNIT 6</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1588,7 +1518,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>http://www.thewestore.com/</t>
+          <t>http://www.mokshacannabis.ca/</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1598,43 +1528,43 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>614ba1c7b4849f5565ec9a4b</t>
+          <t>6075a537ed169800dac59099</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>12267847719</v>
+        <v>14166610550</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="N21" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CAMBRIDGE</t>
+          <t>AURORA</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>VIP Cannabis Company</t>
+          <t>Nature's Haze</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>336 EAGLE ST N SUITE 102</t>
+          <t>15570 YONGE ST UNIT 8</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1644,7 +1574,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>http://www.vipcannabis.ca/</t>
+          <t>http://www.natureshaze.com/</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1654,20 +1584,20 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>6244dae4f8d1a4009d5fc921</t>
+          <t>5f15ee080f514c00f7e7fe73</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>15199042676</v>
+        <v>19057130606</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1680,17 +1610,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MITCHELL</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>VIP Cannabis Company</t>
+          <t>Levicann</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>46 ONTARIO RD</t>
+          <t>393 EGLINTON AVE E</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1700,7 +1630,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>http://www.vipcannabis.ca/</t>
+          <t>http://www.levicann.com/shop</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1710,20 +1640,20 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>61a71aedd26831009b8f7558</t>
+          <t>60da1ee77c4966741f671139</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>15199043926</v>
+        <v>14163622420</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1736,27 +1666,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NEW HAMBURG</t>
+          <t>NORTH BAY</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>VIP Cannabis Company</t>
+          <t>Golden Harvest</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>179 UNION ST UNIT 5</t>
+          <t>1 JOCKO POINT RD</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>In Progress</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>http://www.vipcannabis.ca/</t>
+          <t>https://golden-harvest.ca/menu/</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1766,7 +1696,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>6062643f79c36d00bb5f28ed</t>
+          <t>62fd3fc40b5b0900accd8a50</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1775,11 +1705,11 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>15199043605</v>
+        <v>7059801444</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1792,17 +1722,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PETERSBURG</t>
+          <t>PENETANGUISHENE</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>VIP Cannabis Company</t>
+          <t>Speakeasy Cannabis</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1656 SNYDERS RD E, UNIT B</t>
+          <t>68 MAIN STREET, UNIT 1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1812,7 +1742,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>http://www.vipcannabis.ca/</t>
+          <t>https://dutchie.com/dispensary/speakeasy-penetang</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1822,16 +1752,16 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>610041d2e739f2009bc1a2f1</t>
+          <t>60db5f6cfaea563a41c9c1f2</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>15199042741</v>
+        <v>17055492323</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1848,27 +1778,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>WOODSTOCK</t>
+          <t>WINDSOR</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>VIP Cannabis Co.</t>
+          <t>URBNBUD</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>930 DUNDAS ST UNIT 107</t>
+          <t>3838 MCGREGOR BLVD</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>Public Notice Period: Ended 2023/02/15</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>http://www.vipcannabis.ca/</t>
+          <t>https://www.urbnbud.com/shop-south-windsor/</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1878,20 +1808,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>6021795f5d88f600b7d13fc9</t>
+          <t>657366ba62ee120009a8da69</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>15193981032</v>
+        <v>2266641157</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -1904,17 +1834,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>OTTAWA</t>
+          <t>NORTH YORK</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BLUEBIRD CANNABIS CO. CLARENCE STREET</t>
+          <t>FOGTOWN FLOWER</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>121 CLARENCE ST</t>
+          <t>4687 YONGE ST</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1924,7 +1854,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://bluebirdcannabis.store/byward/</t>
+          <t>http://fogtown.ca/</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1934,16 +1864,16 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>fjySu4BPYqScFCR2t</t>
+          <t xml:space="preserve">613fd98e2e64f800c74add5f </t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>16136950777</v>
+        <v>16478128873</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1958,17 +1888,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>NORTH YORK</t>
+          <t>HAMILTON</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Tokyo Smoke 1819 Avenue</t>
+          <t>AFFX CANNABIS</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1819 AVENUE RD</t>
+          <t>263 UPPER CENTENNIAL PKY UNIT 3</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1978,7 +1908,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://dutchie.com/dispensary/Tokyo-Smoke-1819-Avenue-Rd</t>
+          <t>http://affxcannabis.ca/</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1988,16 +1918,16 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>225fde9c7b97573b00c2b7b82e</t>
+          <t>65046f0bbece03000927b021</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>16473451819</v>
+        <v>19056626777</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2007,7 +1937,9 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
+      <c r="N28" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2017,12 +1949,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Tokyo Smoke 333 Yonge</t>
+          <t>Body and Spirit Cannabis</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>333 YONGE ST</t>
+          <t>361 YONGE ST</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2032,7 +1964,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://dutchie.com/dispensary/tokyo-smoke-333-yonge</t>
+          <t>https://bodyandspiritcannabis.com/</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2042,41 +1974,43 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>xifehQAT5xMwJRjbb</t>
+          <t>5e45c5d96a6aef00702ed11f</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>14164773618</v>
+        <v>16478125989</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
+      <c r="N29" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LONDON</t>
+          <t>KESWICK</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TWEED</t>
+          <t>The House of Cannabis - Keswick</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1025 WELLINGTON ROAD, UNIT A-2</t>
+          <t>1 CHURCH ST SUITE 9</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2086,7 +2020,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://dutchie.com/stores/tweed-london</t>
+          <t>http://thehousecannabis.ca/</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2096,7 +2030,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>iiYZCAo5b7g7Ntd3R</t>
+          <t>2261116815efa0af00a9068d41</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2105,7 +2039,7 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>12266674999</v>
+        <v>12898039462</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2120,17 +2054,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TOKYO SMOKE 1303 QUEEN ST E</t>
+          <t>Bodega Boyz</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1303 QUEEN ST E</t>
+          <t>69 BRAMALEA RD SUITE 3</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2140,7 +2074,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://dutchie.com/dispensary/tokyo-smoke-1303-queen-st-e</t>
+          <t>http://www.bodegaboyz.ca/</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2150,43 +2084,41 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>5f23864b98756000eebb9fff</t>
+          <t>61d38e4ca8388a008cb50d87</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store shopping']</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>14164610035</v>
+        <v>19054580439</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="b">
-        <v>1</v>
-      </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CARLETON PLACE</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TWEED</t>
+          <t>Caribbean Oxygen</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>450 MCNEELY AVE</t>
+          <t>124 MAIN ST</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2196,7 +2128,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://dutchie.com/stores/cannabis-mcneely</t>
+          <t>http://www.caribbeanoxygen.com/</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2206,16 +2138,16 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>611ec322360a9700c7086685</t>
+          <t>5fc6b18731d99d00f606cb03</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>13436550255</v>
+        <v>15192672225</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2225,34 +2157,32 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="b">
-        <v>1</v>
-      </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BURLINGTON</t>
+          <t>PLANTAGENET</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sparkle Cannabis Company</t>
+          <t>Cannabis Connect</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>730 GUELPH LINE UNIT 1</t>
+          <t>5787 COUNTY RD 17</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>Public Notice Period: Ended 2021/06/15</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://sparklecannabis.ca/shop-burlington</t>
+          <t>http://www.highties.ca/</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2262,16 +2192,16 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>7k8k4j6WKL3edhgdE</t>
+          <t>61b6860aecc71e00998e8a4c</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>19056343033</v>
+        <v>16136731313</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2286,17 +2216,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ETOBICOKE</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Spiritleaf</t>
+          <t>AMBROSIA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>900 ALBION RD UNIT C24/C25</t>
+          <t>1605 QUEEN ST W UNIT 1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2306,7 +2236,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://spiritleaf.ca/collections/spiritleaf-rexdale</t>
+          <t>http://www.ambrosiacannabis.ca/</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2316,28 +2246,26 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>642b2d4592bde2000f7a4648</t>
+          <t>602fde0105211900d5c0fd0e</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>14167416988</v>
+        <v>14165193487</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="b">
-        <v>1</v>
-      </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2347,12 +2275,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>The Hunny Pot Cannabis Co.</t>
+          <t>Insalata</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>202 QUEEN ST W</t>
+          <t>1331 ST CLAIR AVE W</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2362,7 +2290,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://thehunnypot.com/downtown-toronto-cannabis-menu/</t>
+          <t>http://www.insalatamarket.com/</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2372,16 +2300,16 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>iWuTC5A7S33baJjvR</t>
+          <t>5e7400ed8dc5960077ea1a59</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>16475984044</v>
+        <v>16474794240</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2396,17 +2324,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>OTTAWA</t>
+          <t>KESWICK</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Buzzed Buds</t>
+          <t>Levicann</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>179 GEORGE ST UNIT 101</t>
+          <t>488 THE QUEENSWAY S</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2416,7 +2344,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://www.buzzedbuds.co/</t>
+          <t>http://www.levicann.com/shop-keswick/</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2426,20 +2354,20 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>NqnNjmJkkCXMrHWjw</t>
+          <t>6266bc39c7fa73008d2bf11c</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>16136633253</v>
+        <v>19056865558</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2447,6 +2375,870 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
     </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>PETERBOROUGH</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SPARQ RETAIL</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>340 CHARLOTTE ST</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>http://www.sparqretail.ca/</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>5f072e155584c1011bac2c53</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>17057491833</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>BEAMSVILLE</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>T CANNABIS</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>4322 ONTARIO STREET UNIT 3</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>http://www.tcann.ca/</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>5eb9e4463836aa00b88a6251</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>19055635255</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>COCHRANE</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>T CANNABIS NW - Cochrane</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>143 FOURTH ST W</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>http://www.tcann.ca/</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>60da566de735ef00bcb2c8f1</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>17059132339</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>FORT FRANCES</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T CANNABIS </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>130 SECOND ST E UNIT 2</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>http://www.tcann.ca/</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>6022bdd8b61c4d00c787981c</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>18072742222</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>KIRKLAND LAKE</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>T CANNABIS NW - Kirkland Lake</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>59 GOVERNMENT RD W</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>http://www.tcann.ca/</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>60da569417dfe2009d363270</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>17054626626</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>NEW LISKEARD</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>T CANNABIS</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>9 ARMSTRONG ST N</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>http://www.tcann.ca/</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>604fe19833c51e00b841d38d</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>17056288828</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>SIOUX LOOKOUT</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>T CANNABIS NW</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>37 FRONT ST</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>http://www.tcann.ca/</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>635fcd3a60823d00b26a25d7</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>18072742222</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>SARNIA</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>The We Store</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>450 TRUDEAU DR UNIT 7/8</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>http://www.thewestore.com/</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>614ba1c7b4849f5565ec9a4b</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>12267847719</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>OTTAWA</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>BLUEBIRD CANNABIS CO. CLARENCE STREET</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>121 CLARENCE ST</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://bluebirdcannabis.store/byward/</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>fjySu4BPYqScFCR2t</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>16136950777</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>NORTH YORK</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke 1819 Avenue</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1819 AVENUE RD</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/dispensary/Tokyo-Smoke-1819-Avenue-Rd</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>225fde9c7b97573b00c2b7b82e</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>16473451819</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke 333 Yonge</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>333 YONGE ST</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/dispensary/tokyo-smoke-333-yonge</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>xifehQAT5xMwJRjbb</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>14164773618</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>LONDON</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>TWEED</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1025 WELLINGTON ROAD, UNIT A-2</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tweed-london</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>iiYZCAo5b7g7Ntd3R</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>12266674999</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>BURLINGTON</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Sparkle Cannabis Company</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>730 GUELPH LINE UNIT 1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://sparklecannabis.ca/shop-burlington</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>7k8k4j6WKL3edhgdE</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>19056343033</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ETOBICOKE</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Spiritleaf</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>900 ALBION RD UNIT C24/C25</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://spiritleaf.ca/collections/spiritleaf-rexdale</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>642b2d4592bde2000f7a4648</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>14167416988</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>The Hunny Pot Cannabis Co.</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>202 QUEEN ST W</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://thehunnypot.com/downtown-toronto-cannabis-menu/</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>iWuTC5A7S33baJjvR</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>16475984044</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>OTTAWA</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Buzzed Buds</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>179 GEORGE ST UNIT 101</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://www.buzzedbuds.co/</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>NqnNjmJkkCXMrHWjw</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>16136633253</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -553,7 +553,7 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="b">
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -605,7 +605,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="b">
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -657,7 +657,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="b">
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -709,7 +709,7 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="b">
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -761,7 +761,7 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="b">
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -813,7 +813,7 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="b">
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,7 +867,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="b">
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -919,7 +919,7 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="b">
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -971,7 +971,7 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="b">
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="b">
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="b">
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="b">
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="b">
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="b">
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="b">
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="b">
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="b">
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="b">
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="b">
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1547,7 +1547,7 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="b">
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,7 +1603,7 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="b">
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1659,7 +1659,7 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="b">
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1715,7 +1715,7 @@
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="b">
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="b">
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1827,24 +1827,24 @@
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="b">
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>NORTH YORK</t>
+          <t>HAMILTON</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FOGTOWN FLOWER</t>
+          <t>AFFX CANNABIS</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4687 YONGE ST</t>
+          <t>263 UPPER CENTENNIAL PKY UNIT 3</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>http://fogtown.ca/</t>
+          <t>http://affxcannabis.ca/</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1864,16 +1864,16 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve">613fd98e2e64f800c74add5f </t>
+          <t>65046f0bbece03000927b021</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>16478128873</v>
+        <v>19056626777</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1883,22 +1883,24 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HAMILTON</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AFFX CANNABIS</t>
+          <t>Caribbean Oxygen</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>263 UPPER CENTENNIAL PKY UNIT 3</t>
+          <t>124 MAIN ST</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1908,7 +1910,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>http://affxcannabis.ca/</t>
+          <t>http://www.caribbeanoxygen.com/</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1918,16 +1920,16 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>65046f0bbece03000927b021</t>
+          <t>5fc6b18731d99d00f606cb03</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>19056626777</v>
+        <v>15192672225</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1937,34 +1939,34 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="b">
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>PLANTAGENET</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Body and Spirit Cannabis</t>
+          <t>Cannabis Connect</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>361 YONGE ST</t>
+          <t>5787 COUNTY RD 17</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>Public Notice Period: Ended 2021/06/15</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://bodyandspiritcannabis.com/</t>
+          <t>http://www.highties.ca/</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1974,16 +1976,16 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>5e45c5d96a6aef00702ed11f</t>
+          <t>61b6860aecc71e00998e8a4c</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>16478125989</v>
+        <v>16136731313</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1993,24 +1995,22 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="b">
-        <v>1</v>
-      </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>KESWICK</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>The House of Cannabis - Keswick</t>
+          <t>AMBROSIA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1 CHURCH ST SUITE 9</t>
+          <t>1605 QUEEN ST W UNIT 1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2020,7 +2020,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>http://thehousecannabis.ca/</t>
+          <t>http://www.ambrosiacannabis.ca/</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2261116815efa0af00a9068d41</t>
+          <t>602fde0105211900d5c0fd0e</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2039,7 +2039,7 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>12898039462</v>
+        <v>14165193487</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2054,17 +2054,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BRAMPTON</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Bodega Boyz</t>
+          <t>Insalata</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>69 BRAMALEA RD SUITE 3</t>
+          <t>1331 ST CLAIR AVE W</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>http://www.bodegaboyz.ca/</t>
+          <t>http://www.insalatamarket.com/</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2084,20 +2084,20 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>61d38e4ca8388a008cb50d87</t>
+          <t>5e7400ed8dc5960077ea1a59</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['In-store shopping']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>19054580439</v>
+        <v>16474794240</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2108,17 +2108,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CAMBRIDGE</t>
+          <t>KESWICK</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Caribbean Oxygen</t>
+          <t>Levicann</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>124 MAIN ST</t>
+          <t>488 THE QUEENSWAY S</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>http://www.caribbeanoxygen.com/</t>
+          <t>http://www.levicann.com/shop-keswick/</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2138,20 +2138,20 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>5fc6b18731d99d00f606cb03</t>
+          <t>6266bc39c7fa73008d2bf11c</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>15192672225</v>
+        <v>19056865558</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2162,27 +2162,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PLANTAGENET</t>
+          <t>PETERBOROUGH</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Cannabis Connect</t>
+          <t>SPARQ RETAIL</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>5787 COUNTY RD 17</t>
+          <t>340 CHARLOTTE ST</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Public Notice Period: Ended 2021/06/15</t>
+          <t>Authorized to Open</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>http://www.highties.ca/</t>
+          <t>http://www.sparqretail.ca/</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2192,20 +2192,20 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>61b6860aecc71e00998e8a4c</t>
+          <t>5f072e155584c1011bac2c53</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>16136731313</v>
+        <v>17057491833</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2216,17 +2216,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>BEAMSVILLE</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AMBROSIA</t>
+          <t>T CANNABIS</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1605 QUEEN ST W UNIT 1</t>
+          <t>4322 ONTARIO STREET UNIT 3</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2236,7 +2236,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>http://www.ambrosiacannabis.ca/</t>
+          <t>http://www.tcann.ca/</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2246,16 +2246,16 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>602fde0105211900d5c0fd0e</t>
+          <t>5eb9e4463836aa00b88a6251</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>14165193487</v>
+        <v>19055635255</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2270,17 +2270,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>COCHRANE</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Insalata</t>
+          <t>T CANNABIS NW - Cochrane</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1331 ST CLAIR AVE W</t>
+          <t>143 FOURTH ST W</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>http://www.insalatamarket.com/</t>
+          <t>http://www.tcann.ca/</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2300,20 +2300,20 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>5e7400ed8dc5960077ea1a59</t>
+          <t>60da566de735ef00bcb2c8f1</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>16474794240</v>
+        <v>17059132339</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2324,17 +2324,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>KESWICK</t>
+          <t>FORT FRANCES</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Levicann</t>
+          <t xml:space="preserve">T CANNABIS </t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>488 THE QUEENSWAY S</t>
+          <t>130 SECOND ST E UNIT 2</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>http://www.levicann.com/shop-keswick/</t>
+          <t>http://www.tcann.ca/</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2354,20 +2354,20 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>6266bc39c7fa73008d2bf11c</t>
+          <t>6022bdd8b61c4d00c787981c</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>19056865558</v>
+        <v>18072742222</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2378,17 +2378,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PETERBOROUGH</t>
+          <t>KIRKLAND LAKE</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SPARQ RETAIL</t>
+          <t>T CANNABIS NW - Kirkland Lake</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>340 CHARLOTTE ST</t>
+          <t>59 GOVERNMENT RD W</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>http://www.sparqretail.ca/</t>
+          <t>http://www.tcann.ca/</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2408,20 +2408,20 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>5f072e155584c1011bac2c53</t>
+          <t>60da569417dfe2009d363270</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>17057491833</v>
+        <v>17054626626</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2432,7 +2432,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BEAMSVILLE</t>
+          <t>NEW LISKEARD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>4322 ONTARIO STREET UNIT 3</t>
+          <t>9 ARMSTRONG ST N</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2462,16 +2462,16 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>5eb9e4463836aa00b88a6251</t>
+          <t>604fe19833c51e00b841d38d</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>19055635255</v>
+        <v>17056288828</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2486,17 +2486,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>COCHRANE</t>
+          <t>SIOUX LOOKOUT</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>T CANNABIS NW - Cochrane</t>
+          <t>T CANNABIS NW</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>143 FOURTH ST W</t>
+          <t>37 FRONT ST</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2516,20 +2516,20 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>60da566de735ef00bcb2c8f1</t>
+          <t>635fcd3a60823d00b26a25d7</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>17059132339</v>
+        <v>18072742222</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2540,17 +2540,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>FORT FRANCES</t>
+          <t>SARNIA</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">T CANNABIS </t>
+          <t>The We Store</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>130 SECOND ST E UNIT 2</t>
+          <t>450 TRUDEAU DR UNIT 7/8</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>http://www.tcann.ca/</t>
+          <t>http://www.thewestore.com/</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>6022bdd8b61c4d00c787981c</t>
+          <t>614ba1c7b4849f5565ec9a4b</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2579,7 +2579,7 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>18072742222</v>
+        <v>12267847719</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2594,17 +2594,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>KIRKLAND LAKE</t>
+          <t>OTTAWA</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>T CANNABIS NW - Kirkland Lake</t>
+          <t>BLUEBIRD CANNABIS CO. CLARENCE STREET</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>59 GOVERNMENT RD W</t>
+          <t>121 CLARENCE ST</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2614,7 +2614,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>http://www.tcann.ca/</t>
+          <t>https://bluebirdcannabis.store/byward/</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2624,20 +2624,20 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>60da569417dfe2009d363270</t>
+          <t>fjySu4BPYqScFCR2t</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>17054626626</v>
+        <v>16136950777</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2648,17 +2648,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>NEW LISKEARD</t>
+          <t>NORTH YORK</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>T CANNABIS</t>
+          <t>Tokyo Smoke 1819 Avenue</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>9 ARMSTRONG ST N</t>
+          <t>1819 AVENUE RD</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>http://www.tcann.ca/</t>
+          <t>https://dutchie.com/dispensary/Tokyo-Smoke-1819-Avenue-Rd</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>604fe19833c51e00b841d38d</t>
+          <t>225fde9c7b97573b00c2b7b82e</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>17056288828</v>
+        <v>16473451819</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2702,17 +2702,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SIOUX LOOKOUT</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>T CANNABIS NW</t>
+          <t>Tokyo Smoke 333 Yonge</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>37 FRONT ST</t>
+          <t>333 YONGE ST</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>http://www.tcann.ca/</t>
+          <t>https://dutchie.com/dispensary/tokyo-smoke-333-yonge</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2732,16 +2732,16 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>635fcd3a60823d00b26a25d7</t>
+          <t>xifehQAT5xMwJRjbb</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>18072742222</v>
+        <v>14164773618</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2756,17 +2756,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SARNIA</t>
+          <t>LONDON</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>The We Store</t>
+          <t>TWEED</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>450 TRUDEAU DR UNIT 7/8</t>
+          <t>1025 WELLINGTON ROAD, UNIT A-2</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>http://www.thewestore.com/</t>
+          <t>https://dutchie.com/stores/tweed-london</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>614ba1c7b4849f5565ec9a4b</t>
+          <t>iiYZCAo5b7g7Ntd3R</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2795,7 +2795,7 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>12267847719</v>
+        <v>12266674999</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2810,17 +2810,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>OTTAWA</t>
+          <t>BURLINGTON</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BLUEBIRD CANNABIS CO. CLARENCE STREET</t>
+          <t>Sparkle Cannabis Company</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>121 CLARENCE ST</t>
+          <t>730 GUELPH LINE UNIT 1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://bluebirdcannabis.store/byward/</t>
+          <t>https://sparklecannabis.ca/shop-burlington</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2840,20 +2840,20 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>fjySu4BPYqScFCR2t</t>
+          <t>7k8k4j6WKL3edhgdE</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>16136950777</v>
+        <v>19056343033</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -2864,17 +2864,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>NORTH YORK</t>
+          <t>ETOBICOKE</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Tokyo Smoke 1819 Avenue</t>
+          <t>Spiritleaf</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1819 AVENUE RD</t>
+          <t>900 ALBION RD UNIT C24/C25</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://dutchie.com/dispensary/Tokyo-Smoke-1819-Avenue-Rd</t>
+          <t>https://spiritleaf.ca/collections/spiritleaf-rexdale</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2894,20 +2894,20 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>225fde9c7b97573b00c2b7b82e</t>
+          <t>642b2d4592bde2000f7a4648</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>16473451819</v>
+        <v>14167416988</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -2923,12 +2923,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Tokyo Smoke 333 Yonge</t>
+          <t>The Hunny Pot Cannabis Co.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>333 YONGE ST</t>
+          <t>202 QUEEN ST W</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://dutchie.com/dispensary/tokyo-smoke-333-yonge</t>
+          <t>https://thehunnypot.com/downtown-toronto-cannabis-menu/</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2948,16 +2948,16 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>xifehQAT5xMwJRjbb</t>
+          <t>iWuTC5A7S33baJjvR</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>14164773618</v>
+        <v>16475984044</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2972,17 +2972,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>LONDON</t>
+          <t>OTTAWA</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TWEED</t>
+          <t>Buzzed Buds</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1025 WELLINGTON ROAD, UNIT A-2</t>
+          <t>179 GEORGE ST UNIT 101</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://dutchie.com/stores/tweed-london</t>
+          <t>https://www.buzzedbuds.co/</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3002,16 +3002,16 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>iiYZCAo5b7g7Ntd3R</t>
+          <t>NqnNjmJkkCXMrHWjw</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>12266674999</v>
+        <v>16136633253</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3026,17 +3026,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BURLINGTON</t>
+          <t>NORTH YORK</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Sparkle Cannabis Company</t>
+          <t>FOGTOWN FLOWER</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>730 GUELPH LINE UNIT 1</t>
+          <t>4687 YONGE ST</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://sparklecannabis.ca/shop-burlington</t>
+          <t>http://fogtown.ca/</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3056,20 +3056,20 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>7k8k4j6WKL3edhgdE</t>
+          <t xml:space="preserve">613fd98e2e64f800c74add5f </t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>19056343033</v>
+        <v>16478128873</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -3080,17 +3080,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ETOBICOKE</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Spiritleaf</t>
+          <t>Body and Spirit Cannabis</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>900 ALBION RD UNIT C24/C25</t>
+          <t>361 YONGE ST</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://spiritleaf.ca/collections/spiritleaf-rexdale</t>
+          <t>https://bodyandspiritcannabis.com/</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3110,16 +3110,16 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>642b2d4592bde2000f7a4648</t>
+          <t>5e45c5d96a6aef00702ed11f</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>14167416988</v>
+        <v>16478125989</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -3134,17 +3134,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>KESWICK</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>The Hunny Pot Cannabis Co.</t>
+          <t>The House of Cannabis - Keswick</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>202 QUEEN ST W</t>
+          <t>1 CHURCH ST SUITE 9</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3154,7 +3154,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://thehunnypot.com/downtown-toronto-cannabis-menu/</t>
+          <t>http://thehousecannabis.ca/</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3164,7 +3164,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>iWuTC5A7S33baJjvR</t>
+          <t>2261116815efa0af00a9068d41</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3173,7 +3173,7 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>16475984044</v>
+        <v>12898039462</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -3188,17 +3188,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>OTTAWA</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Buzzed Buds</t>
+          <t>Bodega Boyz</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>179 GEORGE ST UNIT 101</t>
+          <t>69 BRAMALEA RD SUITE 3</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://www.buzzedbuds.co/</t>
+          <t>http://www.bodegaboyz.ca/</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3218,20 +3218,20 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>NqnNjmJkkCXMrHWjw</t>
+          <t>61d38e4ca8388a008cb50d87</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store shopping']</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>16136633253</v>
+        <v>19054580439</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -1995,7 +1995,9 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
+      <c r="N29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2049,7 +2051,9 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2103,7 +2107,9 @@
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2157,7 +2163,9 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+      <c r="N32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2211,7 +2219,9 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+      <c r="N33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2265,7 +2275,9 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
+      <c r="N34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2319,7 +2331,9 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
+      <c r="N35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2373,7 +2387,9 @@
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2427,7 +2443,9 @@
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
+      <c r="N37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2481,7 +2499,9 @@
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
+      <c r="N38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2535,7 +2555,9 @@
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
+      <c r="N39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2589,7 +2611,9 @@
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2913,7 +2937,9 @@
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
+      <c r="N46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3129,7 +3155,9 @@
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
+      <c r="N50" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,17 +508,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HAGERSVILLE</t>
+          <t>LONDON</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The Underground</t>
+          <t>Area 420</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11 MAIN STREET NORTH UNIT 9</t>
+          <t>226 DUNDAS ST</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -528,22 +528,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.theunderground.store/cannabis-shop-hagersville-ontario?store_id=7383#/menu</t>
+          <t>https://area420.ca/shop/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Buddi</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping', 'Delivery']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>15052469455</v>
+        <v>14165709722</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -553,24 +553,24 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="N2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>KESWICK</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lockstock. Cannabis</t>
+          <t>Levicann</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8 GLADSTONE AVE UNIT 1B</t>
+          <t>488 THE QUEENSWAY S</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -580,49 +580,53 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>http://lockstockcannabis.com/</t>
+          <t>http://www.levicann.com/shop-keswick/</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Page doesn't exist</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6266bc39c7fa73008d2bf11c</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>16473950883</v>
+        <v>19056865558</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['No delivery / Permanently closed']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="N3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>THUNDER BAY</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kia Ora Kannabis</t>
+          <t>The Nug Co</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1111 VICTORIA AVE E</t>
+          <t>1213 DUNDAS ST W</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -632,49 +636,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>http://www.kiaorakannabis.com/</t>
+          <t>http://thenugco.ca/</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Page doesn't exist</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>18076296987</v>
+        <v>16473687127</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['No delivery / Permanently closed']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="N4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>THUNDER BAY</t>
+          <t>NORTH BAY</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kia Ora Kannabis</t>
+          <t>Northern Zen Cannabis</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>236 RED RIVER RD</t>
+          <t>76 OSPREY MIIKAN RD</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -684,49 +688,53 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>http://www.kiaorakannabis.com/</t>
+          <t>http://www.northernzencannabis.ca/</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Page doesn't exist</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5ec2f8efe850e1015890a7f3</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>18076296735</v>
+        <v>17058400101</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['No delivery / Permanently closed']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="N5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PEMBROKE</t>
+          <t>EAST YORK</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kushys</t>
+          <t>NULEEF CANNABIS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>100 PEMBROKE ST E SUITE A</t>
+          <t>86 LAIRD DR</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -736,22 +744,26 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://kushyscannabis.com/pembroke/#/menu</t>
+          <t>http://www.nuleef.ca/</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Buddi</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6185967b96f26a007b88108b</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>16137359278</v>
+        <v>14164299333</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -761,24 +773,24 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="N6" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RAMARA</t>
+          <t>TWEED</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Longbottom Leaf</t>
+          <t>OLYMPIA CANNABIS TWEED (O/C TWEED)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2267 HIGHWAY 12</t>
+          <t>233 VICTORIA ST N UNIT 1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -788,22 +800,26 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>http://www.longbottomleaf.ca/</t>
+          <t>http://www.olympiacannabis.ca/</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Custom</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>61eafd3db150740085dd5336</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>17055059509</v>
+        <v>16134784848</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -813,51 +829,55 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
-        <v>1</v>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LUCKNOW</t>
+          <t>WESTPORT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Budzrus Lucknow</t>
+          <t>Olympia Cannabis Westport (OC Westport)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>638 CAMPBELL ST</t>
+          <t>17 CHURCH STREET UNIT 1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Public Notice Period: Ended 2024/01/11</t>
+          <t>Authorized to Open</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>http://www.lucknow.nic.in/</t>
+          <t>http://www.olympiacannabis.ca/</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Page doesn't exist</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>61eafd868525b6008cb3ca6f</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>['doesn't exist']</t>
-        </is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>16132734848</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -867,24 +887,24 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="N8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BEETON</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NORTHERN BUDZZ</t>
+          <t>Value Buds</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>29 MAIN ST W UNIT 700 &amp; 800</t>
+          <t>150 HOLIDAY INN DR UNIT 111</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -894,22 +914,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://northernbudzz.com/online-store/#/menu</t>
+          <t>http://www.on.valuebuds.com/</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Buddi</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>19057482010</v>
+        <v>15196019873</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -919,24 +939,24 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="N9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AURORA</t>
+          <t>WINDSOR</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MALIBU ROAD</t>
+          <t>Value Buds</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>150 HOLLIDGE BLVD UNIT 5</t>
+          <t>1916 WYANDOTTE ST W</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -946,22 +966,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>http://www.maliburoad.shop/</t>
+          <t>http://www.on.valuebuds.com/</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tendy</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>19055037467</v>
+        <v>15199718447</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -971,24 +991,24 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="N10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PETERBOROUGH</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mellow Leaf</t>
+          <t>ONE PLANT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>724 LANSDOWNE ST W</t>
+          <t>1232 BROOKDALE AVE UNIT B</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -998,49 +1018,49 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>http://www.mellowleaf.ca/</t>
+          <t>http://www.oneplant.ca/locations/cornwall</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Page doesn't exist</t>
+          <t>Custom</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>17057433999</v>
+        <v>16139354305</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['No delivery / Permanently closed']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="N11" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>GRAND BEND</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MEXICANNABIS</t>
+          <t>True North Cannabis</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>73 COXWELL AVE</t>
+          <t>31 ONTARIO ST N UNIT 2 &amp; 3</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1050,22 +1070,26 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>http://www.mexicannabis.ca/</t>
+          <t>http://www.ontario.ca/</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Buddi</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>60c239068448c400bbfe24c4</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'Same-day delivery', 'No delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>14166578983</v>
+        <v>15199534309</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1075,24 +1099,24 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="N12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GODERICH</t>
+          <t>NIAGARA FALLS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Miss Jones</t>
+          <t>ON THE RIDGE CO. CANNABIS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>397 BAYFIELD ROAD</t>
+          <t>5440 STANLEY AVE UNIT 2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1102,22 +1126,22 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>http://www.missjonescannabis.com/</t>
+          <t>http://www.ontheridgeco.com/</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Budler</t>
+          <t>Techpos</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>12264556595</v>
+        <v>12892967177</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1127,24 +1151,24 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="N13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LONDON</t>
+          <t>GLOUCESTER</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Miss Jones</t>
+          <t>OUT &amp; ABOUT CANNABIS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>765 EXETER RD UNIT C64</t>
+          <t>665 EARL ARMSTRONG RD UNIT 8</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1154,22 +1178,26 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>http://www.missjonescannabis.com/</t>
+          <t>http://www.outabout.ca/</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Budler</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>5fe10d8ce3ff3a19ed754d45</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>12266676033</v>
+        <v>16134256000</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1179,24 +1207,24 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="N14" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>NORTH YORK</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Miss Jones</t>
+          <t xml:space="preserve">Paradise AIR </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>315 KING ST W</t>
+          <t>650 SHEPPARD AVE E UNIT 7</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1206,49 +1234,53 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>http://www.missjonescannabis.com/</t>
+          <t>http://www.paradiseair.ca/</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Budler</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>605b9e66b18cfc00dedb3f3b</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>16475470383</v>
+        <v>14162288889</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['No delivery / Permanently closed']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="N15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>WELLAND</t>
+          <t>COBOURG</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Miss Jones</t>
+          <t xml:space="preserve">The Peace Pipe </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>300 LINCOLN ST UNIT 13</t>
+          <t>1 KING ST E UNIT 1A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1258,22 +1290,26 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>http://www.missjonescannabis.com/</t>
+          <t>http://www.peacepipe420.com/</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Budler</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>5fd79b0645d85a00eb9b5987</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
           <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>12899740162</v>
+        <v>19053723511</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1283,24 +1319,24 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="N16" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BURLINGTON</t>
+          <t>PETERBOROUGH</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mont Kailash Cannabis</t>
+          <t>The Peace Pipe</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1220 BRANT ST UNIT 3B</t>
+          <t>408 GEORGE ST N</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1310,22 +1346,26 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>http://www.montkailash.ca/</t>
+          <t>http://www.peacepipe420.com/</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Custom</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>5fd7991b627fbd00ede655ca</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pick-up', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>12893134713</v>
+        <v>17057412111</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1335,24 +1375,24 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="N17" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ETOBICOKE</t>
+          <t>OSHAWA</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MOONROCK CANNABIS</t>
+          <t>Phoenix Cannabis</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2324 LAKE SHORE BLVD W UNIT 3</t>
+          <t>12 SIMCOE ST S</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1362,49 +1402,49 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>http://www.moonrockcannabis.ca/</t>
+          <t>http://www.phoenixcannabis.ca/</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Page doesn't exist</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>14165039333</v>
+        <v>12892400997</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['No delivery / Permanently closed']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="N18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>WATERLOO</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mota Toke</t>
+          <t>Phoenix Cannabis</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>249 GREENWOOD AVE</t>
+          <t>288 ALBERT ST UNIT 101</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1414,64 +1454,68 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>http://www.motatoke.com/</t>
+          <t>http://www.phoenixcannabis.ca/</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Page doesn't exist</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>6331e416b2ed1600f2b07b25</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>14164663113</v>
+        <v>12266470966</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['No delivery / Temprorary closed']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="N19" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>WINGHAM</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Naturally Bongins </t>
+          <t>Superette</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>11 VETERANS ROAD, UNIT B</t>
+          <t>83 PORTLAND ST</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>In Progress</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>http://www.naturallybongins.ca/</t>
+          <t>http://www.portlandonline.com/</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Page doesn't exist</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1480,8 +1524,10 @@
           <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
-      <c r="I20" t="n">
-        <v>19052260420</v>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1491,24 +1537,24 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="N20" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NORTHYORK</t>
+          <t>NIAGARA FALLS</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Moksha Cannabis</t>
+          <t>POT SPOT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4720 JANE ST UNIT 6</t>
+          <t>5365 FERRY ST UNIT 2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1518,26 +1564,22 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>http://www.mokshacannabis.ca/</t>
+          <t>http://www.potspot.online/</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>6075a537ed169800dac59099</t>
-        </is>
-      </c>
+          <t>Tymber</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>14166610550</v>
+        <v>12892967768</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1547,24 +1589,24 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="N21" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AURORA</t>
+          <t>STOUFFVILLE</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nature's Haze</t>
+          <t>Princess Buds</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15570 YONGE ST UNIT 8</t>
+          <t>6380 MAIN ST UNIT 9</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1574,26 +1616,22 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>http://www.natureshaze.com/</t>
+          <t>http://www.princessbuds.ca/</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>5f15ee080f514c00f7e7fe73</t>
-        </is>
-      </c>
+          <t>Tymber</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>19057130606</v>
+        <v>13655520341</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1603,24 +1641,24 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="N22" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>GLOUCESTER</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Levicann</t>
+          <t>Purple Meadow Cannabis</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>393 EGLINTON AVE E</t>
+          <t>2059 MEADOWBROOK RD</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1630,7 +1668,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>http://www.levicann.com/shop</t>
+          <t>http://www.purplemeadow.ca/</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1640,53 +1678,53 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>60da1ee77c4966741f671139</t>
+          <t>606df11e89f0224278fb8e7a</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>14163622420</v>
+        <v>16138429333</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="N23" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NORTH BAY</t>
+          <t>OTTAWA</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Golden Harvest</t>
+          <t>Purple Meadow Cannabis</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1 JOCKO POINT RD</t>
+          <t>366 RIDEAU ST</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>In Progress</t>
+          <t>Authorized to Open</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://golden-harvest.ca/menu/</t>
+          <t>http://www.purplemeadow.ca/</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1696,7 +1734,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>62fd3fc40b5b0900accd8a50</t>
+          <t>6155c8d2f10ee500b8970ada</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1705,34 +1743,34 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>7059801444</v>
+        <v>16138609333</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="N24" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PENETANGUISHENE</t>
+          <t>OTTAWA</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Speakeasy Cannabis</t>
+          <t xml:space="preserve">Purple Meadow Cannabis </t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>68 MAIN STREET, UNIT 1</t>
+          <t>2430 BANK ST UNIT 6</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1742,7 +1780,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://dutchie.com/dispensary/speakeasy-penetang</t>
+          <t>http://www.purplemeadow.ca/</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1752,53 +1790,53 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>60db5f6cfaea563a41c9c1f2</t>
+          <t>61bbc71f8f6d5d00a7828e71</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>17055492323</v>
+        <v>16137367667</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="N25" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>WINDSOR</t>
+          <t xml:space="preserve">SCARBOROUGH </t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>URBNBUD</t>
+          <t>Cannabis Place</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>3838 MCGREGOR BLVD</t>
+          <t>653 VICTORIA PARK AVE</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Public Notice Period: Ended 2023/02/15</t>
+          <t>Authorized to Open</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.urbnbud.com/shop-south-windsor/</t>
+          <t>http://www.rainbowcannabisplace.com/</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1808,43 +1846,43 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>657366ba62ee120009a8da69</t>
+          <t>6058c29312647d00b3c7b5d0</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2266641157</v>
+        <v>14169011420</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="N26" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HAMILTON</t>
+          <t>RAMA</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AFFX CANNABIS</t>
+          <t>Rama Cannabis</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>263 UPPER CENTENNIAL PKY UNIT 3</t>
+          <t>5988 RAMA RD</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1854,7 +1892,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>http://affxcannabis.ca/</t>
+          <t>http://www.ramacannabis.ca/</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1864,43 +1902,43 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>65046f0bbece03000927b021</t>
+          <t>5e7a2aa20c9a0100a0bda523</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>19056626777</v>
+        <v>17053260960</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="N27" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CAMBRIDGE</t>
+          <t>GLOUCESTER</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Caribbean Oxygen</t>
+          <t>RIDGEBURN</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>124 MAIN ST</t>
+          <t>1638 CYRVILLE RD SUITE 6A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1910,7 +1948,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>http://www.caribbeanoxygen.com/</t>
+          <t>http://www.ridgeburn.com/</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1920,82 +1958,78 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>5fc6b18731d99d00f606cb03</t>
+          <t>5fea4f7191e48b00f1167ab7</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>15192672225</v>
+        <v>16134259502</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="N28" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PLANTAGENET</t>
+          <t>SIMCOE</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Cannabis Connect</t>
+          <t xml:space="preserve">Rolling Cannabis </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>5787 COUNTY RD 17</t>
+          <t>6 VICTORIA ST</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Public Notice Period: Ended 2021/06/15</t>
+          <t>Authorized to Open</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>http://www.highties.ca/</t>
+          <t>http://www.rollingcannabis.co/</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>61b6860aecc71e00998e8a4c</t>
-        </is>
-      </c>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store shopping']</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>16136731313</v>
+        <v>12262064420</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="N29" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2007,12 +2041,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AMBROSIA</t>
+          <t>Rosebud Cannabis</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1605 QUEEN ST W UNIT 1</t>
+          <t>365 KING ST W BASEMENT</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2022,7 +2056,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>http://www.ambrosiacannabis.ca/</t>
+          <t>http://www.rosebudcannabis.ca/</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2032,43 +2066,43 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>602fde0105211900d5c0fd0e</t>
+          <t>5ff28fd701411a00d4059773</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Kerbside pickup', 'In-store pick-up', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>14165193487</v>
+        <v>14167673283</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="N30" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>KIRKLAND LAKE</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Insalata</t>
+          <t>Rozbudz</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1331 ST CLAIR AVE W</t>
+          <t>54 GOVERNMENT RD W UNIT A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2078,53 +2112,49 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>http://www.insalatamarket.com/</t>
+          <t>http://www.rozbudz.com/</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>5e7400ed8dc5960077ea1a59</t>
-        </is>
-      </c>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>16474794240</v>
+        <v>17054622220</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="N31" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>KESWICK</t>
+          <t>EAST YORK</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Levicann</t>
+          <t>Sensations Cannabis</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>488 THE QUEENSWAY S</t>
+          <t>1391 O'CONNOR DR</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2134,53 +2164,49 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>http://www.levicann.com/shop-keswick/</t>
+          <t>http://www.sensationscannabis.com/</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>6266bc39c7fa73008d2bf11c</t>
-        </is>
-      </c>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>19056865558</v>
+        <v>14169007624</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="N32" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PETERBOROUGH</t>
+          <t>GANANOQUE</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SPARQ RETAIL</t>
+          <t>Shinybud Cannabis Co. Gananoque</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>340 CHARLOTTE ST</t>
+          <t>191 KING ST E</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2190,53 +2216,49 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>http://www.sparqretail.ca/</t>
+          <t>https://www.shinybud.com/gananoque/</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>5f072e155584c1011bac2c53</t>
-        </is>
-      </c>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>17057491833</v>
+        <v>16138658700</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery / Temprorary closed']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="N33" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BEAMSVILLE</t>
+          <t>MORRISBURG</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>T CANNABIS</t>
+          <t>ShinyBud Cannabis Co. 12467 Morrisburg</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4322 ONTARIO STREET UNIT 3</t>
+          <t>12467 COUNTY RD 2, UNIT B</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2246,53 +2268,49 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>http://www.tcann.ca/</t>
+          <t>https://www.shinybud.com/morrisburg/#/</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>5eb9e4463836aa00b88a6251</t>
-        </is>
-      </c>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>19055635255</v>
+        <v>16136432467</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="N34" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>COCHRANE</t>
+          <t>PERTH</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>T CANNABIS NW - Cochrane</t>
+          <t>SHINYBUD CANNABIS CO. 80 DUFFERIN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>143 FOURTH ST W</t>
+          <t>80 DUFFERIN ST UNIT 100</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2302,53 +2320,49 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>http://www.tcann.ca/</t>
+          <t>http://www.shinybud.com/</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>60da566de735ef00bcb2c8f1</t>
-        </is>
-      </c>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>17059132339</v>
+        <v>16134660752</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No delivery / Permanently closed']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="N35" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>FORT FRANCES</t>
+          <t>ARNPRIOR</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">T CANNABIS </t>
+          <t>SHINYBUD CANNABIS CO. 39 ARNPRIOR</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>130 SECOND ST E UNIT 2</t>
+          <t>39 WINNER'S CIRCLE DR UNIT 9</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2358,914 +2372,34 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>http://www.tcann.ca/</t>
+          <t>http://www.shinybud.com/arnprior</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>6022bdd8b61c4d00c787981c</t>
-        </is>
-      </c>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>18072742222</v>
+        <v>16136223039</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery / Permanently closed']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>KIRKLAND LAKE</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>T CANNABIS NW - Kirkland Lake</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>59 GOVERNMENT RD W</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>http://www.tcann.ca/</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>60da569417dfe2009d363270</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
-        <v>17054626626</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>['Delivery']</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>NEW LISKEARD</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>T CANNABIS</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>9 ARMSTRONG ST N</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>http://www.tcann.ca/</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>604fe19833c51e00b841d38d</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
-        <v>17056288828</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>['Delivery', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>SIOUX LOOKOUT</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>T CANNABIS NW</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>37 FRONT ST</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>http://www.tcann.ca/</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>635fcd3a60823d00b26a25d7</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>18072742222</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>['Delivery', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>SARNIA</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>The We Store</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>450 TRUDEAU DR UNIT 7/8</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>http://www.thewestore.com/</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>614ba1c7b4849f5565ec9a4b</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>12267847719</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>['Delivery', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>OTTAWA</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>BLUEBIRD CANNABIS CO. CLARENCE STREET</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>121 CLARENCE ST</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>https://bluebirdcannabis.store/byward/</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>fjySu4BPYqScFCR2t</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>16136950777</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>['Delivery', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>NORTH YORK</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Tokyo Smoke 1819 Avenue</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>1819 AVENUE RD</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>https://dutchie.com/dispensary/Tokyo-Smoke-1819-Avenue-Rd</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>225fde9c7b97573b00c2b7b82e</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>16473451819</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>['Delivery', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>TORONTO</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Tokyo Smoke 333 Yonge</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>333 YONGE ST</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>https://dutchie.com/dispensary/tokyo-smoke-333-yonge</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>xifehQAT5xMwJRjbb</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>14164773618</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>['Delivery', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>LONDON</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>TWEED</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>1025 WELLINGTON ROAD, UNIT A-2</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>https://dutchie.com/stores/tweed-london</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>iiYZCAo5b7g7Ntd3R</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>12266674999</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>['Delivery', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>BURLINGTON</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Sparkle Cannabis Company</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>730 GUELPH LINE UNIT 1</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>https://sparklecannabis.ca/shop-burlington</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>7k8k4j6WKL3edhgdE</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>19056343033</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>['Delivery']</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>ETOBICOKE</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Spiritleaf</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>900 ALBION RD UNIT C24/C25</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>https://spiritleaf.ca/collections/spiritleaf-rexdale</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>642b2d4592bde2000f7a4648</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>14167416988</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>['Delivery']</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>TORONTO</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>The Hunny Pot Cannabis Co.</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>202 QUEEN ST W</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>https://thehunnypot.com/downtown-toronto-cannabis-menu/</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>iWuTC5A7S33baJjvR</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>16475984044</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>['Delivery', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>OTTAWA</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Buzzed Buds</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>179 GEORGE ST UNIT 101</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>https://www.buzzedbuds.co/</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>NqnNjmJkkCXMrHWjw</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>16136633253</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>['Delivery', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>NORTH YORK</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>FOGTOWN FLOWER</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>4687 YONGE ST</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>http://fogtown.ca/</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">613fd98e2e64f800c74add5f </t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>16478128873</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>['Delivery', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>TORONTO</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Body and Spirit Cannabis</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>361 YONGE ST</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>https://bodyandspiritcannabis.com/</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>5e45c5d96a6aef00702ed11f</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>16478125989</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>['Delivery']</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>KESWICK</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>The House of Cannabis - Keswick</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>1 CHURCH ST SUITE 9</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>http://thehousecannabis.ca/</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>2261116815efa0af00a9068d41</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>12898039462</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>['Delivery', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>BRAMPTON</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Bodega Boyz</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>69 BRAMALEA RD SUITE 3</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>http://www.bodegaboyz.ca/</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>61d38e4ca8388a008cb50d87</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>['In-store shopping']</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>19054580439</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>['Delivery']</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+      <c r="N36" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,17 +508,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LONDON</t>
+          <t>TWEED</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Area 420</t>
+          <t>OLYMPIA CANNABIS TWEED (O-C TWEED)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>226 DUNDAS ST</t>
+          <t>233 VICTORIA ST N UNIT 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -528,22 +528,26 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://area420.ca/shop/</t>
+          <t>http://www.olympiacannabis.ca/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Custom</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>61eafd3db150740085dd5336</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'Delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>14165709722</v>
+        <v>16134784848</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -560,17 +564,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>KESWICK</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Levicann</t>
+          <t>Purple Circle Cannabis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>488 THE QUEENSWAY S</t>
+          <t>21A CARLTON ST</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -580,7 +584,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>http://www.levicann.com/shop-keswick/</t>
+          <t>http://www.purplecircle.ca/</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -588,45 +592,41 @@
           <t>Dutchie</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>6266bc39c7fa73008d2bf11c</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>19056865558</v>
+        <v>14163990995</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['No delivery / closed']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="b">
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>SCARBOROUGH</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The Nug Co</t>
+          <t>Strictly Cannabis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1213 DUNDAS ST W</t>
+          <t>3351 MARKHAM RD SUITE 136</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -636,22 +636,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>http://thenugco.ca/</t>
+          <t>http://www.shopstrictly.ca/</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Buddi</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>16473687127</v>
+        <v>14162664420</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -661,24 +661,24 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="b">
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NORTH BAY</t>
+          <t>SOUTH RIVER</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Northern Zen Cannabis</t>
+          <t>South River Buds</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>76 OSPREY MIIKAN RD</t>
+          <t>19 ISABELLA STREET</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -688,26 +688,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>http://www.northernzencannabis.ca/</t>
+          <t>http://www.southriverbuds.ca/</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>5ec2f8efe850e1015890a7f3</t>
-        </is>
-      </c>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['In-store shopping']</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>17058400101</v>
+        <v>17053861264</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -717,24 +713,24 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="b">
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EAST YORK</t>
+          <t>ETOBICOKE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NULEEF CANNABIS</t>
+          <t>Spiritleaf</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>86 LAIRD DR</t>
+          <t>1750 THE QUEENSWAY UNIT 5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -744,7 +740,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>http://www.nuleef.ca/</t>
+          <t>http://www.spiritleaf.ca/</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -754,7 +750,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>6185967b96f26a007b88108b</t>
+          <t>61294e2fb96abc00aa15da74</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -763,7 +759,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>14164299333</v>
+        <v>14165193555</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -773,24 +769,24 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="b">
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TWEED</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OLYMPIA CANNABIS TWEED (O/C TWEED)</t>
+          <t>SPIRITLEAF</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>233 VICTORIA ST N UNIT 1</t>
+          <t>2389 BLOOR ST W</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -800,7 +796,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>http://www.olympiacannabis.ca/</t>
+          <t>http://www.spiritleaf.ca/</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -810,16 +806,16 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>61eafd3db150740085dd5336</t>
+          <t>5e8c9c757b2d2700bdc6939e</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>16134784848</v>
+        <v>14167672225</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -829,55 +825,49 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
+      <c r="N7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>WESTPORT</t>
+          <t>ETOBICOKE</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Olympia Cannabis Westport (OC Westport)</t>
+          <t>Spot420 The Cannabis Store</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17 CHURCH STREET UNIT 1</t>
+          <t>354 ROYAL YORK RD</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>In Progress</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>http://www.olympiacannabis.ca/</t>
+          <t>http://www.spot420.ca/</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>61eafd868525b6008cb3ca6f</t>
-        </is>
-      </c>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>16132734848</v>
+        <v>14162557768</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -887,24 +877,24 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="b">
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CAMBRIDGE</t>
+          <t>HAMILTON</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Value Buds</t>
+          <t>Spring cannabis express</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>150 HOLIDAY INN DR UNIT 111</t>
+          <t>692 UPPER JAMES ST UNIT B</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -914,49 +904,49 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>http://www.on.valuebuds.com/</t>
+          <t>http://www.springscannabis.ca/</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Page doesn't exist</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>15196019873</v>
+        <v>19055193589</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['No delivery / Permanently closed']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="b">
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>WINDSOR</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Value Buds</t>
+          <t>STICKY NUGGZ FORT YORK</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1916 WYANDOTTE ST W</t>
+          <t>171 FORT YORK BLVD</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -966,22 +956,26 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>http://www.on.valuebuds.com/</t>
+          <t>http://www.stickynuggzinc.com/</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Custom</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>5f9983b35d129e00b8daaa7c</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>15199718447</v>
+        <v>14168678888</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -991,24 +985,24 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="b">
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>STIRLING</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ONE PLANT</t>
+          <t>STIRLING CANNABIS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1232 BROOKDALE AVE UNIT B</t>
+          <t>28 MILL STREET</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1018,22 +1012,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>http://www.oneplant.ca/locations/cornwall</t>
+          <t>http://www.stirlingcannabis.ca/</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Custom</t>
+          <t>Techpos</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>16139354305</v>
+        <v>16133952223</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1043,24 +1037,24 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="b">
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GRAND BEND</t>
+          <t>HAVELOCK</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>True North Cannabis</t>
+          <t>Sunfish Cannabis Trainstation</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>31 ONTARIO ST N UNIT 2 &amp; 3</t>
+          <t>30 OTTAWA STREET, EAST UNIT</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1070,26 +1064,22 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>http://www.ontario.ca/</t>
+          <t>http://www.sunfishcannabis.com/</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>60c239068448c400bbfe24c4</t>
-        </is>
-      </c>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>15199534309</v>
+        <v>17056513474</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1099,24 +1089,24 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="b">
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NIAGARA FALLS</t>
+          <t>LAKEFIELD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ON THE RIDGE CO. CANNABIS</t>
+          <t>SunFish Cannabis</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5440 STANLEY AVE UNIT 2</t>
+          <t>112 QUEEN ST, UNIT #2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1126,22 +1116,22 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>http://www.ontheridgeco.com/</t>
+          <t>http://www.sunfishcannabis.com/</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Techpos</t>
+          <t>Buddi</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>12892967177</v>
+        <v>17056513474</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1151,24 +1141,24 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="b">
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GLOUCESTER</t>
+          <t>PORT PERRY</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>OUT &amp; ABOUT CANNABIS</t>
+          <t>The Cannabis Connoisseur</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>665 EARL ARMSTRONG RD UNIT 8</t>
+          <t>1874 SCUGOG ST UNIT 2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1178,7 +1168,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>http://www.outabout.ca/</t>
+          <t>http://www.thecannabisconnoisseur.ca/</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1188,7 +1178,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>5fe10d8ce3ff3a19ed754d45</t>
+          <t>5fb58bff804afc00d8cc12c0</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1197,7 +1187,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>16134256000</v>
+        <v>19059854898</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1207,24 +1197,24 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="b">
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NORTH YORK</t>
+          <t>LASALLE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Paradise AIR </t>
+          <t xml:space="preserve">The Cannabis Retail Store </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>650 SHEPPARD AVE E UNIT 7</t>
+          <t>5841 MALDEN RD UNIT 122</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1234,7 +1224,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>http://www.paradiseair.ca/</t>
+          <t>http://www.thecannabisretailstore.com/</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1244,43 +1234,43 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>605b9e66b18cfc00dedb3f3b</t>
+          <t>60ae76b23e158300a0998b20</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store shopping']</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>14162288889</v>
+        <v>12267836286</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="b">
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>COBOURG</t>
+          <t>PORT SYDNEY</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Peace Pipe </t>
+          <t>The Green Bouquet Cannabis</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1 KING ST E UNIT 1A</t>
+          <t>15 SOUTH MARY LAKE RD UNIT 2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1290,26 +1280,22 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>http://www.peacepipe420.com/</t>
+          <t>http://www.thegreenbouquet.ca/</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>5fd79b0645d85a00eb9b5987</t>
-        </is>
-      </c>
+          <t>Tymber</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>19053723511</v>
+        <v>17053859333</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1319,24 +1305,24 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="b">
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PETERBOROUGH</t>
+          <t>COURTICE</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>The Peace Pipe</t>
+          <t>The Happy Cannasseur</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>408 GEORGE ST N</t>
+          <t>1413 KING ST E UNIT 5</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1346,26 +1332,22 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>http://www.peacepipe420.com/</t>
+          <t>http://www.thehappycannasseur.com/</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>5fd7991b627fbd00ede655ca</t>
-        </is>
-      </c>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['In-store pick-up', 'In-store shopping', 'No delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>17057412111</v>
+        <v>19055711842</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1375,24 +1357,24 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="b">
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>OSHAWA</t>
+          <t>KINGSTON</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Phoenix Cannabis</t>
+          <t>THE HERBARY</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>12 SIMCOE ST S</t>
+          <t>1650 BATH RD</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1402,49 +1384,53 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>http://www.phoenixcannabis.ca/</t>
+          <t>http://www.theherbary.com/</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Page doesn't exist</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>60ef45404665d400b093949e</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>12892400997</v>
+        <v>16137661246</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['No delivery / Permanently closed']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="b">
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>WATERLOO</t>
+          <t>OTTAWA</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Phoenix Cannabis</t>
+          <t>The Herbary</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>288 ALBERT ST UNIT 101</t>
+          <t>1301 RICHMOND RD</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1454,7 +1440,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>http://www.phoenixcannabis.ca/</t>
+          <t>http://www.theherbary.com/</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1464,26 +1450,26 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>6331e416b2ed1600f2b07b25</t>
+          <t>60f6fa3f34269200b8673d58</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>12266470966</v>
+        <v>16138294111</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="b">
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1495,39 +1481,41 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Superette</t>
+          <t>THISEL</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>83 PORTLAND ST</t>
+          <t>192 QUEEN'S QUAY EAST UNIT A5</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>In Progress</t>
+          <t>Authorized to Open</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>http://www.portlandonline.com/</t>
+          <t>http://www.thisel.ca/</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Page doesn't exist</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>60257bc9b754e700e41f5acc</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>['doesn't exist']</t>
-        </is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>14165198265</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1537,24 +1525,24 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="b">
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NIAGARA FALLS</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>POT SPOT</t>
+          <t>TOKA+</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>5365 FERRY ST UNIT 2</t>
+          <t>490 CHRYSLER DR SUITE 49</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1564,22 +1552,26 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>http://www.potspot.online/</t>
+          <t>http://www.tokacannabis.com/</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tymber</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>618a8a4374a28f007712ff0a</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>12892967768</v>
+        <v>19057996001</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1589,24 +1581,24 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="b">
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>STOUFFVILLE</t>
+          <t>NORTH YORK</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Princess Buds</t>
+          <t>TOKE AND TELL CANNABIS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>6380 MAIN ST UNIT 9</t>
+          <t>184 WILSON AVE</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1616,49 +1608,49 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>http://www.princessbuds.ca/</t>
+          <t>http://www.tokeandtell.ca/</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tymber</t>
+          <t>Dutchie</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>13655520341</v>
+        <v>16475378802</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['No delivery / CLosed']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="b">
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GLOUCESTER</t>
+          <t>DRYDEN</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Purple Meadow Cannabis</t>
+          <t>TOKE HOUSE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2059 MEADOWBROOK RD</t>
+          <t>539 GOVERNMENT ST UNIT 16</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1668,7 +1660,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>http://www.purplemeadow.ca/</t>
+          <t>http://www.tokehouse.ca/dryden</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1678,43 +1670,43 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>606df11e89f0224278fb8e7a</t>
+          <t>6112948df8b18200c5194f6f</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>16138429333</v>
+        <v>18072150047</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="b">
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>OTTAWA</t>
+          <t>BRANTFORD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Purple Meadow Cannabis</t>
+          <t>TONIK CANNABIS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>366 RIDEAU ST</t>
+          <t>560 WEST ST SUITE B</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1724,7 +1716,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>http://www.purplemeadow.ca/</t>
+          <t>http://www.tonikcannabis.com/</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1734,43 +1726,43 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>6155c8d2f10ee500b8970ada</t>
+          <t>5fd91fe986dbe500b1c3b576</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pick-up', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>16138609333</v>
+        <v>15193045040</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="b">
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>OTTAWA</t>
+          <t>SCARBOROUGH</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Purple Meadow Cannabis </t>
+          <t>T.O. Smokes</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2430 BANK ST UNIT 6</t>
+          <t>2432 EGLINTON AVE E</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1780,7 +1772,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>http://www.purplemeadow.ca/</t>
+          <t>http://www.tosmoke.ca/</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1790,43 +1782,43 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>61bbc71f8f6d5d00a7828e71</t>
+          <t>638f938672811000d58b0b83</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>16137367667</v>
+        <v>14167524242</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="b">
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">SCARBOROUGH </t>
+          <t>KOMOKA</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cannabis Place</t>
+          <t>Inspired Cannabis Co</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>653 VICTORIA PARK AVE</t>
+          <t>10166 GLENDON DR UNIT 204</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1836,53 +1828,49 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>http://www.rainbowcannabisplace.com/</t>
+          <t>http://www.tribalnationflowerco.com/</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>6058c29312647d00b3c7b5d0</t>
-        </is>
-      </c>
+          <t>Tymber</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>14169011420</v>
+        <v>15597156979</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No delivery']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="b">
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RAMA</t>
+          <t>KANATA</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Rama Cannabis</t>
+          <t>Unplug Cannabis Co.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>5988 RAMA RD</t>
+          <t>4055 CARLING AVE UNIT 4</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1892,26 +1880,22 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>http://www.ramacannabis.ca/</t>
+          <t>http://www.unplugcannabis.com/</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>5e7a2aa20c9a0100a0bda523</t>
-        </is>
-      </c>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>17053260960</v>
+        <v>16132708800</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1921,24 +1905,24 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" t="b">
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GLOUCESTER</t>
+          <t>ORLEANS</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RIDGEBURN</t>
+          <t>Unplug Cannabis Co.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1638 CYRVILLE RD SUITE 6A</t>
+          <t>1375 TRIM RD UNIT 3</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1948,26 +1932,22 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>http://www.ridgeburn.com/</t>
+          <t>http://www.unplugcannabis.com/</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>5fea4f7191e48b00f1167ab7</t>
-        </is>
-      </c>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>16134259502</v>
+        <v>16138341420</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1977,24 +1957,24 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="b">
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SIMCOE</t>
+          <t>OTTAWA</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rolling Cannabis </t>
+          <t>Unplug Cannabis Co.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>6 VICTORIA ST</t>
+          <t xml:space="preserve">261 RICHMOND ROAD  </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2004,7 +1984,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>http://www.rollingcannabis.co/</t>
+          <t>http://www.unplugcannabis.com/</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2015,11 +1995,11 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>12262064420</v>
+        <v>16137921414</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2029,24 +2009,24 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="b">
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>NORTH YORK</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Rosebud Cannabis</t>
+          <t>FOGTOWN FLOWER</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>365 KING ST W BASEMENT</t>
+          <t>4687 YONGE ST</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2056,7 +2036,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>http://www.rosebudcannabis.ca/</t>
+          <t>http://fogtown.ca/</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2066,43 +2046,41 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>5ff28fd701411a00d4059773</t>
+          <t xml:space="preserve">613fd98e2e64f800c74add5f </t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['Kerbside pickup', 'In-store pick-up', 'In-store shopping']</t>
+          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>14167673283</v>
+        <v>16478128873</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="b">
-        <v>1</v>
-      </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>KIRKLAND LAKE</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Rozbudz</t>
+          <t>Body and Spirit Cannabis</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>54 GOVERNMENT RD W UNIT A</t>
+          <t>361 YONGE ST</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2112,49 +2090,53 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>http://www.rozbudz.com/</t>
+          <t>https://bodyandspiritcannabis.com/</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Custom</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>5e45c5d96a6aef00702ed11f</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>17054622220</v>
+        <v>16478125989</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="b">
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>EAST YORK</t>
+          <t>KESWICK</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sensations Cannabis</t>
+          <t>The House of Cannabis - Keswick</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1391 O'CONNOR DR</t>
+          <t>1 CHURCH ST SUITE 9</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2164,101 +2146,107 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>http://www.sensationscannabis.com/</t>
+          <t>http://thehousecannabis.ca/</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Buddi</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2261116815efa0af00a9068d41</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>14169007624</v>
+        <v>12898039462</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="b">
-        <v>1</v>
-      </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>GANANOQUE</t>
+          <t>PLANTAGENET</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Shinybud Cannabis Co. Gananoque</t>
+          <t>Cannabis Connect</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>191 KING ST E</t>
+          <t>5787 COUNTY RD 17</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Authorized to Open</t>
+          <t>Public Notice Period: Ended 2021/06/15</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://www.shinybud.com/gananoque/</t>
+          <t>http://www.highties.ca/</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Page doesn't exist</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>61b6860aecc71e00998e8a4c</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>16138658700</v>
+        <v>16136731313</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['No delivery / Temprorary closed']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="b">
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MORRISBURG</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ShinyBud Cannabis Co. 12467 Morrisburg</t>
+          <t>Insalata</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>12467 COUNTY RD 2, UNIT B</t>
+          <t>1331 ST CLAIR AVE W</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2268,49 +2256,53 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://www.shinybud.com/morrisburg/#/</t>
+          <t>http://www.insalatamarket.com/</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Buddi</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>5e7400ed8dc5960077ea1a59</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>16136432467</v>
+        <v>16474794240</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="b">
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PERTH</t>
+          <t>KESWICK</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SHINYBUD CANNABIS CO. 80 DUFFERIN</t>
+          <t>Levicann</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>80 DUFFERIN ST UNIT 100</t>
+          <t>488 THE QUEENSWAY S</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2320,49 +2312,51 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>http://www.shinybud.com/</t>
+          <t>http://www.levicann.com/shop-keswick/</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Page doesn't exist</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>6266bc39c7fa73008d2bf11c</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>16134660752</v>
+        <v>19056865558</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['No delivery / Permanently closed']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="b">
-        <v>1</v>
-      </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ARNPRIOR</t>
+          <t>OTTAWA</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SHINYBUD CANNABIS CO. 39 ARNPRIOR</t>
+          <t>Purple Meadow Cannabis</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>39 WINNER'S CIRCLE DR UNIT 9</t>
+          <t>366 RIDEAU ST</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2372,34 +2366,1224 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>http://www.shinybud.com/arnprior</t>
+          <t>http://www.purplemeadow.ca/</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Page doesn't exist</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>6155c8d2f10ee500b8970ada</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>16136223039</v>
+        <v>16138609333</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['No delivery / Permanently closed']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="b">
-        <v>1</v>
-      </c>
+      <c r="N36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>OTTAWA</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Purple Meadow Cannabis </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2430 BANK ST UNIT 6</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>http://www.purplemeadow.ca/</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>61bbc71f8f6d5d00a7828e71</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>16137367667</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>OTTAWA</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>The Good Cannabis Company</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>809 BANK ST</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>http://www.shopthegood.ca/</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>5f74a7a7c9cad700ac5c2e0e</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>16132334663</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>HAMILTON</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Sparkle Cannabis Company</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>778 CONCESSION ST</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>http://www.sparklecannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>60355ee0d2e46700c21fe6d2</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>19053189333</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>PETERBOROUGH</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SPARQ RETAIL</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>340 CHARLOTTE ST</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>http://www.sparqretail.ca/</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>5f072e155584c1011bac2c53</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>17057491833</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MIDLAND</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Speakeasy Cannabis Midland</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>9225 93 HWY UNIT 16</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>http://www.speakeasycannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>5f20315a5adf4e00d1622faa</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>17055266060</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BEAMSVILLE</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>T CANNABIS</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>4322 ONTARIO STREET UNIT 3</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>http://www.tcann.ca/</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>5eb9e4463836aa00b88a6251</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>19055635255</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>COCHRANE</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>T CANNABIS NW - Cochrane</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>143 FOURTH ST W</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>http://www.tcann.ca/</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>60da566de735ef00bcb2c8f1</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>17059132339</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>FORT FRANCES</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T CANNABIS </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>130 SECOND ST E UNIT 2</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>http://www.tcann.ca/</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>6022bdd8b61c4d00c787981c</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>18072742222</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>KIRKLAND LAKE</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>T CANNABIS NW - Kirkland Lake</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>59 GOVERNMENT RD W</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>http://www.tcann.ca/</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>60da569417dfe2009d363270</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>17054626626</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>SIOUX LOOKOUT</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>T CANNABIS NW</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>37 FRONT ST</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>http://www.tcann.ca/</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>635fcd3a60823d00b26a25d7</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>18072742222</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>SARNIA</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>The We Store</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>450 TRUDEAU DR UNIT 7/8</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>http://www.thewestore.com/</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>614ba1c7b4849f5565ec9a4b</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>12267847719</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ST CATHARINES</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>THE NIAGARA HERBALIST</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>33 LAKESHORE RD UNIT 15</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>http://www.theniagaraherbalist.com/?utm_source=gmb&amp;utm_medium=organic</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>5e41cc73451ecb007bd05cae</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>19059344372</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>['Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Thermodynamix Cannabis Inc.</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>178 DAVENPORT RD</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>http://www.thermodynamix.ca/</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>5f300277bb58600131209f96</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>14169299669</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>OTTAWA</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>BLUEBIRD CANNABIS CO. CLARENCE STREET</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>121 CLARENCE ST</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://bluebirdcannabis.store/byward/</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>fjySu4BPYqScFCR2t</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>16136950777</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>NORTH YORK</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke 1819 Avenue</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1819 AVENUE RD</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/dispensary/Tokyo-Smoke-1819-Avenue-Rd</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>225fde9c7b97573b00c2b7b82e</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>16473451819</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke 333 Yonge</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>333 YONGE ST</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/dispensary/tokyo-smoke-333-yonge</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>xifehQAT5xMwJRjbb</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>14164773618</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>LONDON</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>TWEED</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>1025 WELLINGTON ROAD, UNIT A-2</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tweed-london</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>iiYZCAo5b7g7Ntd3R</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>12266674999</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>BURLINGTON</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Sparkle Cannabis Company</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>730 GUELPH LINE UNIT 1</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://sparklecannabis.ca/shop-burlington</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>7k8k4j6WKL3edhgdE</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>19056343033</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ETOBICOKE</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Spiritleaf</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>900 ALBION RD UNIT C24/C25</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://spiritleaf.ca/collections/spiritleaf-rexdale</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>642b2d4592bde2000f7a4648</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>14167416988</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>The Hunny Pot Cannabis Co.</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>202 QUEEN ST W</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://thehunnypot.com/downtown-toronto-cannabis-menu/</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>iWuTC5A7S33baJjvR</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>16475984044</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>OTTAWA</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Buzzed Buds</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>179 GEORGE ST UNIT 101</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://www.buzzedbuds.co/</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>NqnNjmJkkCXMrHWjw</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>16136633253</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>BRAMPTON</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Bodega Boyz</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>69 BRAMALEA RD SUITE 3</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>http://www.bodegaboyz.ca/</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>61d38e4ca8388a008cb50d87</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>19054580439</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="160">
   <si>
     <t>Municipality or First Nation</t>
   </si>
@@ -254,18 +254,6 @@
   </si>
   <si>
     <t>2261116815efa0af00a9068d41</t>
-  </si>
-  <si>
-    <t>Levicann</t>
-  </si>
-  <si>
-    <t>488 THE QUEENSWAY S</t>
-  </si>
-  <si>
-    <t>http://www.levicann.com/shop-keswick/</t>
-  </si>
-  <si>
-    <t>6266bc39c7fa73008d2bf11c</t>
   </si>
   <si>
     <t>Purple Meadow Cannabis</t>
@@ -952,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1009,7 +997,7 @@
     </row>
     <row r="2" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>80</v>
@@ -1030,13 +1018,13 @@
         <v>83</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I2">
-        <v>19056865558</v>
+        <v>16138609333</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1053,19 +1041,19 @@
         <v>14</v>
       </c>
       <c r="E3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>87</v>
       </c>
       <c r="H3" t="s">
         <v>21</v>
       </c>
       <c r="I3">
-        <v>16138609333</v>
+        <v>16137367667</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>32</v>
@@ -1076,28 +1064,28 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
         <v>88</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="F4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="12" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
         <v>21</v>
       </c>
       <c r="I4">
-        <v>16137367667</v>
+        <v>16132334663</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>32</v>
@@ -1105,147 +1093,147 @@
     </row>
     <row r="5" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
         <v>91</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>94</v>
-      </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I5">
-        <v>16132334663</v>
+        <v>19053189333</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I6">
-        <v>19053189333</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>48</v>
+        <v>17057491833</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H7" t="s">
         <v>21</v>
       </c>
       <c r="I7">
-        <v>17057491833</v>
-      </c>
-      <c r="J7" t="s">
+        <v>17055266060</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>107</v>
+      <c r="G8" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="I8">
-        <v>17055266060</v>
-      </c>
-      <c r="J8" s="11" t="s">
+        <v>19055635255</v>
+      </c>
+      <c r="J8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>16</v>
@@ -1254,13 +1242,13 @@
         <v>112</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="I9">
-        <v>19055635255</v>
+        <v>17059132339</v>
       </c>
       <c r="J9" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1277,7 +1265,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>16</v>
@@ -1286,13 +1274,13 @@
         <v>116</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I10">
-        <v>17059132339</v>
+        <v>18072742222</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1309,22 +1297,22 @@
         <v>14</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="12" t="s">
         <v>120</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I11">
-        <v>18072742222</v>
+        <v>17054626626</v>
       </c>
       <c r="J11" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1341,7 +1329,7 @@
         <v>14</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>16</v>
@@ -1350,13 +1338,13 @@
         <v>124</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I12">
-        <v>17054626626</v>
+        <v>18072742222</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1372,20 +1360,20 @@
       <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>111</v>
+      <c r="E13" t="s">
+        <v>128</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>128</v>
+      <c r="G13" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="H13" t="s">
         <v>21</v>
       </c>
       <c r="I13">
-        <v>18072742222</v>
+        <v>12267847719</v>
       </c>
       <c r="J13" t="s">
         <v>32</v>
@@ -1393,105 +1381,105 @@
     </row>
     <row r="14" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="E14" t="s">
-        <v>132</v>
+      <c r="E14" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>133</v>
+      <c r="G14" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="H14" t="s">
         <v>21</v>
       </c>
       <c r="I14">
-        <v>12267847719</v>
-      </c>
-      <c r="J14" t="s">
-        <v>32</v>
+        <v>19059344372</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H15" t="s">
         <v>21</v>
       </c>
       <c r="I15">
-        <v>19059344372</v>
+        <v>14169299669</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I16">
-        <v>14169299669</v>
+        <v>16135263420</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>144</v>
-      </c>
-      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C17" t="s">
@@ -1506,49 +1494,49 @@
       <c r="F17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="10" t="s">
         <v>148</v>
       </c>
       <c r="H17" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I17">
-        <v>16135263420</v>
+        <v>14167872450</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>48</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>149</v>
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>150</v>
       </c>
       <c r="C18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>151</v>
+        <v>24</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="12" t="s">
         <v>152</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I18">
-        <v>14167872450</v>
+        <v>13433647450</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>153</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1556,10 +1544,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" t="s">
         <v>154</v>
-      </c>
-      <c r="C19" t="s">
-        <v>155</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
@@ -1571,77 +1559,77 @@
         <v>16</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H19" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I19">
-        <v>13433647450</v>
+        <v>16139295269</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" t="s">
         <v>157</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
         <v>158</v>
       </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>24</v>
-      </c>
       <c r="F20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="8" t="s">
         <v>159</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="I20">
-        <v>16139295269</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>48</v>
+        <v>16136950777</v>
+      </c>
+      <c r="J20" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>163</v>
+        <v>31</v>
       </c>
       <c r="H21" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="I21">
-        <v>16136950777</v>
+        <v>16473451819</v>
       </c>
       <c r="J21" t="s">
         <v>32</v>
@@ -1649,31 +1637,31 @@
     </row>
     <row r="22" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H22" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I22">
-        <v>16473451819</v>
+        <v>14164773618</v>
       </c>
       <c r="J22" t="s">
         <v>32</v>
@@ -1681,31 +1669,31 @@
     </row>
     <row r="23" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H23" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I23">
-        <v>14164773618</v>
+        <v>12266674999</v>
       </c>
       <c r="J23" t="s">
         <v>32</v>
@@ -1713,63 +1701,63 @@
     </row>
     <row r="24" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>41</v>
+      <c r="G24" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I24">
-        <v>12266674999</v>
+        <v>19056343033</v>
       </c>
       <c r="J24" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="I25">
-        <v>19056343033</v>
+        <v>14167416988</v>
       </c>
       <c r="J25" t="s">
         <v>48</v>
@@ -1777,229 +1765,197 @@
     </row>
     <row r="26" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H26" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I26">
-        <v>14167416988</v>
+        <v>16475984044</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H27" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="I27">
-        <v>16475984044</v>
+        <v>16136633253</v>
       </c>
       <c r="J27" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H28" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28">
-        <v>16136633253</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" s="2">
+        <v>16478128873</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I29" s="2">
-        <v>16478128873</v>
+        <v>16478125989</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
     </row>
     <row r="30" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I30" s="2">
-        <v>16478125989</v>
+        <v>12898039462</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-    </row>
-    <row r="31" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>79</v>
+      <c r="G31" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I31" s="2">
-        <v>12898039462</v>
+        <v>19054580439</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="2">
-        <v>19054580439</v>
-      </c>
-      <c r="J32" s="2" t="s">
         <v>48</v>
       </c>
     </row>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,17 +508,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>SARNIA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Body and Spirit Cannabis</t>
+          <t>The We Store</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>361 YONGE ST</t>
+          <t>450 TRUDEAU DR UNIT 7/8</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://bodyandspiritcannabis.com/</t>
+          <t>http://www.thewestore.com/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -538,26 +538,1658 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5e45c5d96a6aef00702ed11f</t>
+          <t>614ba1c7b4849f5565ec9a4b</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>16478125989</v>
+        <v>12267847719</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>OTTAWA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BLUEBIRD CANNABIS CO. CLARENCE STREET</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>121 CLARENCE ST</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://bluebirdcannabis.store/byward/</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>fjySu4BPYqScFCR2t</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>16136950777</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>RENFREW</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cannabis 228</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>28 RAGLAN ST N SUITE 228</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://cannabis228.com/</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6047d0585841593623dfe1ab</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>16134322288</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NORTH YORK</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke 1819 Avenue</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1819 AVENUE RD</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/dispensary/Tokyo-Smoke-1819-Avenue-Rd</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>225fde9c7b97573b00c2b7b82e</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>16473451819</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke 333 Yonge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>333 YONGE ST</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/dispensary/tokyo-smoke-333-yonge</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>xifehQAT5xMwJRjbb</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>14164773618</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>LONDON</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TWEED</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1025 WELLINGTON ROAD, UNIT A-2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://dutchie.com/stores/tweed-london</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>iiYZCAo5b7g7Ntd3R</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>12266674999</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BURLINGTON</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sparkle Cannabis Company</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>730 GUELPH LINE UNIT 1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://sparklecannabis.ca/shop-burlington</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>7k8k4j6WKL3edhgdE</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>19056343033</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ETOBICOKE</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Spiritleaf</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>900 ALBION RD UNIT C24/C25</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://spiritleaf.ca/collections/spiritleaf-rexdale</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>642b2d4592bde2000f7a4648</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>14167416988</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>['Delivery']</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>The Hunny Pot Cannabis Co.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>202 QUEEN ST W</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://thehunnypot.com/downtown-toronto-cannabis-menu/</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>iWuTC5A7S33baJjvR</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>16475984044</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>OTTAWA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Buzzed Buds</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>179 GEORGE ST UNIT 101</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://www.buzzedbuds.co/</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>NqnNjmJkkCXMrHWjw</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>16136633253</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BARRIE</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Canna Cabana</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>201 CUNDLES RD E UNIT 105A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://cannacabana.com/</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>17055039818</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AJAX</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CANNA CABANA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>170 KINGSTON RD E UNIT B4</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://cannacabana.com/a/stores/ontario/ajax/ajax?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>19056198849</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ANCASTER</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Canna Cabana </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>14 MARTINDALE CRES UNIT 4A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://cannacabana.com/a/stores/ontario/ancaster/ancaster?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>19053041276</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>BRACEBRIDGE</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Canna Cabana</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>77 MANITOBA ST</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://cannacabana.com/a/stores/ontario/bracebridge/manitoba-street?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>17057039100</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BRACEBRIDGE </t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CANNA CABANA</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>125 MUSKOKA RD 118 W UNIT 6</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://cannacabana.com/a/stores/ontario/bracebridge/muskoka?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>['In-store pick-up', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>17057039100</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BRAMPTON</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CANNA CABANA</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>148 WEST DR UNIT C108</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://cannacabana.com/a/stores/ontario/brampton/410-7?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>19057963781</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BRAMPTON</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Canna Cabana</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>9025 AIRPORT RD UNIT 2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://cannacabana.com/a/stores/ontario/brampton/brampton-woodhills</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>12899486326</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>BURLINGTON</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Canna Cabana Burlington </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2400 GUELPH LINE UNIT 2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://cannacabana.com/a/stores/ontario/burlington/burlington?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>12893374422</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>BURLINGTON</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CANNA CABANA</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3505 UPPER MIDDLE RD UNIT D003</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://cannacabana.com/a/stores/ontario/burlington/Uppermiddle?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>12893371212</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CORNWALL</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CANNA CABANA</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>960 BROOKDALE AVE UNIT 8</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://cannacabana.com/a/stores/ontario/cornwall/cornwall?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>16139383377</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>EAST YORK</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Canna Cabana East York</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1723 BAYVIEW AVE UNIT A1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://cannacabana.com/a/stores/ontario/east-york/leaside?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>14165465626</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FORT ERIE</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Canna Cabana </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>450 GARRISON RD UNIT 100</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://cannacabana.com/a/stores/ontario/fort-erie/fort-erie?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>19059946885</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>GUELPH</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Canna Cabana</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>106 SILVERCREEK PKY N UNIT 1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://cannacabana.com/a/stores/ontario/guelph/guelph-silvercreek?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>15198247358</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>GUELPH</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Canna Cabana</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3 WOODLAWN RD W</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://cannacabana.com/a/stores/ontario/guelph/woodlawn-guelph?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>['In-store pick-up', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>15198272104</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>HAMILTON</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CANNA CABANA HAMILTON</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1317 BARTON STREET EAST UNIT H09</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://cannacabana.com/a/stores/ontario/hamilton/barton-street-east?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>19055451317</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>HAMILTON</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Canna Cabana</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>905 RYMAL RD E UNIT 110</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://cannacabana.com/a/stores/ontario/hamilton/rymal-road?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>19053830998</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>HANOVER</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Canna Cabana</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>880 10TH ST UNIT 105</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://cannacabana.com/a/stores/ontario/hanover/hanover?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>15195064420</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>KANATA</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Canna Cabana</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>836 MARCH ROAD UNIT B1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://cannacabana.com/a/stores/ontario/kanata/kanata?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>16135910985</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>KITCHENER</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Canna Cabana </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>235 IRA NEEDLES BLVD SUITE C2</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://cannacabana.com/a/stores/ontario/kitchener/kitchener-ira-needles?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>15482884318</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>KITCHENER</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Canna Cabana</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1375 WEBER ST E UNIT 111</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://cannacabana.com/a/stores/ontario/kitchener/weber-street?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>15198960644</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>LONDON</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Canna Cabana </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>595 FANSHAWE PARK RD W UNIT C01102A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://cannacabana.com/a/stores/ontario/london/fanshawe-park?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>15193049999</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>LONDON</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CANNA CABANA LONDON</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>760 HYDE PARK RD UNIT 7B</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://cannacabana.com/a/stores/ontario/london/london?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>15194734416</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,17 +508,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>KITCHENER</t>
+          <t>SARNIA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Canna Cabana</t>
+          <t>The We Store</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>569 FAIRWAY RD S UNIT H3</t>
+          <t>450 TRUDEAU DR UNIT 7/8</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -528,26 +528,30 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://cannacabana.com/a/stores/ontario/kitchener/kitchener-fairway?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+          <t>http://www.thewestore.com/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Custom</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>614ba1c7b4849f5565ec9a4b</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>15482884262</v>
+        <v>12267847719</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -560,17 +564,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MILTON</t>
+          <t>LONDON</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CANNA CABANA</t>
+          <t>Cannabis Link Express</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1155 MAPLE AVE UNIT F014</t>
+          <t>1149 WESTERN RD UNIT 2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -580,49 +584,51 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://cannacabana.com/a/stores/ontario/milton/milton?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+          <t>https://cannabislinkinc.com/</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Custom</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>61cc0dad0524d00085920bcb</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>19056931023</v>
+        <v>12265647070</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="b">
-        <v>1</v>
-      </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NIAGARA FALLS</t>
+          <t>THUNDER BAY</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CANNA CABANA NIAGARA FALLS</t>
+          <t>Cannabis Plus Store</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5731 VICTORIA AVE</t>
+          <t>89 CUMBERLAND ST N</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -632,49 +638,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://cannacabana.com/a/stores/ontario/niagara-falls/niagara-falls?utm_source=google&amp;utm_medium=organic&amp;utm_campaign=gmb</t>
+          <t>https://cannabisplusstore.com/cannabis-plus-store-north/?</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Custom</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>611d695a73a47700c4b6187f</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>12894771061</v>
+        <v>18072854117</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="b">
-        <v>1</v>
-      </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>KEMPTVILLE</t>
+          <t>NORTH YORK</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Creekside Greens</t>
+          <t>Tokyo Smoke 1819 Avenue</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19 REUBEN CRES</t>
+          <t>1819 AVENUE RD</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -684,49 +692,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://creeksidegreens.ca/</t>
+          <t>https://dutchie.com/dispensary/Tokyo-Smoke-1819-Avenue-Rd</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Custom</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>225fde9c7b97573b00c2b7b82e</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>16132586664</v>
+        <v>16473451819</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="b">
-        <v>1</v>
-      </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>COBOURG</t>
+          <t>ETOBICOKE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Inspired Cannabis Co</t>
+          <t>Spiritleaf</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1111 ELGIN ST W UNIT F</t>
+          <t>900 ALBION RD UNIT C24/C25</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -736,190 +746,36 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://inspiredcannabis.ca/cannabis-dispensary-cobourg/?utm_source=google&amp;utm_medium=gmb&amp;utm_campaign=cobourg_store</t>
+          <t>https://spiritleaf.ca/collections/spiritleaf-rexdale</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Custom</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>642b2d4592bde2000f7a4648</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['In-store pick-up', 'In-store shopping', 'No delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>19053727700</v>
+        <v>14167416988</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['No delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>GLOUCESTER</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Inspired Cannabis</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1980 OGILVIE RD UNIT 145</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://inspiredcannabis.ca/cannabis-dispensary-gloucester/?utm_source=google&amp;utm_medium=gmb&amp;utm_campaign=gloucester_store</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Custom</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>16134214200</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>['No delivery']</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>KINGSTON</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Inspired Cannabis Co</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>246 PRINCESS ST</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>https://inspiredcannabis.ca/cannabis-dispensary-kingston/?utm_source=google&amp;utm_medium=gmb&amp;utm_campaign=kingston_store</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Custom</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>16135410780</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>['No delivery']</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ORLEANS</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>INSPIRED CANNABIS CO</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>6489 JEANNE D'ARC BLVD N</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>https://inspiredcannabis.ca/cannabis-dispensary-orleans/?utm_source=google&amp;utm_medium=gmb&amp;utm_campaign=orleans_store</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Custom</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>13438805588</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>['No delivery']</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="b">
-        <v>1</v>
-      </c>
+      <c r="N6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -564,17 +564,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LONDON</t>
+          <t>ETOBICOKE</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cannabis Link Express</t>
+          <t>Spiritleaf</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1149 WESTERN RD UNIT 2</t>
+          <t>900 ALBION RD UNIT C24/C25</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -584,7 +584,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://cannabislinkinc.com/</t>
+          <t>https://spiritleaf.ca/collections/spiritleaf-rexdale</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -594,43 +594,43 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>61cc0dad0524d00085920bcb</t>
+          <t>642b2d4592bde2000f7a4648</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>12265647070</v>
+        <v>14167416988</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="b">
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>THUNDER BAY</t>
+          <t>LONDON</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cannabis Plus Store</t>
+          <t>Cannabis Link Express</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>89 CUMBERLAND ST N</t>
+          <t>1149 WESTERN RD UNIT 2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://cannabisplusstore.com/cannabis-plus-store-north/?</t>
+          <t>https://cannabislinkinc.com/</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -650,16 +650,16 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>611d695a73a47700c4b6187f</t>
+          <t>61cc0dad0524d00085920bcb</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>18072854117</v>
+        <v>12265647070</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -669,22 +669,24 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>THUNDER BAY</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cosmic Charlie's</t>
+          <t>Cannabis Plus Store</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>821 QUEEN ST W</t>
+          <t>89 CUMBERLAND ST N</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -694,7 +696,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://cosmiccharlies.ca/</t>
+          <t>https://cannabisplusstore.com/cannabis-plus-store-north/?</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -704,16 +706,16 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5fe0fd5e96c1ca010857fdb4</t>
+          <t>611d695a73a47700c4b6187f</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Kerbside pickup', 'Delivery', 'In-store pick-up', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>14163672429</v>
+        <v>18072854117</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -723,22 +725,24 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NORTH YORK</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tokyo Smoke 1819 Avenue</t>
+          <t>Cosmic Charlie's</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1819 AVENUE RD</t>
+          <t>821 QUEEN ST W</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -748,7 +752,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://dutchie.com/dispensary/Tokyo-Smoke-1819-Avenue-Rd</t>
+          <t>https://cosmiccharlies.ca/</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -758,7 +762,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>225fde9c7b97573b00c2b7b82e</t>
+          <t>5fe0fd5e96c1ca010857fdb4</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -767,7 +771,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>16473451819</v>
+        <v>14163672429</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -777,22 +781,24 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BRAMPTON</t>
+          <t>NORTH YORK</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hidden Leaf Cannabis Co.</t>
+          <t>Tokyo Smoke 1819 Avenue</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1 WEXFORD RD UNIT 4</t>
+          <t>1819 AVENUE RD</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -802,7 +808,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://hiddenleafcannabisco.com/shop</t>
+          <t>https://dutchie.com/dispensary/Tokyo-Smoke-1819-Avenue-Rd</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -812,16 +818,16 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>5fb803cbe901b800fa7a53fd</t>
+          <t>225fde9c7b97573b00c2b7b82e</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>14167369014</v>
+        <v>16473451819</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -836,17 +842,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LONDON</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Holy Cannabis</t>
+          <t>Hidden Leaf Cannabis Co.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>25 OXFORD ST W UNIT 109</t>
+          <t>1 WEXFORD RD UNIT 4</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -856,7 +862,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://holycannabis.ca/</t>
+          <t>https://hiddenleafcannabisco.com/shop</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -866,16 +872,16 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>654ba44df4b4990009c07623</t>
+          <t>5fb803cbe901b800fa7a53fd</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>15194325678</v>
+        <v>14167369014</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -885,7 +891,9 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -895,12 +903,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HOLY CANNABIS</t>
+          <t>Holy Cannabis</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1080 ADELAIDE ST N SUITE 9</t>
+          <t>25 OXFORD ST W UNIT 109</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -920,7 +928,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>614b4cd7e962db00a26ccdd5</t>
+          <t>654ba44df4b4990009c07623</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -929,7 +937,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>15192045678</v>
+        <v>15194325678</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -939,22 +947,24 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>KENORA</t>
+          <t>LONDON</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LAKE OF THE WOODS CANNABIS</t>
+          <t>HOLY CANNABIS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>809 RIVER DR</t>
+          <t>1080 ADELAIDE ST N SUITE 9</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -964,7 +974,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://lotwcannabis.ca/</t>
+          <t>https://holycannabis.ca/</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -974,16 +984,16 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>5ed59548fde4e600ea0fddb8</t>
+          <t>614b4cd7e962db00a26ccdd5</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>18074641851</v>
+        <v>15192045678</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -993,22 +1003,24 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ETOBICOKE</t>
+          <t>KENORA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Spiritleaf</t>
+          <t>LAKE OF THE WOODS CANNABIS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>900 ALBION RD UNIT C24/C25</t>
+          <t>809 RIVER DR</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1018,7 +1030,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://spiritleaf.ca/collections/spiritleaf-rexdale</t>
+          <t>https://lotwcannabis.ca/</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1028,26 +1040,28 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>642b2d4592bde2000f7a4648</t>
+          <t>5ed59548fde4e600ea0fddb8</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>14167416988</v>
+        <v>18074641851</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1101,7 +1115,9 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1155,7 +1171,9 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1209,7 +1227,9 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1263,7 +1283,9 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1317,7 +1339,9 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1371,7 +1395,9 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1425,7 +1451,9 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1479,7 +1507,9 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1533,7 +1563,9 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1587,7 +1619,9 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+      <c r="N21" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1641,7 +1675,9 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1695,7 +1731,9 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+      <c r="N23" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1749,7 +1787,9 @@
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+      <c r="N24" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1803,7 +1843,9 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
+      <c r="N25" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1857,7 +1899,9 @@
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
+      <c r="N26" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1911,7 +1955,9 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
+      <c r="N27" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1965,7 +2011,9 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
+      <c r="N28" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2019,7 +2067,9 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
+      <c r="N29" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2073,7 +2123,9 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+      <c r="N30" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2127,7 +2179,9 @@
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2181,7 +2235,9 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+      <c r="N32" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2235,7 +2291,9 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+      <c r="N33" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2289,7 +2347,9 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
+      <c r="N34" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2343,7 +2403,9 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
+      <c r="N35" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -538,7 +538,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>614ba1c7b4849f5565ec9a4b</t>
+          <t>61b6808cc2a6e2009ae30fdc</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -557,7 +557,7 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="N2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -669,7 +669,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="b">
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -725,7 +725,7 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="b">
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,7 +781,7 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="b">
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -837,7 +837,9 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -891,7 +893,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="b">
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -947,7 +949,7 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="b">
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1003,7 +1005,7 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="b">
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1059,7 +1061,7 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="b">
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1115,7 +1117,7 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="b">
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1171,7 +1173,7 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="b">
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1227,7 +1229,7 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="b">
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1283,7 +1285,7 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="b">
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1339,7 +1341,7 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="b">
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1395,7 +1397,7 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="b">
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1451,7 +1453,7 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="b">
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1507,7 +1509,7 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="b">
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1563,7 +1565,7 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="b">
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1619,7 +1621,7 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="b">
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1675,7 +1677,7 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="b">
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1731,7 +1733,7 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="b">
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1787,7 +1789,7 @@
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="b">
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1843,7 +1845,7 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="b">
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1899,7 +1901,7 @@
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="b">
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1955,7 +1957,7 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" t="b">
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2011,7 +2013,7 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="b">
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2067,7 +2069,7 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="b">
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2123,7 +2125,7 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="b">
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2179,7 +2181,7 @@
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="b">
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2235,7 +2237,7 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="b">
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2291,7 +2293,7 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="b">
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2347,7 +2349,7 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="b">
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2403,7 +2405,7 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="b">
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -551,7 +551,12 @@
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Minimum Delivery Order is $50.00
+$10.00 Delivery Fee or FREE on orders over $100.00</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="b">
         <v>1</v>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -1,37 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="132" yWindow="588" windowWidth="22716" windowHeight="8676"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Municipality or First Nation</t>
+  </si>
+  <si>
+    <t>Store Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Store Application Status</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>ecommerce provider</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>service options</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>type of delivery offered</t>
+  </si>
+  <si>
+    <t>delivery qualifications</t>
+  </si>
+  <si>
+    <t>minimum delivery fee</t>
+  </si>
+  <si>
+    <t>Zones</t>
+  </si>
+  <si>
+    <t>checked</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +93,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,146 +414,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Municipality or First Nation</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Store Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Address</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Store Application Status</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>website</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>ecommerce provider</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>service options</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>phone_number</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>type of delivery offered</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>delivery qualifications</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>minimum delivery fee</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Zones</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>checked</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>NORTHBROOK</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>41 Cannabis Company</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>12278 HIGHWAY 41 RR 1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>http://41cannabisco.ca/</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Buddi</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>16133360441</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>['Delivery', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Minimum Delivery Order is $50.00
-$10.00 Delivery Fee or FREE on orders over $100.00</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="b">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -1,84 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="588" windowWidth="22716" windowHeight="8676"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Municipality or First Nation</t>
-  </si>
-  <si>
-    <t>Store Name</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Store Application Status</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>ecommerce provider</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>service options</t>
-  </si>
-  <si>
-    <t>phone_number</t>
-  </si>
-  <si>
-    <t>type of delivery offered</t>
-  </si>
-  <si>
-    <t>delivery qualifications</t>
-  </si>
-  <si>
-    <t>minimum delivery fee</t>
-  </si>
-  <si>
-    <t>Zones</t>
-  </si>
-  <si>
-    <t>checked</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -93,40 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -414,57 +420,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Municipality or First Nation</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Store Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Store Application Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>website</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ecommerce provider</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>service options</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>phone_number</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>type of delivery offered</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>delivery qualifications</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>minimum delivery fee</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Zones</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>checked</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AJAX</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GREEN WORLD </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1901 HARWOOD AVE N UNIT 34</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>http://www.greenworldcannabis.com/</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>19054270577</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>['Delivery', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="b">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -508,17 +508,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AJAX</t>
+          <t>ORLEANS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">GREEN WORLD </t>
+          <t>The Oz Store</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1901 HARWOOD AVE N UNIT 34</t>
+          <t>3022 ST. JOSEPH BLVD UNIT B</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>http://www.greenworldcannabis.com/</t>
+          <t>http://www.ozstore.ca/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>19054270577</v>
+        <v>16134242222</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -508,17 +508,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ORLEANS</t>
+          <t>ETOBICOKE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The Oz Store</t>
+          <t>Royal Cannabis Supply Company</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3022 ST. JOSEPH BLVD UNIT B</t>
+          <t>105 CLAIREPORT CRES</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>http://www.ozstore.ca/</t>
+          <t>https://app.buddi.io/ecommerce/store/2408/checkout</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -539,11 +539,11 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>16134242222</v>
+        <v>18888519333</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -508,17 +508,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ETOBICOKE</t>
+          <t>SCARBOROUGH</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Royal Cannabis Supply Company</t>
+          <t>Straight Loud</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>105 CLAIREPORT CRES</t>
+          <t>1187 BRIMLEY RD</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://app.buddi.io/ecommerce/store/2408/checkout</t>
+          <t>http://www.straightloud.ca/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -539,11 +539,11 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>18888519333</v>
+        <v>14164311333</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -1,37 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/528339229bf2dcd2/Desktop/DOT/cannabis-shops-scraping/platform_scrapper/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_669D2C2B5C41CE0F62355476585DCE3A8747A038" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACADA3D7-33F3-48B0-95CF-BF7EE82AEE41}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Municipality or First Nation</t>
+  </si>
+  <si>
+    <t>Store Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Store Application Status</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>ecommerce provider</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>service options</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>type of delivery offered</t>
+  </si>
+  <si>
+    <t>delivery qualifications</t>
+  </si>
+  <si>
+    <t>minimum delivery fee</t>
+  </si>
+  <si>
+    <t>Zones</t>
+  </si>
+  <si>
+    <t>checked</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +99,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,144 +423,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Municipality or First Nation</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Store Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Address</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Store Application Status</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>website</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>ecommerce provider</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>service options</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>phone_number</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>type of delivery offered</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>delivery qualifications</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>minimum delivery fee</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Zones</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>checked</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>SCARBOROUGH</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Straight Loud</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1187 BRIMLEY RD</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Authorized to Open</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>http://www.straightloud.ca/</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Buddi</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>['In-store pickup', 'In-store shopping']</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>14164311333</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>['Delivery', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="b">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -1,90 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/528339229bf2dcd2/Desktop/DOT/cannabis-shops-scraping/platform_scrapper/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_669D2C2B5C41CE0F62355476585DCE3A8747A038" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACADA3D7-33F3-48B0-95CF-BF7EE82AEE41}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Municipality or First Nation</t>
-  </si>
-  <si>
-    <t>Store Name</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Store Application Status</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>ecommerce provider</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>service options</t>
-  </si>
-  <si>
-    <t>phone_number</t>
-  </si>
-  <si>
-    <t>type of delivery offered</t>
-  </si>
-  <si>
-    <t>delivery qualifications</t>
-  </si>
-  <si>
-    <t>minimum delivery fee</t>
-  </si>
-  <si>
-    <t>Zones</t>
-  </si>
-  <si>
-    <t>checked</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -99,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -423,61 +420,148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Municipality or First Nation</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Store Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Store Application Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>website</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ecommerce provider</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>service options</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>phone_number</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>type of delivery offered</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>delivery qualifications</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>minimum delivery fee</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Zones</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>checked</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>OTTAWA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cannabis Emporium</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>243-245 BANK ST</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>http://www.cannabisemporium420.ca/</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5edd18b7e41671013eeefa83</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>16136957746</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="b">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,17 +508,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OTTAWA</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cannabis Emporium</t>
+          <t>6 of Spade</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>243-245 BANK ST</t>
+          <t>1278 DUNDAS ST W</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -528,26 +528,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>http://www.cannabisemporium420.ca/</t>
+          <t>https://www.leafly.ca/cannabis-store/6-of-spade---toronto</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5edd18b7e41671013eeefa83</t>
-        </is>
-      </c>
+          <t>Leafly</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>16136957746</v>
+        <v>14165881667</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -561,6 +557,950 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Cookies</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>278A QUEEN ST W</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://cookies.co/store/cookies_toronto/</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>613265e9c8ae5900bd82878a</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>['In-store pick-up', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>14165860420</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Kush Klub</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>556 COLLEGE ST</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>http://dutch.love/</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>14165046420</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Grandma's Cannabis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>440 ADELAIDE ST E</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>http://grandmascannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>14162037809</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ARMSTRONG STATION</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Happy Time</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>16 KING STREET</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://happytimeweed.com/</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>19164226777</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NIAGARA FALLS</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>High End Cannabis Co.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>6080 MCLEOD RD UNIT 5</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>http://highendcannabisco.ca/</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>12892962768</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>['No delivery / Temprorary closed']</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>High Park Cannabis Co.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3064 DUNDAS ST W</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://highparkcc.ca/shop-canna/</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>14166043673</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>['No delivery / Permanently closed']</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LANCASTER</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Highties Cannabis Store</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>184 MILITARY RD</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://www.highties.ca/lancaster/</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>16133471010</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>['No delivery / Temprorary closed']</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BRANTFORD</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypnotic Cannabis </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>116 DALHOUSIE ST</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>http://hypnoticfarms.com/</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>19187089959</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>['No delivery / Coming Soon']</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BEAVERTON </t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Flowertown Cannabis</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>325 SIMCOE ST UNIT 1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://flowertowncannabis.ca/beaverton/</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Techpos</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>17055040080</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GEORGINA</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Flowertown Cannabis</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>20945 DALTON RD UNIT 4</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>http://www.flowertowncannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Techpos</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>19055969510</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>WINDSOR</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Endless Heights Cannabis Shop</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>5540 WYANDOTTE ST E</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>http://www.endless-heights.ca/</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>12267734209</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>['No delivery / Permanently closed']</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>WINDSOR</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Endless Heights Cannabis Store West</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1747 UNIVERSITY AVE W</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>http://www.endless-heights.ca/</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>15199460570</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>['No delivery / Page doesn't exist']</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>BEAVERTON</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Beaverton cannabis </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>280 MARA ROAD</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>http://www.beavertoncannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Techpos</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>17052131010</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>FORT FRANCES</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Borderland Cannabis</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>401B MOWAT AVE</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>http://www.borderlandcannabis.com/</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>18072779333</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>YORK</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>BUDSSMOKE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1812 JANE ST</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>http://www.budssmoke.com/</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>14162412837</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>['No delivery / Temprorary closed']</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>COBOURG</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Your Local Cannabis</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2 KING ST E</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>http://yourlocalcannabis.com/</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>14165512550</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>['No delivery / Temprorary closed']</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>BRADFORD</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ARCADE CANNABIS </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>456 HOLLAND ST W UNIT 1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://arcadecanna.com/</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>['Kerbside pickup', 'In-store pick-up', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>14165460810</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>['No delivery / Permanently closed']</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NORTH YORK</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Red Star Cannabis Co.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>5235 STEELES AVE W UNIT 4</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://www.redstarcannabisco.com/</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>61425dbf6b7fab00d4a7be1b</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>['Kerbside pickup', 'In-store pick-up', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>14165513913</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>['No delivery']</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -508,17 +508,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ARTHUR</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The Green Cloud Cannabis</t>
+          <t>Body and Spirit Cannabis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>7999 WELLINGTON RD 109 BUILDING 1 UNIT 3</t>
+          <t>361 YONGE ST</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -528,22 +528,26 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://thegreencloudcannabis.com/</t>
+          <t>https://bodyandspiritcannabis.com/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Buddi</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5e45c5d96a6aef00702ed11f</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>15198485656</v>
+        <v>16478125989</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -508,17 +508,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>MISSISSAUGA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Body and Spirit Cannabis</t>
+          <t>Tough Bud Cannabis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>361 YONGE ST</t>
+          <t>296 LAKESHORE RD W</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -528,33 +528,33 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://bodyandspiritcannabis.com/</t>
+          <t>https://toughbud.ca/shop-missisauga/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dutchie</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5e45c5d96a6aef00702ed11f</t>
-        </is>
-      </c>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>16478125989</v>
+        <v>19052782222</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
+          <t>['Delivery serve within 30 km radius', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$40 minimum order </t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="b">

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,17 +508,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MISSISSAUGA</t>
+          <t>HAMILTON</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tough Bud Cannabis</t>
+          <t>Chronicles Cannabis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>296 LAKESHORE RD W</t>
+          <t>1575 UPPER OTTAWA ST UNIT 8</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://toughbud.ca/shop-missisauga/</t>
+          <t>https://www.chroniclescannabis.ca/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -539,25 +539,2275 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>19052782222</v>
+        <v>12892461172</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Delivery serve within 30 km radius', 'Same-day delivery']</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$40 minimum order </t>
-        </is>
-      </c>
+          <t>['No Delivery / Permanently closed']</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WOODSTOCK </t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Chronicles Cannabis Inc</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20 HURON ST. UNIT A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.chroniclescannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>12262530859</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CHATHAM</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Discounted Cannabis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>122 RICHMOND ST UNIT 2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.discountedcannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>15193542255</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>WINDSOR</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Discounted Cannabis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1115 OUELLETTE AVE SUITE 1103</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.discountedcannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>['In-store pick-up', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>15192582544</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>WINDSOR</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Discounted Cannabis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4450 WALKER RD</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.discountedcannabis.ca/ontario</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>15192500712</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>WINDSOR</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Discounted Cannabis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2783 HOWARD AVE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://www.discountedcannabis.ca/ontario</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>15199678818</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HARROWSMITH</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FOREST PLANT</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4916 ROAD 38 SUITE 4</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://www.forestplant.ca/</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>16133722272</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>BRAMPTON</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Golden Tree Cannabis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10671 CHINGUACOUSY RD UNIT B7</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://www.goldentreecannabis.com/?utm_source=gmb&amp;utm_campaign=dispenza</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>19054956454</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HAMILTON</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>The Grass Hut</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1023 KING ST W</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://www.grasshutco.com/</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>19055288955</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BRANTFORD</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>The Grass Hut Inc</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">245-265 KING GEORGE RD. UNIT 101B </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://www.grasshutco.com/#/menu</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>15197571001</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>['No Delivery / Permanently closed']</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>JACKSONS POINT</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Haze Buds Cannabis</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2100 METRO RD N UNIT 5</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://www.hazebuds.ca/</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>12892982856</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BEAMSVILLE</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hey Bud</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>5001 GREENLANE RD UNIT 4</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://www.hey-bud.ca/</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>19055633933</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BRANTFORD</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>High Supply Cannabis Co., Brantford</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>20 KING GEORGE RD UNIT 2 &amp; 3</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://www.highsupplycannabisco.ca/</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>15193040660</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HIGH Q SOLUTIONS</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1444 DUPONT ST BUILDING C UNIT 20</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://www.hiqcannabis.com/</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>4169210688</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>LONDON</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I Love Smoke 420 </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1775 ERNEST AVE UNIT 1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/05/04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://www.ilovesmoke519.com/weed-delivery-london-ontario/</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>12262711259</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CAMBRIDGE</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Modern Day Cannabis</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1515 KING ST E UNIT 112</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://www.moderndaycannabis.ca/shop-cambridge</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>15482884335</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Modern Day Cannabis</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>206 AUGUSTA AVE</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://www.moderndaycannabis.ca/shop-kensington</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>['In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>16478079072</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AJAX</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>One Plant</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>955 WESTNEY RD S, UNIT 4-II</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://www.oneplant.ca/locations/ajax</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WAIO </t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>19054274716</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ORANGEVILLE</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>PARAMOUNT CANNABIS CO.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>215-245 CENTENNIAL ROAD G-C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://www.paramountcannabis.ca/orangeville/</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>15199414500</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>GUELPH</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Paramount Cannabis</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>783 WOOLWICH ST</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://www.paramountcannabis.ca/shop-guelph</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>15198210555</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>SHELBURNE</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Paramount Cannabis Co</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>517 MAIN ST E UNIT 2</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://www.paramountcannabis.ca/shop-shelburne/</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>15199255523</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>HAMILTON</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>QUEEN GEORGE CANNABIS</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>140 CAROLINE ST S</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://www.queengeorge.ca/</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>60b69a15fa1bf000d21f5601</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>12893896889</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>HAMILTON</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Queen George Cannabis</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1104 FENNELL AVE E UNIT 8</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://www.queengeorge.ca/</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>642daeed8426f7004713f005</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>12893898989</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>SCARBOROUGH</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Rockwood Cannabis</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3148 KINGSTON RD UNIT 3</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://www.rockwoodcannabis.com/?UTM_source=GMB_listing&amp;UTM_medium=organic</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>14162669336</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>COBALT</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>The Olde Barber Cannabis Co.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>33 SILVER ST.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://www.theoldebarber.com/</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>17056223107</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>NEPEAN</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Royal Cannabis Haus</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>22 NORTHSIDE RD</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://www.therch.ca/</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>['In-store pick-up', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>16138282929</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>BANCROFT</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>The Underground Ontario</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1 FAIRWAY BLVD UNIT 6 RR 2</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://www.theunderground.store/</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>13434760363</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ETOBICOKE</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>The Underground HC</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>3264 LAKE SHORE BLVD W</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://www.theunderground.store/</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>14165219993</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>SCARBOROUGH</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>TOTALLY BAKED CANNABIS</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2582 BIRCHMOUNT RD</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://www.totallybakedcannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>14162910420</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>LONDON</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Your Highness Cannabis</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>744 RICHMOND ST</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://yourhighnesscannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>15196013420</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>SCARBOROUGH</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Your Local Cannabis</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>5981 STEELES AVE E SUITE E104</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://yourlocalcannabis.com/</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>14162912553</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AMHERSTBURG</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Discounted Cannabis</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">421 SANDWICH ST S UNIT 5 </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://www.discountedcannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>15197364343</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>KITCHENER</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Zen Cannabis</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>280 VICTORIA ST N UNIT 4</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://www.zencann.ca/</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>6102ddead99fab00d6d64fce</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>15197429366</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>BOBCAYGEON</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Rokeby Cannabis</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>48 MAIN STREET BOX 909</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://rokebycannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>7057381818</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>BRANTFORD</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>6420</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>64 ERIE AVE</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://the6420.ca/</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>15483380035</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>COBOCONK</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>EIGHTH CANNABIS</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>6694 HWY 35 NORTH UNIT 3</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://8th.ca/shop-coboconk/?store_id=5697#/menu</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>7054545888</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>TECUMSEH</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Discounted Cannabis</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>13139 TECUMSEH RD E</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://www.discountedcannabis.ca/windsor-tecumseh#/menu</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>5199793939</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Canna Cabana</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>8 WELLESLEY ST E SUITE 103</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://cannacabana.com/pages/toronto-stores</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Custom</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>16473419333</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Cannabis Camel</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>62-66 OVERLEA BLVD UNIT 11</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://carmelcannabis.ca/</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Techpos</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>14378808449</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Spiritleaf 1698 Queen St W</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1698 QUEEN ST W</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://spiritleaf.ca/collections/spiritleaf-parkdale-queen-street-west?birthMonth=01&amp;birthDay=01&amp;birthYear=1994</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>5f16f5b08f3ff100af816eeb</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping']</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>14165388225</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>The Burning Bush</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>605 BLOOR ST W, SECOND LEVEL WEST</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://theburningbush.ca/shop/</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>14165346888</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>TORONTO</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Tokyo Smoke The Well</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>486 FRONT ST W UNIT SF12</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Public Notice Period: Ended 2023/12/12</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>['url not found']</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Page doesn't exist</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['doesn't exist']</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>WINDSOR</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Discounted Cannabis</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>3218 SANDWICH ST</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://www.discountedcannabis.ca/windsor-3218-sandwich#/menu</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Buddi</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>15192531811</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>YORK</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Stoney High Cannabis Corp.</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>333 SILVERTHORN AVE</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Authorized to Open</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://weedmaps.com/dispensaries/stoney-high-cannabis-corp</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Weedmaps</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>['In-store pickup', 'In-store shopping', 'No delivery']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>(416) 410-0420</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>['No Delivery']</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="b">
         <v>1</v>
       </c>
     </row>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -508,17 +508,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OSHAWA</t>
+          <t>WHITCHURCH-STOUFFVILLE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Spot420 The Cannabis Store</t>
+          <t>Gormley Cannabis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>682 HORTOP ST</t>
+          <t>12275 WOODBINE AVE.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.spot420.ca/</t>
+          <t>https://gormleycannabis.ca/?utm_source=google-gmb&amp;utm_medium=organic&amp;utm_campaign=ontario</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -543,11 +543,11 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>19057287768</v>
+        <v>19058877555</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -508,17 +508,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WHITCHURCH-STOUFFVILLE</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gormley Cannabis</t>
+          <t>Miss Jones</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12275 WOODBINE AVE.</t>
+          <t>480 HESPELER RD UNIT 9/10A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://gormleycannabis.ca/?utm_source=google-gmb&amp;utm_medium=organic&amp;utm_campaign=ontario</t>
+          <t>http://www.missjonescannabis.com/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -539,15 +539,15 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>19058877555</v>
+        <v>12265359763</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -508,17 +508,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CAMBRIDGE</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Miss Jones</t>
+          <t>CROWN LEAF</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>480 HESPELER RD UNIT 9/10A</t>
+          <t>1 STEELES AVE E UNIT 14</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>http://www.missjonescannabis.com/</t>
+          <t>https://thecrownleaf.ca/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -539,15 +539,15 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>12265359763</v>
+        <v>19054979585</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -508,17 +508,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BRAMPTON</t>
+          <t>CORNWALL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CROWN LEAF</t>
+          <t>The Oz Store</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1 STEELES AVE E UNIT 14</t>
+          <t>135 MONTREAL RD</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://thecrownleaf.ca/</t>
+          <t>https://ozstore.ca/centretown/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -539,15 +539,15 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>19054979585</v>
+        <v>16134222211</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['Delivery']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -508,17 +508,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CORNWALL</t>
+          <t>TORONTO</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The Oz Store</t>
+          <t>BLUNT AND CHERRY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>135 MONTREAL RD</t>
+          <t>64 SPADINA AVE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://ozstore.ca/centretown/</t>
+          <t>https://www.thewoodscannabis.ca/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -539,15 +539,15 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping']</t>
+          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>16134222211</v>
+        <v>14169779343</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Delivery']</t>
+          <t>['Delivery', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -508,17 +508,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TORONTO</t>
+          <t>KESWICK</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BLUNT AND CHERRY</t>
+          <t>The House of Cannabis - Keswick</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>64 SPADINA AVE</t>
+          <t>1 CHURCH ST SUITE 9</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -528,22 +528,26 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.thewoodscannabis.ca/</t>
+          <t>http://thehousecannabis.ca/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Buddi</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>Dutchie</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2261116815efa0af00a9068d41</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>14169779343</v>
+        <v>12898039462</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -553,9 +557,7 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="b">
-        <v>1</v>
-      </c>
+      <c r="N2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
+++ b/platform_scrapper/data/fake_cannabis_used_IDs.xlsx
@@ -508,17 +508,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>KESWICK</t>
+          <t>BRAMPTON</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The House of Cannabis - Keswick</t>
+          <t>Bodega Boyz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1 CHURCH ST SUITE 9</t>
+          <t>69 BRAMALEA RD SUITE 3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>http://thehousecannabis.ca/</t>
+          <t>http://www.bodegaboyz.ca/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -538,26 +538,28 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2261116815efa0af00a9068d41</t>
+          <t>61d38e4ca8388a008cb50d87</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Curbside pickup', 'Delivery', 'In-store pickup', 'In-store shopping', 'Same-day delivery']</t>
+          <t>['In-store shopping']</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>12898039462</v>
+        <v>19054580439</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Delivery', 'Same-day delivery']</t>
+          <t>['No Delivery']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
